--- a/BackTest/2020-01-24 BackTest FX.xlsx
+++ b/BackTest/2020-01-24 BackTest FX.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M141"/>
+  <dimension ref="A1:M142"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -433,22 +433,22 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>65.5</v>
+        <v>65.01000000000001</v>
       </c>
       <c r="C2" t="n">
-        <v>65.5</v>
+        <v>66</v>
       </c>
       <c r="D2" t="n">
-        <v>65.5</v>
+        <v>66</v>
       </c>
       <c r="E2" t="n">
-        <v>65.5</v>
+        <v>65.01000000000001</v>
       </c>
       <c r="F2" t="n">
-        <v>100</v>
+        <v>19</v>
       </c>
       <c r="G2" t="n">
-        <v>66.88183333333339</v>
+        <v>66.9068333333334</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>65.98999999999999</v>
+        <v>65.5</v>
       </c>
       <c r="C3" t="n">
-        <v>65.98999999999999</v>
+        <v>65.5</v>
       </c>
       <c r="D3" t="n">
-        <v>65.98999999999999</v>
+        <v>65.5</v>
       </c>
       <c r="E3" t="n">
-        <v>65.98999999999999</v>
+        <v>65.5</v>
       </c>
       <c r="F3" t="n">
-        <v>18</v>
+        <v>100</v>
       </c>
       <c r="G3" t="n">
-        <v>66.86500000000005</v>
+        <v>66.88183333333339</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -503,22 +503,22 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>66.48999999999999</v>
+        <v>65.98999999999999</v>
       </c>
       <c r="C4" t="n">
-        <v>66.48999999999999</v>
+        <v>65.98999999999999</v>
       </c>
       <c r="D4" t="n">
-        <v>66.48999999999999</v>
+        <v>65.98999999999999</v>
       </c>
       <c r="E4" t="n">
-        <v>66.48999999999999</v>
+        <v>65.98999999999999</v>
       </c>
       <c r="F4" t="n">
         <v>18</v>
       </c>
       <c r="G4" t="n">
-        <v>66.85650000000005</v>
+        <v>66.86500000000005</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -538,22 +538,22 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>66.2</v>
+        <v>66.48999999999999</v>
       </c>
       <c r="C5" t="n">
-        <v>66.2</v>
+        <v>66.48999999999999</v>
       </c>
       <c r="D5" t="n">
-        <v>66.2</v>
+        <v>66.48999999999999</v>
       </c>
       <c r="E5" t="n">
-        <v>66.2</v>
+        <v>66.48999999999999</v>
       </c>
       <c r="F5" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="G5" t="n">
-        <v>66.82683333333338</v>
+        <v>66.85650000000005</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -573,22 +573,22 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>66.5</v>
+        <v>66.2</v>
       </c>
       <c r="C6" t="n">
-        <v>66.5</v>
+        <v>66.2</v>
       </c>
       <c r="D6" t="n">
-        <v>66.5</v>
+        <v>66.2</v>
       </c>
       <c r="E6" t="n">
-        <v>66.5</v>
+        <v>66.2</v>
       </c>
       <c r="F6" t="n">
-        <v>360.4968</v>
+        <v>20</v>
       </c>
       <c r="G6" t="n">
-        <v>66.81850000000004</v>
+        <v>66.82683333333338</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -608,22 +608,22 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>66.3</v>
+        <v>66.5</v>
       </c>
       <c r="C7" t="n">
-        <v>66</v>
+        <v>66.5</v>
       </c>
       <c r="D7" t="n">
-        <v>66.3</v>
+        <v>66.5</v>
       </c>
       <c r="E7" t="n">
-        <v>66</v>
+        <v>66.5</v>
       </c>
       <c r="F7" t="n">
-        <v>140</v>
+        <v>360.4968</v>
       </c>
       <c r="G7" t="n">
-        <v>66.78550000000004</v>
+        <v>66.81850000000004</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -643,22 +643,22 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>65.3</v>
+        <v>66.3</v>
       </c>
       <c r="C8" t="n">
-        <v>65.3</v>
+        <v>66</v>
       </c>
       <c r="D8" t="n">
-        <v>65.3</v>
+        <v>66.3</v>
       </c>
       <c r="E8" t="n">
-        <v>65.3</v>
+        <v>66</v>
       </c>
       <c r="F8" t="n">
-        <v>1277.1684</v>
+        <v>140</v>
       </c>
       <c r="G8" t="n">
-        <v>66.74066666666673</v>
+        <v>66.78550000000004</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -678,22 +678,22 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>66.5</v>
+        <v>65.3</v>
       </c>
       <c r="C9" t="n">
-        <v>66.5</v>
+        <v>65.3</v>
       </c>
       <c r="D9" t="n">
-        <v>66.5</v>
+        <v>65.3</v>
       </c>
       <c r="E9" t="n">
-        <v>66.5</v>
+        <v>65.3</v>
       </c>
       <c r="F9" t="n">
-        <v>8</v>
+        <v>1277.1684</v>
       </c>
       <c r="G9" t="n">
-        <v>66.72383333333339</v>
+        <v>66.74066666666673</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -713,22 +713,22 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>66.45</v>
+        <v>66.5</v>
       </c>
       <c r="C10" t="n">
-        <v>65.01000000000001</v>
+        <v>66.5</v>
       </c>
       <c r="D10" t="n">
-        <v>66.45</v>
+        <v>66.5</v>
       </c>
       <c r="E10" t="n">
-        <v>65.01000000000001</v>
+        <v>66.5</v>
       </c>
       <c r="F10" t="n">
-        <v>5851</v>
+        <v>8</v>
       </c>
       <c r="G10" t="n">
-        <v>66.67416666666672</v>
+        <v>66.72383333333339</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -748,22 +748,22 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>66.98999999999999</v>
+        <v>66.45</v>
       </c>
       <c r="C11" t="n">
-        <v>66.98999999999999</v>
+        <v>65.01000000000001</v>
       </c>
       <c r="D11" t="n">
-        <v>66.98999999999999</v>
+        <v>66.45</v>
       </c>
       <c r="E11" t="n">
-        <v>66.98999999999999</v>
+        <v>65.01000000000001</v>
       </c>
       <c r="F11" t="n">
-        <v>8</v>
+        <v>5851</v>
       </c>
       <c r="G11" t="n">
-        <v>66.65750000000006</v>
+        <v>66.67416666666672</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -783,22 +783,22 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>66.7</v>
+        <v>66.98999999999999</v>
       </c>
       <c r="C12" t="n">
-        <v>67</v>
+        <v>66.98999999999999</v>
       </c>
       <c r="D12" t="n">
-        <v>67</v>
+        <v>66.98999999999999</v>
       </c>
       <c r="E12" t="n">
-        <v>66.7</v>
+        <v>66.98999999999999</v>
       </c>
       <c r="F12" t="n">
-        <v>499.4876145522388</v>
+        <v>8</v>
       </c>
       <c r="G12" t="n">
-        <v>66.64116666666672</v>
+        <v>66.65750000000006</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -818,22 +818,22 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>65.2</v>
+        <v>66.7</v>
       </c>
       <c r="C13" t="n">
-        <v>65.2</v>
+        <v>67</v>
       </c>
       <c r="D13" t="n">
-        <v>65.2</v>
+        <v>67</v>
       </c>
       <c r="E13" t="n">
-        <v>65.2</v>
+        <v>66.7</v>
       </c>
       <c r="F13" t="n">
-        <v>306.5513</v>
+        <v>499.4876145522388</v>
       </c>
       <c r="G13" t="n">
-        <v>66.62783333333338</v>
+        <v>66.64116666666672</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -865,10 +865,10 @@
         <v>65.2</v>
       </c>
       <c r="F14" t="n">
-        <v>7951.0687</v>
+        <v>306.5513</v>
       </c>
       <c r="G14" t="n">
-        <v>66.58316666666671</v>
+        <v>66.62783333333338</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -888,22 +888,22 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>66.73</v>
+        <v>65.2</v>
       </c>
       <c r="C15" t="n">
-        <v>66.73</v>
+        <v>65.2</v>
       </c>
       <c r="D15" t="n">
-        <v>66.73</v>
+        <v>65.2</v>
       </c>
       <c r="E15" t="n">
-        <v>66.73</v>
+        <v>65.2</v>
       </c>
       <c r="F15" t="n">
-        <v>8</v>
+        <v>7951.0687</v>
       </c>
       <c r="G15" t="n">
-        <v>66.56400000000005</v>
+        <v>66.58316666666671</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -923,22 +923,22 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>65.2</v>
+        <v>66.73</v>
       </c>
       <c r="C16" t="n">
-        <v>65.2</v>
+        <v>66.73</v>
       </c>
       <c r="D16" t="n">
-        <v>65.2</v>
+        <v>66.73</v>
       </c>
       <c r="E16" t="n">
-        <v>65.2</v>
+        <v>66.73</v>
       </c>
       <c r="F16" t="n">
-        <v>2300</v>
+        <v>8</v>
       </c>
       <c r="G16" t="n">
-        <v>66.53383333333338</v>
+        <v>66.56400000000005</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -958,22 +958,22 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>66.2</v>
+        <v>65.2</v>
       </c>
       <c r="C17" t="n">
-        <v>66.2</v>
+        <v>65.2</v>
       </c>
       <c r="D17" t="n">
-        <v>66.2</v>
+        <v>65.2</v>
       </c>
       <c r="E17" t="n">
-        <v>66.2</v>
+        <v>65.2</v>
       </c>
       <c r="F17" t="n">
-        <v>8</v>
+        <v>2300</v>
       </c>
       <c r="G17" t="n">
-        <v>66.51933333333336</v>
+        <v>66.53383333333338</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -993,22 +993,22 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>66.53</v>
+        <v>66.2</v>
       </c>
       <c r="C18" t="n">
-        <v>66.54000000000001</v>
+        <v>66.2</v>
       </c>
       <c r="D18" t="n">
-        <v>66.54000000000001</v>
+        <v>66.2</v>
       </c>
       <c r="E18" t="n">
-        <v>66.53</v>
+        <v>66.2</v>
       </c>
       <c r="F18" t="n">
-        <v>20344</v>
+        <v>8</v>
       </c>
       <c r="G18" t="n">
-        <v>66.49700000000003</v>
+        <v>66.51933333333336</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1028,7 +1028,7 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>66.54000000000001</v>
+        <v>66.53</v>
       </c>
       <c r="C19" t="n">
         <v>66.54000000000001</v>
@@ -1037,13 +1037,13 @@
         <v>66.54000000000001</v>
       </c>
       <c r="E19" t="n">
-        <v>66.54000000000001</v>
+        <v>66.53</v>
       </c>
       <c r="F19" t="n">
-        <v>10100</v>
+        <v>20344</v>
       </c>
       <c r="G19" t="n">
-        <v>66.48100000000004</v>
+        <v>66.49700000000003</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -1063,22 +1063,22 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>66.59999999999999</v>
+        <v>66.54000000000001</v>
       </c>
       <c r="C20" t="n">
         <v>66.54000000000001</v>
       </c>
       <c r="D20" t="n">
-        <v>66.59999999999999</v>
+        <v>66.54000000000001</v>
       </c>
       <c r="E20" t="n">
         <v>66.54000000000001</v>
       </c>
       <c r="F20" t="n">
-        <v>4445.1312</v>
+        <v>10100</v>
       </c>
       <c r="G20" t="n">
-        <v>66.4651666666667</v>
+        <v>66.48100000000004</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -1098,22 +1098,22 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>66.54000000000001</v>
+        <v>66.59999999999999</v>
       </c>
       <c r="C21" t="n">
         <v>66.54000000000001</v>
       </c>
       <c r="D21" t="n">
-        <v>66.54000000000001</v>
+        <v>66.59999999999999</v>
       </c>
       <c r="E21" t="n">
         <v>66.54000000000001</v>
       </c>
       <c r="F21" t="n">
-        <v>10000.5788</v>
+        <v>4445.1312</v>
       </c>
       <c r="G21" t="n">
-        <v>66.45250000000003</v>
+        <v>66.4651666666667</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -1133,22 +1133,22 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>66.56</v>
+        <v>66.54000000000001</v>
       </c>
       <c r="C22" t="n">
-        <v>66.56</v>
+        <v>66.54000000000001</v>
       </c>
       <c r="D22" t="n">
-        <v>66.56</v>
+        <v>66.54000000000001</v>
       </c>
       <c r="E22" t="n">
-        <v>66.56</v>
+        <v>66.54000000000001</v>
       </c>
       <c r="F22" t="n">
-        <v>11539.7811</v>
+        <v>10000.5788</v>
       </c>
       <c r="G22" t="n">
-        <v>66.44350000000003</v>
+        <v>66.45250000000003</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -1180,10 +1180,10 @@
         <v>66.56</v>
       </c>
       <c r="F23" t="n">
-        <v>1620.3589</v>
+        <v>11539.7811</v>
       </c>
       <c r="G23" t="n">
-        <v>66.42783333333337</v>
+        <v>66.44350000000003</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -1203,22 +1203,22 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>66.8</v>
+        <v>66.56</v>
       </c>
       <c r="C24" t="n">
-        <v>66.90000000000001</v>
+        <v>66.56</v>
       </c>
       <c r="D24" t="n">
-        <v>66.90000000000001</v>
+        <v>66.56</v>
       </c>
       <c r="E24" t="n">
-        <v>66.8</v>
+        <v>66.56</v>
       </c>
       <c r="F24" t="n">
-        <v>9500.947099999999</v>
+        <v>1620.3589</v>
       </c>
       <c r="G24" t="n">
-        <v>66.41950000000003</v>
+        <v>66.42783333333337</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -1238,22 +1238,22 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>67</v>
+        <v>66.8</v>
       </c>
       <c r="C25" t="n">
-        <v>67</v>
+        <v>66.90000000000001</v>
       </c>
       <c r="D25" t="n">
-        <v>67</v>
+        <v>66.90000000000001</v>
       </c>
       <c r="E25" t="n">
-        <v>67</v>
+        <v>66.8</v>
       </c>
       <c r="F25" t="n">
-        <v>5077.423885447761</v>
+        <v>9500.947099999999</v>
       </c>
       <c r="G25" t="n">
-        <v>66.4111666666667</v>
+        <v>66.41950000000003</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -1273,22 +1273,22 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>67.5</v>
+        <v>67</v>
       </c>
       <c r="C26" t="n">
-        <v>67.98</v>
+        <v>67</v>
       </c>
       <c r="D26" t="n">
-        <v>67.98</v>
+        <v>67</v>
       </c>
       <c r="E26" t="n">
-        <v>67.5</v>
+        <v>67</v>
       </c>
       <c r="F26" t="n">
-        <v>1836.1611</v>
+        <v>5077.423885447761</v>
       </c>
       <c r="G26" t="n">
-        <v>66.42083333333336</v>
+        <v>66.4111666666667</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -1308,22 +1308,22 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>66.69</v>
+        <v>67.5</v>
       </c>
       <c r="C27" t="n">
-        <v>68.3</v>
+        <v>67.98</v>
       </c>
       <c r="D27" t="n">
-        <v>68.3</v>
+        <v>67.98</v>
       </c>
       <c r="E27" t="n">
-        <v>66.69</v>
+        <v>67.5</v>
       </c>
       <c r="F27" t="n">
-        <v>54443.3814</v>
+        <v>1836.1611</v>
       </c>
       <c r="G27" t="n">
-        <v>66.43583333333336</v>
+        <v>66.42083333333336</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -1343,22 +1343,22 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>68.42</v>
+        <v>66.69</v>
       </c>
       <c r="C28" t="n">
-        <v>68.42</v>
+        <v>68.3</v>
       </c>
       <c r="D28" t="n">
-        <v>68.42</v>
+        <v>68.3</v>
       </c>
       <c r="E28" t="n">
-        <v>68.42</v>
+        <v>66.69</v>
       </c>
       <c r="F28" t="n">
-        <v>976.2195</v>
+        <v>54443.3814</v>
       </c>
       <c r="G28" t="n">
-        <v>66.45133333333337</v>
+        <v>66.43583333333336</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -1390,10 +1390,10 @@
         <v>68.42</v>
       </c>
       <c r="F29" t="n">
-        <v>1240</v>
+        <v>976.2195</v>
       </c>
       <c r="G29" t="n">
-        <v>66.46700000000004</v>
+        <v>66.45133333333337</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -1425,10 +1425,10 @@
         <v>68.42</v>
       </c>
       <c r="F30" t="n">
-        <v>7000</v>
+        <v>1240</v>
       </c>
       <c r="G30" t="n">
-        <v>66.48400000000004</v>
+        <v>66.46700000000004</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -1460,16 +1460,16 @@
         <v>68.42</v>
       </c>
       <c r="F31" t="n">
-        <v>505</v>
+        <v>7000</v>
       </c>
       <c r="G31" t="n">
-        <v>66.49950000000004</v>
+        <v>66.48400000000004</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J31" t="inlineStr"/>
       <c r="K31" t="inlineStr"/>
@@ -1495,10 +1495,10 @@
         <v>68.42</v>
       </c>
       <c r="F32" t="n">
-        <v>2000</v>
+        <v>505</v>
       </c>
       <c r="G32" t="n">
-        <v>66.52316666666671</v>
+        <v>66.49950000000004</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -1530,10 +1530,10 @@
         <v>68.42</v>
       </c>
       <c r="F33" t="n">
-        <v>479.787</v>
+        <v>2000</v>
       </c>
       <c r="G33" t="n">
-        <v>66.53900000000004</v>
+        <v>66.52316666666671</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -1562,19 +1562,19 @@
         <v>68.42</v>
       </c>
       <c r="E34" t="n">
-        <v>67.62</v>
+        <v>68.42</v>
       </c>
       <c r="F34" t="n">
-        <v>1732</v>
+        <v>479.787</v>
       </c>
       <c r="G34" t="n">
-        <v>66.56833333333338</v>
+        <v>66.53900000000004</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J34" t="inlineStr"/>
       <c r="K34" t="inlineStr"/>
@@ -1588,22 +1588,22 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>67.62</v>
+        <v>68.42</v>
       </c>
       <c r="C35" t="n">
-        <v>67.62</v>
+        <v>68.42</v>
       </c>
       <c r="D35" t="n">
-        <v>67.62</v>
+        <v>68.42</v>
       </c>
       <c r="E35" t="n">
         <v>67.62</v>
       </c>
       <c r="F35" t="n">
-        <v>0.0454</v>
+        <v>1732</v>
       </c>
       <c r="G35" t="n">
-        <v>66.58683333333337</v>
+        <v>66.56833333333338</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -1623,22 +1623,22 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>66</v>
+        <v>67.62</v>
       </c>
       <c r="C36" t="n">
-        <v>66</v>
+        <v>67.62</v>
       </c>
       <c r="D36" t="n">
-        <v>66</v>
+        <v>67.62</v>
       </c>
       <c r="E36" t="n">
-        <v>66</v>
+        <v>67.62</v>
       </c>
       <c r="F36" t="n">
-        <v>803.2178</v>
+        <v>0.0454</v>
       </c>
       <c r="G36" t="n">
-        <v>66.57833333333338</v>
+        <v>66.58683333333337</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -1658,22 +1658,22 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>65.91</v>
+        <v>66</v>
       </c>
       <c r="C37" t="n">
-        <v>65.91</v>
+        <v>66</v>
       </c>
       <c r="D37" t="n">
-        <v>65.91</v>
+        <v>66</v>
       </c>
       <c r="E37" t="n">
-        <v>65.91</v>
+        <v>66</v>
       </c>
       <c r="F37" t="n">
-        <v>866.239</v>
+        <v>803.2178</v>
       </c>
       <c r="G37" t="n">
-        <v>66.56850000000004</v>
+        <v>66.57833333333338</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -1693,22 +1693,22 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>65.8</v>
+        <v>65.91</v>
       </c>
       <c r="C38" t="n">
-        <v>65.8</v>
+        <v>65.91</v>
       </c>
       <c r="D38" t="n">
-        <v>65.8</v>
+        <v>65.91</v>
       </c>
       <c r="E38" t="n">
-        <v>65.8</v>
+        <v>65.91</v>
       </c>
       <c r="F38" t="n">
-        <v>7699.9546</v>
+        <v>866.239</v>
       </c>
       <c r="G38" t="n">
-        <v>66.56833333333337</v>
+        <v>66.56850000000004</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -1728,22 +1728,22 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>67.61</v>
+        <v>65.8</v>
       </c>
       <c r="C39" t="n">
-        <v>67.61</v>
+        <v>65.8</v>
       </c>
       <c r="D39" t="n">
-        <v>67.61</v>
+        <v>65.8</v>
       </c>
       <c r="E39" t="n">
-        <v>67.61</v>
+        <v>65.8</v>
       </c>
       <c r="F39" t="n">
-        <v>40.2773</v>
+        <v>7699.9546</v>
       </c>
       <c r="G39" t="n">
-        <v>66.58683333333337</v>
+        <v>66.56833333333337</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -1775,10 +1775,10 @@
         <v>67.61</v>
       </c>
       <c r="F40" t="n">
-        <v>2718.467</v>
+        <v>40.2773</v>
       </c>
       <c r="G40" t="n">
-        <v>66.60533333333338</v>
+        <v>66.58683333333337</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -1798,22 +1798,22 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>67.7</v>
+        <v>67.61</v>
       </c>
       <c r="C41" t="n">
-        <v>68.3</v>
+        <v>67.61</v>
       </c>
       <c r="D41" t="n">
-        <v>68.3</v>
+        <v>67.61</v>
       </c>
       <c r="E41" t="n">
-        <v>67.62</v>
+        <v>67.61</v>
       </c>
       <c r="F41" t="n">
-        <v>13838.0995</v>
+        <v>2718.467</v>
       </c>
       <c r="G41" t="n">
-        <v>66.62050000000005</v>
+        <v>66.60533333333338</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -1833,22 +1833,22 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
+        <v>67.7</v>
+      </c>
+      <c r="C42" t="n">
+        <v>68.3</v>
+      </c>
+      <c r="D42" t="n">
+        <v>68.3</v>
+      </c>
+      <c r="E42" t="n">
         <v>67.62</v>
       </c>
-      <c r="C42" t="n">
-        <v>67.61</v>
-      </c>
-      <c r="D42" t="n">
-        <v>67.62</v>
-      </c>
-      <c r="E42" t="n">
-        <v>67.61</v>
-      </c>
       <c r="F42" t="n">
-        <v>34502.2672</v>
+        <v>13838.0995</v>
       </c>
       <c r="G42" t="n">
-        <v>66.62416666666672</v>
+        <v>66.62050000000005</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -1868,22 +1868,22 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>68.2</v>
+        <v>67.62</v>
       </c>
       <c r="C43" t="n">
-        <v>68.2</v>
+        <v>67.61</v>
       </c>
       <c r="D43" t="n">
-        <v>68.2</v>
+        <v>67.62</v>
       </c>
       <c r="E43" t="n">
-        <v>68.2</v>
+        <v>67.61</v>
       </c>
       <c r="F43" t="n">
-        <v>8</v>
+        <v>34502.2672</v>
       </c>
       <c r="G43" t="n">
-        <v>66.65116666666673</v>
+        <v>66.62416666666672</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -1903,22 +1903,22 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>67.5</v>
+        <v>68.2</v>
       </c>
       <c r="C44" t="n">
-        <v>67.5</v>
+        <v>68.2</v>
       </c>
       <c r="D44" t="n">
-        <v>67.5</v>
+        <v>68.2</v>
       </c>
       <c r="E44" t="n">
-        <v>67.5</v>
+        <v>68.2</v>
       </c>
       <c r="F44" t="n">
-        <v>243.5025</v>
+        <v>8</v>
       </c>
       <c r="G44" t="n">
-        <v>66.67450000000005</v>
+        <v>66.65116666666673</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -1941,19 +1941,19 @@
         <v>67.5</v>
       </c>
       <c r="C45" t="n">
-        <v>67.48</v>
+        <v>67.5</v>
       </c>
       <c r="D45" t="n">
         <v>67.5</v>
       </c>
       <c r="E45" t="n">
-        <v>67.48</v>
+        <v>67.5</v>
       </c>
       <c r="F45" t="n">
-        <v>1683.3268</v>
+        <v>243.5025</v>
       </c>
       <c r="G45" t="n">
-        <v>66.69750000000006</v>
+        <v>66.67450000000005</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -1973,22 +1973,22 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>68.2</v>
+        <v>67.5</v>
       </c>
       <c r="C46" t="n">
-        <v>68.2</v>
+        <v>67.48</v>
       </c>
       <c r="D46" t="n">
-        <v>68.2</v>
+        <v>67.5</v>
       </c>
       <c r="E46" t="n">
-        <v>68.2</v>
+        <v>67.48</v>
       </c>
       <c r="F46" t="n">
-        <v>8</v>
+        <v>1683.3268</v>
       </c>
       <c r="G46" t="n">
-        <v>66.71250000000005</v>
+        <v>66.69750000000006</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -2008,22 +2008,22 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>66.09999999999999</v>
+        <v>68.2</v>
       </c>
       <c r="C47" t="n">
-        <v>66.09999999999999</v>
+        <v>68.2</v>
       </c>
       <c r="D47" t="n">
-        <v>66.09999999999999</v>
+        <v>68.2</v>
       </c>
       <c r="E47" t="n">
-        <v>66.09999999999999</v>
+        <v>68.2</v>
       </c>
       <c r="F47" t="n">
-        <v>48.402</v>
+        <v>8</v>
       </c>
       <c r="G47" t="n">
-        <v>66.71233333333338</v>
+        <v>66.71250000000005</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -2043,22 +2043,22 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>68.14</v>
+        <v>66.09999999999999</v>
       </c>
       <c r="C48" t="n">
-        <v>68.14</v>
+        <v>66.09999999999999</v>
       </c>
       <c r="D48" t="n">
-        <v>68.14</v>
+        <v>66.09999999999999</v>
       </c>
       <c r="E48" t="n">
-        <v>68.14</v>
+        <v>66.09999999999999</v>
       </c>
       <c r="F48" t="n">
-        <v>8</v>
+        <v>48.402</v>
       </c>
       <c r="G48" t="n">
-        <v>66.72950000000004</v>
+        <v>66.71233333333338</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -2078,22 +2078,22 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>66.2</v>
+        <v>68.14</v>
       </c>
       <c r="C49" t="n">
-        <v>66.2</v>
+        <v>68.14</v>
       </c>
       <c r="D49" t="n">
-        <v>66.2</v>
+        <v>68.14</v>
       </c>
       <c r="E49" t="n">
-        <v>66.2</v>
+        <v>68.14</v>
       </c>
       <c r="F49" t="n">
-        <v>62.4187</v>
+        <v>8</v>
       </c>
       <c r="G49" t="n">
-        <v>66.73100000000004</v>
+        <v>66.72950000000004</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -2125,10 +2125,10 @@
         <v>66.2</v>
       </c>
       <c r="F50" t="n">
-        <v>215</v>
+        <v>62.4187</v>
       </c>
       <c r="G50" t="n">
-        <v>66.73250000000003</v>
+        <v>66.73100000000004</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -2148,22 +2148,22 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>66.09999999999999</v>
+        <v>66.2</v>
       </c>
       <c r="C51" t="n">
-        <v>66.09999999999999</v>
+        <v>66.2</v>
       </c>
       <c r="D51" t="n">
-        <v>66.09999999999999</v>
+        <v>66.2</v>
       </c>
       <c r="E51" t="n">
-        <v>66.09999999999999</v>
+        <v>66.2</v>
       </c>
       <c r="F51" t="n">
-        <v>1127</v>
+        <v>215</v>
       </c>
       <c r="G51" t="n">
-        <v>66.71983333333337</v>
+        <v>66.73250000000003</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -2186,19 +2186,19 @@
         <v>66.09999999999999</v>
       </c>
       <c r="C52" t="n">
-        <v>65.84</v>
+        <v>66.09999999999999</v>
       </c>
       <c r="D52" t="n">
         <v>66.09999999999999</v>
       </c>
       <c r="E52" t="n">
-        <v>65.84</v>
+        <v>66.09999999999999</v>
       </c>
       <c r="F52" t="n">
-        <v>8819.540000000001</v>
+        <v>1127</v>
       </c>
       <c r="G52" t="n">
-        <v>66.70883333333337</v>
+        <v>66.71983333333337</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -2218,22 +2218,22 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>65.84</v>
+        <v>66.09999999999999</v>
       </c>
       <c r="C53" t="n">
         <v>65.84</v>
       </c>
       <c r="D53" t="n">
-        <v>65.84</v>
+        <v>66.09999999999999</v>
       </c>
       <c r="E53" t="n">
         <v>65.84</v>
       </c>
       <c r="F53" t="n">
-        <v>900</v>
+        <v>8819.540000000001</v>
       </c>
       <c r="G53" t="n">
-        <v>66.70116666666669</v>
+        <v>66.70883333333337</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -2253,22 +2253,22 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>66.2</v>
+        <v>65.84</v>
       </c>
       <c r="C54" t="n">
-        <v>66.2</v>
+        <v>65.84</v>
       </c>
       <c r="D54" t="n">
-        <v>66.2</v>
+        <v>65.84</v>
       </c>
       <c r="E54" t="n">
-        <v>66.2</v>
+        <v>65.84</v>
       </c>
       <c r="F54" t="n">
-        <v>8</v>
+        <v>900</v>
       </c>
       <c r="G54" t="n">
-        <v>66.70950000000003</v>
+        <v>66.70116666666669</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -2288,31 +2288,35 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>65.84</v>
+        <v>66.2</v>
       </c>
       <c r="C55" t="n">
-        <v>65.84</v>
+        <v>66.2</v>
       </c>
       <c r="D55" t="n">
-        <v>65.84</v>
+        <v>66.2</v>
       </c>
       <c r="E55" t="n">
-        <v>65.84</v>
+        <v>66.2</v>
       </c>
       <c r="F55" t="n">
-        <v>990</v>
+        <v>8</v>
       </c>
       <c r="G55" t="n">
-        <v>66.72516666666669</v>
+        <v>66.70950000000003</v>
       </c>
       <c r="H55" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I55" t="n">
         <v>0</v>
       </c>
-      <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr"/>
+      <c r="J55" t="n">
+        <v>65.84</v>
+      </c>
+      <c r="K55" t="n">
+        <v>65.84</v>
+      </c>
       <c r="L55" t="inlineStr"/>
       <c r="M55" t="n">
         <v>1</v>
@@ -2326,19 +2330,19 @@
         <v>65.84</v>
       </c>
       <c r="C56" t="n">
-        <v>65.83</v>
+        <v>65.84</v>
       </c>
       <c r="D56" t="n">
         <v>65.84</v>
       </c>
       <c r="E56" t="n">
-        <v>65.83</v>
+        <v>65.84</v>
       </c>
       <c r="F56" t="n">
-        <v>710.5161000000001</v>
+        <v>990</v>
       </c>
       <c r="G56" t="n">
-        <v>66.7291666666667</v>
+        <v>66.72516666666669</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -2347,8 +2351,14 @@
         <v>0</v>
       </c>
       <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr"/>
-      <c r="L56" t="inlineStr"/>
+      <c r="K56" t="n">
+        <v>65.84</v>
+      </c>
+      <c r="L56" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M56" t="n">
         <v>1</v>
       </c>
@@ -2358,22 +2368,22 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>65.83</v>
+        <v>65.84</v>
       </c>
       <c r="C57" t="n">
         <v>65.83</v>
       </c>
       <c r="D57" t="n">
-        <v>65.83</v>
+        <v>65.84</v>
       </c>
       <c r="E57" t="n">
         <v>65.83</v>
       </c>
       <c r="F57" t="n">
-        <v>1399.4839</v>
+        <v>710.5161000000001</v>
       </c>
       <c r="G57" t="n">
-        <v>66.71800000000003</v>
+        <v>66.7291666666667</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -2382,8 +2392,14 @@
         <v>0</v>
       </c>
       <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr"/>
-      <c r="L57" t="inlineStr"/>
+      <c r="K57" t="n">
+        <v>65.84</v>
+      </c>
+      <c r="L57" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="M57" t="n">
         <v>1</v>
       </c>
@@ -2396,19 +2412,19 @@
         <v>65.83</v>
       </c>
       <c r="C58" t="n">
-        <v>65.12</v>
+        <v>65.83</v>
       </c>
       <c r="D58" t="n">
         <v>65.83</v>
       </c>
       <c r="E58" t="n">
-        <v>65.12</v>
+        <v>65.83</v>
       </c>
       <c r="F58" t="n">
-        <v>40.136</v>
+        <v>1399.4839</v>
       </c>
       <c r="G58" t="n">
-        <v>66.71816666666669</v>
+        <v>66.71800000000003</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -2417,8 +2433,14 @@
         <v>0</v>
       </c>
       <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr"/>
-      <c r="L58" t="inlineStr"/>
+      <c r="K58" t="n">
+        <v>65.84</v>
+      </c>
+      <c r="L58" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M58" t="n">
         <v>1</v>
       </c>
@@ -2428,22 +2450,22 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>65.12</v>
+        <v>65.83</v>
       </c>
       <c r="C59" t="n">
         <v>65.12</v>
       </c>
       <c r="D59" t="n">
-        <v>65.12</v>
+        <v>65.83</v>
       </c>
       <c r="E59" t="n">
         <v>65.12</v>
       </c>
       <c r="F59" t="n">
-        <v>98.3608</v>
+        <v>40.136</v>
       </c>
       <c r="G59" t="n">
-        <v>66.69533333333337</v>
+        <v>66.71816666666669</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -2452,8 +2474,14 @@
         <v>0</v>
       </c>
       <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr"/>
-      <c r="L59" t="inlineStr"/>
+      <c r="K59" t="n">
+        <v>65.84</v>
+      </c>
+      <c r="L59" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M59" t="n">
         <v>1</v>
       </c>
@@ -2463,22 +2491,22 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>65.06</v>
+        <v>65.12</v>
       </c>
       <c r="C60" t="n">
-        <v>65.06</v>
+        <v>65.12</v>
       </c>
       <c r="D60" t="n">
-        <v>65.06</v>
+        <v>65.12</v>
       </c>
       <c r="E60" t="n">
-        <v>65.06</v>
+        <v>65.12</v>
       </c>
       <c r="F60" t="n">
-        <v>213</v>
+        <v>98.3608</v>
       </c>
       <c r="G60" t="n">
-        <v>66.69450000000002</v>
+        <v>66.69533333333337</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -2487,8 +2515,14 @@
         <v>0</v>
       </c>
       <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr"/>
-      <c r="L60" t="inlineStr"/>
+      <c r="K60" t="n">
+        <v>65.84</v>
+      </c>
+      <c r="L60" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M60" t="n">
         <v>1</v>
       </c>
@@ -2498,22 +2532,22 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>65.12</v>
+        <v>65.06</v>
       </c>
       <c r="C61" t="n">
-        <v>65.12</v>
+        <v>65.06</v>
       </c>
       <c r="D61" t="n">
-        <v>65.12</v>
+        <v>65.06</v>
       </c>
       <c r="E61" t="n">
-        <v>65.12</v>
+        <v>65.06</v>
       </c>
       <c r="F61" t="n">
-        <v>121.1446</v>
+        <v>213</v>
       </c>
       <c r="G61" t="n">
-        <v>66.67983333333335</v>
+        <v>66.69450000000002</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -2522,8 +2556,14 @@
         <v>0</v>
       </c>
       <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr"/>
-      <c r="L61" t="inlineStr"/>
+      <c r="K61" t="n">
+        <v>65.84</v>
+      </c>
+      <c r="L61" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M61" t="n">
         <v>1</v>
       </c>
@@ -2533,22 +2573,22 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>65.69</v>
+        <v>65.12</v>
       </c>
       <c r="C62" t="n">
-        <v>65.83</v>
+        <v>65.12</v>
       </c>
       <c r="D62" t="n">
-        <v>65.83</v>
+        <v>65.12</v>
       </c>
       <c r="E62" t="n">
-        <v>65.69</v>
+        <v>65.12</v>
       </c>
       <c r="F62" t="n">
-        <v>13132.7132</v>
+        <v>121.1446</v>
       </c>
       <c r="G62" t="n">
-        <v>66.68533333333336</v>
+        <v>66.67983333333335</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -2557,8 +2597,14 @@
         <v>0</v>
       </c>
       <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr"/>
-      <c r="L62" t="inlineStr"/>
+      <c r="K62" t="n">
+        <v>65.84</v>
+      </c>
+      <c r="L62" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M62" t="n">
         <v>1</v>
       </c>
@@ -2568,22 +2614,22 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>66</v>
+        <v>65.69</v>
       </c>
       <c r="C63" t="n">
-        <v>68.16</v>
+        <v>65.83</v>
       </c>
       <c r="D63" t="n">
-        <v>68.16</v>
+        <v>65.83</v>
       </c>
       <c r="E63" t="n">
-        <v>66</v>
+        <v>65.69</v>
       </c>
       <c r="F63" t="n">
-        <v>145.7753</v>
+        <v>13132.7132</v>
       </c>
       <c r="G63" t="n">
-        <v>66.72150000000002</v>
+        <v>66.68533333333336</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -2592,8 +2638,14 @@
         <v>0</v>
       </c>
       <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr"/>
-      <c r="L63" t="inlineStr"/>
+      <c r="K63" t="n">
+        <v>65.84</v>
+      </c>
+      <c r="L63" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M63" t="n">
         <v>1</v>
       </c>
@@ -2603,22 +2655,22 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>68.15000000000001</v>
+        <v>66</v>
       </c>
       <c r="C64" t="n">
-        <v>68.14</v>
+        <v>68.16</v>
       </c>
       <c r="D64" t="n">
-        <v>68.15000000000001</v>
+        <v>68.16</v>
       </c>
       <c r="E64" t="n">
-        <v>68.14</v>
+        <v>66</v>
       </c>
       <c r="F64" t="n">
-        <v>17.6847</v>
+        <v>145.7753</v>
       </c>
       <c r="G64" t="n">
-        <v>66.74900000000002</v>
+        <v>66.72150000000002</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -2627,8 +2679,14 @@
         <v>0</v>
       </c>
       <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr"/>
-      <c r="L64" t="inlineStr"/>
+      <c r="K64" t="n">
+        <v>65.84</v>
+      </c>
+      <c r="L64" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M64" t="n">
         <v>1</v>
       </c>
@@ -2638,22 +2696,22 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>68.09999999999999</v>
+        <v>68.15000000000001</v>
       </c>
       <c r="C65" t="n">
-        <v>68</v>
+        <v>68.14</v>
       </c>
       <c r="D65" t="n">
-        <v>68.09999999999999</v>
+        <v>68.15000000000001</v>
       </c>
       <c r="E65" t="n">
-        <v>68</v>
+        <v>68.14</v>
       </c>
       <c r="F65" t="n">
-        <v>24</v>
+        <v>17.6847</v>
       </c>
       <c r="G65" t="n">
-        <v>66.77900000000002</v>
+        <v>66.74900000000002</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -2662,8 +2720,14 @@
         <v>0</v>
       </c>
       <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr"/>
-      <c r="L65" t="inlineStr"/>
+      <c r="K65" t="n">
+        <v>65.84</v>
+      </c>
+      <c r="L65" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M65" t="n">
         <v>1</v>
       </c>
@@ -2673,22 +2737,22 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>67.56</v>
+        <v>68.09999999999999</v>
       </c>
       <c r="C66" t="n">
-        <v>66.70999999999999</v>
+        <v>68</v>
       </c>
       <c r="D66" t="n">
-        <v>67.56</v>
+        <v>68.09999999999999</v>
       </c>
       <c r="E66" t="n">
-        <v>66.70999999999999</v>
+        <v>68</v>
       </c>
       <c r="F66" t="n">
-        <v>200</v>
+        <v>24</v>
       </c>
       <c r="G66" t="n">
-        <v>66.78250000000003</v>
+        <v>66.77900000000002</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -2697,8 +2761,14 @@
         <v>0</v>
       </c>
       <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr"/>
-      <c r="L66" t="inlineStr"/>
+      <c r="K66" t="n">
+        <v>65.84</v>
+      </c>
+      <c r="L66" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M66" t="n">
         <v>1</v>
       </c>
@@ -2708,22 +2778,22 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
+        <v>67.56</v>
+      </c>
+      <c r="C67" t="n">
         <v>66.70999999999999</v>
       </c>
-      <c r="C67" t="n">
-        <v>66.36</v>
-      </c>
       <c r="D67" t="n">
+        <v>67.56</v>
+      </c>
+      <c r="E67" t="n">
         <v>66.70999999999999</v>
       </c>
-      <c r="E67" t="n">
-        <v>66.36</v>
-      </c>
       <c r="F67" t="n">
-        <v>704.6618999999999</v>
+        <v>200</v>
       </c>
       <c r="G67" t="n">
-        <v>66.78850000000003</v>
+        <v>66.78250000000003</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -2732,8 +2802,14 @@
         <v>0</v>
       </c>
       <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr"/>
-      <c r="L67" t="inlineStr"/>
+      <c r="K67" t="n">
+        <v>65.84</v>
+      </c>
+      <c r="L67" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M67" t="n">
         <v>1</v>
       </c>
@@ -2743,22 +2819,22 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
+        <v>66.70999999999999</v>
+      </c>
+      <c r="C68" t="n">
         <v>66.36</v>
       </c>
-      <c r="C68" t="n">
-        <v>66.51000000000001</v>
-      </c>
       <c r="D68" t="n">
-        <v>66.51000000000001</v>
+        <v>66.70999999999999</v>
       </c>
       <c r="E68" t="n">
         <v>66.36</v>
       </c>
       <c r="F68" t="n">
-        <v>10.3381</v>
+        <v>704.6618999999999</v>
       </c>
       <c r="G68" t="n">
-        <v>66.8086666666667</v>
+        <v>66.78850000000003</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -2767,8 +2843,14 @@
         <v>0</v>
       </c>
       <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr"/>
-      <c r="L68" t="inlineStr"/>
+      <c r="K68" t="n">
+        <v>65.84</v>
+      </c>
+      <c r="L68" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M68" t="n">
         <v>1</v>
       </c>
@@ -2778,22 +2860,22 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>68.14</v>
+        <v>66.36</v>
       </c>
       <c r="C69" t="n">
-        <v>68.15000000000001</v>
+        <v>66.51000000000001</v>
       </c>
       <c r="D69" t="n">
-        <v>68.15000000000001</v>
+        <v>66.51000000000001</v>
       </c>
       <c r="E69" t="n">
-        <v>68.14</v>
+        <v>66.36</v>
       </c>
       <c r="F69" t="n">
-        <v>57</v>
+        <v>10.3381</v>
       </c>
       <c r="G69" t="n">
-        <v>66.8361666666667</v>
+        <v>66.8086666666667</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -2802,8 +2884,14 @@
         <v>0</v>
       </c>
       <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr"/>
-      <c r="L69" t="inlineStr"/>
+      <c r="K69" t="n">
+        <v>65.84</v>
+      </c>
+      <c r="L69" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M69" t="n">
         <v>1</v>
       </c>
@@ -2813,22 +2901,22 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>66.40000000000001</v>
+        <v>68.14</v>
       </c>
       <c r="C70" t="n">
-        <v>66.2</v>
+        <v>68.15000000000001</v>
       </c>
       <c r="D70" t="n">
-        <v>66.40000000000001</v>
+        <v>68.15000000000001</v>
       </c>
       <c r="E70" t="n">
-        <v>66.2</v>
+        <v>68.14</v>
       </c>
       <c r="F70" t="n">
-        <v>12145.4979</v>
+        <v>57</v>
       </c>
       <c r="G70" t="n">
-        <v>66.85600000000002</v>
+        <v>66.8361666666667</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -2837,8 +2925,14 @@
         <v>0</v>
       </c>
       <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr"/>
-      <c r="L70" t="inlineStr"/>
+      <c r="K70" t="n">
+        <v>65.84</v>
+      </c>
+      <c r="L70" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M70" t="n">
         <v>1</v>
       </c>
@@ -2848,22 +2942,22 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>66.2</v>
+        <v>66.40000000000001</v>
       </c>
       <c r="C71" t="n">
         <v>66.2</v>
       </c>
       <c r="D71" t="n">
-        <v>66.2</v>
+        <v>66.40000000000001</v>
       </c>
       <c r="E71" t="n">
         <v>66.2</v>
       </c>
       <c r="F71" t="n">
-        <v>1175.6625</v>
+        <v>12145.4979</v>
       </c>
       <c r="G71" t="n">
-        <v>66.84283333333336</v>
+        <v>66.85600000000002</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -2872,8 +2966,14 @@
         <v>0</v>
       </c>
       <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr"/>
-      <c r="L71" t="inlineStr"/>
+      <c r="K71" t="n">
+        <v>65.84</v>
+      </c>
+      <c r="L71" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M71" t="n">
         <v>1</v>
       </c>
@@ -2883,22 +2983,22 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>66.3</v>
+        <v>66.2</v>
       </c>
       <c r="C72" t="n">
-        <v>66.3</v>
+        <v>66.2</v>
       </c>
       <c r="D72" t="n">
-        <v>66.3</v>
+        <v>66.2</v>
       </c>
       <c r="E72" t="n">
-        <v>66.3</v>
+        <v>66.2</v>
       </c>
       <c r="F72" t="n">
-        <v>5856.9831</v>
+        <v>1175.6625</v>
       </c>
       <c r="G72" t="n">
-        <v>66.83116666666669</v>
+        <v>66.84283333333336</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -2907,8 +3007,14 @@
         <v>0</v>
       </c>
       <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr"/>
-      <c r="L72" t="inlineStr"/>
+      <c r="K72" t="n">
+        <v>65.84</v>
+      </c>
+      <c r="L72" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M72" t="n">
         <v>1</v>
       </c>
@@ -2918,22 +3024,22 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>66.40000000000001</v>
+        <v>66.3</v>
       </c>
       <c r="C73" t="n">
-        <v>66.2</v>
+        <v>66.3</v>
       </c>
       <c r="D73" t="n">
-        <v>66.40000000000001</v>
+        <v>66.3</v>
       </c>
       <c r="E73" t="n">
-        <v>66.2</v>
+        <v>66.3</v>
       </c>
       <c r="F73" t="n">
-        <v>3942.5386</v>
+        <v>5856.9831</v>
       </c>
       <c r="G73" t="n">
-        <v>66.84783333333336</v>
+        <v>66.83116666666669</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -2942,8 +3048,14 @@
         <v>0</v>
       </c>
       <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr"/>
-      <c r="L73" t="inlineStr"/>
+      <c r="K73" t="n">
+        <v>65.84</v>
+      </c>
+      <c r="L73" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M73" t="n">
         <v>1</v>
       </c>
@@ -2953,22 +3065,22 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>66.09999999999999</v>
+        <v>66.40000000000001</v>
       </c>
       <c r="C74" t="n">
-        <v>66.09999999999999</v>
+        <v>66.2</v>
       </c>
       <c r="D74" t="n">
-        <v>66.09999999999999</v>
+        <v>66.40000000000001</v>
       </c>
       <c r="E74" t="n">
-        <v>66.09999999999999</v>
+        <v>66.2</v>
       </c>
       <c r="F74" t="n">
-        <v>124.8401</v>
+        <v>3942.5386</v>
       </c>
       <c r="G74" t="n">
-        <v>66.86283333333337</v>
+        <v>66.84783333333336</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -2977,8 +3089,14 @@
         <v>0</v>
       </c>
       <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr"/>
-      <c r="L74" t="inlineStr"/>
+      <c r="K74" t="n">
+        <v>65.84</v>
+      </c>
+      <c r="L74" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M74" t="n">
         <v>1</v>
       </c>
@@ -2991,19 +3109,19 @@
         <v>66.09999999999999</v>
       </c>
       <c r="C75" t="n">
-        <v>66.3</v>
+        <v>66.09999999999999</v>
       </c>
       <c r="D75" t="n">
-        <v>66.3</v>
+        <v>66.09999999999999</v>
       </c>
       <c r="E75" t="n">
         <v>66.09999999999999</v>
       </c>
       <c r="F75" t="n">
-        <v>1000</v>
+        <v>124.8401</v>
       </c>
       <c r="G75" t="n">
-        <v>66.85566666666669</v>
+        <v>66.86283333333337</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -3012,8 +3130,14 @@
         <v>0</v>
       </c>
       <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr"/>
-      <c r="L75" t="inlineStr"/>
+      <c r="K75" t="n">
+        <v>65.84</v>
+      </c>
+      <c r="L75" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M75" t="n">
         <v>1</v>
       </c>
@@ -3023,22 +3147,22 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>67.55</v>
+        <v>66.09999999999999</v>
       </c>
       <c r="C76" t="n">
-        <v>67.56</v>
+        <v>66.3</v>
       </c>
       <c r="D76" t="n">
-        <v>67.56</v>
+        <v>66.3</v>
       </c>
       <c r="E76" t="n">
-        <v>67.55</v>
+        <v>66.09999999999999</v>
       </c>
       <c r="F76" t="n">
-        <v>806</v>
+        <v>1000</v>
       </c>
       <c r="G76" t="n">
-        <v>66.89500000000004</v>
+        <v>66.85566666666669</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -3047,8 +3171,14 @@
         <v>0</v>
       </c>
       <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr"/>
-      <c r="L76" t="inlineStr"/>
+      <c r="K76" t="n">
+        <v>65.84</v>
+      </c>
+      <c r="L76" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M76" t="n">
         <v>1</v>
       </c>
@@ -3058,22 +3188,22 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
+        <v>67.55</v>
+      </c>
+      <c r="C77" t="n">
         <v>67.56</v>
       </c>
-      <c r="C77" t="n">
-        <v>68.16</v>
-      </c>
       <c r="D77" t="n">
-        <v>68.16</v>
+        <v>67.56</v>
       </c>
       <c r="E77" t="n">
-        <v>67.56</v>
+        <v>67.55</v>
       </c>
       <c r="F77" t="n">
-        <v>59</v>
+        <v>806</v>
       </c>
       <c r="G77" t="n">
-        <v>66.9276666666667</v>
+        <v>66.89500000000004</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -3082,8 +3212,14 @@
         <v>0</v>
       </c>
       <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr"/>
-      <c r="L77" t="inlineStr"/>
+      <c r="K77" t="n">
+        <v>65.84</v>
+      </c>
+      <c r="L77" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M77" t="n">
         <v>1</v>
       </c>
@@ -3093,22 +3229,22 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>68.09</v>
+        <v>67.56</v>
       </c>
       <c r="C78" t="n">
-        <v>68.09</v>
+        <v>68.16</v>
       </c>
       <c r="D78" t="n">
-        <v>68.09</v>
+        <v>68.16</v>
       </c>
       <c r="E78" t="n">
-        <v>68.09</v>
+        <v>67.56</v>
       </c>
       <c r="F78" t="n">
-        <v>124</v>
+        <v>59</v>
       </c>
       <c r="G78" t="n">
-        <v>66.95350000000003</v>
+        <v>66.9276666666667</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -3117,8 +3253,14 @@
         <v>0</v>
       </c>
       <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr"/>
-      <c r="L78" t="inlineStr"/>
+      <c r="K78" t="n">
+        <v>65.84</v>
+      </c>
+      <c r="L78" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M78" t="n">
         <v>1</v>
       </c>
@@ -3131,19 +3273,19 @@
         <v>68.09</v>
       </c>
       <c r="C79" t="n">
-        <v>68.09999999999999</v>
+        <v>68.09</v>
       </c>
       <c r="D79" t="n">
-        <v>68.09999999999999</v>
+        <v>68.09</v>
       </c>
       <c r="E79" t="n">
         <v>68.09</v>
       </c>
       <c r="F79" t="n">
-        <v>8</v>
+        <v>124</v>
       </c>
       <c r="G79" t="n">
-        <v>66.97950000000004</v>
+        <v>66.95350000000003</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -3152,8 +3294,14 @@
         <v>0</v>
       </c>
       <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr"/>
-      <c r="L79" t="inlineStr"/>
+      <c r="K79" t="n">
+        <v>65.84</v>
+      </c>
+      <c r="L79" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M79" t="n">
         <v>1</v>
       </c>
@@ -3163,7 +3311,7 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>68.09999999999999</v>
+        <v>68.09</v>
       </c>
       <c r="C80" t="n">
         <v>68.09999999999999</v>
@@ -3172,13 +3320,13 @@
         <v>68.09999999999999</v>
       </c>
       <c r="E80" t="n">
-        <v>68.09999999999999</v>
+        <v>68.09</v>
       </c>
       <c r="F80" t="n">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="G80" t="n">
-        <v>67.00550000000004</v>
+        <v>66.97950000000004</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -3187,8 +3335,14 @@
         <v>0</v>
       </c>
       <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr"/>
-      <c r="L80" t="inlineStr"/>
+      <c r="K80" t="n">
+        <v>65.84</v>
+      </c>
+      <c r="L80" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M80" t="n">
         <v>1</v>
       </c>
@@ -3198,22 +3352,22 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>68.09</v>
+        <v>68.09999999999999</v>
       </c>
       <c r="C81" t="n">
-        <v>68</v>
+        <v>68.09999999999999</v>
       </c>
       <c r="D81" t="n">
-        <v>68.09</v>
+        <v>68.09999999999999</v>
       </c>
       <c r="E81" t="n">
-        <v>68</v>
+        <v>68.09999999999999</v>
       </c>
       <c r="F81" t="n">
-        <v>110</v>
+        <v>11</v>
       </c>
       <c r="G81" t="n">
-        <v>67.02983333333337</v>
+        <v>67.00550000000004</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -3222,8 +3376,14 @@
         <v>0</v>
       </c>
       <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr"/>
-      <c r="L81" t="inlineStr"/>
+      <c r="K81" t="n">
+        <v>65.84</v>
+      </c>
+      <c r="L81" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M81" t="n">
         <v>1</v>
       </c>
@@ -3233,22 +3393,22 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>67.90000000000001</v>
+        <v>68.09</v>
       </c>
       <c r="C82" t="n">
         <v>68</v>
       </c>
       <c r="D82" t="n">
+        <v>68.09</v>
+      </c>
+      <c r="E82" t="n">
         <v>68</v>
       </c>
-      <c r="E82" t="n">
-        <v>67.90000000000001</v>
-      </c>
       <c r="F82" t="n">
-        <v>260.9815</v>
+        <v>110</v>
       </c>
       <c r="G82" t="n">
-        <v>67.05383333333337</v>
+        <v>67.02983333333337</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -3257,8 +3417,14 @@
         <v>0</v>
       </c>
       <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr"/>
-      <c r="L82" t="inlineStr"/>
+      <c r="K82" t="n">
+        <v>65.84</v>
+      </c>
+      <c r="L82" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M82" t="n">
         <v>1</v>
       </c>
@@ -3268,22 +3434,22 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>68.14</v>
+        <v>67.90000000000001</v>
       </c>
       <c r="C83" t="n">
-        <v>68.14</v>
+        <v>68</v>
       </c>
       <c r="D83" t="n">
-        <v>68.14</v>
+        <v>68</v>
       </c>
       <c r="E83" t="n">
-        <v>68.14</v>
+        <v>67.90000000000001</v>
       </c>
       <c r="F83" t="n">
-        <v>8</v>
+        <v>260.9815</v>
       </c>
       <c r="G83" t="n">
-        <v>67.0801666666667</v>
+        <v>67.05383333333337</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -3292,8 +3458,14 @@
         <v>0</v>
       </c>
       <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr"/>
-      <c r="L83" t="inlineStr"/>
+      <c r="K83" t="n">
+        <v>65.84</v>
+      </c>
+      <c r="L83" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M83" t="n">
         <v>1</v>
       </c>
@@ -3303,22 +3475,22 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>68</v>
+        <v>68.14</v>
       </c>
       <c r="C84" t="n">
-        <v>68</v>
+        <v>68.14</v>
       </c>
       <c r="D84" t="n">
-        <v>68</v>
+        <v>68.14</v>
       </c>
       <c r="E84" t="n">
-        <v>68</v>
+        <v>68.14</v>
       </c>
       <c r="F84" t="n">
-        <v>269.0539</v>
+        <v>8</v>
       </c>
       <c r="G84" t="n">
-        <v>67.09850000000003</v>
+        <v>67.0801666666667</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -3327,8 +3499,14 @@
         <v>0</v>
       </c>
       <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr"/>
-      <c r="L84" t="inlineStr"/>
+      <c r="K84" t="n">
+        <v>65.84</v>
+      </c>
+      <c r="L84" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M84" t="n">
         <v>1</v>
       </c>
@@ -3338,22 +3516,22 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>68.09999999999999</v>
+        <v>68</v>
       </c>
       <c r="C85" t="n">
-        <v>68.09999999999999</v>
+        <v>68</v>
       </c>
       <c r="D85" t="n">
-        <v>68.09999999999999</v>
+        <v>68</v>
       </c>
       <c r="E85" t="n">
-        <v>68.09999999999999</v>
+        <v>68</v>
       </c>
       <c r="F85" t="n">
-        <v>300.6735</v>
+        <v>269.0539</v>
       </c>
       <c r="G85" t="n">
-        <v>67.11683333333336</v>
+        <v>67.09850000000003</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -3362,8 +3540,14 @@
         <v>0</v>
       </c>
       <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr"/>
-      <c r="L85" t="inlineStr"/>
+      <c r="K85" t="n">
+        <v>65.84</v>
+      </c>
+      <c r="L85" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M85" t="n">
         <v>1</v>
       </c>
@@ -3373,22 +3557,22 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>67</v>
+        <v>68.09999999999999</v>
       </c>
       <c r="C86" t="n">
-        <v>66.12</v>
+        <v>68.09999999999999</v>
       </c>
       <c r="D86" t="n">
-        <v>67</v>
+        <v>68.09999999999999</v>
       </c>
       <c r="E86" t="n">
-        <v>66.12</v>
+        <v>68.09999999999999</v>
       </c>
       <c r="F86" t="n">
-        <v>3100</v>
+        <v>300.6735</v>
       </c>
       <c r="G86" t="n">
-        <v>67.08583333333337</v>
+        <v>67.11683333333336</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -3397,8 +3581,14 @@
         <v>0</v>
       </c>
       <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr"/>
-      <c r="L86" t="inlineStr"/>
+      <c r="K86" t="n">
+        <v>65.84</v>
+      </c>
+      <c r="L86" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M86" t="n">
         <v>1</v>
       </c>
@@ -3408,22 +3598,22 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>66.2</v>
+        <v>67</v>
       </c>
       <c r="C87" t="n">
-        <v>66.2</v>
+        <v>66.12</v>
       </c>
       <c r="D87" t="n">
-        <v>66.2</v>
+        <v>67</v>
       </c>
       <c r="E87" t="n">
-        <v>66.2</v>
+        <v>66.12</v>
       </c>
       <c r="F87" t="n">
-        <v>5683.1978</v>
+        <v>3100</v>
       </c>
       <c r="G87" t="n">
-        <v>67.05083333333336</v>
+        <v>67.08583333333337</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -3432,8 +3622,14 @@
         <v>0</v>
       </c>
       <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr"/>
-      <c r="L87" t="inlineStr"/>
+      <c r="K87" t="n">
+        <v>65.84</v>
+      </c>
+      <c r="L87" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M87" t="n">
         <v>1</v>
       </c>
@@ -3443,22 +3639,22 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>66.11</v>
+        <v>66.2</v>
       </c>
       <c r="C88" t="n">
-        <v>66.11</v>
+        <v>66.2</v>
       </c>
       <c r="D88" t="n">
-        <v>66.11</v>
+        <v>66.2</v>
       </c>
       <c r="E88" t="n">
-        <v>66.11</v>
+        <v>66.2</v>
       </c>
       <c r="F88" t="n">
         <v>5683.1978</v>
       </c>
       <c r="G88" t="n">
-        <v>67.01233333333336</v>
+        <v>67.05083333333336</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -3467,8 +3663,14 @@
         <v>0</v>
       </c>
       <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr"/>
-      <c r="L88" t="inlineStr"/>
+      <c r="K88" t="n">
+        <v>65.84</v>
+      </c>
+      <c r="L88" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M88" t="n">
         <v>1</v>
       </c>
@@ -3478,22 +3680,22 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>66.01000000000001</v>
+        <v>66.11</v>
       </c>
       <c r="C89" t="n">
-        <v>66.01000000000001</v>
+        <v>66.11</v>
       </c>
       <c r="D89" t="n">
-        <v>66.01000000000001</v>
+        <v>66.11</v>
       </c>
       <c r="E89" t="n">
-        <v>66.01000000000001</v>
+        <v>66.11</v>
       </c>
       <c r="F89" t="n">
-        <v>140</v>
+        <v>5683.1978</v>
       </c>
       <c r="G89" t="n">
-        <v>66.97216666666669</v>
+        <v>67.01233333333336</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -3502,8 +3704,14 @@
         <v>0</v>
       </c>
       <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr"/>
-      <c r="L89" t="inlineStr"/>
+      <c r="K89" t="n">
+        <v>65.84</v>
+      </c>
+      <c r="L89" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M89" t="n">
         <v>1</v>
       </c>
@@ -3525,10 +3733,10 @@
         <v>66.01000000000001</v>
       </c>
       <c r="F90" t="n">
-        <v>353</v>
+        <v>140</v>
       </c>
       <c r="G90" t="n">
-        <v>66.93200000000003</v>
+        <v>66.97216666666669</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -3537,8 +3745,14 @@
         <v>0</v>
       </c>
       <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr"/>
-      <c r="L90" t="inlineStr"/>
+      <c r="K90" t="n">
+        <v>65.84</v>
+      </c>
+      <c r="L90" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M90" t="n">
         <v>1</v>
       </c>
@@ -3548,22 +3762,22 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>67.3</v>
+        <v>66.01000000000001</v>
       </c>
       <c r="C91" t="n">
-        <v>67.3</v>
+        <v>66.01000000000001</v>
       </c>
       <c r="D91" t="n">
-        <v>67.3</v>
+        <v>66.01000000000001</v>
       </c>
       <c r="E91" t="n">
-        <v>67.3</v>
+        <v>66.01000000000001</v>
       </c>
       <c r="F91" t="n">
-        <v>8</v>
+        <v>353</v>
       </c>
       <c r="G91" t="n">
-        <v>66.91333333333337</v>
+        <v>66.93200000000003</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -3572,8 +3786,14 @@
         <v>0</v>
       </c>
       <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr"/>
-      <c r="L91" t="inlineStr"/>
+      <c r="K91" t="n">
+        <v>65.84</v>
+      </c>
+      <c r="L91" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M91" t="n">
         <v>1</v>
       </c>
@@ -3583,32 +3803,40 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>66.11</v>
+        <v>67.3</v>
       </c>
       <c r="C92" t="n">
-        <v>65.95</v>
+        <v>67.3</v>
       </c>
       <c r="D92" t="n">
-        <v>66.11</v>
+        <v>67.3</v>
       </c>
       <c r="E92" t="n">
-        <v>65.95</v>
+        <v>67.3</v>
       </c>
       <c r="F92" t="n">
-        <v>10924.544</v>
+        <v>8</v>
       </c>
       <c r="G92" t="n">
-        <v>66.8721666666667</v>
+        <v>66.91333333333337</v>
       </c>
       <c r="H92" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I92" t="n">
         <v>0</v>
       </c>
-      <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr"/>
-      <c r="L92" t="inlineStr"/>
+      <c r="J92" t="n">
+        <v>66.01000000000001</v>
+      </c>
+      <c r="K92" t="n">
+        <v>65.84</v>
+      </c>
+      <c r="L92" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M92" t="n">
         <v>1</v>
       </c>
@@ -3618,22 +3846,22 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>66</v>
+        <v>66.11</v>
       </c>
       <c r="C93" t="n">
-        <v>66</v>
+        <v>65.95</v>
       </c>
       <c r="D93" t="n">
-        <v>66</v>
+        <v>66.11</v>
       </c>
       <c r="E93" t="n">
-        <v>66</v>
+        <v>65.95</v>
       </c>
       <c r="F93" t="n">
-        <v>9385.376099999999</v>
+        <v>10924.544</v>
       </c>
       <c r="G93" t="n">
-        <v>66.83183333333336</v>
+        <v>66.8721666666667</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -3642,8 +3870,14 @@
         <v>0</v>
       </c>
       <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr"/>
-      <c r="L93" t="inlineStr"/>
+      <c r="K93" t="n">
+        <v>65.84</v>
+      </c>
+      <c r="L93" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M93" t="n">
         <v>1</v>
       </c>
@@ -3653,22 +3887,22 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>66.01000000000001</v>
+        <v>66</v>
       </c>
       <c r="C94" t="n">
         <v>66</v>
       </c>
       <c r="D94" t="n">
-        <v>66.01000000000001</v>
+        <v>66</v>
       </c>
       <c r="E94" t="n">
         <v>66</v>
       </c>
       <c r="F94" t="n">
-        <v>8725.1842</v>
+        <v>9385.376099999999</v>
       </c>
       <c r="G94" t="n">
-        <v>66.79150000000003</v>
+        <v>66.83183333333336</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -3677,8 +3911,14 @@
         <v>0</v>
       </c>
       <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr"/>
-      <c r="L94" t="inlineStr"/>
+      <c r="K94" t="n">
+        <v>65.84</v>
+      </c>
+      <c r="L94" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M94" t="n">
         <v>1</v>
       </c>
@@ -3688,22 +3928,22 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>66.39</v>
+        <v>66.01000000000001</v>
       </c>
       <c r="C95" t="n">
-        <v>66.5</v>
+        <v>66</v>
       </c>
       <c r="D95" t="n">
-        <v>66.5</v>
+        <v>66.01000000000001</v>
       </c>
       <c r="E95" t="n">
-        <v>66.39</v>
+        <v>66</v>
       </c>
       <c r="F95" t="n">
-        <v>10000</v>
+        <v>8725.1842</v>
       </c>
       <c r="G95" t="n">
-        <v>66.77283333333337</v>
+        <v>66.79150000000003</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -3712,8 +3952,14 @@
         <v>0</v>
       </c>
       <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr"/>
-      <c r="L95" t="inlineStr"/>
+      <c r="K95" t="n">
+        <v>65.84</v>
+      </c>
+      <c r="L95" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M95" t="n">
         <v>1</v>
       </c>
@@ -3723,19 +3969,19 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>66</v>
+        <v>66.39</v>
       </c>
       <c r="C96" t="n">
-        <v>66</v>
+        <v>66.5</v>
       </c>
       <c r="D96" t="n">
-        <v>66</v>
+        <v>66.5</v>
       </c>
       <c r="E96" t="n">
-        <v>66</v>
+        <v>66.39</v>
       </c>
       <c r="F96" t="n">
-        <v>12343.5751</v>
+        <v>10000</v>
       </c>
       <c r="G96" t="n">
         <v>66.77283333333337</v>
@@ -3747,8 +3993,14 @@
         <v>0</v>
       </c>
       <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr"/>
-      <c r="L96" t="inlineStr"/>
+      <c r="K96" t="n">
+        <v>65.84</v>
+      </c>
+      <c r="L96" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M96" t="n">
         <v>1</v>
       </c>
@@ -3758,22 +4010,22 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>65.94</v>
+        <v>66</v>
       </c>
       <c r="C97" t="n">
-        <v>65.94</v>
+        <v>66</v>
       </c>
       <c r="D97" t="n">
-        <v>65.94</v>
+        <v>66</v>
       </c>
       <c r="E97" t="n">
-        <v>65.94</v>
+        <v>66</v>
       </c>
       <c r="F97" t="n">
-        <v>897</v>
+        <v>12343.5751</v>
       </c>
       <c r="G97" t="n">
-        <v>66.77333333333337</v>
+        <v>66.77283333333337</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -3782,8 +4034,14 @@
         <v>0</v>
       </c>
       <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr"/>
-      <c r="L97" t="inlineStr"/>
+      <c r="K97" t="n">
+        <v>65.84</v>
+      </c>
+      <c r="L97" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M97" t="n">
         <v>1</v>
       </c>
@@ -3793,22 +4051,22 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>65.95</v>
+        <v>65.94</v>
       </c>
       <c r="C98" t="n">
-        <v>65.90000000000001</v>
+        <v>65.94</v>
       </c>
       <c r="D98" t="n">
-        <v>65.95</v>
+        <v>65.94</v>
       </c>
       <c r="E98" t="n">
-        <v>65.90000000000001</v>
+        <v>65.94</v>
       </c>
       <c r="F98" t="n">
-        <v>10083.3285</v>
+        <v>897</v>
       </c>
       <c r="G98" t="n">
-        <v>66.77500000000003</v>
+        <v>66.77333333333337</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -3817,8 +4075,14 @@
         <v>0</v>
       </c>
       <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr"/>
-      <c r="L98" t="inlineStr"/>
+      <c r="K98" t="n">
+        <v>65.84</v>
+      </c>
+      <c r="L98" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M98" t="n">
         <v>1</v>
       </c>
@@ -3828,22 +4092,22 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
+        <v>65.95</v>
+      </c>
+      <c r="C99" t="n">
         <v>65.90000000000001</v>
       </c>
-      <c r="C99" t="n">
-        <v>65.84999999999999</v>
-      </c>
       <c r="D99" t="n">
+        <v>65.95</v>
+      </c>
+      <c r="E99" t="n">
         <v>65.90000000000001</v>
       </c>
-      <c r="E99" t="n">
-        <v>65.84999999999999</v>
-      </c>
       <c r="F99" t="n">
-        <v>215.47</v>
+        <v>10083.3285</v>
       </c>
       <c r="G99" t="n">
-        <v>66.74566666666669</v>
+        <v>66.77500000000003</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -3852,8 +4116,14 @@
         <v>0</v>
       </c>
       <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr"/>
-      <c r="L99" t="inlineStr"/>
+      <c r="K99" t="n">
+        <v>65.84</v>
+      </c>
+      <c r="L99" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M99" t="n">
         <v>1</v>
       </c>
@@ -3863,22 +4133,22 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>65.86</v>
+        <v>65.90000000000001</v>
       </c>
       <c r="C100" t="n">
         <v>65.84999999999999</v>
       </c>
       <c r="D100" t="n">
-        <v>65.86</v>
+        <v>65.90000000000001</v>
       </c>
       <c r="E100" t="n">
         <v>65.84999999999999</v>
       </c>
       <c r="F100" t="n">
-        <v>4119.6317</v>
+        <v>215.47</v>
       </c>
       <c r="G100" t="n">
-        <v>66.71633333333335</v>
+        <v>66.74566666666669</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -3887,8 +4157,14 @@
         <v>0</v>
       </c>
       <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr"/>
-      <c r="L100" t="inlineStr"/>
+      <c r="K100" t="n">
+        <v>65.84</v>
+      </c>
+      <c r="L100" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M100" t="n">
         <v>1</v>
       </c>
@@ -3898,22 +4174,22 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
+        <v>65.86</v>
+      </c>
+      <c r="C101" t="n">
         <v>65.84999999999999</v>
       </c>
-      <c r="C101" t="n">
-        <v>66</v>
-      </c>
       <c r="D101" t="n">
-        <v>66</v>
+        <v>65.86</v>
       </c>
       <c r="E101" t="n">
         <v>65.84999999999999</v>
       </c>
       <c r="F101" t="n">
-        <v>81.00083704545455</v>
+        <v>4119.6317</v>
       </c>
       <c r="G101" t="n">
-        <v>66.67800000000003</v>
+        <v>66.71633333333335</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -3922,8 +4198,14 @@
         <v>0</v>
       </c>
       <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr"/>
-      <c r="L101" t="inlineStr"/>
+      <c r="K101" t="n">
+        <v>65.84</v>
+      </c>
+      <c r="L101" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M101" t="n">
         <v>1</v>
       </c>
@@ -3933,22 +4215,22 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
+        <v>65.84999999999999</v>
+      </c>
+      <c r="C102" t="n">
         <v>66</v>
       </c>
-      <c r="C102" t="n">
-        <v>66.37</v>
-      </c>
       <c r="D102" t="n">
-        <v>66.37</v>
+        <v>66</v>
       </c>
       <c r="E102" t="n">
-        <v>66</v>
+        <v>65.84999999999999</v>
       </c>
       <c r="F102" t="n">
-        <v>3420</v>
+        <v>81.00083704545455</v>
       </c>
       <c r="G102" t="n">
-        <v>66.65733333333336</v>
+        <v>66.67800000000003</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -3957,8 +4239,14 @@
         <v>0</v>
       </c>
       <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr"/>
-      <c r="L102" t="inlineStr"/>
+      <c r="K102" t="n">
+        <v>65.84</v>
+      </c>
+      <c r="L102" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M102" t="n">
         <v>1</v>
       </c>
@@ -3968,22 +4256,22 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>65.91</v>
+        <v>66</v>
       </c>
       <c r="C103" t="n">
-        <v>65.91</v>
+        <v>66.37</v>
       </c>
       <c r="D103" t="n">
-        <v>65.91</v>
+        <v>66.37</v>
       </c>
       <c r="E103" t="n">
-        <v>65.91</v>
+        <v>66</v>
       </c>
       <c r="F103" t="n">
-        <v>1131</v>
+        <v>3420</v>
       </c>
       <c r="G103" t="n">
-        <v>66.61916666666669</v>
+        <v>66.65733333333336</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -3992,8 +4280,14 @@
         <v>0</v>
       </c>
       <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr"/>
-      <c r="L103" t="inlineStr"/>
+      <c r="K103" t="n">
+        <v>65.84</v>
+      </c>
+      <c r="L103" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M103" t="n">
         <v>1</v>
       </c>
@@ -4003,22 +4297,22 @@
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>66.37</v>
+        <v>65.91</v>
       </c>
       <c r="C104" t="n">
-        <v>66.37</v>
+        <v>65.91</v>
       </c>
       <c r="D104" t="n">
-        <v>66.37</v>
+        <v>65.91</v>
       </c>
       <c r="E104" t="n">
-        <v>66.37</v>
+        <v>65.91</v>
       </c>
       <c r="F104" t="n">
-        <v>8</v>
+        <v>1131</v>
       </c>
       <c r="G104" t="n">
-        <v>66.60033333333335</v>
+        <v>66.61916666666669</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -4027,8 +4321,14 @@
         <v>0</v>
       </c>
       <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr"/>
-      <c r="L104" t="inlineStr"/>
+      <c r="K104" t="n">
+        <v>65.84</v>
+      </c>
+      <c r="L104" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M104" t="n">
         <v>1</v>
       </c>
@@ -4038,22 +4338,22 @@
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>65.91</v>
+        <v>66.37</v>
       </c>
       <c r="C105" t="n">
-        <v>65.91</v>
+        <v>66.37</v>
       </c>
       <c r="D105" t="n">
-        <v>65.91</v>
+        <v>66.37</v>
       </c>
       <c r="E105" t="n">
-        <v>65.91</v>
+        <v>66.37</v>
       </c>
       <c r="F105" t="n">
-        <v>1083</v>
+        <v>8</v>
       </c>
       <c r="G105" t="n">
-        <v>66.57416666666668</v>
+        <v>66.60033333333335</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -4062,8 +4362,14 @@
         <v>0</v>
       </c>
       <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr"/>
-      <c r="L105" t="inlineStr"/>
+      <c r="K105" t="n">
+        <v>65.84</v>
+      </c>
+      <c r="L105" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M105" t="n">
         <v>1</v>
       </c>
@@ -4085,10 +4391,10 @@
         <v>65.91</v>
       </c>
       <c r="F106" t="n">
-        <v>288</v>
+        <v>1083</v>
       </c>
       <c r="G106" t="n">
-        <v>66.53600000000002</v>
+        <v>66.57416666666668</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -4097,8 +4403,14 @@
         <v>0</v>
       </c>
       <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr"/>
-      <c r="L106" t="inlineStr"/>
+      <c r="K106" t="n">
+        <v>65.84</v>
+      </c>
+      <c r="L106" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M106" t="n">
         <v>1</v>
       </c>
@@ -4108,22 +4420,22 @@
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>66.37</v>
+        <v>65.91</v>
       </c>
       <c r="C107" t="n">
-        <v>66.37</v>
+        <v>65.91</v>
       </c>
       <c r="D107" t="n">
-        <v>66.37</v>
+        <v>65.91</v>
       </c>
       <c r="E107" t="n">
-        <v>66.37</v>
+        <v>65.91</v>
       </c>
       <c r="F107" t="n">
-        <v>8</v>
+        <v>288</v>
       </c>
       <c r="G107" t="n">
-        <v>66.54050000000001</v>
+        <v>66.53600000000002</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -4132,8 +4444,14 @@
         <v>0</v>
       </c>
       <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr"/>
-      <c r="L107" t="inlineStr"/>
+      <c r="K107" t="n">
+        <v>65.84</v>
+      </c>
+      <c r="L107" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M107" t="n">
         <v>1</v>
       </c>
@@ -4143,22 +4461,22 @@
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>65.91</v>
+        <v>66.37</v>
       </c>
       <c r="C108" t="n">
-        <v>65.91</v>
+        <v>66.37</v>
       </c>
       <c r="D108" t="n">
-        <v>65.91</v>
+        <v>66.37</v>
       </c>
       <c r="E108" t="n">
-        <v>65.91</v>
+        <v>66.37</v>
       </c>
       <c r="F108" t="n">
-        <v>572</v>
+        <v>8</v>
       </c>
       <c r="G108" t="n">
-        <v>66.50333333333334</v>
+        <v>66.54050000000001</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -4167,8 +4485,14 @@
         <v>0</v>
       </c>
       <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr"/>
-      <c r="L108" t="inlineStr"/>
+      <c r="K108" t="n">
+        <v>65.84</v>
+      </c>
+      <c r="L108" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M108" t="n">
         <v>1</v>
       </c>
@@ -4178,36 +4502,38 @@
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>66.37</v>
+        <v>65.91</v>
       </c>
       <c r="C109" t="n">
-        <v>66.37</v>
+        <v>65.91</v>
       </c>
       <c r="D109" t="n">
-        <v>66.37</v>
+        <v>65.91</v>
       </c>
       <c r="E109" t="n">
-        <v>66.37</v>
+        <v>65.91</v>
       </c>
       <c r="F109" t="n">
-        <v>8</v>
+        <v>572</v>
       </c>
       <c r="G109" t="n">
-        <v>66.50616666666669</v>
+        <v>66.50333333333334</v>
       </c>
       <c r="H109" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I109" t="n">
         <v>0</v>
       </c>
-      <c r="J109" t="n">
-        <v>65.91</v>
-      </c>
+      <c r="J109" t="inlineStr"/>
       <c r="K109" t="n">
-        <v>65.91</v>
-      </c>
-      <c r="L109" t="inlineStr"/>
+        <v>65.84</v>
+      </c>
+      <c r="L109" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M109" t="n">
         <v>1</v>
       </c>
@@ -4217,7 +4543,7 @@
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>66</v>
+        <v>66.37</v>
       </c>
       <c r="C110" t="n">
         <v>66.37</v>
@@ -4226,29 +4552,27 @@
         <v>66.37</v>
       </c>
       <c r="E110" t="n">
-        <v>66</v>
+        <v>66.37</v>
       </c>
       <c r="F110" t="n">
-        <v>258.6031</v>
+        <v>8</v>
       </c>
       <c r="G110" t="n">
-        <v>66.50900000000001</v>
+        <v>66.50616666666669</v>
       </c>
       <c r="H110" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I110" t="n">
         <v>0</v>
       </c>
-      <c r="J110" t="n">
-        <v>66.37</v>
-      </c>
+      <c r="J110" t="inlineStr"/>
       <c r="K110" t="n">
-        <v>65.91</v>
+        <v>65.84</v>
       </c>
       <c r="L110" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M110" t="n">
@@ -4260,22 +4584,22 @@
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>66.01000000000001</v>
+        <v>66</v>
       </c>
       <c r="C111" t="n">
-        <v>66</v>
+        <v>66.37</v>
       </c>
       <c r="D111" t="n">
-        <v>66.01000000000001</v>
+        <v>66.37</v>
       </c>
       <c r="E111" t="n">
         <v>66</v>
       </c>
       <c r="F111" t="n">
-        <v>1283</v>
+        <v>258.6031</v>
       </c>
       <c r="G111" t="n">
-        <v>66.50733333333335</v>
+        <v>66.50900000000001</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -4285,11 +4609,11 @@
       </c>
       <c r="J111" t="inlineStr"/>
       <c r="K111" t="n">
-        <v>65.91</v>
+        <v>65.84</v>
       </c>
       <c r="L111" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M111" t="n">
@@ -4301,22 +4625,22 @@
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>66.09999999999999</v>
+        <v>66.01000000000001</v>
       </c>
       <c r="C112" t="n">
+        <v>66</v>
+      </c>
+      <c r="D112" t="n">
         <v>66.01000000000001</v>
       </c>
-      <c r="D112" t="n">
-        <v>66.09999999999999</v>
-      </c>
       <c r="E112" t="n">
-        <v>66.01000000000001</v>
+        <v>66</v>
       </c>
       <c r="F112" t="n">
-        <v>1700</v>
+        <v>1283</v>
       </c>
       <c r="G112" t="n">
-        <v>66.51016666666668</v>
+        <v>66.50733333333335</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -4325,8 +4649,14 @@
         <v>0</v>
       </c>
       <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr"/>
-      <c r="L112" t="inlineStr"/>
+      <c r="K112" t="n">
+        <v>65.84</v>
+      </c>
+      <c r="L112" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M112" t="n">
         <v>1</v>
       </c>
@@ -4336,22 +4666,22 @@
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>66</v>
+        <v>66.09999999999999</v>
       </c>
       <c r="C113" t="n">
-        <v>66</v>
+        <v>66.01000000000001</v>
       </c>
       <c r="D113" t="n">
-        <v>66</v>
+        <v>66.09999999999999</v>
       </c>
       <c r="E113" t="n">
-        <v>66</v>
+        <v>66.01000000000001</v>
       </c>
       <c r="F113" t="n">
-        <v>3981.2509</v>
+        <v>1700</v>
       </c>
       <c r="G113" t="n">
-        <v>66.51283333333335</v>
+        <v>66.51016666666668</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -4360,8 +4690,14 @@
         <v>0</v>
       </c>
       <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr"/>
-      <c r="L113" t="inlineStr"/>
+      <c r="K113" t="n">
+        <v>65.84</v>
+      </c>
+      <c r="L113" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M113" t="n">
         <v>1</v>
       </c>
@@ -4383,10 +4719,10 @@
         <v>66</v>
       </c>
       <c r="F114" t="n">
-        <v>2813.46</v>
+        <v>3981.2509</v>
       </c>
       <c r="G114" t="n">
-        <v>66.50950000000002</v>
+        <v>66.51283333333335</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -4395,8 +4731,14 @@
         <v>0</v>
       </c>
       <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr"/>
-      <c r="L114" t="inlineStr"/>
+      <c r="K114" t="n">
+        <v>65.84</v>
+      </c>
+      <c r="L114" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M114" t="n">
         <v>1</v>
       </c>
@@ -4406,22 +4748,22 @@
         <v>113</v>
       </c>
       <c r="B115" t="n">
-        <v>66.3</v>
+        <v>66</v>
       </c>
       <c r="C115" t="n">
-        <v>65.95</v>
+        <v>66</v>
       </c>
       <c r="D115" t="n">
-        <v>66.37</v>
+        <v>66</v>
       </c>
       <c r="E115" t="n">
-        <v>65.95</v>
+        <v>66</v>
       </c>
       <c r="F115" t="n">
-        <v>4779.146</v>
+        <v>2813.46</v>
       </c>
       <c r="G115" t="n">
-        <v>66.51133333333334</v>
+        <v>66.50950000000002</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
@@ -4430,8 +4772,14 @@
         <v>0</v>
       </c>
       <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr"/>
-      <c r="L115" t="inlineStr"/>
+      <c r="K115" t="n">
+        <v>65.84</v>
+      </c>
+      <c r="L115" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M115" t="n">
         <v>1</v>
       </c>
@@ -4441,22 +4789,22 @@
         <v>114</v>
       </c>
       <c r="B116" t="n">
-        <v>65.92</v>
+        <v>66.3</v>
       </c>
       <c r="C116" t="n">
-        <v>65.91</v>
+        <v>65.95</v>
       </c>
       <c r="D116" t="n">
-        <v>65.92</v>
+        <v>66.37</v>
       </c>
       <c r="E116" t="n">
-        <v>65.91</v>
+        <v>65.95</v>
       </c>
       <c r="F116" t="n">
-        <v>11422.4051</v>
+        <v>4779.146</v>
       </c>
       <c r="G116" t="n">
-        <v>66.51266666666668</v>
+        <v>66.51133333333334</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
@@ -4465,8 +4813,14 @@
         <v>0</v>
       </c>
       <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr"/>
-      <c r="L116" t="inlineStr"/>
+      <c r="K116" t="n">
+        <v>65.84</v>
+      </c>
+      <c r="L116" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M116" t="n">
         <v>1</v>
       </c>
@@ -4476,22 +4830,22 @@
         <v>115</v>
       </c>
       <c r="B117" t="n">
-        <v>66.3</v>
+        <v>65.92</v>
       </c>
       <c r="C117" t="n">
-        <v>66.3</v>
+        <v>65.91</v>
       </c>
       <c r="D117" t="n">
-        <v>66.3</v>
+        <v>65.92</v>
       </c>
       <c r="E117" t="n">
-        <v>66.3</v>
+        <v>65.91</v>
       </c>
       <c r="F117" t="n">
-        <v>410.4897</v>
+        <v>11422.4051</v>
       </c>
       <c r="G117" t="n">
-        <v>66.52050000000001</v>
+        <v>66.51266666666668</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
@@ -4500,8 +4854,14 @@
         <v>0</v>
       </c>
       <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr"/>
-      <c r="L117" t="inlineStr"/>
+      <c r="K117" t="n">
+        <v>65.84</v>
+      </c>
+      <c r="L117" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M117" t="n">
         <v>1</v>
       </c>
@@ -4523,10 +4883,10 @@
         <v>66.3</v>
       </c>
       <c r="F118" t="n">
-        <v>352.7613</v>
+        <v>410.4897</v>
       </c>
       <c r="G118" t="n">
-        <v>66.54016666666669</v>
+        <v>66.52050000000001</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
@@ -4535,8 +4895,14 @@
         <v>0</v>
       </c>
       <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr"/>
-      <c r="L118" t="inlineStr"/>
+      <c r="K118" t="n">
+        <v>65.84</v>
+      </c>
+      <c r="L118" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M118" t="n">
         <v>1</v>
       </c>
@@ -4558,10 +4924,10 @@
         <v>66.3</v>
       </c>
       <c r="F119" t="n">
-        <v>779.9924999999999</v>
+        <v>352.7613</v>
       </c>
       <c r="G119" t="n">
-        <v>66.55983333333336</v>
+        <v>66.54016666666669</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
@@ -4570,8 +4936,14 @@
         <v>0</v>
       </c>
       <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr"/>
-      <c r="L119" t="inlineStr"/>
+      <c r="K119" t="n">
+        <v>65.84</v>
+      </c>
+      <c r="L119" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M119" t="n">
         <v>1</v>
       </c>
@@ -4584,19 +4956,19 @@
         <v>66.3</v>
       </c>
       <c r="C120" t="n">
-        <v>66.37</v>
+        <v>66.3</v>
       </c>
       <c r="D120" t="n">
-        <v>66.37</v>
+        <v>66.3</v>
       </c>
       <c r="E120" t="n">
         <v>66.3</v>
       </c>
       <c r="F120" t="n">
-        <v>1014.3134</v>
+        <v>779.9924999999999</v>
       </c>
       <c r="G120" t="n">
-        <v>66.58166666666669</v>
+        <v>66.55983333333336</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>
@@ -4605,8 +4977,14 @@
         <v>0</v>
       </c>
       <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr"/>
-      <c r="L120" t="inlineStr"/>
+      <c r="K120" t="n">
+        <v>65.84</v>
+      </c>
+      <c r="L120" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M120" t="n">
         <v>1</v>
       </c>
@@ -4619,19 +4997,19 @@
         <v>66.3</v>
       </c>
       <c r="C121" t="n">
-        <v>66.3</v>
+        <v>66.37</v>
       </c>
       <c r="D121" t="n">
-        <v>66.3</v>
+        <v>66.37</v>
       </c>
       <c r="E121" t="n">
         <v>66.3</v>
       </c>
       <c r="F121" t="n">
-        <v>2282.9534</v>
+        <v>1014.3134</v>
       </c>
       <c r="G121" t="n">
-        <v>66.60133333333336</v>
+        <v>66.58166666666669</v>
       </c>
       <c r="H121" t="n">
         <v>0</v>
@@ -4640,8 +5018,14 @@
         <v>0</v>
       </c>
       <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr"/>
-      <c r="L121" t="inlineStr"/>
+      <c r="K121" t="n">
+        <v>65.84</v>
+      </c>
+      <c r="L121" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M121" t="n">
         <v>1</v>
       </c>
@@ -4654,19 +5038,19 @@
         <v>66.3</v>
       </c>
       <c r="C122" t="n">
-        <v>66.37</v>
+        <v>66.3</v>
       </c>
       <c r="D122" t="n">
-        <v>66.37</v>
+        <v>66.3</v>
       </c>
       <c r="E122" t="n">
         <v>66.3</v>
       </c>
       <c r="F122" t="n">
-        <v>511.1552</v>
+        <v>2282.9534</v>
       </c>
       <c r="G122" t="n">
-        <v>66.61033333333336</v>
+        <v>66.60133333333336</v>
       </c>
       <c r="H122" t="n">
         <v>0</v>
@@ -4675,8 +5059,14 @@
         <v>0</v>
       </c>
       <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr"/>
-      <c r="L122" t="inlineStr"/>
+      <c r="K122" t="n">
+        <v>65.84</v>
+      </c>
+      <c r="L122" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M122" t="n">
         <v>1</v>
       </c>
@@ -4686,7 +5076,7 @@
         <v>121</v>
       </c>
       <c r="B123" t="n">
-        <v>66.37</v>
+        <v>66.3</v>
       </c>
       <c r="C123" t="n">
         <v>66.37</v>
@@ -4695,13 +5085,13 @@
         <v>66.37</v>
       </c>
       <c r="E123" t="n">
-        <v>66.37</v>
+        <v>66.3</v>
       </c>
       <c r="F123" t="n">
-        <v>897.2539</v>
+        <v>511.1552</v>
       </c>
       <c r="G123" t="n">
-        <v>66.58050000000003</v>
+        <v>66.61033333333336</v>
       </c>
       <c r="H123" t="n">
         <v>0</v>
@@ -4710,8 +5100,14 @@
         <v>0</v>
       </c>
       <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr"/>
-      <c r="L123" t="inlineStr"/>
+      <c r="K123" t="n">
+        <v>65.84</v>
+      </c>
+      <c r="L123" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M123" t="n">
         <v>1</v>
       </c>
@@ -4733,10 +5129,10 @@
         <v>66.37</v>
       </c>
       <c r="F124" t="n">
-        <v>224.3059</v>
+        <v>897.2539</v>
       </c>
       <c r="G124" t="n">
-        <v>66.55100000000003</v>
+        <v>66.58050000000003</v>
       </c>
       <c r="H124" t="n">
         <v>0</v>
@@ -4745,8 +5141,14 @@
         <v>0</v>
       </c>
       <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr"/>
-      <c r="L124" t="inlineStr"/>
+      <c r="K124" t="n">
+        <v>65.84</v>
+      </c>
+      <c r="L124" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M124" t="n">
         <v>1</v>
       </c>
@@ -4759,19 +5161,19 @@
         <v>66.37</v>
       </c>
       <c r="C125" t="n">
-        <v>66.5</v>
+        <v>66.37</v>
       </c>
       <c r="D125" t="n">
-        <v>66.5</v>
+        <v>66.37</v>
       </c>
       <c r="E125" t="n">
         <v>66.37</v>
       </c>
       <c r="F125" t="n">
-        <v>5665.527063250888</v>
+        <v>224.3059</v>
       </c>
       <c r="G125" t="n">
-        <v>66.52600000000002</v>
+        <v>66.55100000000003</v>
       </c>
       <c r="H125" t="n">
         <v>0</v>
@@ -4780,8 +5182,14 @@
         <v>0</v>
       </c>
       <c r="J125" t="inlineStr"/>
-      <c r="K125" t="inlineStr"/>
-      <c r="L125" t="inlineStr"/>
+      <c r="K125" t="n">
+        <v>65.84</v>
+      </c>
+      <c r="L125" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M125" t="n">
         <v>1</v>
       </c>
@@ -4791,7 +5199,7 @@
         <v>124</v>
       </c>
       <c r="B126" t="n">
-        <v>66.5</v>
+        <v>66.37</v>
       </c>
       <c r="C126" t="n">
         <v>66.5</v>
@@ -4800,13 +5208,13 @@
         <v>66.5</v>
       </c>
       <c r="E126" t="n">
-        <v>66.5</v>
+        <v>66.37</v>
       </c>
       <c r="F126" t="n">
-        <v>9204.752399999999</v>
+        <v>5665.527063250888</v>
       </c>
       <c r="G126" t="n">
-        <v>66.52250000000002</v>
+        <v>66.52600000000002</v>
       </c>
       <c r="H126" t="n">
         <v>0</v>
@@ -4815,8 +5223,14 @@
         <v>0</v>
       </c>
       <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr"/>
-      <c r="L126" t="inlineStr"/>
+      <c r="K126" t="n">
+        <v>65.84</v>
+      </c>
+      <c r="L126" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M126" t="n">
         <v>1</v>
       </c>
@@ -4838,10 +5252,10 @@
         <v>66.5</v>
       </c>
       <c r="F127" t="n">
-        <v>197.8697</v>
+        <v>9204.752399999999</v>
       </c>
       <c r="G127" t="n">
-        <v>66.52483333333336</v>
+        <v>66.52250000000002</v>
       </c>
       <c r="H127" t="n">
         <v>0</v>
@@ -4850,8 +5264,14 @@
         <v>0</v>
       </c>
       <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr"/>
-      <c r="L127" t="inlineStr"/>
+      <c r="K127" t="n">
+        <v>65.84</v>
+      </c>
+      <c r="L127" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M127" t="n">
         <v>1</v>
       </c>
@@ -4861,22 +5281,22 @@
         <v>126</v>
       </c>
       <c r="B128" t="n">
-        <v>66.2</v>
+        <v>66.5</v>
       </c>
       <c r="C128" t="n">
-        <v>66.2</v>
+        <v>66.5</v>
       </c>
       <c r="D128" t="n">
-        <v>66.2</v>
+        <v>66.5</v>
       </c>
       <c r="E128" t="n">
-        <v>66.2</v>
+        <v>66.5</v>
       </c>
       <c r="F128" t="n">
-        <v>20</v>
+        <v>197.8697</v>
       </c>
       <c r="G128" t="n">
-        <v>66.51966666666668</v>
+        <v>66.52483333333336</v>
       </c>
       <c r="H128" t="n">
         <v>0</v>
@@ -4885,8 +5305,14 @@
         <v>0</v>
       </c>
       <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr"/>
-      <c r="L128" t="inlineStr"/>
+      <c r="K128" t="n">
+        <v>65.84</v>
+      </c>
+      <c r="L128" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M128" t="n">
         <v>1</v>
       </c>
@@ -4896,22 +5322,22 @@
         <v>127</v>
       </c>
       <c r="B129" t="n">
-        <v>66.5</v>
+        <v>66.2</v>
       </c>
       <c r="C129" t="n">
-        <v>66.5</v>
+        <v>66.2</v>
       </c>
       <c r="D129" t="n">
-        <v>66.5</v>
+        <v>66.2</v>
       </c>
       <c r="E129" t="n">
-        <v>66.5</v>
+        <v>66.2</v>
       </c>
       <c r="F129" t="n">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="G129" t="n">
-        <v>66.49216666666669</v>
+        <v>66.51966666666668</v>
       </c>
       <c r="H129" t="n">
         <v>0</v>
@@ -4920,8 +5346,14 @@
         <v>0</v>
       </c>
       <c r="J129" t="inlineStr"/>
-      <c r="K129" t="inlineStr"/>
-      <c r="L129" t="inlineStr"/>
+      <c r="K129" t="n">
+        <v>65.84</v>
+      </c>
+      <c r="L129" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M129" t="n">
         <v>1</v>
       </c>
@@ -4934,19 +5366,19 @@
         <v>66.5</v>
       </c>
       <c r="C130" t="n">
-        <v>68.09</v>
+        <v>66.5</v>
       </c>
       <c r="D130" t="n">
-        <v>68.09</v>
+        <v>66.5</v>
       </c>
       <c r="E130" t="n">
         <v>66.5</v>
       </c>
       <c r="F130" t="n">
-        <v>29868.37079970366</v>
+        <v>8</v>
       </c>
       <c r="G130" t="n">
-        <v>66.52366666666668</v>
+        <v>66.49216666666669</v>
       </c>
       <c r="H130" t="n">
         <v>0</v>
@@ -4955,8 +5387,14 @@
         <v>0</v>
       </c>
       <c r="J130" t="inlineStr"/>
-      <c r="K130" t="inlineStr"/>
-      <c r="L130" t="inlineStr"/>
+      <c r="K130" t="n">
+        <v>65.84</v>
+      </c>
+      <c r="L130" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M130" t="n">
         <v>1</v>
       </c>
@@ -4966,22 +5404,22 @@
         <v>129</v>
       </c>
       <c r="B131" t="n">
-        <v>68.04000000000001</v>
+        <v>66.5</v>
       </c>
       <c r="C131" t="n">
-        <v>67.59999999999999</v>
+        <v>68.09</v>
       </c>
       <c r="D131" t="n">
         <v>68.09</v>
       </c>
       <c r="E131" t="n">
-        <v>67.5</v>
+        <v>66.5</v>
       </c>
       <c r="F131" t="n">
-        <v>45</v>
+        <v>29868.37079970366</v>
       </c>
       <c r="G131" t="n">
-        <v>66.54700000000003</v>
+        <v>66.52366666666668</v>
       </c>
       <c r="H131" t="n">
         <v>0</v>
@@ -4990,8 +5428,14 @@
         <v>0</v>
       </c>
       <c r="J131" t="inlineStr"/>
-      <c r="K131" t="inlineStr"/>
-      <c r="L131" t="inlineStr"/>
+      <c r="K131" t="n">
+        <v>65.84</v>
+      </c>
+      <c r="L131" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M131" t="n">
         <v>1</v>
       </c>
@@ -5001,22 +5445,22 @@
         <v>130</v>
       </c>
       <c r="B132" t="n">
-        <v>68.09</v>
+        <v>68.04000000000001</v>
       </c>
       <c r="C132" t="n">
-        <v>68.09</v>
+        <v>67.59999999999999</v>
       </c>
       <c r="D132" t="n">
         <v>68.09</v>
       </c>
       <c r="E132" t="n">
-        <v>68.09</v>
+        <v>67.5</v>
       </c>
       <c r="F132" t="n">
-        <v>8</v>
+        <v>45</v>
       </c>
       <c r="G132" t="n">
-        <v>66.57683333333335</v>
+        <v>66.54700000000003</v>
       </c>
       <c r="H132" t="n">
         <v>0</v>
@@ -5025,8 +5469,14 @@
         <v>0</v>
       </c>
       <c r="J132" t="inlineStr"/>
-      <c r="K132" t="inlineStr"/>
-      <c r="L132" t="inlineStr"/>
+      <c r="K132" t="n">
+        <v>65.84</v>
+      </c>
+      <c r="L132" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M132" t="n">
         <v>1</v>
       </c>
@@ -5036,22 +5486,22 @@
         <v>131</v>
       </c>
       <c r="B133" t="n">
-        <v>66.59999999999999</v>
+        <v>68.09</v>
       </c>
       <c r="C133" t="n">
-        <v>66.11</v>
+        <v>68.09</v>
       </c>
       <c r="D133" t="n">
-        <v>66.59999999999999</v>
+        <v>68.09</v>
       </c>
       <c r="E133" t="n">
-        <v>66.11</v>
+        <v>68.09</v>
       </c>
       <c r="F133" t="n">
-        <v>15319</v>
+        <v>8</v>
       </c>
       <c r="G133" t="n">
-        <v>66.57533333333336</v>
+        <v>66.57683333333335</v>
       </c>
       <c r="H133" t="n">
         <v>0</v>
@@ -5060,8 +5510,14 @@
         <v>0</v>
       </c>
       <c r="J133" t="inlineStr"/>
-      <c r="K133" t="inlineStr"/>
-      <c r="L133" t="inlineStr"/>
+      <c r="K133" t="n">
+        <v>65.84</v>
+      </c>
+      <c r="L133" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M133" t="n">
         <v>1</v>
       </c>
@@ -5071,22 +5527,22 @@
         <v>132</v>
       </c>
       <c r="B134" t="n">
+        <v>66.59999999999999</v>
+      </c>
+      <c r="C134" t="n">
         <v>66.11</v>
       </c>
-      <c r="C134" t="n">
-        <v>67.09999999999999</v>
-      </c>
       <c r="D134" t="n">
-        <v>67.09999999999999</v>
+        <v>66.59999999999999</v>
       </c>
       <c r="E134" t="n">
-        <v>65.91</v>
+        <v>66.11</v>
       </c>
       <c r="F134" t="n">
-        <v>3709.5057</v>
+        <v>15319</v>
       </c>
       <c r="G134" t="n">
-        <v>66.59200000000003</v>
+        <v>66.57533333333336</v>
       </c>
       <c r="H134" t="n">
         <v>0</v>
@@ -5095,10 +5551,16 @@
         <v>1</v>
       </c>
       <c r="J134" t="inlineStr"/>
-      <c r="K134" t="inlineStr"/>
-      <c r="L134" t="inlineStr"/>
+      <c r="K134" t="n">
+        <v>65.84</v>
+      </c>
+      <c r="L134" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
       <c r="M134" t="n">
-        <v>1</v>
+        <v>0.9991008505467801</v>
       </c>
     </row>
     <row r="135">
@@ -5106,22 +5568,22 @@
         <v>133</v>
       </c>
       <c r="B135" t="n">
-        <v>66.59999999999999</v>
+        <v>66.11</v>
       </c>
       <c r="C135" t="n">
-        <v>66.59999999999999</v>
+        <v>67.09999999999999</v>
       </c>
       <c r="D135" t="n">
-        <v>66.59999999999999</v>
+        <v>67.09999999999999</v>
       </c>
       <c r="E135" t="n">
-        <v>66.59999999999999</v>
+        <v>65.91</v>
       </c>
       <c r="F135" t="n">
-        <v>2302.6392</v>
+        <v>3709.5057</v>
       </c>
       <c r="G135" t="n">
-        <v>66.59700000000002</v>
+        <v>66.59200000000003</v>
       </c>
       <c r="H135" t="n">
         <v>0</v>
@@ -5153,10 +5615,10 @@
         <v>66.59999999999999</v>
       </c>
       <c r="F136" t="n">
-        <v>5212</v>
+        <v>2302.6392</v>
       </c>
       <c r="G136" t="n">
-        <v>66.58100000000003</v>
+        <v>66.59700000000002</v>
       </c>
       <c r="H136" t="n">
         <v>0</v>
@@ -5188,10 +5650,10 @@
         <v>66.59999999999999</v>
       </c>
       <c r="F137" t="n">
-        <v>0.5600000000000001</v>
+        <v>5212</v>
       </c>
       <c r="G137" t="n">
-        <v>66.55500000000002</v>
+        <v>66.58100000000003</v>
       </c>
       <c r="H137" t="n">
         <v>0</v>
@@ -5211,22 +5673,22 @@
         <v>136</v>
       </c>
       <c r="B138" t="n">
-        <v>66</v>
+        <v>66.59999999999999</v>
       </c>
       <c r="C138" t="n">
-        <v>66</v>
+        <v>66.59999999999999</v>
       </c>
       <c r="D138" t="n">
-        <v>66</v>
+        <v>66.59999999999999</v>
       </c>
       <c r="E138" t="n">
-        <v>66</v>
+        <v>66.59999999999999</v>
       </c>
       <c r="F138" t="n">
-        <v>5284.1068</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="G138" t="n">
-        <v>66.5201666666667</v>
+        <v>66.55500000000002</v>
       </c>
       <c r="H138" t="n">
         <v>0</v>
@@ -5249,19 +5711,19 @@
         <v>66</v>
       </c>
       <c r="C139" t="n">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D139" t="n">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="E139" t="n">
         <v>66</v>
       </c>
       <c r="F139" t="n">
-        <v>752.6118</v>
+        <v>5284.1068</v>
       </c>
       <c r="G139" t="n">
-        <v>66.51850000000003</v>
+        <v>66.5201666666667</v>
       </c>
       <c r="H139" t="n">
         <v>0</v>
@@ -5284,19 +5746,19 @@
         <v>66</v>
       </c>
       <c r="C140" t="n">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="D140" t="n">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="E140" t="n">
         <v>66</v>
       </c>
       <c r="F140" t="n">
-        <v>803</v>
+        <v>752.6118</v>
       </c>
       <c r="G140" t="n">
-        <v>66.48350000000002</v>
+        <v>66.51850000000003</v>
       </c>
       <c r="H140" t="n">
         <v>0</v>
@@ -5316,22 +5778,22 @@
         <v>139</v>
       </c>
       <c r="B141" t="n">
-        <v>66.8</v>
+        <v>66</v>
       </c>
       <c r="C141" t="n">
-        <v>66.8</v>
+        <v>66</v>
       </c>
       <c r="D141" t="n">
-        <v>66.8</v>
+        <v>66</v>
       </c>
       <c r="E141" t="n">
-        <v>66.8</v>
+        <v>66</v>
       </c>
       <c r="F141" t="n">
-        <v>830.0009</v>
+        <v>803</v>
       </c>
       <c r="G141" t="n">
-        <v>66.46350000000002</v>
+        <v>66.48350000000002</v>
       </c>
       <c r="H141" t="n">
         <v>0</v>
@@ -5346,6 +5808,41 @@
         <v>1</v>
       </c>
     </row>
+    <row r="142">
+      <c r="A142" s="1" t="n">
+        <v>140</v>
+      </c>
+      <c r="B142" t="n">
+        <v>66.8</v>
+      </c>
+      <c r="C142" t="n">
+        <v>66.8</v>
+      </c>
+      <c r="D142" t="n">
+        <v>66.8</v>
+      </c>
+      <c r="E142" t="n">
+        <v>66.8</v>
+      </c>
+      <c r="F142" t="n">
+        <v>830.0009</v>
+      </c>
+      <c r="G142" t="n">
+        <v>66.46350000000002</v>
+      </c>
+      <c r="H142" t="n">
+        <v>0</v>
+      </c>
+      <c r="I142" t="n">
+        <v>0</v>
+      </c>
+      <c r="J142" t="inlineStr"/>
+      <c r="K142" t="inlineStr"/>
+      <c r="L142" t="inlineStr"/>
+      <c r="M142" t="n">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/BackTest/2020-01-24 BackTest FX.xlsx
+++ b/BackTest/2020-01-24 BackTest FX.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N152"/>
+  <dimension ref="A1:M181"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -394,40 +394,35 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>MA60</t>
+          <t>low_check</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>low_check</t>
+          <t>high_check</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>high_check</t>
+          <t>BuyPrice</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>BuyPrice</t>
+          <t>bprelay</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>bprelay</t>
+          <t>Condition</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>Condition</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>Profits</t>
         </is>
@@ -438,36 +433,33 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>65.01000000000001</v>
+        <v>67.06999999999999</v>
       </c>
       <c r="C2" t="n">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D2" t="n">
-        <v>66</v>
+        <v>67.06999999999999</v>
       </c>
       <c r="E2" t="n">
-        <v>65.01000000000001</v>
+        <v>67</v>
       </c>
       <c r="F2" t="n">
-        <v>19</v>
+        <v>37.1877</v>
       </c>
       <c r="G2" t="n">
-        <v>66.03333333333329</v>
+        <v>33961.23542282411</v>
       </c>
       <c r="H2" t="n">
-        <v>66.9068333333334</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
       </c>
-      <c r="J2" t="n">
-        <v>0</v>
-      </c>
+      <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr"/>
-      <c r="M2" t="inlineStr"/>
-      <c r="N2" t="n">
+      <c r="M2" t="n">
         <v>1</v>
       </c>
     </row>
@@ -476,36 +468,33 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>65.5</v>
+        <v>67.47</v>
       </c>
       <c r="C3" t="n">
-        <v>65.5</v>
+        <v>67.47</v>
       </c>
       <c r="D3" t="n">
-        <v>65.5</v>
+        <v>67.47</v>
       </c>
       <c r="E3" t="n">
-        <v>65.5</v>
+        <v>67.47</v>
       </c>
       <c r="F3" t="n">
-        <v>100</v>
+        <v>8</v>
       </c>
       <c r="G3" t="n">
-        <v>65.99266666666662</v>
+        <v>33969.23542282411</v>
       </c>
       <c r="H3" t="n">
-        <v>66.88183333333339</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
-      <c r="J3" t="n">
-        <v>0</v>
-      </c>
+      <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="inlineStr"/>
-      <c r="M3" t="inlineStr"/>
-      <c r="N3" t="n">
+      <c r="M3" t="n">
         <v>1</v>
       </c>
     </row>
@@ -514,36 +503,33 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>65.98999999999999</v>
+        <v>67</v>
       </c>
       <c r="C4" t="n">
-        <v>65.98999999999999</v>
+        <v>66.66</v>
       </c>
       <c r="D4" t="n">
-        <v>65.98999999999999</v>
+        <v>67</v>
       </c>
       <c r="E4" t="n">
-        <v>65.98999999999999</v>
+        <v>66.66</v>
       </c>
       <c r="F4" t="n">
-        <v>18</v>
+        <v>529.1807</v>
       </c>
       <c r="G4" t="n">
-        <v>65.91799999999995</v>
+        <v>33440.05472282411</v>
       </c>
       <c r="H4" t="n">
-        <v>66.86500000000005</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
-      <c r="J4" t="n">
-        <v>0</v>
-      </c>
+      <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
       <c r="L4" t="inlineStr"/>
-      <c r="M4" t="inlineStr"/>
-      <c r="N4" t="n">
+      <c r="M4" t="n">
         <v>1</v>
       </c>
     </row>
@@ -552,36 +538,33 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>66.48999999999999</v>
+        <v>66.51000000000001</v>
       </c>
       <c r="C5" t="n">
-        <v>66.48999999999999</v>
+        <v>66.51000000000001</v>
       </c>
       <c r="D5" t="n">
-        <v>66.48999999999999</v>
+        <v>66.51000000000001</v>
       </c>
       <c r="E5" t="n">
-        <v>66.48999999999999</v>
+        <v>66.51000000000001</v>
       </c>
       <c r="F5" t="n">
-        <v>18</v>
+        <v>600</v>
       </c>
       <c r="G5" t="n">
-        <v>65.94333333333327</v>
+        <v>32840.05472282411</v>
       </c>
       <c r="H5" t="n">
-        <v>66.85650000000005</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
       </c>
-      <c r="J5" t="n">
-        <v>0</v>
-      </c>
+      <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
       <c r="L5" t="inlineStr"/>
-      <c r="M5" t="inlineStr"/>
-      <c r="N5" t="n">
+      <c r="M5" t="n">
         <v>1</v>
       </c>
     </row>
@@ -590,36 +573,33 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>66.2</v>
+        <v>66.51000000000001</v>
       </c>
       <c r="C6" t="n">
-        <v>66.2</v>
+        <v>66.51000000000001</v>
       </c>
       <c r="D6" t="n">
-        <v>66.2</v>
+        <v>66.51000000000001</v>
       </c>
       <c r="E6" t="n">
-        <v>66.2</v>
+        <v>66.51000000000001</v>
       </c>
       <c r="F6" t="n">
-        <v>20</v>
+        <v>11.5283</v>
       </c>
       <c r="G6" t="n">
-        <v>65.94933333333327</v>
+        <v>32840.05472282411</v>
       </c>
       <c r="H6" t="n">
-        <v>66.82683333333338</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
       </c>
-      <c r="J6" t="n">
-        <v>0</v>
-      </c>
+      <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="inlineStr"/>
-      <c r="M6" t="inlineStr"/>
-      <c r="N6" t="n">
+      <c r="M6" t="n">
         <v>1</v>
       </c>
     </row>
@@ -640,24 +620,21 @@
         <v>66.5</v>
       </c>
       <c r="F7" t="n">
-        <v>360.4968</v>
+        <v>20</v>
       </c>
       <c r="G7" t="n">
-        <v>65.92533333333326</v>
+        <v>32820.05472282411</v>
       </c>
       <c r="H7" t="n">
-        <v>66.81850000000004</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
       </c>
-      <c r="J7" t="n">
-        <v>0</v>
-      </c>
+      <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
       <c r="L7" t="inlineStr"/>
-      <c r="M7" t="inlineStr"/>
-      <c r="N7" t="n">
+      <c r="M7" t="n">
         <v>1</v>
       </c>
     </row>
@@ -666,36 +643,33 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>66.3</v>
+        <v>65.90000000000001</v>
       </c>
       <c r="C8" t="n">
-        <v>66</v>
+        <v>65.81</v>
       </c>
       <c r="D8" t="n">
-        <v>66.3</v>
+        <v>65.90000000000001</v>
       </c>
       <c r="E8" t="n">
-        <v>66</v>
+        <v>65.81</v>
       </c>
       <c r="F8" t="n">
-        <v>140</v>
+        <v>150</v>
       </c>
       <c r="G8" t="n">
-        <v>65.89199999999991</v>
+        <v>32670.05472282411</v>
       </c>
       <c r="H8" t="n">
-        <v>66.78550000000004</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
       </c>
-      <c r="J8" t="n">
-        <v>0</v>
-      </c>
+      <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
       <c r="L8" t="inlineStr"/>
-      <c r="M8" t="inlineStr"/>
-      <c r="N8" t="n">
+      <c r="M8" t="n">
         <v>1</v>
       </c>
     </row>
@@ -704,36 +678,33 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>65.3</v>
+        <v>66.5</v>
       </c>
       <c r="C9" t="n">
-        <v>65.3</v>
+        <v>66.5</v>
       </c>
       <c r="D9" t="n">
-        <v>65.3</v>
+        <v>66.5</v>
       </c>
       <c r="E9" t="n">
-        <v>65.3</v>
+        <v>66.5</v>
       </c>
       <c r="F9" t="n">
-        <v>1277.1684</v>
+        <v>8</v>
       </c>
       <c r="G9" t="n">
-        <v>65.82533333333325</v>
+        <v>32678.05472282411</v>
       </c>
       <c r="H9" t="n">
-        <v>66.74066666666673</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
       </c>
-      <c r="J9" t="n">
-        <v>0</v>
-      </c>
+      <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
       <c r="L9" t="inlineStr"/>
-      <c r="M9" t="inlineStr"/>
-      <c r="N9" t="n">
+      <c r="M9" t="n">
         <v>1</v>
       </c>
     </row>
@@ -754,24 +725,21 @@
         <v>66.5</v>
       </c>
       <c r="F10" t="n">
-        <v>8</v>
+        <v>810</v>
       </c>
       <c r="G10" t="n">
-        <v>65.87866666666658</v>
+        <v>32678.05472282411</v>
       </c>
       <c r="H10" t="n">
-        <v>66.72383333333339</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
       </c>
-      <c r="J10" t="n">
-        <v>0</v>
-      </c>
+      <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
       <c r="L10" t="inlineStr"/>
-      <c r="M10" t="inlineStr"/>
-      <c r="N10" t="n">
+      <c r="M10" t="n">
         <v>1</v>
       </c>
     </row>
@@ -780,36 +748,33 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>66.45</v>
+        <v>67.39</v>
       </c>
       <c r="C11" t="n">
-        <v>65.01000000000001</v>
+        <v>67.39</v>
       </c>
       <c r="D11" t="n">
-        <v>66.45</v>
+        <v>67.39</v>
       </c>
       <c r="E11" t="n">
-        <v>65.01000000000001</v>
+        <v>67.39</v>
       </c>
       <c r="F11" t="n">
-        <v>5851</v>
+        <v>8</v>
       </c>
       <c r="G11" t="n">
-        <v>65.88599999999991</v>
+        <v>32686.05472282411</v>
       </c>
       <c r="H11" t="n">
-        <v>66.67416666666672</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
       </c>
-      <c r="J11" t="n">
-        <v>0</v>
-      </c>
+      <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
       <c r="L11" t="inlineStr"/>
-      <c r="M11" t="inlineStr"/>
-      <c r="N11" t="n">
+      <c r="M11" t="n">
         <v>1</v>
       </c>
     </row>
@@ -818,36 +783,33 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>66.98999999999999</v>
+        <v>67.39</v>
       </c>
       <c r="C12" t="n">
-        <v>66.98999999999999</v>
+        <v>67.39</v>
       </c>
       <c r="D12" t="n">
-        <v>66.98999999999999</v>
+        <v>67.39</v>
       </c>
       <c r="E12" t="n">
-        <v>66.98999999999999</v>
+        <v>67.39</v>
       </c>
       <c r="F12" t="n">
-        <v>8</v>
+        <v>170.7144</v>
       </c>
       <c r="G12" t="n">
-        <v>65.97933333333324</v>
+        <v>32686.05472282411</v>
       </c>
       <c r="H12" t="n">
-        <v>66.65750000000006</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
       </c>
-      <c r="J12" t="n">
-        <v>0</v>
-      </c>
+      <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
       <c r="L12" t="inlineStr"/>
-      <c r="M12" t="inlineStr"/>
-      <c r="N12" t="n">
+      <c r="M12" t="n">
         <v>1</v>
       </c>
     </row>
@@ -856,36 +818,33 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>66.7</v>
+        <v>67</v>
       </c>
       <c r="C13" t="n">
-        <v>67</v>
+        <v>66.58</v>
       </c>
       <c r="D13" t="n">
         <v>67</v>
       </c>
       <c r="E13" t="n">
-        <v>66.7</v>
+        <v>66.58</v>
       </c>
       <c r="F13" t="n">
-        <v>499.4876145522388</v>
+        <v>367.2078</v>
       </c>
       <c r="G13" t="n">
-        <v>66.01266666666658</v>
+        <v>32318.84692282411</v>
       </c>
       <c r="H13" t="n">
-        <v>66.64116666666672</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
       </c>
-      <c r="J13" t="n">
-        <v>0</v>
-      </c>
+      <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr"/>
       <c r="L13" t="inlineStr"/>
-      <c r="M13" t="inlineStr"/>
-      <c r="N13" t="n">
+      <c r="M13" t="n">
         <v>1</v>
       </c>
     </row>
@@ -894,36 +853,33 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>65.2</v>
+        <v>66.09999999999999</v>
       </c>
       <c r="C14" t="n">
-        <v>65.2</v>
+        <v>66.09999999999999</v>
       </c>
       <c r="D14" t="n">
-        <v>65.2</v>
+        <v>66.09999999999999</v>
       </c>
       <c r="E14" t="n">
-        <v>65.2</v>
+        <v>66.09999999999999</v>
       </c>
       <c r="F14" t="n">
-        <v>306.5513</v>
+        <v>300</v>
       </c>
       <c r="G14" t="n">
-        <v>66.01866666666658</v>
+        <v>32018.84692282411</v>
       </c>
       <c r="H14" t="n">
-        <v>66.62783333333338</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
       </c>
-      <c r="J14" t="n">
-        <v>0</v>
-      </c>
+      <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr"/>
       <c r="L14" t="inlineStr"/>
-      <c r="M14" t="inlineStr"/>
-      <c r="N14" t="n">
+      <c r="M14" t="n">
         <v>1</v>
       </c>
     </row>
@@ -932,36 +888,33 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>65.2</v>
+        <v>66.11</v>
       </c>
       <c r="C15" t="n">
-        <v>65.2</v>
+        <v>66.09999999999999</v>
       </c>
       <c r="D15" t="n">
-        <v>65.2</v>
+        <v>66.11</v>
       </c>
       <c r="E15" t="n">
-        <v>65.2</v>
+        <v>66.09999999999999</v>
       </c>
       <c r="F15" t="n">
-        <v>7951.0687</v>
+        <v>297.5061</v>
       </c>
       <c r="G15" t="n">
-        <v>65.93266666666658</v>
+        <v>32018.84692282411</v>
       </c>
       <c r="H15" t="n">
-        <v>66.58316666666671</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
       </c>
-      <c r="J15" t="n">
-        <v>0</v>
-      </c>
+      <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr"/>
       <c r="L15" t="inlineStr"/>
-      <c r="M15" t="inlineStr"/>
-      <c r="N15" t="n">
+      <c r="M15" t="n">
         <v>1</v>
       </c>
     </row>
@@ -970,36 +923,33 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>66.73</v>
+        <v>66.09999999999999</v>
       </c>
       <c r="C16" t="n">
-        <v>66.73</v>
+        <v>67.3</v>
       </c>
       <c r="D16" t="n">
-        <v>66.73</v>
+        <v>67.3</v>
       </c>
       <c r="E16" t="n">
-        <v>66.73</v>
+        <v>66.09999999999999</v>
       </c>
       <c r="F16" t="n">
-        <v>8</v>
+        <v>10.4939</v>
       </c>
       <c r="G16" t="n">
-        <v>66.04066666666658</v>
+        <v>32029.34082282411</v>
       </c>
       <c r="H16" t="n">
-        <v>66.56400000000005</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
       </c>
-      <c r="J16" t="n">
-        <v>0</v>
-      </c>
+      <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr"/>
       <c r="L16" t="inlineStr"/>
-      <c r="M16" t="inlineStr"/>
-      <c r="N16" t="n">
+      <c r="M16" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1008,36 +958,33 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>65.2</v>
+        <v>66.11</v>
       </c>
       <c r="C17" t="n">
-        <v>65.2</v>
+        <v>66.11</v>
       </c>
       <c r="D17" t="n">
-        <v>65.2</v>
+        <v>66.11</v>
       </c>
       <c r="E17" t="n">
-        <v>65.2</v>
+        <v>66.11</v>
       </c>
       <c r="F17" t="n">
-        <v>2300</v>
+        <v>100</v>
       </c>
       <c r="G17" t="n">
-        <v>65.98733333333324</v>
+        <v>31929.34082282411</v>
       </c>
       <c r="H17" t="n">
-        <v>66.53383333333338</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
       </c>
-      <c r="J17" t="n">
-        <v>0</v>
-      </c>
+      <c r="J17" t="inlineStr"/>
       <c r="K17" t="inlineStr"/>
       <c r="L17" t="inlineStr"/>
-      <c r="M17" t="inlineStr"/>
-      <c r="N17" t="n">
+      <c r="M17" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1046,36 +993,33 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>66.2</v>
+        <v>67.11</v>
       </c>
       <c r="C18" t="n">
-        <v>66.2</v>
+        <v>67.11</v>
       </c>
       <c r="D18" t="n">
-        <v>66.2</v>
+        <v>67.11</v>
       </c>
       <c r="E18" t="n">
-        <v>66.2</v>
+        <v>67.11</v>
       </c>
       <c r="F18" t="n">
         <v>8</v>
       </c>
       <c r="G18" t="n">
-        <v>66.03399999999991</v>
+        <v>31937.34082282411</v>
       </c>
       <c r="H18" t="n">
-        <v>66.51933333333336</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
       </c>
-      <c r="J18" t="n">
-        <v>0</v>
-      </c>
+      <c r="J18" t="inlineStr"/>
       <c r="K18" t="inlineStr"/>
       <c r="L18" t="inlineStr"/>
-      <c r="M18" t="inlineStr"/>
-      <c r="N18" t="n">
+      <c r="M18" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1084,40 +1028,33 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>66.53</v>
+        <v>66.11</v>
       </c>
       <c r="C19" t="n">
-        <v>66.54000000000001</v>
+        <v>66.11</v>
       </c>
       <c r="D19" t="n">
-        <v>66.54000000000001</v>
+        <v>66.11</v>
       </c>
       <c r="E19" t="n">
-        <v>66.53</v>
+        <v>66.11</v>
       </c>
       <c r="F19" t="n">
-        <v>20344</v>
+        <v>100</v>
       </c>
       <c r="G19" t="n">
-        <v>66.07066666666657</v>
+        <v>31837.34082282411</v>
       </c>
       <c r="H19" t="n">
-        <v>66.49700000000003</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>1</v>
-      </c>
-      <c r="J19" t="n">
-        <v>0</v>
-      </c>
-      <c r="K19" t="n">
-        <v>66.2</v>
-      </c>
-      <c r="L19" t="n">
-        <v>66.2</v>
-      </c>
-      <c r="M19" t="inlineStr"/>
-      <c r="N19" t="n">
+        <v>0</v>
+      </c>
+      <c r="J19" t="inlineStr"/>
+      <c r="K19" t="inlineStr"/>
+      <c r="L19" t="inlineStr"/>
+      <c r="M19" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1126,42 +1063,33 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>66.54000000000001</v>
+        <v>66.11</v>
       </c>
       <c r="C20" t="n">
-        <v>66.54000000000001</v>
+        <v>66.11</v>
       </c>
       <c r="D20" t="n">
-        <v>66.54000000000001</v>
+        <v>66.11</v>
       </c>
       <c r="E20" t="n">
-        <v>66.54000000000001</v>
+        <v>66.11</v>
       </c>
       <c r="F20" t="n">
-        <v>10100</v>
+        <v>36.1298</v>
       </c>
       <c r="G20" t="n">
-        <v>66.0739999999999</v>
+        <v>31837.34082282411</v>
       </c>
       <c r="H20" t="n">
-        <v>66.48100000000004</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
       </c>
-      <c r="J20" t="n">
-        <v>0</v>
-      </c>
+      <c r="J20" t="inlineStr"/>
       <c r="K20" t="inlineStr"/>
-      <c r="L20" t="n">
-        <v>66.2</v>
-      </c>
-      <c r="M20" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="N20" t="n">
+      <c r="L20" t="inlineStr"/>
+      <c r="M20" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1170,44 +1098,33 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>66.59999999999999</v>
+        <v>66.11</v>
       </c>
       <c r="C21" t="n">
-        <v>66.54000000000001</v>
+        <v>66.86</v>
       </c>
       <c r="D21" t="n">
-        <v>66.59999999999999</v>
+        <v>66.86</v>
       </c>
       <c r="E21" t="n">
-        <v>66.54000000000001</v>
+        <v>66.11</v>
       </c>
       <c r="F21" t="n">
-        <v>4445.1312</v>
+        <v>16.99089178881244</v>
       </c>
       <c r="G21" t="n">
-        <v>66.09666666666656</v>
+        <v>31854.33171461293</v>
       </c>
       <c r="H21" t="n">
-        <v>66.4651666666667</v>
+        <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>1</v>
-      </c>
-      <c r="J21" t="n">
-        <v>0</v>
-      </c>
-      <c r="K21" t="n">
-        <v>66.54000000000001</v>
-      </c>
-      <c r="L21" t="n">
-        <v>66.2</v>
-      </c>
-      <c r="M21" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="N21" t="n">
+        <v>0</v>
+      </c>
+      <c r="J21" t="inlineStr"/>
+      <c r="K21" t="inlineStr"/>
+      <c r="L21" t="inlineStr"/>
+      <c r="M21" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1216,36 +1133,33 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>66.54000000000001</v>
+        <v>66.5</v>
       </c>
       <c r="C22" t="n">
-        <v>66.54000000000001</v>
+        <v>66.5</v>
       </c>
       <c r="D22" t="n">
-        <v>66.54000000000001</v>
+        <v>66.5</v>
       </c>
       <c r="E22" t="n">
-        <v>66.54000000000001</v>
+        <v>66.5</v>
       </c>
       <c r="F22" t="n">
-        <v>10000.5788</v>
+        <v>9</v>
       </c>
       <c r="G22" t="n">
-        <v>66.09933333333323</v>
+        <v>31845.33171461293</v>
       </c>
       <c r="H22" t="n">
-        <v>66.45250000000003</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
       </c>
-      <c r="J22" t="n">
-        <v>0</v>
-      </c>
+      <c r="J22" t="inlineStr"/>
       <c r="K22" t="inlineStr"/>
       <c r="L22" t="inlineStr"/>
-      <c r="M22" t="inlineStr"/>
-      <c r="N22" t="n">
+      <c r="M22" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1254,40 +1168,33 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>66.56</v>
+        <v>66.3</v>
       </c>
       <c r="C23" t="n">
-        <v>66.56</v>
+        <v>66.3</v>
       </c>
       <c r="D23" t="n">
-        <v>66.56</v>
+        <v>66.3</v>
       </c>
       <c r="E23" t="n">
-        <v>66.56</v>
+        <v>66.3</v>
       </c>
       <c r="F23" t="n">
-        <v>11539.7811</v>
+        <v>9</v>
       </c>
       <c r="G23" t="n">
-        <v>66.13666666666656</v>
+        <v>31836.33171461293</v>
       </c>
       <c r="H23" t="n">
-        <v>66.44350000000003</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1</v>
-      </c>
-      <c r="J23" t="n">
-        <v>0</v>
-      </c>
-      <c r="K23" t="n">
-        <v>66.54000000000001</v>
-      </c>
-      <c r="L23" t="n">
-        <v>66.54000000000001</v>
-      </c>
-      <c r="M23" t="inlineStr"/>
-      <c r="N23" t="n">
+        <v>0</v>
+      </c>
+      <c r="J23" t="inlineStr"/>
+      <c r="K23" t="inlineStr"/>
+      <c r="L23" t="inlineStr"/>
+      <c r="M23" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1296,44 +1203,33 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>66.56</v>
+        <v>65.81</v>
       </c>
       <c r="C24" t="n">
-        <v>66.56</v>
+        <v>65.7</v>
       </c>
       <c r="D24" t="n">
-        <v>66.56</v>
+        <v>65.81</v>
       </c>
       <c r="E24" t="n">
-        <v>66.56</v>
+        <v>65.7</v>
       </c>
       <c r="F24" t="n">
-        <v>1620.3589</v>
+        <v>8103.0354</v>
       </c>
       <c r="G24" t="n">
-        <v>66.22066666666656</v>
+        <v>23733.29631461293</v>
       </c>
       <c r="H24" t="n">
-        <v>66.42783333333337</v>
+        <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>1</v>
-      </c>
-      <c r="J24" t="n">
-        <v>0</v>
-      </c>
-      <c r="K24" t="n">
-        <v>66.56</v>
-      </c>
-      <c r="L24" t="n">
-        <v>66.54000000000001</v>
-      </c>
-      <c r="M24" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="N24" t="n">
+        <v>0</v>
+      </c>
+      <c r="J24" t="inlineStr"/>
+      <c r="K24" t="inlineStr"/>
+      <c r="L24" t="inlineStr"/>
+      <c r="M24" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1342,44 +1238,33 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>66.8</v>
+        <v>65.44</v>
       </c>
       <c r="C25" t="n">
-        <v>66.90000000000001</v>
+        <v>64.90000000000001</v>
       </c>
       <c r="D25" t="n">
-        <v>66.90000000000001</v>
+        <v>65.44</v>
       </c>
       <c r="E25" t="n">
-        <v>66.8</v>
+        <v>64.90000000000001</v>
       </c>
       <c r="F25" t="n">
-        <v>9500.947099999999</v>
+        <v>20699.0677</v>
       </c>
       <c r="G25" t="n">
-        <v>66.24733333333323</v>
+        <v>3034.228614612926</v>
       </c>
       <c r="H25" t="n">
-        <v>66.41950000000003</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>1</v>
-      </c>
-      <c r="J25" t="n">
-        <v>0</v>
-      </c>
-      <c r="K25" t="n">
-        <v>66.56</v>
-      </c>
-      <c r="L25" t="n">
-        <v>66.54000000000001</v>
-      </c>
-      <c r="M25" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="N25" t="n">
+        <v>0</v>
+      </c>
+      <c r="J25" t="inlineStr"/>
+      <c r="K25" t="inlineStr"/>
+      <c r="L25" t="inlineStr"/>
+      <c r="M25" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1388,36 +1273,33 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>67</v>
+        <v>65.5</v>
       </c>
       <c r="C26" t="n">
-        <v>67</v>
+        <v>65.59</v>
       </c>
       <c r="D26" t="n">
-        <v>67</v>
+        <v>65.59</v>
       </c>
       <c r="E26" t="n">
-        <v>67</v>
+        <v>65.5</v>
       </c>
       <c r="F26" t="n">
-        <v>5077.423885447761</v>
+        <v>10000</v>
       </c>
       <c r="G26" t="n">
-        <v>66.3799999999999</v>
+        <v>13034.22861461293</v>
       </c>
       <c r="H26" t="n">
-        <v>66.4111666666667</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
       </c>
-      <c r="J26" t="n">
-        <v>0</v>
-      </c>
+      <c r="J26" t="inlineStr"/>
       <c r="K26" t="inlineStr"/>
       <c r="L26" t="inlineStr"/>
-      <c r="M26" t="inlineStr"/>
-      <c r="N26" t="n">
+      <c r="M26" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1426,36 +1308,33 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>67.5</v>
+        <v>65.59</v>
       </c>
       <c r="C27" t="n">
-        <v>67.98</v>
+        <v>66.5</v>
       </c>
       <c r="D27" t="n">
-        <v>67.98</v>
+        <v>66.5</v>
       </c>
       <c r="E27" t="n">
-        <v>67.5</v>
+        <v>65.59</v>
       </c>
       <c r="F27" t="n">
-        <v>1836.1611</v>
+        <v>15913.3822</v>
       </c>
       <c r="G27" t="n">
-        <v>66.4459999999999</v>
+        <v>28947.61081461293</v>
       </c>
       <c r="H27" t="n">
-        <v>66.42083333333336</v>
+        <v>0</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
       </c>
-      <c r="J27" t="n">
-        <v>0</v>
-      </c>
+      <c r="J27" t="inlineStr"/>
       <c r="K27" t="inlineStr"/>
       <c r="L27" t="inlineStr"/>
-      <c r="M27" t="inlineStr"/>
-      <c r="N27" t="n">
+      <c r="M27" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1464,36 +1343,33 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>66.69</v>
+        <v>65.11</v>
       </c>
       <c r="C28" t="n">
-        <v>68.3</v>
+        <v>65.11</v>
       </c>
       <c r="D28" t="n">
-        <v>68.3</v>
+        <v>65.11</v>
       </c>
       <c r="E28" t="n">
-        <v>66.69</v>
+        <v>65.11</v>
       </c>
       <c r="F28" t="n">
-        <v>54443.3814</v>
+        <v>360.4969</v>
       </c>
       <c r="G28" t="n">
-        <v>66.53266666666656</v>
+        <v>28587.11391461293</v>
       </c>
       <c r="H28" t="n">
-        <v>66.43583333333336</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
       </c>
-      <c r="J28" t="n">
-        <v>0</v>
-      </c>
+      <c r="J28" t="inlineStr"/>
       <c r="K28" t="inlineStr"/>
       <c r="L28" t="inlineStr"/>
-      <c r="M28" t="inlineStr"/>
-      <c r="N28" t="n">
+      <c r="M28" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1502,36 +1378,33 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>68.42</v>
+        <v>66.48999999999999</v>
       </c>
       <c r="C29" t="n">
-        <v>68.42</v>
+        <v>66.48999999999999</v>
       </c>
       <c r="D29" t="n">
-        <v>68.42</v>
+        <v>66.48999999999999</v>
       </c>
       <c r="E29" t="n">
-        <v>68.42</v>
+        <v>66.48999999999999</v>
       </c>
       <c r="F29" t="n">
-        <v>976.2195</v>
+        <v>20</v>
       </c>
       <c r="G29" t="n">
-        <v>66.74733333333323</v>
+        <v>28607.11391461293</v>
       </c>
       <c r="H29" t="n">
-        <v>66.45133333333337</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
       </c>
-      <c r="J29" t="n">
-        <v>0</v>
-      </c>
+      <c r="J29" t="inlineStr"/>
       <c r="K29" t="inlineStr"/>
       <c r="L29" t="inlineStr"/>
-      <c r="M29" t="inlineStr"/>
-      <c r="N29" t="n">
+      <c r="M29" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1540,36 +1413,33 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>68.42</v>
+        <v>65.11</v>
       </c>
       <c r="C30" t="n">
-        <v>68.42</v>
+        <v>65.11</v>
       </c>
       <c r="D30" t="n">
-        <v>68.42</v>
+        <v>65.11</v>
       </c>
       <c r="E30" t="n">
-        <v>68.42</v>
+        <v>65.11</v>
       </c>
       <c r="F30" t="n">
-        <v>1240</v>
+        <v>7482.7938</v>
       </c>
       <c r="G30" t="n">
-        <v>66.9619999999999</v>
+        <v>21124.32011461293</v>
       </c>
       <c r="H30" t="n">
-        <v>66.46700000000004</v>
+        <v>0</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
       </c>
-      <c r="J30" t="n">
-        <v>0</v>
-      </c>
+      <c r="J30" t="inlineStr"/>
       <c r="K30" t="inlineStr"/>
       <c r="L30" t="inlineStr"/>
-      <c r="M30" t="inlineStr"/>
-      <c r="N30" t="n">
+      <c r="M30" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1578,36 +1448,33 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>68.42</v>
+        <v>65.01000000000001</v>
       </c>
       <c r="C31" t="n">
-        <v>68.42</v>
+        <v>66</v>
       </c>
       <c r="D31" t="n">
-        <v>68.42</v>
+        <v>66</v>
       </c>
       <c r="E31" t="n">
-        <v>68.42</v>
+        <v>65.01000000000001</v>
       </c>
       <c r="F31" t="n">
-        <v>7000</v>
+        <v>19</v>
       </c>
       <c r="G31" t="n">
-        <v>67.07466666666657</v>
+        <v>21143.32011461293</v>
       </c>
       <c r="H31" t="n">
-        <v>66.48400000000004</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
       </c>
-      <c r="J31" t="n">
-        <v>0</v>
-      </c>
+      <c r="J31" t="inlineStr"/>
       <c r="K31" t="inlineStr"/>
       <c r="L31" t="inlineStr"/>
-      <c r="M31" t="inlineStr"/>
-      <c r="N31" t="n">
+      <c r="M31" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1616,36 +1483,33 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>68.42</v>
+        <v>65.5</v>
       </c>
       <c r="C32" t="n">
-        <v>68.42</v>
+        <v>65.5</v>
       </c>
       <c r="D32" t="n">
-        <v>68.42</v>
+        <v>65.5</v>
       </c>
       <c r="E32" t="n">
-        <v>68.42</v>
+        <v>65.5</v>
       </c>
       <c r="F32" t="n">
-        <v>505</v>
+        <v>100</v>
       </c>
       <c r="G32" t="n">
-        <v>67.28933333333323</v>
+        <v>21043.32011461293</v>
       </c>
       <c r="H32" t="n">
-        <v>66.49950000000004</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
       </c>
-      <c r="J32" t="n">
-        <v>0</v>
-      </c>
+      <c r="J32" t="inlineStr"/>
       <c r="K32" t="inlineStr"/>
       <c r="L32" t="inlineStr"/>
-      <c r="M32" t="inlineStr"/>
-      <c r="N32" t="n">
+      <c r="M32" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1654,36 +1518,33 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>68.42</v>
+        <v>65.98999999999999</v>
       </c>
       <c r="C33" t="n">
-        <v>68.42</v>
+        <v>65.98999999999999</v>
       </c>
       <c r="D33" t="n">
-        <v>68.42</v>
+        <v>65.98999999999999</v>
       </c>
       <c r="E33" t="n">
-        <v>68.42</v>
+        <v>65.98999999999999</v>
       </c>
       <c r="F33" t="n">
-        <v>2000</v>
+        <v>18</v>
       </c>
       <c r="G33" t="n">
-        <v>67.43733333333324</v>
+        <v>21061.32011461293</v>
       </c>
       <c r="H33" t="n">
-        <v>66.52316666666671</v>
+        <v>0</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
       </c>
-      <c r="J33" t="n">
-        <v>0</v>
-      </c>
+      <c r="J33" t="inlineStr"/>
       <c r="K33" t="inlineStr"/>
       <c r="L33" t="inlineStr"/>
-      <c r="M33" t="inlineStr"/>
-      <c r="N33" t="n">
+      <c r="M33" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1692,36 +1553,33 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>68.42</v>
+        <v>66.48999999999999</v>
       </c>
       <c r="C34" t="n">
-        <v>68.42</v>
+        <v>66.48999999999999</v>
       </c>
       <c r="D34" t="n">
-        <v>68.42</v>
+        <v>66.48999999999999</v>
       </c>
       <c r="E34" t="n">
-        <v>68.42</v>
+        <v>66.48999999999999</v>
       </c>
       <c r="F34" t="n">
-        <v>479.787</v>
+        <v>18</v>
       </c>
       <c r="G34" t="n">
-        <v>67.56266666666657</v>
+        <v>21079.32011461293</v>
       </c>
       <c r="H34" t="n">
-        <v>66.53900000000004</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
       </c>
-      <c r="J34" t="n">
-        <v>0</v>
-      </c>
+      <c r="J34" t="inlineStr"/>
       <c r="K34" t="inlineStr"/>
       <c r="L34" t="inlineStr"/>
-      <c r="M34" t="inlineStr"/>
-      <c r="N34" t="n">
+      <c r="M34" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1730,36 +1588,33 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>68.42</v>
+        <v>66.2</v>
       </c>
       <c r="C35" t="n">
-        <v>68.42</v>
+        <v>66.2</v>
       </c>
       <c r="D35" t="n">
-        <v>68.42</v>
+        <v>66.2</v>
       </c>
       <c r="E35" t="n">
-        <v>67.62</v>
+        <v>66.2</v>
       </c>
       <c r="F35" t="n">
-        <v>1732</v>
+        <v>20</v>
       </c>
       <c r="G35" t="n">
-        <v>67.68799999999992</v>
+        <v>21059.32011461293</v>
       </c>
       <c r="H35" t="n">
-        <v>66.56833333333338</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
       </c>
-      <c r="J35" t="n">
-        <v>0</v>
-      </c>
+      <c r="J35" t="inlineStr"/>
       <c r="K35" t="inlineStr"/>
       <c r="L35" t="inlineStr"/>
-      <c r="M35" t="inlineStr"/>
-      <c r="N35" t="n">
+      <c r="M35" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1768,36 +1623,33 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>67.62</v>
+        <v>66.5</v>
       </c>
       <c r="C36" t="n">
-        <v>67.62</v>
+        <v>66.5</v>
       </c>
       <c r="D36" t="n">
-        <v>67.62</v>
+        <v>66.5</v>
       </c>
       <c r="E36" t="n">
-        <v>67.62</v>
+        <v>66.5</v>
       </c>
       <c r="F36" t="n">
-        <v>0.0454</v>
+        <v>360.4968</v>
       </c>
       <c r="G36" t="n">
-        <v>67.75999999999992</v>
+        <v>21419.81691461293</v>
       </c>
       <c r="H36" t="n">
-        <v>66.58683333333337</v>
+        <v>0</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
       </c>
-      <c r="J36" t="n">
-        <v>0</v>
-      </c>
+      <c r="J36" t="inlineStr"/>
       <c r="K36" t="inlineStr"/>
       <c r="L36" t="inlineStr"/>
-      <c r="M36" t="inlineStr"/>
-      <c r="N36" t="n">
+      <c r="M36" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1806,36 +1658,33 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>66</v>
+        <v>66.3</v>
       </c>
       <c r="C37" t="n">
         <v>66</v>
       </c>
       <c r="D37" t="n">
-        <v>66</v>
+        <v>66.3</v>
       </c>
       <c r="E37" t="n">
         <v>66</v>
       </c>
       <c r="F37" t="n">
-        <v>803.2178</v>
+        <v>140</v>
       </c>
       <c r="G37" t="n">
-        <v>67.72399999999992</v>
+        <v>21279.81691461293</v>
       </c>
       <c r="H37" t="n">
-        <v>66.57833333333338</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
       </c>
-      <c r="J37" t="n">
-        <v>0</v>
-      </c>
+      <c r="J37" t="inlineStr"/>
       <c r="K37" t="inlineStr"/>
       <c r="L37" t="inlineStr"/>
-      <c r="M37" t="inlineStr"/>
-      <c r="N37" t="n">
+      <c r="M37" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1844,36 +1693,33 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>65.91</v>
+        <v>65.3</v>
       </c>
       <c r="C38" t="n">
-        <v>65.91</v>
+        <v>65.3</v>
       </c>
       <c r="D38" t="n">
-        <v>65.91</v>
+        <v>65.3</v>
       </c>
       <c r="E38" t="n">
-        <v>65.91</v>
+        <v>65.3</v>
       </c>
       <c r="F38" t="n">
-        <v>866.239</v>
+        <v>1277.1684</v>
       </c>
       <c r="G38" t="n">
-        <v>67.6806666666666</v>
+        <v>20002.64851461293</v>
       </c>
       <c r="H38" t="n">
-        <v>66.56850000000004</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
       </c>
-      <c r="J38" t="n">
-        <v>0</v>
-      </c>
+      <c r="J38" t="inlineStr"/>
       <c r="K38" t="inlineStr"/>
       <c r="L38" t="inlineStr"/>
-      <c r="M38" t="inlineStr"/>
-      <c r="N38" t="n">
+      <c r="M38" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1882,36 +1728,33 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>65.8</v>
+        <v>66.5</v>
       </c>
       <c r="C39" t="n">
-        <v>65.8</v>
+        <v>66.5</v>
       </c>
       <c r="D39" t="n">
-        <v>65.8</v>
+        <v>66.5</v>
       </c>
       <c r="E39" t="n">
-        <v>65.8</v>
+        <v>66.5</v>
       </c>
       <c r="F39" t="n">
-        <v>7699.9546</v>
+        <v>8</v>
       </c>
       <c r="G39" t="n">
-        <v>67.62999999999992</v>
+        <v>20010.64851461293</v>
       </c>
       <c r="H39" t="n">
-        <v>66.56833333333337</v>
+        <v>0</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
       </c>
-      <c r="J39" t="n">
-        <v>0</v>
-      </c>
+      <c r="J39" t="inlineStr"/>
       <c r="K39" t="inlineStr"/>
       <c r="L39" t="inlineStr"/>
-      <c r="M39" t="inlineStr"/>
-      <c r="N39" t="n">
+      <c r="M39" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1920,36 +1763,39 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>67.61</v>
+        <v>66.45</v>
       </c>
       <c r="C40" t="n">
-        <v>67.61</v>
+        <v>65.01000000000001</v>
       </c>
       <c r="D40" t="n">
-        <v>67.61</v>
+        <v>66.45</v>
       </c>
       <c r="E40" t="n">
-        <v>67.61</v>
+        <v>65.01000000000001</v>
       </c>
       <c r="F40" t="n">
-        <v>40.2773</v>
+        <v>5851</v>
       </c>
       <c r="G40" t="n">
-        <v>67.67733333333325</v>
+        <v>14159.64851461293</v>
       </c>
       <c r="H40" t="n">
-        <v>66.58683333333337</v>
+        <v>1</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>0</v>
+        <v>66.5</v>
       </c>
       <c r="K40" t="inlineStr"/>
-      <c r="L40" t="inlineStr"/>
-      <c r="M40" t="inlineStr"/>
-      <c r="N40" t="n">
+      <c r="L40" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="M40" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1958,36 +1804,39 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>67.61</v>
+        <v>66.98999999999999</v>
       </c>
       <c r="C41" t="n">
-        <v>67.61</v>
+        <v>66.98999999999999</v>
       </c>
       <c r="D41" t="n">
-        <v>67.61</v>
+        <v>66.98999999999999</v>
       </c>
       <c r="E41" t="n">
-        <v>67.61</v>
+        <v>66.98999999999999</v>
       </c>
       <c r="F41" t="n">
-        <v>2718.467</v>
+        <v>8</v>
       </c>
       <c r="G41" t="n">
-        <v>67.71799999999992</v>
+        <v>14167.64851461293</v>
       </c>
       <c r="H41" t="n">
-        <v>66.60533333333338</v>
+        <v>1</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>65.01000000000001</v>
       </c>
       <c r="K41" t="inlineStr"/>
-      <c r="L41" t="inlineStr"/>
-      <c r="M41" t="inlineStr"/>
-      <c r="N41" t="n">
+      <c r="L41" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M41" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1996,36 +1845,37 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>67.7</v>
+        <v>66.7</v>
       </c>
       <c r="C42" t="n">
-        <v>68.3</v>
+        <v>67</v>
       </c>
       <c r="D42" t="n">
-        <v>68.3</v>
+        <v>67</v>
       </c>
       <c r="E42" t="n">
-        <v>67.62</v>
+        <v>66.7</v>
       </c>
       <c r="F42" t="n">
-        <v>13838.0995</v>
+        <v>499.4876145522388</v>
       </c>
       <c r="G42" t="n">
-        <v>67.73933333333325</v>
+        <v>14667.13612916517</v>
       </c>
       <c r="H42" t="n">
-        <v>66.62050000000005</v>
+        <v>0</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
       </c>
-      <c r="J42" t="n">
-        <v>0</v>
-      </c>
+      <c r="J42" t="inlineStr"/>
       <c r="K42" t="inlineStr"/>
-      <c r="L42" t="inlineStr"/>
-      <c r="M42" t="inlineStr"/>
-      <c r="N42" t="n">
+      <c r="L42" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M42" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2034,36 +1884,37 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>67.62</v>
+        <v>65.2</v>
       </c>
       <c r="C43" t="n">
-        <v>67.61</v>
+        <v>65.2</v>
       </c>
       <c r="D43" t="n">
-        <v>67.62</v>
+        <v>65.2</v>
       </c>
       <c r="E43" t="n">
-        <v>67.61</v>
+        <v>65.2</v>
       </c>
       <c r="F43" t="n">
-        <v>34502.2672</v>
+        <v>306.5513</v>
       </c>
       <c r="G43" t="n">
-        <v>67.69333333333324</v>
+        <v>14360.58482916517</v>
       </c>
       <c r="H43" t="n">
-        <v>66.62416666666672</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
       </c>
-      <c r="J43" t="n">
-        <v>0</v>
-      </c>
+      <c r="J43" t="inlineStr"/>
       <c r="K43" t="inlineStr"/>
-      <c r="L43" t="inlineStr"/>
-      <c r="M43" t="inlineStr"/>
-      <c r="N43" t="n">
+      <c r="L43" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M43" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2072,36 +1923,37 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>68.2</v>
+        <v>65.2</v>
       </c>
       <c r="C44" t="n">
-        <v>68.2</v>
+        <v>65.2</v>
       </c>
       <c r="D44" t="n">
-        <v>68.2</v>
+        <v>65.2</v>
       </c>
       <c r="E44" t="n">
-        <v>68.2</v>
+        <v>65.2</v>
       </c>
       <c r="F44" t="n">
-        <v>8</v>
+        <v>7951.0687</v>
       </c>
       <c r="G44" t="n">
-        <v>67.67866666666659</v>
+        <v>14360.58482916517</v>
       </c>
       <c r="H44" t="n">
-        <v>66.65116666666673</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
       </c>
-      <c r="J44" t="n">
-        <v>0</v>
-      </c>
+      <c r="J44" t="inlineStr"/>
       <c r="K44" t="inlineStr"/>
-      <c r="L44" t="inlineStr"/>
-      <c r="M44" t="inlineStr"/>
-      <c r="N44" t="n">
+      <c r="L44" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M44" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2110,36 +1962,37 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>67.5</v>
+        <v>66.73</v>
       </c>
       <c r="C45" t="n">
-        <v>67.5</v>
+        <v>66.73</v>
       </c>
       <c r="D45" t="n">
-        <v>67.5</v>
+        <v>66.73</v>
       </c>
       <c r="E45" t="n">
-        <v>67.5</v>
+        <v>66.73</v>
       </c>
       <c r="F45" t="n">
-        <v>243.5025</v>
+        <v>8</v>
       </c>
       <c r="G45" t="n">
-        <v>67.61733333333326</v>
+        <v>14368.58482916517</v>
       </c>
       <c r="H45" t="n">
-        <v>66.67450000000005</v>
+        <v>0</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
       </c>
-      <c r="J45" t="n">
-        <v>0</v>
-      </c>
+      <c r="J45" t="inlineStr"/>
       <c r="K45" t="inlineStr"/>
-      <c r="L45" t="inlineStr"/>
-      <c r="M45" t="inlineStr"/>
-      <c r="N45" t="n">
+      <c r="L45" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M45" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2148,36 +2001,37 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>67.5</v>
+        <v>65.2</v>
       </c>
       <c r="C46" t="n">
-        <v>67.48</v>
+        <v>65.2</v>
       </c>
       <c r="D46" t="n">
-        <v>67.5</v>
+        <v>65.2</v>
       </c>
       <c r="E46" t="n">
-        <v>67.48</v>
+        <v>65.2</v>
       </c>
       <c r="F46" t="n">
-        <v>1683.3268</v>
+        <v>2300</v>
       </c>
       <c r="G46" t="n">
-        <v>67.55466666666659</v>
+        <v>12068.58482916517</v>
       </c>
       <c r="H46" t="n">
-        <v>66.69750000000006</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
       </c>
-      <c r="J46" t="n">
-        <v>1</v>
-      </c>
+      <c r="J46" t="inlineStr"/>
       <c r="K46" t="inlineStr"/>
-      <c r="L46" t="inlineStr"/>
-      <c r="M46" t="inlineStr"/>
-      <c r="N46" t="n">
+      <c r="L46" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M46" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2186,36 +2040,37 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>68.2</v>
+        <v>66.2</v>
       </c>
       <c r="C47" t="n">
-        <v>68.2</v>
+        <v>66.2</v>
       </c>
       <c r="D47" t="n">
-        <v>68.2</v>
+        <v>66.2</v>
       </c>
       <c r="E47" t="n">
-        <v>68.2</v>
+        <v>66.2</v>
       </c>
       <c r="F47" t="n">
         <v>8</v>
       </c>
       <c r="G47" t="n">
-        <v>67.53999999999992</v>
+        <v>12076.58482916517</v>
       </c>
       <c r="H47" t="n">
-        <v>66.71250000000005</v>
+        <v>0</v>
       </c>
       <c r="I47" t="n">
         <v>0</v>
       </c>
-      <c r="J47" t="n">
-        <v>1</v>
-      </c>
+      <c r="J47" t="inlineStr"/>
       <c r="K47" t="inlineStr"/>
-      <c r="L47" t="inlineStr"/>
-      <c r="M47" t="inlineStr"/>
-      <c r="N47" t="n">
+      <c r="L47" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M47" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2224,36 +2079,37 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>66.09999999999999</v>
+        <v>66.53</v>
       </c>
       <c r="C48" t="n">
-        <v>66.09999999999999</v>
+        <v>66.54000000000001</v>
       </c>
       <c r="D48" t="n">
-        <v>66.09999999999999</v>
+        <v>66.54000000000001</v>
       </c>
       <c r="E48" t="n">
-        <v>66.09999999999999</v>
+        <v>66.53</v>
       </c>
       <c r="F48" t="n">
-        <v>48.402</v>
+        <v>20344</v>
       </c>
       <c r="G48" t="n">
-        <v>67.38533333333326</v>
+        <v>32420.58482916517</v>
       </c>
       <c r="H48" t="n">
-        <v>66.71233333333338</v>
+        <v>0</v>
       </c>
       <c r="I48" t="n">
         <v>0</v>
       </c>
-      <c r="J48" t="n">
-        <v>1</v>
-      </c>
+      <c r="J48" t="inlineStr"/>
       <c r="K48" t="inlineStr"/>
-      <c r="L48" t="inlineStr"/>
-      <c r="M48" t="inlineStr"/>
-      <c r="N48" t="n">
+      <c r="L48" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M48" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2262,36 +2118,37 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>68.14</v>
+        <v>66.54000000000001</v>
       </c>
       <c r="C49" t="n">
-        <v>68.14</v>
+        <v>66.54000000000001</v>
       </c>
       <c r="D49" t="n">
-        <v>68.14</v>
+        <v>66.54000000000001</v>
       </c>
       <c r="E49" t="n">
-        <v>68.14</v>
+        <v>66.54000000000001</v>
       </c>
       <c r="F49" t="n">
-        <v>8</v>
+        <v>10100</v>
       </c>
       <c r="G49" t="n">
-        <v>67.3666666666666</v>
+        <v>32420.58482916517</v>
       </c>
       <c r="H49" t="n">
-        <v>66.72950000000004</v>
+        <v>0</v>
       </c>
       <c r="I49" t="n">
         <v>0</v>
       </c>
-      <c r="J49" t="n">
-        <v>1</v>
-      </c>
+      <c r="J49" t="inlineStr"/>
       <c r="K49" t="inlineStr"/>
-      <c r="L49" t="inlineStr"/>
-      <c r="M49" t="inlineStr"/>
-      <c r="N49" t="n">
+      <c r="L49" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M49" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2300,36 +2157,37 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>66.2</v>
+        <v>66.59999999999999</v>
       </c>
       <c r="C50" t="n">
-        <v>66.2</v>
+        <v>66.54000000000001</v>
       </c>
       <c r="D50" t="n">
-        <v>66.2</v>
+        <v>66.59999999999999</v>
       </c>
       <c r="E50" t="n">
-        <v>66.2</v>
+        <v>66.54000000000001</v>
       </c>
       <c r="F50" t="n">
-        <v>62.4187</v>
+        <v>4445.1312</v>
       </c>
       <c r="G50" t="n">
-        <v>67.21866666666659</v>
+        <v>32420.58482916517</v>
       </c>
       <c r="H50" t="n">
-        <v>66.73100000000004</v>
+        <v>0</v>
       </c>
       <c r="I50" t="n">
         <v>0</v>
       </c>
-      <c r="J50" t="n">
-        <v>0</v>
-      </c>
+      <c r="J50" t="inlineStr"/>
       <c r="K50" t="inlineStr"/>
-      <c r="L50" t="inlineStr"/>
-      <c r="M50" t="inlineStr"/>
-      <c r="N50" t="n">
+      <c r="L50" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M50" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2338,36 +2196,37 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>66.2</v>
+        <v>66.54000000000001</v>
       </c>
       <c r="C51" t="n">
-        <v>66.2</v>
+        <v>66.54000000000001</v>
       </c>
       <c r="D51" t="n">
-        <v>66.2</v>
+        <v>66.54000000000001</v>
       </c>
       <c r="E51" t="n">
-        <v>66.2</v>
+        <v>66.54000000000001</v>
       </c>
       <c r="F51" t="n">
-        <v>215</v>
+        <v>10000.5788</v>
       </c>
       <c r="G51" t="n">
-        <v>67.12399999999992</v>
+        <v>32420.58482916517</v>
       </c>
       <c r="H51" t="n">
-        <v>66.73250000000003</v>
+        <v>0</v>
       </c>
       <c r="I51" t="n">
         <v>0</v>
       </c>
-      <c r="J51" t="n">
-        <v>1</v>
-      </c>
+      <c r="J51" t="inlineStr"/>
       <c r="K51" t="inlineStr"/>
-      <c r="L51" t="inlineStr"/>
-      <c r="M51" t="inlineStr"/>
-      <c r="N51" t="n">
+      <c r="L51" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M51" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2376,36 +2235,37 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>66.09999999999999</v>
+        <v>66.56</v>
       </c>
       <c r="C52" t="n">
-        <v>66.09999999999999</v>
+        <v>66.56</v>
       </c>
       <c r="D52" t="n">
-        <v>66.09999999999999</v>
+        <v>66.56</v>
       </c>
       <c r="E52" t="n">
-        <v>66.09999999999999</v>
+        <v>66.56</v>
       </c>
       <c r="F52" t="n">
-        <v>1127</v>
+        <v>11539.7811</v>
       </c>
       <c r="G52" t="n">
-        <v>67.1306666666666</v>
+        <v>43960.36592916517</v>
       </c>
       <c r="H52" t="n">
-        <v>66.71983333333337</v>
+        <v>0</v>
       </c>
       <c r="I52" t="n">
         <v>0</v>
       </c>
-      <c r="J52" t="n">
-        <v>1</v>
-      </c>
+      <c r="J52" t="inlineStr"/>
       <c r="K52" t="inlineStr"/>
-      <c r="L52" t="inlineStr"/>
-      <c r="M52" t="inlineStr"/>
-      <c r="N52" t="n">
+      <c r="L52" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M52" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2414,36 +2274,37 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>66.09999999999999</v>
+        <v>66.56</v>
       </c>
       <c r="C53" t="n">
-        <v>65.84</v>
+        <v>66.56</v>
       </c>
       <c r="D53" t="n">
-        <v>66.09999999999999</v>
+        <v>66.56</v>
       </c>
       <c r="E53" t="n">
-        <v>65.84</v>
+        <v>66.56</v>
       </c>
       <c r="F53" t="n">
-        <v>8819.540000000001</v>
+        <v>1620.3589</v>
       </c>
       <c r="G53" t="n">
-        <v>67.12599999999992</v>
+        <v>43960.36592916517</v>
       </c>
       <c r="H53" t="n">
-        <v>66.70883333333337</v>
+        <v>0</v>
       </c>
       <c r="I53" t="n">
         <v>0</v>
       </c>
-      <c r="J53" t="n">
-        <v>0</v>
-      </c>
+      <c r="J53" t="inlineStr"/>
       <c r="K53" t="inlineStr"/>
-      <c r="L53" t="inlineStr"/>
-      <c r="M53" t="inlineStr"/>
-      <c r="N53" t="n">
+      <c r="L53" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M53" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2452,36 +2313,37 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>65.84</v>
+        <v>66.8</v>
       </c>
       <c r="C54" t="n">
-        <v>65.84</v>
+        <v>66.90000000000001</v>
       </c>
       <c r="D54" t="n">
-        <v>65.84</v>
+        <v>66.90000000000001</v>
       </c>
       <c r="E54" t="n">
-        <v>65.84</v>
+        <v>66.8</v>
       </c>
       <c r="F54" t="n">
-        <v>900</v>
+        <v>9500.947099999999</v>
       </c>
       <c r="G54" t="n">
-        <v>67.12866666666659</v>
+        <v>53461.31302916517</v>
       </c>
       <c r="H54" t="n">
-        <v>66.70116666666669</v>
+        <v>0</v>
       </c>
       <c r="I54" t="n">
         <v>0</v>
       </c>
-      <c r="J54" t="n">
-        <v>0</v>
-      </c>
+      <c r="J54" t="inlineStr"/>
       <c r="K54" t="inlineStr"/>
-      <c r="L54" t="inlineStr"/>
-      <c r="M54" t="inlineStr"/>
-      <c r="N54" t="n">
+      <c r="L54" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M54" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2490,36 +2352,37 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>66.2</v>
+        <v>67</v>
       </c>
       <c r="C55" t="n">
-        <v>66.2</v>
+        <v>67</v>
       </c>
       <c r="D55" t="n">
-        <v>66.2</v>
+        <v>67</v>
       </c>
       <c r="E55" t="n">
-        <v>66.2</v>
+        <v>67</v>
       </c>
       <c r="F55" t="n">
-        <v>8</v>
+        <v>5077.423885447761</v>
       </c>
       <c r="G55" t="n">
-        <v>67.0346666666666</v>
+        <v>58538.73691461293</v>
       </c>
       <c r="H55" t="n">
-        <v>66.70950000000003</v>
+        <v>0</v>
       </c>
       <c r="I55" t="n">
         <v>0</v>
       </c>
-      <c r="J55" t="n">
-        <v>0</v>
-      </c>
+      <c r="J55" t="inlineStr"/>
       <c r="K55" t="inlineStr"/>
-      <c r="L55" t="inlineStr"/>
-      <c r="M55" t="inlineStr"/>
-      <c r="N55" t="n">
+      <c r="L55" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M55" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2528,36 +2391,37 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>65.84</v>
+        <v>67.5</v>
       </c>
       <c r="C56" t="n">
-        <v>65.84</v>
+        <v>67.98</v>
       </c>
       <c r="D56" t="n">
-        <v>65.84</v>
+        <v>67.98</v>
       </c>
       <c r="E56" t="n">
-        <v>65.84</v>
+        <v>67.5</v>
       </c>
       <c r="F56" t="n">
-        <v>990</v>
+        <v>1836.1611</v>
       </c>
       <c r="G56" t="n">
-        <v>66.9166666666666</v>
+        <v>60374.89801461293</v>
       </c>
       <c r="H56" t="n">
-        <v>66.72516666666669</v>
+        <v>0</v>
       </c>
       <c r="I56" t="n">
         <v>0</v>
       </c>
-      <c r="J56" t="n">
-        <v>0</v>
-      </c>
+      <c r="J56" t="inlineStr"/>
       <c r="K56" t="inlineStr"/>
-      <c r="L56" t="inlineStr"/>
-      <c r="M56" t="inlineStr"/>
-      <c r="N56" t="n">
+      <c r="L56" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M56" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2566,36 +2430,37 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>65.84</v>
+        <v>66.69</v>
       </c>
       <c r="C57" t="n">
-        <v>65.83</v>
+        <v>68.3</v>
       </c>
       <c r="D57" t="n">
-        <v>65.84</v>
+        <v>68.3</v>
       </c>
       <c r="E57" t="n">
-        <v>65.83</v>
+        <v>66.69</v>
       </c>
       <c r="F57" t="n">
-        <v>710.5161000000001</v>
+        <v>54443.3814</v>
       </c>
       <c r="G57" t="n">
-        <v>66.75199999999994</v>
+        <v>114818.2794146129</v>
       </c>
       <c r="H57" t="n">
-        <v>66.7291666666667</v>
+        <v>0</v>
       </c>
       <c r="I57" t="n">
         <v>0</v>
       </c>
-      <c r="J57" t="n">
-        <v>0</v>
-      </c>
+      <c r="J57" t="inlineStr"/>
       <c r="K57" t="inlineStr"/>
-      <c r="L57" t="inlineStr"/>
-      <c r="M57" t="inlineStr"/>
-      <c r="N57" t="n">
+      <c r="L57" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M57" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2604,36 +2469,37 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>65.83</v>
+        <v>68.42</v>
       </c>
       <c r="C58" t="n">
-        <v>65.83</v>
+        <v>68.42</v>
       </c>
       <c r="D58" t="n">
-        <v>65.83</v>
+        <v>68.42</v>
       </c>
       <c r="E58" t="n">
-        <v>65.83</v>
+        <v>68.42</v>
       </c>
       <c r="F58" t="n">
-        <v>1399.4839</v>
+        <v>976.2195</v>
       </c>
       <c r="G58" t="n">
-        <v>66.63333333333327</v>
+        <v>115794.4989146129</v>
       </c>
       <c r="H58" t="n">
-        <v>66.71800000000003</v>
+        <v>0</v>
       </c>
       <c r="I58" t="n">
         <v>0</v>
       </c>
-      <c r="J58" t="n">
-        <v>0</v>
-      </c>
+      <c r="J58" t="inlineStr"/>
       <c r="K58" t="inlineStr"/>
-      <c r="L58" t="inlineStr"/>
-      <c r="M58" t="inlineStr"/>
-      <c r="N58" t="n">
+      <c r="L58" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M58" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2642,36 +2508,37 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>65.83</v>
+        <v>68.42</v>
       </c>
       <c r="C59" t="n">
-        <v>65.12</v>
+        <v>68.42</v>
       </c>
       <c r="D59" t="n">
-        <v>65.83</v>
+        <v>68.42</v>
       </c>
       <c r="E59" t="n">
-        <v>65.12</v>
+        <v>68.42</v>
       </c>
       <c r="F59" t="n">
-        <v>40.136</v>
+        <v>1240</v>
       </c>
       <c r="G59" t="n">
-        <v>66.42799999999993</v>
+        <v>115794.4989146129</v>
       </c>
       <c r="H59" t="n">
-        <v>66.71816666666669</v>
+        <v>0</v>
       </c>
       <c r="I59" t="n">
         <v>0</v>
       </c>
-      <c r="J59" t="n">
-        <v>0</v>
-      </c>
+      <c r="J59" t="inlineStr"/>
       <c r="K59" t="inlineStr"/>
-      <c r="L59" t="inlineStr"/>
-      <c r="M59" t="inlineStr"/>
-      <c r="N59" t="n">
+      <c r="L59" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M59" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2680,36 +2547,37 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>65.12</v>
+        <v>68.42</v>
       </c>
       <c r="C60" t="n">
-        <v>65.12</v>
+        <v>68.42</v>
       </c>
       <c r="D60" t="n">
-        <v>65.12</v>
+        <v>68.42</v>
       </c>
       <c r="E60" t="n">
-        <v>65.12</v>
+        <v>68.42</v>
       </c>
       <c r="F60" t="n">
-        <v>98.3608</v>
+        <v>7000</v>
       </c>
       <c r="G60" t="n">
-        <v>66.26933333333326</v>
+        <v>115794.4989146129</v>
       </c>
       <c r="H60" t="n">
-        <v>66.69533333333337</v>
+        <v>0</v>
       </c>
       <c r="I60" t="n">
         <v>0</v>
       </c>
-      <c r="J60" t="n">
-        <v>0</v>
-      </c>
+      <c r="J60" t="inlineStr"/>
       <c r="K60" t="inlineStr"/>
-      <c r="L60" t="inlineStr"/>
-      <c r="M60" t="inlineStr"/>
-      <c r="N60" t="n">
+      <c r="L60" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M60" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2718,36 +2586,37 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>65.06</v>
+        <v>68.42</v>
       </c>
       <c r="C61" t="n">
-        <v>65.06</v>
+        <v>68.42</v>
       </c>
       <c r="D61" t="n">
-        <v>65.06</v>
+        <v>68.42</v>
       </c>
       <c r="E61" t="n">
-        <v>65.06</v>
+        <v>68.42</v>
       </c>
       <c r="F61" t="n">
-        <v>213</v>
+        <v>505</v>
       </c>
       <c r="G61" t="n">
-        <v>66.10799999999993</v>
+        <v>115794.4989146129</v>
       </c>
       <c r="H61" t="n">
-        <v>66.69450000000002</v>
+        <v>0</v>
       </c>
       <c r="I61" t="n">
         <v>0</v>
       </c>
-      <c r="J61" t="n">
-        <v>0</v>
-      </c>
+      <c r="J61" t="inlineStr"/>
       <c r="K61" t="inlineStr"/>
-      <c r="L61" t="inlineStr"/>
-      <c r="M61" t="inlineStr"/>
-      <c r="N61" t="n">
+      <c r="L61" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M61" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2756,36 +2625,37 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>65.12</v>
+        <v>68.42</v>
       </c>
       <c r="C62" t="n">
-        <v>65.12</v>
+        <v>68.42</v>
       </c>
       <c r="D62" t="n">
-        <v>65.12</v>
+        <v>68.42</v>
       </c>
       <c r="E62" t="n">
-        <v>65.12</v>
+        <v>68.42</v>
       </c>
       <c r="F62" t="n">
-        <v>121.1446</v>
+        <v>2000</v>
       </c>
       <c r="G62" t="n">
-        <v>65.90266666666659</v>
+        <v>115794.4989146129</v>
       </c>
       <c r="H62" t="n">
-        <v>66.67983333333335</v>
+        <v>0</v>
       </c>
       <c r="I62" t="n">
         <v>0</v>
       </c>
-      <c r="J62" t="n">
-        <v>0</v>
-      </c>
+      <c r="J62" t="inlineStr"/>
       <c r="K62" t="inlineStr"/>
-      <c r="L62" t="inlineStr"/>
-      <c r="M62" t="inlineStr"/>
-      <c r="N62" t="n">
+      <c r="L62" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M62" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2794,36 +2664,37 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>65.69</v>
+        <v>68.42</v>
       </c>
       <c r="C63" t="n">
-        <v>65.83</v>
+        <v>68.42</v>
       </c>
       <c r="D63" t="n">
-        <v>65.83</v>
+        <v>68.42</v>
       </c>
       <c r="E63" t="n">
-        <v>65.69</v>
+        <v>68.42</v>
       </c>
       <c r="F63" t="n">
-        <v>13132.7132</v>
+        <v>479.787</v>
       </c>
       <c r="G63" t="n">
-        <v>65.88466666666658</v>
+        <v>115794.4989146129</v>
       </c>
       <c r="H63" t="n">
-        <v>66.68533333333336</v>
+        <v>0</v>
       </c>
       <c r="I63" t="n">
         <v>0</v>
       </c>
-      <c r="J63" t="n">
-        <v>0</v>
-      </c>
+      <c r="J63" t="inlineStr"/>
       <c r="K63" t="inlineStr"/>
-      <c r="L63" t="inlineStr"/>
-      <c r="M63" t="inlineStr"/>
-      <c r="N63" t="n">
+      <c r="L63" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M63" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2832,36 +2703,37 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>66</v>
+        <v>68.42</v>
       </c>
       <c r="C64" t="n">
-        <v>68.16</v>
+        <v>68.42</v>
       </c>
       <c r="D64" t="n">
-        <v>68.16</v>
+        <v>68.42</v>
       </c>
       <c r="E64" t="n">
-        <v>66</v>
+        <v>67.62</v>
       </c>
       <c r="F64" t="n">
-        <v>145.7753</v>
+        <v>1732</v>
       </c>
       <c r="G64" t="n">
-        <v>65.88599999999991</v>
+        <v>115794.4989146129</v>
       </c>
       <c r="H64" t="n">
-        <v>66.72150000000002</v>
+        <v>0</v>
       </c>
       <c r="I64" t="n">
         <v>0</v>
       </c>
-      <c r="J64" t="n">
-        <v>0</v>
-      </c>
+      <c r="J64" t="inlineStr"/>
       <c r="K64" t="inlineStr"/>
-      <c r="L64" t="inlineStr"/>
-      <c r="M64" t="inlineStr"/>
-      <c r="N64" t="n">
+      <c r="L64" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M64" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2870,36 +2742,37 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>68.15000000000001</v>
+        <v>67.62</v>
       </c>
       <c r="C65" t="n">
-        <v>68.14</v>
+        <v>67.62</v>
       </c>
       <c r="D65" t="n">
-        <v>68.15000000000001</v>
+        <v>67.62</v>
       </c>
       <c r="E65" t="n">
-        <v>68.14</v>
+        <v>67.62</v>
       </c>
       <c r="F65" t="n">
-        <v>17.6847</v>
+        <v>0.0454</v>
       </c>
       <c r="G65" t="n">
-        <v>66.01533333333325</v>
+        <v>115794.4535146129</v>
       </c>
       <c r="H65" t="n">
-        <v>66.74900000000002</v>
+        <v>0</v>
       </c>
       <c r="I65" t="n">
         <v>0</v>
       </c>
-      <c r="J65" t="n">
-        <v>0</v>
-      </c>
+      <c r="J65" t="inlineStr"/>
       <c r="K65" t="inlineStr"/>
-      <c r="L65" t="inlineStr"/>
-      <c r="M65" t="inlineStr"/>
-      <c r="N65" t="n">
+      <c r="L65" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M65" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2908,36 +2781,37 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>68.09999999999999</v>
+        <v>66</v>
       </c>
       <c r="C66" t="n">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D66" t="n">
-        <v>68.09999999999999</v>
+        <v>66</v>
       </c>
       <c r="E66" t="n">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="F66" t="n">
-        <v>24</v>
+        <v>803.2178</v>
       </c>
       <c r="G66" t="n">
-        <v>66.13533333333324</v>
+        <v>114991.2357146129</v>
       </c>
       <c r="H66" t="n">
-        <v>66.77900000000002</v>
+        <v>0</v>
       </c>
       <c r="I66" t="n">
         <v>0</v>
       </c>
-      <c r="J66" t="n">
-        <v>0</v>
-      </c>
+      <c r="J66" t="inlineStr"/>
       <c r="K66" t="inlineStr"/>
-      <c r="L66" t="inlineStr"/>
-      <c r="M66" t="inlineStr"/>
-      <c r="N66" t="n">
+      <c r="L66" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M66" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2946,36 +2820,37 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>67.56</v>
+        <v>65.91</v>
       </c>
       <c r="C67" t="n">
-        <v>66.70999999999999</v>
+        <v>65.91</v>
       </c>
       <c r="D67" t="n">
-        <v>67.56</v>
+        <v>65.91</v>
       </c>
       <c r="E67" t="n">
-        <v>66.70999999999999</v>
+        <v>65.91</v>
       </c>
       <c r="F67" t="n">
-        <v>200</v>
+        <v>866.239</v>
       </c>
       <c r="G67" t="n">
-        <v>66.1759999999999</v>
+        <v>114124.9967146129</v>
       </c>
       <c r="H67" t="n">
-        <v>66.78250000000003</v>
+        <v>0</v>
       </c>
       <c r="I67" t="n">
         <v>0</v>
       </c>
-      <c r="J67" t="n">
-        <v>0</v>
-      </c>
+      <c r="J67" t="inlineStr"/>
       <c r="K67" t="inlineStr"/>
-      <c r="L67" t="inlineStr"/>
-      <c r="M67" t="inlineStr"/>
-      <c r="N67" t="n">
+      <c r="L67" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M67" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2984,36 +2859,37 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>66.70999999999999</v>
+        <v>65.8</v>
       </c>
       <c r="C68" t="n">
-        <v>66.36</v>
+        <v>65.8</v>
       </c>
       <c r="D68" t="n">
-        <v>66.70999999999999</v>
+        <v>65.8</v>
       </c>
       <c r="E68" t="n">
-        <v>66.36</v>
+        <v>65.8</v>
       </c>
       <c r="F68" t="n">
-        <v>704.6618999999999</v>
+        <v>7699.9546</v>
       </c>
       <c r="G68" t="n">
-        <v>66.21066666666657</v>
+        <v>106425.0421146129</v>
       </c>
       <c r="H68" t="n">
-        <v>66.78850000000003</v>
+        <v>0</v>
       </c>
       <c r="I68" t="n">
         <v>0</v>
       </c>
-      <c r="J68" t="n">
-        <v>0</v>
-      </c>
+      <c r="J68" t="inlineStr"/>
       <c r="K68" t="inlineStr"/>
-      <c r="L68" t="inlineStr"/>
-      <c r="M68" t="inlineStr"/>
-      <c r="N68" t="n">
+      <c r="L68" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M68" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3022,36 +2898,37 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>66.36</v>
+        <v>67.61</v>
       </c>
       <c r="C69" t="n">
-        <v>66.51000000000001</v>
+        <v>67.61</v>
       </c>
       <c r="D69" t="n">
-        <v>66.51000000000001</v>
+        <v>67.61</v>
       </c>
       <c r="E69" t="n">
-        <v>66.36</v>
+        <v>67.61</v>
       </c>
       <c r="F69" t="n">
-        <v>10.3381</v>
+        <v>40.2773</v>
       </c>
       <c r="G69" t="n">
-        <v>66.25533333333324</v>
+        <v>106465.3194146129</v>
       </c>
       <c r="H69" t="n">
-        <v>66.8086666666667</v>
+        <v>0</v>
       </c>
       <c r="I69" t="n">
         <v>0</v>
       </c>
-      <c r="J69" t="n">
-        <v>0</v>
-      </c>
+      <c r="J69" t="inlineStr"/>
       <c r="K69" t="inlineStr"/>
-      <c r="L69" t="inlineStr"/>
-      <c r="M69" t="inlineStr"/>
-      <c r="N69" t="n">
+      <c r="L69" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M69" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3060,36 +2937,37 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>68.14</v>
+        <v>67.61</v>
       </c>
       <c r="C70" t="n">
-        <v>68.15000000000001</v>
+        <v>67.61</v>
       </c>
       <c r="D70" t="n">
-        <v>68.15000000000001</v>
+        <v>67.61</v>
       </c>
       <c r="E70" t="n">
-        <v>68.14</v>
+        <v>67.61</v>
       </c>
       <c r="F70" t="n">
-        <v>57</v>
+        <v>2718.467</v>
       </c>
       <c r="G70" t="n">
-        <v>66.38533333333324</v>
+        <v>106465.3194146129</v>
       </c>
       <c r="H70" t="n">
-        <v>66.8361666666667</v>
+        <v>0</v>
       </c>
       <c r="I70" t="n">
         <v>0</v>
       </c>
-      <c r="J70" t="n">
-        <v>0</v>
-      </c>
+      <c r="J70" t="inlineStr"/>
       <c r="K70" t="inlineStr"/>
-      <c r="L70" t="inlineStr"/>
-      <c r="M70" t="inlineStr"/>
-      <c r="N70" t="n">
+      <c r="L70" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M70" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3098,36 +2976,37 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>66.40000000000001</v>
+        <v>67.7</v>
       </c>
       <c r="C71" t="n">
-        <v>66.2</v>
+        <v>68.3</v>
       </c>
       <c r="D71" t="n">
-        <v>66.40000000000001</v>
+        <v>68.3</v>
       </c>
       <c r="E71" t="n">
-        <v>66.2</v>
+        <v>67.62</v>
       </c>
       <c r="F71" t="n">
-        <v>12145.4979</v>
+        <v>13838.0995</v>
       </c>
       <c r="G71" t="n">
-        <v>66.40933333333324</v>
+        <v>120303.4189146129</v>
       </c>
       <c r="H71" t="n">
-        <v>66.85600000000002</v>
+        <v>0</v>
       </c>
       <c r="I71" t="n">
         <v>0</v>
       </c>
-      <c r="J71" t="n">
-        <v>0</v>
-      </c>
+      <c r="J71" t="inlineStr"/>
       <c r="K71" t="inlineStr"/>
-      <c r="L71" t="inlineStr"/>
-      <c r="M71" t="inlineStr"/>
-      <c r="N71" t="n">
+      <c r="L71" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M71" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3136,36 +3015,37 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>66.2</v>
+        <v>67.62</v>
       </c>
       <c r="C72" t="n">
-        <v>66.2</v>
+        <v>67.61</v>
       </c>
       <c r="D72" t="n">
-        <v>66.2</v>
+        <v>67.62</v>
       </c>
       <c r="E72" t="n">
-        <v>66.2</v>
+        <v>67.61</v>
       </c>
       <c r="F72" t="n">
-        <v>1175.6625</v>
+        <v>34502.2672</v>
       </c>
       <c r="G72" t="n">
-        <v>66.4339999999999</v>
+        <v>85801.15171461292</v>
       </c>
       <c r="H72" t="n">
-        <v>66.84283333333336</v>
+        <v>0</v>
       </c>
       <c r="I72" t="n">
         <v>0</v>
       </c>
-      <c r="J72" t="n">
-        <v>0</v>
-      </c>
+      <c r="J72" t="inlineStr"/>
       <c r="K72" t="inlineStr"/>
-      <c r="L72" t="inlineStr"/>
-      <c r="M72" t="inlineStr"/>
-      <c r="N72" t="n">
+      <c r="L72" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M72" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3174,36 +3054,37 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>66.3</v>
+        <v>68.2</v>
       </c>
       <c r="C73" t="n">
-        <v>66.3</v>
+        <v>68.2</v>
       </c>
       <c r="D73" t="n">
-        <v>66.3</v>
+        <v>68.2</v>
       </c>
       <c r="E73" t="n">
-        <v>66.3</v>
+        <v>68.2</v>
       </c>
       <c r="F73" t="n">
-        <v>5856.9831</v>
+        <v>8</v>
       </c>
       <c r="G73" t="n">
-        <v>66.46533333333323</v>
+        <v>85809.15171461292</v>
       </c>
       <c r="H73" t="n">
-        <v>66.83116666666669</v>
+        <v>0</v>
       </c>
       <c r="I73" t="n">
         <v>0</v>
       </c>
-      <c r="J73" t="n">
-        <v>0</v>
-      </c>
+      <c r="J73" t="inlineStr"/>
       <c r="K73" t="inlineStr"/>
-      <c r="L73" t="inlineStr"/>
-      <c r="M73" t="inlineStr"/>
-      <c r="N73" t="n">
+      <c r="L73" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M73" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3212,36 +3093,37 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>66.40000000000001</v>
+        <v>67.5</v>
       </c>
       <c r="C74" t="n">
-        <v>66.2</v>
+        <v>67.5</v>
       </c>
       <c r="D74" t="n">
-        <v>66.40000000000001</v>
+        <v>67.5</v>
       </c>
       <c r="E74" t="n">
-        <v>66.2</v>
+        <v>67.5</v>
       </c>
       <c r="F74" t="n">
-        <v>3942.5386</v>
+        <v>243.5025</v>
       </c>
       <c r="G74" t="n">
-        <v>66.53733333333324</v>
+        <v>85565.64921461292</v>
       </c>
       <c r="H74" t="n">
-        <v>66.84783333333336</v>
+        <v>0</v>
       </c>
       <c r="I74" t="n">
         <v>0</v>
       </c>
-      <c r="J74" t="n">
-        <v>0</v>
-      </c>
+      <c r="J74" t="inlineStr"/>
       <c r="K74" t="inlineStr"/>
-      <c r="L74" t="inlineStr"/>
-      <c r="M74" t="inlineStr"/>
-      <c r="N74" t="n">
+      <c r="L74" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M74" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3250,36 +3132,37 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>66.09999999999999</v>
+        <v>67.5</v>
       </c>
       <c r="C75" t="n">
-        <v>66.09999999999999</v>
+        <v>67.48</v>
       </c>
       <c r="D75" t="n">
-        <v>66.09999999999999</v>
+        <v>67.5</v>
       </c>
       <c r="E75" t="n">
-        <v>66.09999999999999</v>
+        <v>67.48</v>
       </c>
       <c r="F75" t="n">
-        <v>124.8401</v>
+        <v>1683.3268</v>
       </c>
       <c r="G75" t="n">
-        <v>66.60266666666656</v>
+        <v>83882.32241461292</v>
       </c>
       <c r="H75" t="n">
-        <v>66.86283333333337</v>
+        <v>0</v>
       </c>
       <c r="I75" t="n">
         <v>0</v>
       </c>
-      <c r="J75" t="n">
-        <v>0</v>
-      </c>
+      <c r="J75" t="inlineStr"/>
       <c r="K75" t="inlineStr"/>
-      <c r="L75" t="inlineStr"/>
-      <c r="M75" t="inlineStr"/>
-      <c r="N75" t="n">
+      <c r="L75" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M75" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3288,36 +3171,37 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>66.09999999999999</v>
+        <v>68.2</v>
       </c>
       <c r="C76" t="n">
-        <v>66.3</v>
+        <v>68.2</v>
       </c>
       <c r="D76" t="n">
-        <v>66.3</v>
+        <v>68.2</v>
       </c>
       <c r="E76" t="n">
-        <v>66.09999999999999</v>
+        <v>68.2</v>
       </c>
       <c r="F76" t="n">
-        <v>1000</v>
+        <v>8</v>
       </c>
       <c r="G76" t="n">
-        <v>66.68533333333325</v>
+        <v>83890.32241461292</v>
       </c>
       <c r="H76" t="n">
-        <v>66.85566666666669</v>
+        <v>0</v>
       </c>
       <c r="I76" t="n">
         <v>0</v>
       </c>
-      <c r="J76" t="n">
-        <v>0</v>
-      </c>
+      <c r="J76" t="inlineStr"/>
       <c r="K76" t="inlineStr"/>
-      <c r="L76" t="inlineStr"/>
-      <c r="M76" t="inlineStr"/>
-      <c r="N76" t="n">
+      <c r="L76" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M76" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3326,36 +3210,37 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>67.55</v>
+        <v>66.09999999999999</v>
       </c>
       <c r="C77" t="n">
-        <v>67.56</v>
+        <v>66.09999999999999</v>
       </c>
       <c r="D77" t="n">
-        <v>67.56</v>
+        <v>66.09999999999999</v>
       </c>
       <c r="E77" t="n">
-        <v>67.55</v>
+        <v>66.09999999999999</v>
       </c>
       <c r="F77" t="n">
-        <v>806</v>
+        <v>48.402</v>
       </c>
       <c r="G77" t="n">
-        <v>66.8479999999999</v>
+        <v>83841.92041461292</v>
       </c>
       <c r="H77" t="n">
-        <v>66.89500000000004</v>
+        <v>0</v>
       </c>
       <c r="I77" t="n">
         <v>0</v>
       </c>
-      <c r="J77" t="n">
-        <v>0</v>
-      </c>
+      <c r="J77" t="inlineStr"/>
       <c r="K77" t="inlineStr"/>
-      <c r="L77" t="inlineStr"/>
-      <c r="M77" t="inlineStr"/>
-      <c r="N77" t="n">
+      <c r="L77" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M77" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3364,36 +3249,37 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>67.56</v>
+        <v>68.14</v>
       </c>
       <c r="C78" t="n">
-        <v>68.16</v>
+        <v>68.14</v>
       </c>
       <c r="D78" t="n">
-        <v>68.16</v>
+        <v>68.14</v>
       </c>
       <c r="E78" t="n">
-        <v>67.56</v>
+        <v>68.14</v>
       </c>
       <c r="F78" t="n">
-        <v>59</v>
+        <v>8</v>
       </c>
       <c r="G78" t="n">
-        <v>67.00333333333323</v>
+        <v>83849.92041461292</v>
       </c>
       <c r="H78" t="n">
-        <v>66.9276666666667</v>
+        <v>0</v>
       </c>
       <c r="I78" t="n">
         <v>0</v>
       </c>
-      <c r="J78" t="n">
-        <v>0</v>
-      </c>
+      <c r="J78" t="inlineStr"/>
       <c r="K78" t="inlineStr"/>
-      <c r="L78" t="inlineStr"/>
-      <c r="M78" t="inlineStr"/>
-      <c r="N78" t="n">
+      <c r="L78" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M78" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3402,36 +3288,37 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>68.09</v>
+        <v>66.2</v>
       </c>
       <c r="C79" t="n">
-        <v>68.09</v>
+        <v>66.2</v>
       </c>
       <c r="D79" t="n">
-        <v>68.09</v>
+        <v>66.2</v>
       </c>
       <c r="E79" t="n">
-        <v>68.09</v>
+        <v>66.2</v>
       </c>
       <c r="F79" t="n">
-        <v>124</v>
+        <v>62.4187</v>
       </c>
       <c r="G79" t="n">
-        <v>66.99866666666657</v>
+        <v>83787.50171461292</v>
       </c>
       <c r="H79" t="n">
-        <v>66.95350000000003</v>
+        <v>0</v>
       </c>
       <c r="I79" t="n">
         <v>0</v>
       </c>
-      <c r="J79" t="n">
-        <v>0</v>
-      </c>
+      <c r="J79" t="inlineStr"/>
       <c r="K79" t="inlineStr"/>
-      <c r="L79" t="inlineStr"/>
-      <c r="M79" t="inlineStr"/>
-      <c r="N79" t="n">
+      <c r="L79" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M79" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3440,36 +3327,37 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>68.09</v>
+        <v>66.2</v>
       </c>
       <c r="C80" t="n">
-        <v>68.09999999999999</v>
+        <v>66.2</v>
       </c>
       <c r="D80" t="n">
-        <v>68.09999999999999</v>
+        <v>66.2</v>
       </c>
       <c r="E80" t="n">
-        <v>68.09</v>
+        <v>66.2</v>
       </c>
       <c r="F80" t="n">
-        <v>8</v>
+        <v>215</v>
       </c>
       <c r="G80" t="n">
-        <v>66.99599999999991</v>
+        <v>83787.50171461292</v>
       </c>
       <c r="H80" t="n">
-        <v>66.97950000000004</v>
+        <v>0</v>
       </c>
       <c r="I80" t="n">
         <v>0</v>
       </c>
-      <c r="J80" t="n">
-        <v>0</v>
-      </c>
+      <c r="J80" t="inlineStr"/>
       <c r="K80" t="inlineStr"/>
-      <c r="L80" t="inlineStr"/>
-      <c r="M80" t="inlineStr"/>
-      <c r="N80" t="n">
+      <c r="L80" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M80" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3478,36 +3366,37 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>68.09999999999999</v>
+        <v>66.09999999999999</v>
       </c>
       <c r="C81" t="n">
-        <v>68.09999999999999</v>
+        <v>66.09999999999999</v>
       </c>
       <c r="D81" t="n">
-        <v>68.09999999999999</v>
+        <v>66.09999999999999</v>
       </c>
       <c r="E81" t="n">
-        <v>68.09999999999999</v>
+        <v>66.09999999999999</v>
       </c>
       <c r="F81" t="n">
-        <v>11</v>
+        <v>1127</v>
       </c>
       <c r="G81" t="n">
-        <v>67.00266666666657</v>
+        <v>82660.50171461292</v>
       </c>
       <c r="H81" t="n">
-        <v>67.00550000000004</v>
+        <v>0</v>
       </c>
       <c r="I81" t="n">
         <v>0</v>
       </c>
-      <c r="J81" t="n">
-        <v>0</v>
-      </c>
+      <c r="J81" t="inlineStr"/>
       <c r="K81" t="inlineStr"/>
-      <c r="L81" t="inlineStr"/>
-      <c r="M81" t="inlineStr"/>
-      <c r="N81" t="n">
+      <c r="L81" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M81" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3516,36 +3405,37 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>68.09</v>
+        <v>66.09999999999999</v>
       </c>
       <c r="C82" t="n">
-        <v>68</v>
+        <v>65.84</v>
       </c>
       <c r="D82" t="n">
-        <v>68.09</v>
+        <v>66.09999999999999</v>
       </c>
       <c r="E82" t="n">
-        <v>68</v>
+        <v>65.84</v>
       </c>
       <c r="F82" t="n">
-        <v>110</v>
+        <v>8819.540000000001</v>
       </c>
       <c r="G82" t="n">
-        <v>67.08866666666657</v>
+        <v>73840.96171461293</v>
       </c>
       <c r="H82" t="n">
-        <v>67.02983333333337</v>
+        <v>0</v>
       </c>
       <c r="I82" t="n">
         <v>0</v>
       </c>
-      <c r="J82" t="n">
-        <v>0</v>
-      </c>
+      <c r="J82" t="inlineStr"/>
       <c r="K82" t="inlineStr"/>
-      <c r="L82" t="inlineStr"/>
-      <c r="M82" t="inlineStr"/>
-      <c r="N82" t="n">
+      <c r="L82" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M82" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3554,36 +3444,37 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>67.90000000000001</v>
+        <v>65.84</v>
       </c>
       <c r="C83" t="n">
-        <v>68</v>
+        <v>65.84</v>
       </c>
       <c r="D83" t="n">
-        <v>68</v>
+        <v>65.84</v>
       </c>
       <c r="E83" t="n">
-        <v>67.90000000000001</v>
+        <v>65.84</v>
       </c>
       <c r="F83" t="n">
-        <v>260.9815</v>
+        <v>900</v>
       </c>
       <c r="G83" t="n">
-        <v>67.19799999999991</v>
+        <v>73840.96171461293</v>
       </c>
       <c r="H83" t="n">
-        <v>67.05383333333337</v>
+        <v>0</v>
       </c>
       <c r="I83" t="n">
         <v>0</v>
       </c>
-      <c r="J83" t="n">
-        <v>1</v>
-      </c>
+      <c r="J83" t="inlineStr"/>
       <c r="K83" t="inlineStr"/>
-      <c r="L83" t="inlineStr"/>
-      <c r="M83" t="inlineStr"/>
-      <c r="N83" t="n">
+      <c r="L83" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M83" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3592,36 +3483,37 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>68.14</v>
+        <v>66.2</v>
       </c>
       <c r="C84" t="n">
-        <v>68.14</v>
+        <v>66.2</v>
       </c>
       <c r="D84" t="n">
-        <v>68.14</v>
+        <v>66.2</v>
       </c>
       <c r="E84" t="n">
-        <v>68.14</v>
+        <v>66.2</v>
       </c>
       <c r="F84" t="n">
         <v>8</v>
       </c>
       <c r="G84" t="n">
-        <v>67.30666666666657</v>
+        <v>73848.96171461293</v>
       </c>
       <c r="H84" t="n">
-        <v>67.0801666666667</v>
+        <v>0</v>
       </c>
       <c r="I84" t="n">
         <v>0</v>
       </c>
-      <c r="J84" t="n">
-        <v>1</v>
-      </c>
+      <c r="J84" t="inlineStr"/>
       <c r="K84" t="inlineStr"/>
-      <c r="L84" t="inlineStr"/>
-      <c r="M84" t="inlineStr"/>
-      <c r="N84" t="n">
+      <c r="L84" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M84" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3630,36 +3522,37 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>68</v>
+        <v>65.84</v>
       </c>
       <c r="C85" t="n">
-        <v>68</v>
+        <v>65.84</v>
       </c>
       <c r="D85" t="n">
-        <v>68</v>
+        <v>65.84</v>
       </c>
       <c r="E85" t="n">
-        <v>68</v>
+        <v>65.84</v>
       </c>
       <c r="F85" t="n">
-        <v>269.0539</v>
+        <v>990</v>
       </c>
       <c r="G85" t="n">
-        <v>67.29666666666657</v>
+        <v>72858.96171461293</v>
       </c>
       <c r="H85" t="n">
-        <v>67.09850000000003</v>
+        <v>0</v>
       </c>
       <c r="I85" t="n">
         <v>0</v>
       </c>
-      <c r="J85" t="n">
-        <v>1</v>
-      </c>
+      <c r="J85" t="inlineStr"/>
       <c r="K85" t="inlineStr"/>
-      <c r="L85" t="inlineStr"/>
-      <c r="M85" t="inlineStr"/>
-      <c r="N85" t="n">
+      <c r="L85" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M85" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3668,36 +3561,37 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>68.09999999999999</v>
+        <v>65.84</v>
       </c>
       <c r="C86" t="n">
-        <v>68.09999999999999</v>
+        <v>65.83</v>
       </c>
       <c r="D86" t="n">
-        <v>68.09999999999999</v>
+        <v>65.84</v>
       </c>
       <c r="E86" t="n">
-        <v>68.09999999999999</v>
+        <v>65.83</v>
       </c>
       <c r="F86" t="n">
-        <v>300.6735</v>
+        <v>710.5161000000001</v>
       </c>
       <c r="G86" t="n">
-        <v>67.42333333333323</v>
+        <v>72148.44561461294</v>
       </c>
       <c r="H86" t="n">
-        <v>67.11683333333336</v>
+        <v>0</v>
       </c>
       <c r="I86" t="n">
         <v>0</v>
       </c>
-      <c r="J86" t="n">
-        <v>0</v>
-      </c>
+      <c r="J86" t="inlineStr"/>
       <c r="K86" t="inlineStr"/>
-      <c r="L86" t="inlineStr"/>
-      <c r="M86" t="inlineStr"/>
-      <c r="N86" t="n">
+      <c r="L86" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M86" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3706,36 +3600,37 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>67</v>
+        <v>65.83</v>
       </c>
       <c r="C87" t="n">
-        <v>66.12</v>
+        <v>65.83</v>
       </c>
       <c r="D87" t="n">
-        <v>67</v>
+        <v>65.83</v>
       </c>
       <c r="E87" t="n">
-        <v>66.12</v>
+        <v>65.83</v>
       </c>
       <c r="F87" t="n">
-        <v>3100</v>
+        <v>1399.4839</v>
       </c>
       <c r="G87" t="n">
-        <v>67.41799999999989</v>
+        <v>72148.44561461294</v>
       </c>
       <c r="H87" t="n">
-        <v>67.08583333333337</v>
+        <v>0</v>
       </c>
       <c r="I87" t="n">
         <v>0</v>
       </c>
-      <c r="J87" t="n">
-        <v>0</v>
-      </c>
+      <c r="J87" t="inlineStr"/>
       <c r="K87" t="inlineStr"/>
-      <c r="L87" t="inlineStr"/>
-      <c r="M87" t="inlineStr"/>
-      <c r="N87" t="n">
+      <c r="L87" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M87" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3744,36 +3639,37 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>66.2</v>
+        <v>65.83</v>
       </c>
       <c r="C88" t="n">
-        <v>66.2</v>
+        <v>65.12</v>
       </c>
       <c r="D88" t="n">
-        <v>66.2</v>
+        <v>65.83</v>
       </c>
       <c r="E88" t="n">
-        <v>66.2</v>
+        <v>65.12</v>
       </c>
       <c r="F88" t="n">
-        <v>5683.1978</v>
+        <v>40.136</v>
       </c>
       <c r="G88" t="n">
-        <v>67.41133333333323</v>
+        <v>72108.30961461294</v>
       </c>
       <c r="H88" t="n">
-        <v>67.05083333333336</v>
+        <v>0</v>
       </c>
       <c r="I88" t="n">
         <v>0</v>
       </c>
-      <c r="J88" t="n">
-        <v>0</v>
-      </c>
+      <c r="J88" t="inlineStr"/>
       <c r="K88" t="inlineStr"/>
-      <c r="L88" t="inlineStr"/>
-      <c r="M88" t="inlineStr"/>
-      <c r="N88" t="n">
+      <c r="L88" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M88" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3782,36 +3678,37 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>66.11</v>
+        <v>65.12</v>
       </c>
       <c r="C89" t="n">
-        <v>66.11</v>
+        <v>65.12</v>
       </c>
       <c r="D89" t="n">
-        <v>66.11</v>
+        <v>65.12</v>
       </c>
       <c r="E89" t="n">
-        <v>66.11</v>
+        <v>65.12</v>
       </c>
       <c r="F89" t="n">
-        <v>5683.1978</v>
+        <v>98.3608</v>
       </c>
       <c r="G89" t="n">
-        <v>67.40533333333322</v>
+        <v>72108.30961461294</v>
       </c>
       <c r="H89" t="n">
-        <v>67.01233333333336</v>
+        <v>0</v>
       </c>
       <c r="I89" t="n">
         <v>0</v>
       </c>
-      <c r="J89" t="n">
-        <v>0</v>
-      </c>
+      <c r="J89" t="inlineStr"/>
       <c r="K89" t="inlineStr"/>
-      <c r="L89" t="inlineStr"/>
-      <c r="M89" t="inlineStr"/>
-      <c r="N89" t="n">
+      <c r="L89" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M89" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3820,36 +3717,37 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>66.01000000000001</v>
+        <v>65.06</v>
       </c>
       <c r="C90" t="n">
-        <v>66.01000000000001</v>
+        <v>65.06</v>
       </c>
       <c r="D90" t="n">
-        <v>66.01000000000001</v>
+        <v>65.06</v>
       </c>
       <c r="E90" t="n">
-        <v>66.01000000000001</v>
+        <v>65.06</v>
       </c>
       <c r="F90" t="n">
-        <v>140</v>
+        <v>213</v>
       </c>
       <c r="G90" t="n">
-        <v>67.39933333333322</v>
+        <v>71895.30961461294</v>
       </c>
       <c r="H90" t="n">
-        <v>66.97216666666669</v>
+        <v>0</v>
       </c>
       <c r="I90" t="n">
         <v>0</v>
       </c>
-      <c r="J90" t="n">
-        <v>0</v>
-      </c>
+      <c r="J90" t="inlineStr"/>
       <c r="K90" t="inlineStr"/>
-      <c r="L90" t="inlineStr"/>
-      <c r="M90" t="inlineStr"/>
-      <c r="N90" t="n">
+      <c r="L90" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M90" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3858,36 +3756,37 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>66.01000000000001</v>
+        <v>65.12</v>
       </c>
       <c r="C91" t="n">
-        <v>66.01000000000001</v>
+        <v>65.12</v>
       </c>
       <c r="D91" t="n">
-        <v>66.01000000000001</v>
+        <v>65.12</v>
       </c>
       <c r="E91" t="n">
-        <v>66.01000000000001</v>
+        <v>65.12</v>
       </c>
       <c r="F91" t="n">
-        <v>353</v>
+        <v>121.1446</v>
       </c>
       <c r="G91" t="n">
-        <v>67.3799999999999</v>
+        <v>72016.45421461294</v>
       </c>
       <c r="H91" t="n">
-        <v>66.93200000000003</v>
+        <v>0</v>
       </c>
       <c r="I91" t="n">
         <v>0</v>
       </c>
-      <c r="J91" t="n">
-        <v>0</v>
-      </c>
+      <c r="J91" t="inlineStr"/>
       <c r="K91" t="inlineStr"/>
-      <c r="L91" t="inlineStr"/>
-      <c r="M91" t="inlineStr"/>
-      <c r="N91" t="n">
+      <c r="L91" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M91" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3896,36 +3795,37 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>67.3</v>
+        <v>65.69</v>
       </c>
       <c r="C92" t="n">
-        <v>67.3</v>
+        <v>65.83</v>
       </c>
       <c r="D92" t="n">
-        <v>67.3</v>
+        <v>65.83</v>
       </c>
       <c r="E92" t="n">
-        <v>67.3</v>
+        <v>65.69</v>
       </c>
       <c r="F92" t="n">
-        <v>8</v>
+        <v>13132.7132</v>
       </c>
       <c r="G92" t="n">
-        <v>67.36266666666657</v>
+        <v>85149.16741461294</v>
       </c>
       <c r="H92" t="n">
-        <v>66.91333333333337</v>
+        <v>0</v>
       </c>
       <c r="I92" t="n">
         <v>0</v>
       </c>
-      <c r="J92" t="n">
-        <v>0</v>
-      </c>
+      <c r="J92" t="inlineStr"/>
       <c r="K92" t="inlineStr"/>
-      <c r="L92" t="inlineStr"/>
-      <c r="M92" t="inlineStr"/>
-      <c r="N92" t="n">
+      <c r="L92" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M92" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3934,36 +3834,37 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>66.11</v>
+        <v>66</v>
       </c>
       <c r="C93" t="n">
-        <v>65.95</v>
+        <v>68.16</v>
       </c>
       <c r="D93" t="n">
-        <v>66.11</v>
+        <v>68.16</v>
       </c>
       <c r="E93" t="n">
-        <v>65.95</v>
+        <v>66</v>
       </c>
       <c r="F93" t="n">
-        <v>10924.544</v>
+        <v>145.7753</v>
       </c>
       <c r="G93" t="n">
-        <v>67.21533333333323</v>
+        <v>85294.94271461293</v>
       </c>
       <c r="H93" t="n">
-        <v>66.8721666666667</v>
+        <v>0</v>
       </c>
       <c r="I93" t="n">
         <v>0</v>
       </c>
-      <c r="J93" t="n">
-        <v>0</v>
-      </c>
+      <c r="J93" t="inlineStr"/>
       <c r="K93" t="inlineStr"/>
-      <c r="L93" t="inlineStr"/>
-      <c r="M93" t="inlineStr"/>
-      <c r="N93" t="n">
+      <c r="L93" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M93" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3972,36 +3873,37 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>66</v>
+        <v>68.15000000000001</v>
       </c>
       <c r="C94" t="n">
-        <v>66</v>
+        <v>68.14</v>
       </c>
       <c r="D94" t="n">
-        <v>66</v>
+        <v>68.15000000000001</v>
       </c>
       <c r="E94" t="n">
-        <v>66</v>
+        <v>68.14</v>
       </c>
       <c r="F94" t="n">
-        <v>9385.376099999999</v>
+        <v>17.6847</v>
       </c>
       <c r="G94" t="n">
-        <v>67.07599999999991</v>
+        <v>85277.25801461293</v>
       </c>
       <c r="H94" t="n">
-        <v>66.83183333333336</v>
+        <v>0</v>
       </c>
       <c r="I94" t="n">
         <v>0</v>
       </c>
-      <c r="J94" t="n">
-        <v>0</v>
-      </c>
+      <c r="J94" t="inlineStr"/>
       <c r="K94" t="inlineStr"/>
-      <c r="L94" t="inlineStr"/>
-      <c r="M94" t="inlineStr"/>
-      <c r="N94" t="n">
+      <c r="L94" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M94" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4010,36 +3912,37 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>66.01000000000001</v>
+        <v>68.09999999999999</v>
       </c>
       <c r="C95" t="n">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="D95" t="n">
-        <v>66.01000000000001</v>
+        <v>68.09999999999999</v>
       </c>
       <c r="E95" t="n">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="F95" t="n">
-        <v>8725.1842</v>
+        <v>24</v>
       </c>
       <c r="G95" t="n">
-        <v>66.93599999999989</v>
+        <v>85253.25801461293</v>
       </c>
       <c r="H95" t="n">
-        <v>66.79150000000003</v>
+        <v>0</v>
       </c>
       <c r="I95" t="n">
         <v>0</v>
       </c>
-      <c r="J95" t="n">
-        <v>0</v>
-      </c>
+      <c r="J95" t="inlineStr"/>
       <c r="K95" t="inlineStr"/>
-      <c r="L95" t="inlineStr"/>
-      <c r="M95" t="inlineStr"/>
-      <c r="N95" t="n">
+      <c r="L95" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M95" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4048,36 +3951,37 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>66.39</v>
+        <v>67.56</v>
       </c>
       <c r="C96" t="n">
-        <v>66.5</v>
+        <v>66.70999999999999</v>
       </c>
       <c r="D96" t="n">
-        <v>66.5</v>
+        <v>67.56</v>
       </c>
       <c r="E96" t="n">
-        <v>66.39</v>
+        <v>66.70999999999999</v>
       </c>
       <c r="F96" t="n">
-        <v>10000</v>
+        <v>200</v>
       </c>
       <c r="G96" t="n">
-        <v>66.82933333333324</v>
+        <v>85053.25801461293</v>
       </c>
       <c r="H96" t="n">
-        <v>66.77283333333337</v>
+        <v>0</v>
       </c>
       <c r="I96" t="n">
         <v>0</v>
       </c>
-      <c r="J96" t="n">
-        <v>0</v>
-      </c>
+      <c r="J96" t="inlineStr"/>
       <c r="K96" t="inlineStr"/>
-      <c r="L96" t="inlineStr"/>
-      <c r="M96" t="inlineStr"/>
-      <c r="N96" t="n">
+      <c r="L96" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M96" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4086,36 +3990,37 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>66</v>
+        <v>66.70999999999999</v>
       </c>
       <c r="C97" t="n">
-        <v>66</v>
+        <v>66.36</v>
       </c>
       <c r="D97" t="n">
-        <v>66</v>
+        <v>66.70999999999999</v>
       </c>
       <c r="E97" t="n">
-        <v>66</v>
+        <v>66.36</v>
       </c>
       <c r="F97" t="n">
-        <v>12343.5751</v>
+        <v>704.6618999999999</v>
       </c>
       <c r="G97" t="n">
-        <v>66.69599999999991</v>
+        <v>84348.59611461293</v>
       </c>
       <c r="H97" t="n">
-        <v>66.77283333333337</v>
+        <v>0</v>
       </c>
       <c r="I97" t="n">
         <v>0</v>
       </c>
-      <c r="J97" t="n">
-        <v>0</v>
-      </c>
+      <c r="J97" t="inlineStr"/>
       <c r="K97" t="inlineStr"/>
-      <c r="L97" t="inlineStr"/>
-      <c r="M97" t="inlineStr"/>
-      <c r="N97" t="n">
+      <c r="L97" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M97" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4124,36 +4029,37 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>65.94</v>
+        <v>66.36</v>
       </c>
       <c r="C98" t="n">
-        <v>65.94</v>
+        <v>66.51000000000001</v>
       </c>
       <c r="D98" t="n">
-        <v>65.94</v>
+        <v>66.51000000000001</v>
       </c>
       <c r="E98" t="n">
-        <v>65.94</v>
+        <v>66.36</v>
       </c>
       <c r="F98" t="n">
-        <v>897</v>
+        <v>10.3381</v>
       </c>
       <c r="G98" t="n">
-        <v>66.55866666666658</v>
+        <v>84358.93421461292</v>
       </c>
       <c r="H98" t="n">
-        <v>66.77333333333337</v>
+        <v>0</v>
       </c>
       <c r="I98" t="n">
         <v>0</v>
       </c>
-      <c r="J98" t="n">
-        <v>0</v>
-      </c>
+      <c r="J98" t="inlineStr"/>
       <c r="K98" t="inlineStr"/>
-      <c r="L98" t="inlineStr"/>
-      <c r="M98" t="inlineStr"/>
-      <c r="N98" t="n">
+      <c r="L98" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M98" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4162,36 +4068,37 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>65.95</v>
+        <v>68.14</v>
       </c>
       <c r="C99" t="n">
-        <v>65.90000000000001</v>
+        <v>68.15000000000001</v>
       </c>
       <c r="D99" t="n">
-        <v>65.95</v>
+        <v>68.15000000000001</v>
       </c>
       <c r="E99" t="n">
-        <v>65.90000000000001</v>
+        <v>68.14</v>
       </c>
       <c r="F99" t="n">
-        <v>10083.3285</v>
+        <v>57</v>
       </c>
       <c r="G99" t="n">
-        <v>66.40933333333325</v>
+        <v>84415.93421461292</v>
       </c>
       <c r="H99" t="n">
-        <v>66.77500000000003</v>
+        <v>0</v>
       </c>
       <c r="I99" t="n">
         <v>0</v>
       </c>
-      <c r="J99" t="n">
-        <v>0</v>
-      </c>
+      <c r="J99" t="inlineStr"/>
       <c r="K99" t="inlineStr"/>
-      <c r="L99" t="inlineStr"/>
-      <c r="M99" t="inlineStr"/>
-      <c r="N99" t="n">
+      <c r="L99" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M99" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4200,36 +4107,37 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>65.90000000000001</v>
+        <v>66.40000000000001</v>
       </c>
       <c r="C100" t="n">
-        <v>65.84999999999999</v>
+        <v>66.2</v>
       </c>
       <c r="D100" t="n">
-        <v>65.90000000000001</v>
+        <v>66.40000000000001</v>
       </c>
       <c r="E100" t="n">
-        <v>65.84999999999999</v>
+        <v>66.2</v>
       </c>
       <c r="F100" t="n">
-        <v>215.47</v>
+        <v>12145.4979</v>
       </c>
       <c r="G100" t="n">
-        <v>66.26599999999992</v>
+        <v>72270.43631461292</v>
       </c>
       <c r="H100" t="n">
-        <v>66.74566666666669</v>
+        <v>0</v>
       </c>
       <c r="I100" t="n">
         <v>0</v>
       </c>
-      <c r="J100" t="n">
-        <v>0</v>
-      </c>
+      <c r="J100" t="inlineStr"/>
       <c r="K100" t="inlineStr"/>
-      <c r="L100" t="inlineStr"/>
-      <c r="M100" t="inlineStr"/>
-      <c r="N100" t="n">
+      <c r="L100" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M100" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4238,36 +4146,37 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>65.86</v>
+        <v>66.2</v>
       </c>
       <c r="C101" t="n">
-        <v>65.84999999999999</v>
+        <v>66.2</v>
       </c>
       <c r="D101" t="n">
-        <v>65.86</v>
+        <v>66.2</v>
       </c>
       <c r="E101" t="n">
-        <v>65.84999999999999</v>
+        <v>66.2</v>
       </c>
       <c r="F101" t="n">
-        <v>4119.6317</v>
+        <v>1175.6625</v>
       </c>
       <c r="G101" t="n">
-        <v>66.11599999999991</v>
+        <v>72270.43631461292</v>
       </c>
       <c r="H101" t="n">
-        <v>66.71633333333335</v>
+        <v>0</v>
       </c>
       <c r="I101" t="n">
         <v>0</v>
       </c>
-      <c r="J101" t="n">
-        <v>0</v>
-      </c>
+      <c r="J101" t="inlineStr"/>
       <c r="K101" t="inlineStr"/>
-      <c r="L101" t="inlineStr"/>
-      <c r="M101" t="inlineStr"/>
-      <c r="N101" t="n">
+      <c r="L101" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M101" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4276,36 +4185,37 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>65.84999999999999</v>
+        <v>66.3</v>
       </c>
       <c r="C102" t="n">
-        <v>66</v>
+        <v>66.3</v>
       </c>
       <c r="D102" t="n">
-        <v>66</v>
+        <v>66.3</v>
       </c>
       <c r="E102" t="n">
-        <v>65.84999999999999</v>
+        <v>66.3</v>
       </c>
       <c r="F102" t="n">
-        <v>81.00083704545455</v>
+        <v>5856.9831</v>
       </c>
       <c r="G102" t="n">
-        <v>66.10799999999992</v>
+        <v>78127.41941461292</v>
       </c>
       <c r="H102" t="n">
-        <v>66.67800000000003</v>
+        <v>0</v>
       </c>
       <c r="I102" t="n">
         <v>0</v>
       </c>
-      <c r="J102" t="n">
-        <v>0</v>
-      </c>
+      <c r="J102" t="inlineStr"/>
       <c r="K102" t="inlineStr"/>
-      <c r="L102" t="inlineStr"/>
-      <c r="M102" t="inlineStr"/>
-      <c r="N102" t="n">
+      <c r="L102" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M102" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4314,36 +4224,37 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>66</v>
+        <v>66.40000000000001</v>
       </c>
       <c r="C103" t="n">
-        <v>66.37</v>
+        <v>66.2</v>
       </c>
       <c r="D103" t="n">
-        <v>66.37</v>
+        <v>66.40000000000001</v>
       </c>
       <c r="E103" t="n">
-        <v>66</v>
+        <v>66.2</v>
       </c>
       <c r="F103" t="n">
-        <v>3420</v>
+        <v>3942.5386</v>
       </c>
       <c r="G103" t="n">
-        <v>66.11933333333326</v>
+        <v>74184.88081461292</v>
       </c>
       <c r="H103" t="n">
-        <v>66.65733333333336</v>
+        <v>0</v>
       </c>
       <c r="I103" t="n">
         <v>0</v>
       </c>
-      <c r="J103" t="n">
-        <v>0</v>
-      </c>
+      <c r="J103" t="inlineStr"/>
       <c r="K103" t="inlineStr"/>
-      <c r="L103" t="inlineStr"/>
-      <c r="M103" t="inlineStr"/>
-      <c r="N103" t="n">
+      <c r="L103" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M103" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4352,36 +4263,37 @@
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>65.91</v>
+        <v>66.09999999999999</v>
       </c>
       <c r="C104" t="n">
-        <v>65.91</v>
+        <v>66.09999999999999</v>
       </c>
       <c r="D104" t="n">
-        <v>65.91</v>
+        <v>66.09999999999999</v>
       </c>
       <c r="E104" t="n">
-        <v>65.91</v>
+        <v>66.09999999999999</v>
       </c>
       <c r="F104" t="n">
-        <v>1131</v>
+        <v>124.8401</v>
       </c>
       <c r="G104" t="n">
-        <v>66.10599999999992</v>
+        <v>74060.04071461291</v>
       </c>
       <c r="H104" t="n">
-        <v>66.61916666666669</v>
+        <v>0</v>
       </c>
       <c r="I104" t="n">
         <v>0</v>
       </c>
-      <c r="J104" t="n">
-        <v>0</v>
-      </c>
+      <c r="J104" t="inlineStr"/>
       <c r="K104" t="inlineStr"/>
-      <c r="L104" t="inlineStr"/>
-      <c r="M104" t="inlineStr"/>
-      <c r="N104" t="n">
+      <c r="L104" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M104" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4390,36 +4302,37 @@
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>66.37</v>
+        <v>66.09999999999999</v>
       </c>
       <c r="C105" t="n">
-        <v>66.37</v>
+        <v>66.3</v>
       </c>
       <c r="D105" t="n">
-        <v>66.37</v>
+        <v>66.3</v>
       </c>
       <c r="E105" t="n">
-        <v>66.37</v>
+        <v>66.09999999999999</v>
       </c>
       <c r="F105" t="n">
-        <v>8</v>
+        <v>1000</v>
       </c>
       <c r="G105" t="n">
-        <v>66.12999999999992</v>
+        <v>75060.04071461291</v>
       </c>
       <c r="H105" t="n">
-        <v>66.60033333333335</v>
+        <v>0</v>
       </c>
       <c r="I105" t="n">
         <v>0</v>
       </c>
-      <c r="J105" t="n">
-        <v>0</v>
-      </c>
+      <c r="J105" t="inlineStr"/>
       <c r="K105" t="inlineStr"/>
-      <c r="L105" t="inlineStr"/>
-      <c r="M105" t="inlineStr"/>
-      <c r="N105" t="n">
+      <c r="L105" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M105" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4428,36 +4341,37 @@
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>65.91</v>
+        <v>67.55</v>
       </c>
       <c r="C106" t="n">
-        <v>65.91</v>
+        <v>67.56</v>
       </c>
       <c r="D106" t="n">
-        <v>65.91</v>
+        <v>67.56</v>
       </c>
       <c r="E106" t="n">
-        <v>65.91</v>
+        <v>67.55</v>
       </c>
       <c r="F106" t="n">
-        <v>1083</v>
+        <v>806</v>
       </c>
       <c r="G106" t="n">
-        <v>66.12333333333326</v>
+        <v>75866.04071461291</v>
       </c>
       <c r="H106" t="n">
-        <v>66.57416666666668</v>
+        <v>0</v>
       </c>
       <c r="I106" t="n">
         <v>0</v>
       </c>
-      <c r="J106" t="n">
-        <v>0</v>
-      </c>
+      <c r="J106" t="inlineStr"/>
       <c r="K106" t="inlineStr"/>
-      <c r="L106" t="inlineStr"/>
-      <c r="M106" t="inlineStr"/>
-      <c r="N106" t="n">
+      <c r="L106" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M106" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4466,36 +4380,37 @@
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>65.91</v>
+        <v>67.56</v>
       </c>
       <c r="C107" t="n">
-        <v>65.91</v>
+        <v>68.16</v>
       </c>
       <c r="D107" t="n">
-        <v>65.91</v>
+        <v>68.16</v>
       </c>
       <c r="E107" t="n">
-        <v>65.91</v>
+        <v>67.56</v>
       </c>
       <c r="F107" t="n">
-        <v>288</v>
+        <v>59</v>
       </c>
       <c r="G107" t="n">
-        <v>66.0306666666666</v>
+        <v>75925.04071461291</v>
       </c>
       <c r="H107" t="n">
-        <v>66.53600000000002</v>
+        <v>0</v>
       </c>
       <c r="I107" t="n">
         <v>0</v>
       </c>
-      <c r="J107" t="n">
-        <v>0</v>
-      </c>
+      <c r="J107" t="inlineStr"/>
       <c r="K107" t="inlineStr"/>
-      <c r="L107" t="inlineStr"/>
-      <c r="M107" t="inlineStr"/>
-      <c r="N107" t="n">
+      <c r="L107" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M107" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4504,36 +4419,37 @@
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>66.37</v>
+        <v>68.09</v>
       </c>
       <c r="C108" t="n">
-        <v>66.37</v>
+        <v>68.09</v>
       </c>
       <c r="D108" t="n">
-        <v>66.37</v>
+        <v>68.09</v>
       </c>
       <c r="E108" t="n">
-        <v>66.37</v>
+        <v>68.09</v>
       </c>
       <c r="F108" t="n">
-        <v>8</v>
+        <v>124</v>
       </c>
       <c r="G108" t="n">
-        <v>66.0586666666666</v>
+        <v>75801.04071461291</v>
       </c>
       <c r="H108" t="n">
-        <v>66.54050000000001</v>
+        <v>0</v>
       </c>
       <c r="I108" t="n">
         <v>0</v>
       </c>
-      <c r="J108" t="n">
-        <v>0</v>
-      </c>
+      <c r="J108" t="inlineStr"/>
       <c r="K108" t="inlineStr"/>
-      <c r="L108" t="inlineStr"/>
-      <c r="M108" t="inlineStr"/>
-      <c r="N108" t="n">
+      <c r="L108" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M108" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4542,36 +4458,37 @@
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>65.91</v>
+        <v>68.09</v>
       </c>
       <c r="C109" t="n">
-        <v>65.91</v>
+        <v>68.09999999999999</v>
       </c>
       <c r="D109" t="n">
-        <v>65.91</v>
+        <v>68.09999999999999</v>
       </c>
       <c r="E109" t="n">
-        <v>65.91</v>
+        <v>68.09</v>
       </c>
       <c r="F109" t="n">
-        <v>572</v>
+        <v>8</v>
       </c>
       <c r="G109" t="n">
-        <v>66.05266666666661</v>
+        <v>75809.04071461291</v>
       </c>
       <c r="H109" t="n">
-        <v>66.50333333333334</v>
+        <v>0</v>
       </c>
       <c r="I109" t="n">
         <v>0</v>
       </c>
-      <c r="J109" t="n">
-        <v>0</v>
-      </c>
+      <c r="J109" t="inlineStr"/>
       <c r="K109" t="inlineStr"/>
-      <c r="L109" t="inlineStr"/>
-      <c r="M109" t="inlineStr"/>
-      <c r="N109" t="n">
+      <c r="L109" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M109" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4580,36 +4497,37 @@
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>66.37</v>
+        <v>68.09999999999999</v>
       </c>
       <c r="C110" t="n">
-        <v>66.37</v>
+        <v>68.09999999999999</v>
       </c>
       <c r="D110" t="n">
-        <v>66.37</v>
+        <v>68.09999999999999</v>
       </c>
       <c r="E110" t="n">
-        <v>66.37</v>
+        <v>68.09999999999999</v>
       </c>
       <c r="F110" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="G110" t="n">
-        <v>66.07733333333326</v>
+        <v>75809.04071461291</v>
       </c>
       <c r="H110" t="n">
-        <v>66.50616666666669</v>
+        <v>0</v>
       </c>
       <c r="I110" t="n">
         <v>0</v>
       </c>
-      <c r="J110" t="n">
-        <v>0</v>
-      </c>
+      <c r="J110" t="inlineStr"/>
       <c r="K110" t="inlineStr"/>
-      <c r="L110" t="inlineStr"/>
-      <c r="M110" t="inlineStr"/>
-      <c r="N110" t="n">
+      <c r="L110" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M110" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4618,36 +4536,37 @@
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>66</v>
+        <v>68.09</v>
       </c>
       <c r="C111" t="n">
-        <v>66.37</v>
+        <v>68</v>
       </c>
       <c r="D111" t="n">
-        <v>66.37</v>
+        <v>68.09</v>
       </c>
       <c r="E111" t="n">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="F111" t="n">
-        <v>258.6031</v>
+        <v>110</v>
       </c>
       <c r="G111" t="n">
-        <v>66.06866666666659</v>
+        <v>75699.04071461291</v>
       </c>
       <c r="H111" t="n">
-        <v>66.50900000000001</v>
+        <v>0</v>
       </c>
       <c r="I111" t="n">
         <v>0</v>
       </c>
-      <c r="J111" t="n">
-        <v>0</v>
-      </c>
+      <c r="J111" t="inlineStr"/>
       <c r="K111" t="inlineStr"/>
-      <c r="L111" t="inlineStr"/>
-      <c r="M111" t="inlineStr"/>
-      <c r="N111" t="n">
+      <c r="L111" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M111" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4656,36 +4575,37 @@
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>66.01000000000001</v>
+        <v>67.90000000000001</v>
       </c>
       <c r="C112" t="n">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="D112" t="n">
-        <v>66.01000000000001</v>
+        <v>68</v>
       </c>
       <c r="E112" t="n">
-        <v>66</v>
+        <v>67.90000000000001</v>
       </c>
       <c r="F112" t="n">
-        <v>1283</v>
+        <v>260.9815</v>
       </c>
       <c r="G112" t="n">
-        <v>66.06866666666659</v>
+        <v>75699.04071461291</v>
       </c>
       <c r="H112" t="n">
-        <v>66.50733333333335</v>
+        <v>0</v>
       </c>
       <c r="I112" t="n">
         <v>0</v>
       </c>
-      <c r="J112" t="n">
-        <v>0</v>
-      </c>
+      <c r="J112" t="inlineStr"/>
       <c r="K112" t="inlineStr"/>
-      <c r="L112" t="inlineStr"/>
-      <c r="M112" t="inlineStr"/>
-      <c r="N112" t="n">
+      <c r="L112" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M112" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4694,36 +4614,37 @@
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>66.09999999999999</v>
+        <v>68.14</v>
       </c>
       <c r="C113" t="n">
-        <v>66.01000000000001</v>
+        <v>68.14</v>
       </c>
       <c r="D113" t="n">
-        <v>66.09999999999999</v>
+        <v>68.14</v>
       </c>
       <c r="E113" t="n">
-        <v>66.01000000000001</v>
+        <v>68.14</v>
       </c>
       <c r="F113" t="n">
-        <v>1700</v>
+        <v>8</v>
       </c>
       <c r="G113" t="n">
-        <v>66.07333333333325</v>
+        <v>75707.04071461291</v>
       </c>
       <c r="H113" t="n">
-        <v>66.51016666666668</v>
+        <v>0</v>
       </c>
       <c r="I113" t="n">
         <v>0</v>
       </c>
-      <c r="J113" t="n">
-        <v>0</v>
-      </c>
+      <c r="J113" t="inlineStr"/>
       <c r="K113" t="inlineStr"/>
-      <c r="L113" t="inlineStr"/>
-      <c r="M113" t="inlineStr"/>
-      <c r="N113" t="n">
+      <c r="L113" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M113" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4732,36 +4653,37 @@
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="C114" t="n">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="D114" t="n">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="E114" t="n">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="F114" t="n">
-        <v>3981.2509</v>
+        <v>269.0539</v>
       </c>
       <c r="G114" t="n">
-        <v>66.07999999999991</v>
+        <v>75437.98681461292</v>
       </c>
       <c r="H114" t="n">
-        <v>66.51283333333335</v>
+        <v>0</v>
       </c>
       <c r="I114" t="n">
         <v>0</v>
       </c>
-      <c r="J114" t="n">
-        <v>0</v>
-      </c>
+      <c r="J114" t="inlineStr"/>
       <c r="K114" t="inlineStr"/>
-      <c r="L114" t="inlineStr"/>
-      <c r="M114" t="inlineStr"/>
-      <c r="N114" t="n">
+      <c r="L114" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M114" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4770,36 +4692,37 @@
         <v>113</v>
       </c>
       <c r="B115" t="n">
-        <v>66</v>
+        <v>68.09999999999999</v>
       </c>
       <c r="C115" t="n">
-        <v>66</v>
+        <v>68.09999999999999</v>
       </c>
       <c r="D115" t="n">
-        <v>66</v>
+        <v>68.09999999999999</v>
       </c>
       <c r="E115" t="n">
-        <v>66</v>
+        <v>68.09999999999999</v>
       </c>
       <c r="F115" t="n">
-        <v>2813.46</v>
+        <v>300.6735</v>
       </c>
       <c r="G115" t="n">
-        <v>66.08999999999993</v>
+        <v>75738.66031461292</v>
       </c>
       <c r="H115" t="n">
-        <v>66.50950000000002</v>
+        <v>0</v>
       </c>
       <c r="I115" t="n">
         <v>0</v>
       </c>
-      <c r="J115" t="n">
-        <v>0</v>
-      </c>
+      <c r="J115" t="inlineStr"/>
       <c r="K115" t="inlineStr"/>
-      <c r="L115" t="inlineStr"/>
-      <c r="M115" t="inlineStr"/>
-      <c r="N115" t="n">
+      <c r="L115" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M115" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4808,36 +4731,37 @@
         <v>114</v>
       </c>
       <c r="B116" t="n">
-        <v>66.3</v>
+        <v>67</v>
       </c>
       <c r="C116" t="n">
-        <v>65.95</v>
+        <v>66.12</v>
       </c>
       <c r="D116" t="n">
-        <v>66.37</v>
+        <v>67</v>
       </c>
       <c r="E116" t="n">
-        <v>65.95</v>
+        <v>66.12</v>
       </c>
       <c r="F116" t="n">
-        <v>4779.146</v>
+        <v>3100</v>
       </c>
       <c r="G116" t="n">
-        <v>66.09666666666659</v>
+        <v>72638.66031461292</v>
       </c>
       <c r="H116" t="n">
-        <v>66.51133333333334</v>
+        <v>0</v>
       </c>
       <c r="I116" t="n">
         <v>0</v>
       </c>
-      <c r="J116" t="n">
-        <v>0</v>
-      </c>
+      <c r="J116" t="inlineStr"/>
       <c r="K116" t="inlineStr"/>
-      <c r="L116" t="inlineStr"/>
-      <c r="M116" t="inlineStr"/>
-      <c r="N116" t="n">
+      <c r="L116" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M116" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4846,36 +4770,37 @@
         <v>115</v>
       </c>
       <c r="B117" t="n">
-        <v>65.92</v>
+        <v>66.2</v>
       </c>
       <c r="C117" t="n">
-        <v>65.91</v>
+        <v>66.2</v>
       </c>
       <c r="D117" t="n">
-        <v>65.92</v>
+        <v>66.2</v>
       </c>
       <c r="E117" t="n">
-        <v>65.91</v>
+        <v>66.2</v>
       </c>
       <c r="F117" t="n">
-        <v>11422.4051</v>
+        <v>5683.1978</v>
       </c>
       <c r="G117" t="n">
-        <v>66.09066666666658</v>
+        <v>78321.85811461291</v>
       </c>
       <c r="H117" t="n">
-        <v>66.51266666666668</v>
+        <v>0</v>
       </c>
       <c r="I117" t="n">
         <v>0</v>
       </c>
-      <c r="J117" t="n">
-        <v>0</v>
-      </c>
+      <c r="J117" t="inlineStr"/>
       <c r="K117" t="inlineStr"/>
-      <c r="L117" t="inlineStr"/>
-      <c r="M117" t="inlineStr"/>
-      <c r="N117" t="n">
+      <c r="L117" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M117" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4884,36 +4809,37 @@
         <v>116</v>
       </c>
       <c r="B118" t="n">
-        <v>66.3</v>
+        <v>66.11</v>
       </c>
       <c r="C118" t="n">
-        <v>66.3</v>
+        <v>66.11</v>
       </c>
       <c r="D118" t="n">
-        <v>66.3</v>
+        <v>66.11</v>
       </c>
       <c r="E118" t="n">
-        <v>66.3</v>
+        <v>66.11</v>
       </c>
       <c r="F118" t="n">
-        <v>410.4897</v>
+        <v>5683.1978</v>
       </c>
       <c r="G118" t="n">
-        <v>66.08599999999991</v>
+        <v>72638.66031461292</v>
       </c>
       <c r="H118" t="n">
-        <v>66.52050000000001</v>
+        <v>0</v>
       </c>
       <c r="I118" t="n">
         <v>0</v>
       </c>
-      <c r="J118" t="n">
-        <v>0</v>
-      </c>
+      <c r="J118" t="inlineStr"/>
       <c r="K118" t="inlineStr"/>
-      <c r="L118" t="inlineStr"/>
-      <c r="M118" t="inlineStr"/>
-      <c r="N118" t="n">
+      <c r="L118" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M118" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4922,36 +4848,37 @@
         <v>117</v>
       </c>
       <c r="B119" t="n">
-        <v>66.3</v>
+        <v>66.01000000000001</v>
       </c>
       <c r="C119" t="n">
-        <v>66.3</v>
+        <v>66.01000000000001</v>
       </c>
       <c r="D119" t="n">
-        <v>66.3</v>
+        <v>66.01000000000001</v>
       </c>
       <c r="E119" t="n">
-        <v>66.3</v>
+        <v>66.01000000000001</v>
       </c>
       <c r="F119" t="n">
-        <v>352.7613</v>
+        <v>140</v>
       </c>
       <c r="G119" t="n">
-        <v>66.11199999999992</v>
+        <v>72498.66031461292</v>
       </c>
       <c r="H119" t="n">
-        <v>66.54016666666669</v>
+        <v>0</v>
       </c>
       <c r="I119" t="n">
         <v>0</v>
       </c>
-      <c r="J119" t="n">
-        <v>0</v>
-      </c>
+      <c r="J119" t="inlineStr"/>
       <c r="K119" t="inlineStr"/>
-      <c r="L119" t="inlineStr"/>
-      <c r="M119" t="inlineStr"/>
-      <c r="N119" t="n">
+      <c r="L119" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M119" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4960,36 +4887,37 @@
         <v>118</v>
       </c>
       <c r="B120" t="n">
-        <v>66.3</v>
+        <v>66.01000000000001</v>
       </c>
       <c r="C120" t="n">
-        <v>66.3</v>
+        <v>66.01000000000001</v>
       </c>
       <c r="D120" t="n">
-        <v>66.3</v>
+        <v>66.01000000000001</v>
       </c>
       <c r="E120" t="n">
-        <v>66.3</v>
+        <v>66.01000000000001</v>
       </c>
       <c r="F120" t="n">
-        <v>779.9924999999999</v>
+        <v>353</v>
       </c>
       <c r="G120" t="n">
-        <v>66.10733333333326</v>
+        <v>72498.66031461292</v>
       </c>
       <c r="H120" t="n">
-        <v>66.55983333333336</v>
+        <v>0</v>
       </c>
       <c r="I120" t="n">
         <v>0</v>
       </c>
-      <c r="J120" t="n">
-        <v>0</v>
-      </c>
+      <c r="J120" t="inlineStr"/>
       <c r="K120" t="inlineStr"/>
-      <c r="L120" t="inlineStr"/>
-      <c r="M120" t="inlineStr"/>
-      <c r="N120" t="n">
+      <c r="L120" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M120" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4998,36 +4926,37 @@
         <v>119</v>
       </c>
       <c r="B121" t="n">
-        <v>66.3</v>
+        <v>67.3</v>
       </c>
       <c r="C121" t="n">
-        <v>66.37</v>
+        <v>67.3</v>
       </c>
       <c r="D121" t="n">
-        <v>66.37</v>
+        <v>67.3</v>
       </c>
       <c r="E121" t="n">
-        <v>66.3</v>
+        <v>67.3</v>
       </c>
       <c r="F121" t="n">
-        <v>1014.3134</v>
+        <v>8</v>
       </c>
       <c r="G121" t="n">
-        <v>66.13799999999993</v>
+        <v>72506.66031461292</v>
       </c>
       <c r="H121" t="n">
-        <v>66.58166666666669</v>
+        <v>0</v>
       </c>
       <c r="I121" t="n">
         <v>0</v>
       </c>
-      <c r="J121" t="n">
-        <v>0</v>
-      </c>
+      <c r="J121" t="inlineStr"/>
       <c r="K121" t="inlineStr"/>
-      <c r="L121" t="inlineStr"/>
-      <c r="M121" t="inlineStr"/>
-      <c r="N121" t="n">
+      <c r="L121" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M121" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5036,36 +4965,37 @@
         <v>120</v>
       </c>
       <c r="B122" t="n">
-        <v>66.3</v>
+        <v>66.11</v>
       </c>
       <c r="C122" t="n">
-        <v>66.3</v>
+        <v>65.95</v>
       </c>
       <c r="D122" t="n">
-        <v>66.3</v>
+        <v>66.11</v>
       </c>
       <c r="E122" t="n">
-        <v>66.3</v>
+        <v>65.95</v>
       </c>
       <c r="F122" t="n">
-        <v>2282.9534</v>
+        <v>10924.544</v>
       </c>
       <c r="G122" t="n">
-        <v>66.16399999999993</v>
+        <v>61582.11631461292</v>
       </c>
       <c r="H122" t="n">
-        <v>66.60133333333336</v>
+        <v>0</v>
       </c>
       <c r="I122" t="n">
         <v>0</v>
       </c>
-      <c r="J122" t="n">
-        <v>0</v>
-      </c>
+      <c r="J122" t="inlineStr"/>
       <c r="K122" t="inlineStr"/>
-      <c r="L122" t="inlineStr"/>
-      <c r="M122" t="inlineStr"/>
-      <c r="N122" t="n">
+      <c r="L122" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M122" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5074,36 +5004,37 @@
         <v>121</v>
       </c>
       <c r="B123" t="n">
-        <v>66.3</v>
+        <v>66</v>
       </c>
       <c r="C123" t="n">
-        <v>66.37</v>
+        <v>66</v>
       </c>
       <c r="D123" t="n">
-        <v>66.37</v>
+        <v>66</v>
       </c>
       <c r="E123" t="n">
-        <v>66.3</v>
+        <v>66</v>
       </c>
       <c r="F123" t="n">
-        <v>511.1552</v>
+        <v>9385.376099999999</v>
       </c>
       <c r="G123" t="n">
-        <v>66.16399999999993</v>
+        <v>70967.49241461292</v>
       </c>
       <c r="H123" t="n">
-        <v>66.61033333333336</v>
+        <v>0</v>
       </c>
       <c r="I123" t="n">
         <v>0</v>
       </c>
-      <c r="J123" t="n">
-        <v>0</v>
-      </c>
+      <c r="J123" t="inlineStr"/>
       <c r="K123" t="inlineStr"/>
-      <c r="L123" t="inlineStr"/>
-      <c r="M123" t="inlineStr"/>
-      <c r="N123" t="n">
+      <c r="L123" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M123" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5112,40 +5043,37 @@
         <v>122</v>
       </c>
       <c r="B124" t="n">
-        <v>66.37</v>
+        <v>66.01000000000001</v>
       </c>
       <c r="C124" t="n">
-        <v>66.37</v>
+        <v>66</v>
       </c>
       <c r="D124" t="n">
-        <v>66.37</v>
+        <v>66.01000000000001</v>
       </c>
       <c r="E124" t="n">
-        <v>66.37</v>
+        <v>66</v>
       </c>
       <c r="F124" t="n">
-        <v>897.2539</v>
+        <v>8725.1842</v>
       </c>
       <c r="G124" t="n">
-        <v>66.19466666666661</v>
+        <v>70967.49241461292</v>
       </c>
       <c r="H124" t="n">
-        <v>66.58050000000003</v>
+        <v>0</v>
       </c>
       <c r="I124" t="n">
-        <v>1</v>
-      </c>
-      <c r="J124" t="n">
-        <v>0</v>
-      </c>
-      <c r="K124" t="n">
-        <v>66.37</v>
-      </c>
-      <c r="L124" t="n">
-        <v>66.37</v>
-      </c>
-      <c r="M124" t="inlineStr"/>
-      <c r="N124" t="n">
+        <v>0</v>
+      </c>
+      <c r="J124" t="inlineStr"/>
+      <c r="K124" t="inlineStr"/>
+      <c r="L124" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M124" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5154,44 +5082,37 @@
         <v>123</v>
       </c>
       <c r="B125" t="n">
-        <v>66.37</v>
+        <v>66.39</v>
       </c>
       <c r="C125" t="n">
-        <v>66.37</v>
+        <v>66.5</v>
       </c>
       <c r="D125" t="n">
-        <v>66.37</v>
+        <v>66.5</v>
       </c>
       <c r="E125" t="n">
-        <v>66.37</v>
+        <v>66.39</v>
       </c>
       <c r="F125" t="n">
-        <v>224.3059</v>
+        <v>10000</v>
       </c>
       <c r="G125" t="n">
-        <v>66.19466666666661</v>
+        <v>80967.49241461292</v>
       </c>
       <c r="H125" t="n">
-        <v>66.55100000000003</v>
+        <v>0</v>
       </c>
       <c r="I125" t="n">
-        <v>1</v>
-      </c>
-      <c r="J125" t="n">
-        <v>0</v>
-      </c>
-      <c r="K125" t="n">
-        <v>66.37</v>
-      </c>
-      <c r="L125" t="n">
-        <v>66.37</v>
-      </c>
-      <c r="M125" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="N125" t="n">
+        <v>0</v>
+      </c>
+      <c r="J125" t="inlineStr"/>
+      <c r="K125" t="inlineStr"/>
+      <c r="L125" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M125" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5200,44 +5121,37 @@
         <v>124</v>
       </c>
       <c r="B126" t="n">
-        <v>66.37</v>
+        <v>66</v>
       </c>
       <c r="C126" t="n">
-        <v>66.5</v>
+        <v>66</v>
       </c>
       <c r="D126" t="n">
-        <v>66.5</v>
+        <v>66</v>
       </c>
       <c r="E126" t="n">
-        <v>66.37</v>
+        <v>66</v>
       </c>
       <c r="F126" t="n">
-        <v>5665.527063250888</v>
+        <v>12343.5751</v>
       </c>
       <c r="G126" t="n">
-        <v>66.20333333333328</v>
+        <v>68623.91731461292</v>
       </c>
       <c r="H126" t="n">
-        <v>66.52600000000002</v>
+        <v>0</v>
       </c>
       <c r="I126" t="n">
-        <v>1</v>
-      </c>
-      <c r="J126" t="n">
-        <v>0</v>
-      </c>
-      <c r="K126" t="n">
-        <v>66.37</v>
-      </c>
-      <c r="L126" t="n">
-        <v>66.37</v>
-      </c>
-      <c r="M126" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
-      <c r="N126" t="n">
+        <v>0</v>
+      </c>
+      <c r="J126" t="inlineStr"/>
+      <c r="K126" t="inlineStr"/>
+      <c r="L126" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M126" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5246,44 +5160,37 @@
         <v>125</v>
       </c>
       <c r="B127" t="n">
-        <v>66.5</v>
+        <v>65.94</v>
       </c>
       <c r="C127" t="n">
-        <v>66.5</v>
+        <v>65.94</v>
       </c>
       <c r="D127" t="n">
-        <v>66.5</v>
+        <v>65.94</v>
       </c>
       <c r="E127" t="n">
-        <v>66.5</v>
+        <v>65.94</v>
       </c>
       <c r="F127" t="n">
-        <v>9204.752399999999</v>
+        <v>897</v>
       </c>
       <c r="G127" t="n">
-        <v>66.23666666666662</v>
+        <v>67726.91731461292</v>
       </c>
       <c r="H127" t="n">
-        <v>66.52250000000002</v>
+        <v>0</v>
       </c>
       <c r="I127" t="n">
-        <v>1</v>
-      </c>
-      <c r="J127" t="n">
-        <v>0</v>
-      </c>
-      <c r="K127" t="n">
-        <v>66.5</v>
-      </c>
-      <c r="L127" t="n">
-        <v>66.37</v>
-      </c>
-      <c r="M127" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N127" t="n">
+        <v>0</v>
+      </c>
+      <c r="J127" t="inlineStr"/>
+      <c r="K127" t="inlineStr"/>
+      <c r="L127" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M127" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5292,44 +5199,37 @@
         <v>126</v>
       </c>
       <c r="B128" t="n">
-        <v>66.5</v>
+        <v>65.95</v>
       </c>
       <c r="C128" t="n">
-        <v>66.5</v>
+        <v>65.90000000000001</v>
       </c>
       <c r="D128" t="n">
-        <v>66.5</v>
+        <v>65.95</v>
       </c>
       <c r="E128" t="n">
-        <v>66.5</v>
+        <v>65.90000000000001</v>
       </c>
       <c r="F128" t="n">
-        <v>197.8697</v>
+        <v>10083.3285</v>
       </c>
       <c r="G128" t="n">
-        <v>66.26933333333328</v>
+        <v>57643.58881461291</v>
       </c>
       <c r="H128" t="n">
-        <v>66.52483333333336</v>
+        <v>0</v>
       </c>
       <c r="I128" t="n">
-        <v>1</v>
-      </c>
-      <c r="J128" t="n">
-        <v>0</v>
-      </c>
-      <c r="K128" t="n">
-        <v>66.5</v>
-      </c>
-      <c r="L128" t="n">
-        <v>66.37</v>
-      </c>
-      <c r="M128" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N128" t="n">
+        <v>0</v>
+      </c>
+      <c r="J128" t="inlineStr"/>
+      <c r="K128" t="inlineStr"/>
+      <c r="L128" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M128" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5338,44 +5238,37 @@
         <v>127</v>
       </c>
       <c r="B129" t="n">
-        <v>66.2</v>
+        <v>65.90000000000001</v>
       </c>
       <c r="C129" t="n">
-        <v>66.2</v>
+        <v>65.84999999999999</v>
       </c>
       <c r="D129" t="n">
-        <v>66.2</v>
+        <v>65.90000000000001</v>
       </c>
       <c r="E129" t="n">
-        <v>66.2</v>
+        <v>65.84999999999999</v>
       </c>
       <c r="F129" t="n">
-        <v>20</v>
+        <v>215.47</v>
       </c>
       <c r="G129" t="n">
-        <v>66.28266666666663</v>
+        <v>57428.11881461291</v>
       </c>
       <c r="H129" t="n">
-        <v>66.51966666666668</v>
+        <v>0</v>
       </c>
       <c r="I129" t="n">
-        <v>1</v>
-      </c>
-      <c r="J129" t="n">
-        <v>0</v>
-      </c>
-      <c r="K129" t="n">
-        <v>66.5</v>
-      </c>
-      <c r="L129" t="n">
-        <v>66.37</v>
-      </c>
-      <c r="M129" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N129" t="n">
+        <v>0</v>
+      </c>
+      <c r="J129" t="inlineStr"/>
+      <c r="K129" t="inlineStr"/>
+      <c r="L129" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M129" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5384,44 +5277,37 @@
         <v>128</v>
       </c>
       <c r="B130" t="n">
-        <v>66.5</v>
+        <v>65.86</v>
       </c>
       <c r="C130" t="n">
-        <v>66.5</v>
+        <v>65.84999999999999</v>
       </c>
       <c r="D130" t="n">
-        <v>66.5</v>
+        <v>65.86</v>
       </c>
       <c r="E130" t="n">
-        <v>66.5</v>
+        <v>65.84999999999999</v>
       </c>
       <c r="F130" t="n">
-        <v>8</v>
+        <v>4119.6317</v>
       </c>
       <c r="G130" t="n">
-        <v>66.31599999999996</v>
+        <v>57428.11881461291</v>
       </c>
       <c r="H130" t="n">
-        <v>66.49216666666669</v>
+        <v>0</v>
       </c>
       <c r="I130" t="n">
-        <v>1</v>
-      </c>
-      <c r="J130" t="n">
-        <v>0</v>
-      </c>
-      <c r="K130" t="n">
-        <v>66.2</v>
-      </c>
-      <c r="L130" t="n">
-        <v>66.37</v>
-      </c>
-      <c r="M130" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N130" t="n">
+        <v>0</v>
+      </c>
+      <c r="J130" t="inlineStr"/>
+      <c r="K130" t="inlineStr"/>
+      <c r="L130" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M130" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5430,44 +5316,37 @@
         <v>129</v>
       </c>
       <c r="B131" t="n">
-        <v>66.5</v>
+        <v>65.84999999999999</v>
       </c>
       <c r="C131" t="n">
-        <v>68.09</v>
+        <v>66</v>
       </c>
       <c r="D131" t="n">
-        <v>68.09</v>
+        <v>66</v>
       </c>
       <c r="E131" t="n">
-        <v>66.5</v>
+        <v>65.84999999999999</v>
       </c>
       <c r="F131" t="n">
-        <v>29868.37079970366</v>
+        <v>81.00083704545455</v>
       </c>
       <c r="G131" t="n">
-        <v>66.45866666666662</v>
+        <v>57509.11965165837</v>
       </c>
       <c r="H131" t="n">
-        <v>66.52366666666668</v>
+        <v>0</v>
       </c>
       <c r="I131" t="n">
-        <v>1</v>
-      </c>
-      <c r="J131" t="n">
-        <v>0</v>
-      </c>
-      <c r="K131" t="n">
-        <v>66.5</v>
-      </c>
-      <c r="L131" t="n">
-        <v>66.37</v>
-      </c>
-      <c r="M131" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N131" t="n">
+        <v>0</v>
+      </c>
+      <c r="J131" t="inlineStr"/>
+      <c r="K131" t="inlineStr"/>
+      <c r="L131" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M131" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5476,42 +5355,37 @@
         <v>130</v>
       </c>
       <c r="B132" t="n">
-        <v>68.04000000000001</v>
+        <v>66</v>
       </c>
       <c r="C132" t="n">
-        <v>67.59999999999999</v>
+        <v>66.37</v>
       </c>
       <c r="D132" t="n">
-        <v>68.09</v>
+        <v>66.37</v>
       </c>
       <c r="E132" t="n">
-        <v>67.5</v>
+        <v>66</v>
       </c>
       <c r="F132" t="n">
-        <v>45</v>
+        <v>3420</v>
       </c>
       <c r="G132" t="n">
-        <v>66.57133333333327</v>
+        <v>60929.11965165837</v>
       </c>
       <c r="H132" t="n">
-        <v>66.54700000000003</v>
+        <v>0</v>
       </c>
       <c r="I132" t="n">
         <v>0</v>
       </c>
-      <c r="J132" t="n">
-        <v>0</v>
-      </c>
+      <c r="J132" t="inlineStr"/>
       <c r="K132" t="inlineStr"/>
-      <c r="L132" t="n">
-        <v>66.37</v>
-      </c>
-      <c r="M132" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N132" t="n">
+      <c r="L132" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M132" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5520,42 +5394,37 @@
         <v>131</v>
       </c>
       <c r="B133" t="n">
-        <v>68.09</v>
+        <v>65.91</v>
       </c>
       <c r="C133" t="n">
-        <v>68.09</v>
+        <v>65.91</v>
       </c>
       <c r="D133" t="n">
-        <v>68.09</v>
+        <v>65.91</v>
       </c>
       <c r="E133" t="n">
-        <v>68.09</v>
+        <v>65.91</v>
       </c>
       <c r="F133" t="n">
-        <v>8</v>
+        <v>1131</v>
       </c>
       <c r="G133" t="n">
-        <v>66.69066666666662</v>
+        <v>59798.11965165837</v>
       </c>
       <c r="H133" t="n">
-        <v>66.57683333333335</v>
+        <v>0</v>
       </c>
       <c r="I133" t="n">
         <v>0</v>
       </c>
-      <c r="J133" t="n">
-        <v>0</v>
-      </c>
+      <c r="J133" t="inlineStr"/>
       <c r="K133" t="inlineStr"/>
-      <c r="L133" t="n">
-        <v>66.37</v>
-      </c>
-      <c r="M133" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N133" t="n">
+      <c r="L133" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M133" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5564,42 +5433,39 @@
         <v>132</v>
       </c>
       <c r="B134" t="n">
-        <v>66.59999999999999</v>
+        <v>66.37</v>
       </c>
       <c r="C134" t="n">
-        <v>66.11</v>
+        <v>66.37</v>
       </c>
       <c r="D134" t="n">
-        <v>66.59999999999999</v>
+        <v>66.37</v>
       </c>
       <c r="E134" t="n">
-        <v>66.11</v>
+        <v>66.37</v>
       </c>
       <c r="F134" t="n">
-        <v>15319</v>
+        <v>8</v>
       </c>
       <c r="G134" t="n">
-        <v>66.67799999999994</v>
+        <v>59806.11965165837</v>
       </c>
       <c r="H134" t="n">
-        <v>66.57533333333336</v>
+        <v>1</v>
       </c>
       <c r="I134" t="n">
         <v>0</v>
       </c>
       <c r="J134" t="n">
-        <v>0</v>
+        <v>65.91</v>
       </c>
       <c r="K134" t="inlineStr"/>
-      <c r="L134" t="n">
-        <v>66.37</v>
-      </c>
-      <c r="M134" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N134" t="n">
+      <c r="L134" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M134" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5608,42 +5474,37 @@
         <v>133</v>
       </c>
       <c r="B135" t="n">
-        <v>66.11</v>
+        <v>65.91</v>
       </c>
       <c r="C135" t="n">
-        <v>67.09999999999999</v>
+        <v>65.91</v>
       </c>
       <c r="D135" t="n">
-        <v>67.09999999999999</v>
+        <v>65.91</v>
       </c>
       <c r="E135" t="n">
         <v>65.91</v>
       </c>
       <c r="F135" t="n">
-        <v>3709.5057</v>
+        <v>1083</v>
       </c>
       <c r="G135" t="n">
-        <v>66.73133333333327</v>
+        <v>58723.11965165837</v>
       </c>
       <c r="H135" t="n">
-        <v>66.59200000000003</v>
+        <v>0</v>
       </c>
       <c r="I135" t="n">
         <v>0</v>
       </c>
-      <c r="J135" t="n">
-        <v>0</v>
-      </c>
+      <c r="J135" t="inlineStr"/>
       <c r="K135" t="inlineStr"/>
-      <c r="L135" t="n">
-        <v>66.37</v>
-      </c>
-      <c r="M135" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N135" t="n">
+      <c r="L135" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M135" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5652,42 +5513,39 @@
         <v>134</v>
       </c>
       <c r="B136" t="n">
-        <v>66.59999999999999</v>
+        <v>65.91</v>
       </c>
       <c r="C136" t="n">
-        <v>66.59999999999999</v>
+        <v>65.91</v>
       </c>
       <c r="D136" t="n">
-        <v>66.59999999999999</v>
+        <v>65.91</v>
       </c>
       <c r="E136" t="n">
-        <v>66.59999999999999</v>
+        <v>65.91</v>
       </c>
       <c r="F136" t="n">
-        <v>2302.6392</v>
+        <v>288</v>
       </c>
       <c r="G136" t="n">
-        <v>66.7466666666666</v>
+        <v>58723.11965165837</v>
       </c>
       <c r="H136" t="n">
-        <v>66.59700000000002</v>
+        <v>1</v>
       </c>
       <c r="I136" t="n">
         <v>0</v>
       </c>
       <c r="J136" t="n">
-        <v>0</v>
+        <v>65.91</v>
       </c>
       <c r="K136" t="inlineStr"/>
-      <c r="L136" t="n">
-        <v>66.37</v>
-      </c>
-      <c r="M136" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N136" t="n">
+      <c r="L136" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M136" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5696,42 +5554,37 @@
         <v>135</v>
       </c>
       <c r="B137" t="n">
-        <v>66.59999999999999</v>
+        <v>66.37</v>
       </c>
       <c r="C137" t="n">
-        <v>66.59999999999999</v>
+        <v>66.37</v>
       </c>
       <c r="D137" t="n">
-        <v>66.59999999999999</v>
+        <v>66.37</v>
       </c>
       <c r="E137" t="n">
-        <v>66.59999999999999</v>
+        <v>66.37</v>
       </c>
       <c r="F137" t="n">
-        <v>5212</v>
+        <v>8</v>
       </c>
       <c r="G137" t="n">
-        <v>66.76666666666661</v>
+        <v>58731.11965165837</v>
       </c>
       <c r="H137" t="n">
-        <v>66.58100000000003</v>
+        <v>0</v>
       </c>
       <c r="I137" t="n">
         <v>0</v>
       </c>
-      <c r="J137" t="n">
-        <v>0</v>
-      </c>
+      <c r="J137" t="inlineStr"/>
       <c r="K137" t="inlineStr"/>
-      <c r="L137" t="n">
-        <v>66.37</v>
-      </c>
-      <c r="M137" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N137" t="n">
+      <c r="L137" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M137" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5740,42 +5593,37 @@
         <v>136</v>
       </c>
       <c r="B138" t="n">
-        <v>66.59999999999999</v>
+        <v>65.91</v>
       </c>
       <c r="C138" t="n">
-        <v>66.59999999999999</v>
+        <v>65.91</v>
       </c>
       <c r="D138" t="n">
-        <v>66.59999999999999</v>
+        <v>65.91</v>
       </c>
       <c r="E138" t="n">
-        <v>66.59999999999999</v>
+        <v>65.91</v>
       </c>
       <c r="F138" t="n">
-        <v>0.5600000000000001</v>
+        <v>572</v>
       </c>
       <c r="G138" t="n">
-        <v>66.78199999999994</v>
+        <v>58159.11965165837</v>
       </c>
       <c r="H138" t="n">
-        <v>66.55500000000002</v>
+        <v>0</v>
       </c>
       <c r="I138" t="n">
         <v>0</v>
       </c>
-      <c r="J138" t="n">
-        <v>0</v>
-      </c>
+      <c r="J138" t="inlineStr"/>
       <c r="K138" t="inlineStr"/>
-      <c r="L138" t="n">
-        <v>66.37</v>
-      </c>
-      <c r="M138" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N138" t="n">
+      <c r="L138" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M138" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5784,42 +5632,37 @@
         <v>137</v>
       </c>
       <c r="B139" t="n">
-        <v>66</v>
+        <v>66.37</v>
       </c>
       <c r="C139" t="n">
-        <v>66</v>
+        <v>66.37</v>
       </c>
       <c r="D139" t="n">
-        <v>66</v>
+        <v>66.37</v>
       </c>
       <c r="E139" t="n">
-        <v>66</v>
+        <v>66.37</v>
       </c>
       <c r="F139" t="n">
-        <v>5284.1068</v>
+        <v>8</v>
       </c>
       <c r="G139" t="n">
-        <v>66.75733333333328</v>
+        <v>58167.11965165837</v>
       </c>
       <c r="H139" t="n">
-        <v>66.5201666666667</v>
+        <v>0</v>
       </c>
       <c r="I139" t="n">
         <v>0</v>
       </c>
-      <c r="J139" t="n">
-        <v>0</v>
-      </c>
+      <c r="J139" t="inlineStr"/>
       <c r="K139" t="inlineStr"/>
-      <c r="L139" t="n">
-        <v>66.37</v>
-      </c>
-      <c r="M139" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N139" t="n">
+      <c r="L139" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M139" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5831,39 +5674,34 @@
         <v>66</v>
       </c>
       <c r="C140" t="n">
-        <v>68</v>
+        <v>66.37</v>
       </c>
       <c r="D140" t="n">
-        <v>68</v>
+        <v>66.37</v>
       </c>
       <c r="E140" t="n">
         <v>66</v>
       </c>
       <c r="F140" t="n">
-        <v>752.6118</v>
+        <v>258.6031</v>
       </c>
       <c r="G140" t="n">
-        <v>66.86599999999994</v>
+        <v>58167.11965165837</v>
       </c>
       <c r="H140" t="n">
-        <v>66.51850000000003</v>
+        <v>0</v>
       </c>
       <c r="I140" t="n">
         <v>0</v>
       </c>
-      <c r="J140" t="n">
-        <v>0</v>
-      </c>
+      <c r="J140" t="inlineStr"/>
       <c r="K140" t="inlineStr"/>
-      <c r="L140" t="n">
-        <v>66.37</v>
-      </c>
-      <c r="M140" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N140" t="n">
+      <c r="L140" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M140" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5872,42 +5710,37 @@
         <v>139</v>
       </c>
       <c r="B141" t="n">
-        <v>66</v>
+        <v>66.01000000000001</v>
       </c>
       <c r="C141" t="n">
         <v>66</v>
       </c>
       <c r="D141" t="n">
-        <v>66</v>
+        <v>66.01000000000001</v>
       </c>
       <c r="E141" t="n">
         <v>66</v>
       </c>
       <c r="F141" t="n">
-        <v>803</v>
+        <v>1283</v>
       </c>
       <c r="G141" t="n">
-        <v>66.83266666666663</v>
+        <v>56884.11965165837</v>
       </c>
       <c r="H141" t="n">
-        <v>66.48350000000002</v>
+        <v>0</v>
       </c>
       <c r="I141" t="n">
         <v>0</v>
       </c>
-      <c r="J141" t="n">
-        <v>0</v>
-      </c>
+      <c r="J141" t="inlineStr"/>
       <c r="K141" t="inlineStr"/>
-      <c r="L141" t="n">
-        <v>66.37</v>
-      </c>
-      <c r="M141" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N141" t="n">
+      <c r="L141" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M141" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5916,42 +5749,37 @@
         <v>140</v>
       </c>
       <c r="B142" t="n">
-        <v>66.8</v>
+        <v>66.09999999999999</v>
       </c>
       <c r="C142" t="n">
-        <v>66.8</v>
+        <v>66.01000000000001</v>
       </c>
       <c r="D142" t="n">
-        <v>66.8</v>
+        <v>66.09999999999999</v>
       </c>
       <c r="E142" t="n">
-        <v>66.8</v>
+        <v>66.01000000000001</v>
       </c>
       <c r="F142" t="n">
-        <v>830.0009</v>
+        <v>1700</v>
       </c>
       <c r="G142" t="n">
-        <v>66.85266666666662</v>
+        <v>58584.11965165837</v>
       </c>
       <c r="H142" t="n">
-        <v>66.46350000000002</v>
+        <v>0</v>
       </c>
       <c r="I142" t="n">
         <v>0</v>
       </c>
-      <c r="J142" t="n">
-        <v>0</v>
-      </c>
+      <c r="J142" t="inlineStr"/>
       <c r="K142" t="inlineStr"/>
-      <c r="L142" t="n">
-        <v>66.37</v>
-      </c>
-      <c r="M142" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N142" t="n">
+      <c r="L142" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M142" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5960,42 +5788,37 @@
         <v>141</v>
       </c>
       <c r="B143" t="n">
-        <v>68.08</v>
+        <v>66</v>
       </c>
       <c r="C143" t="n">
-        <v>68.08</v>
+        <v>66</v>
       </c>
       <c r="D143" t="n">
-        <v>68.08</v>
+        <v>66</v>
       </c>
       <c r="E143" t="n">
-        <v>68.08</v>
+        <v>66</v>
       </c>
       <c r="F143" t="n">
-        <v>13</v>
+        <v>3981.2509</v>
       </c>
       <c r="G143" t="n">
-        <v>66.95799999999994</v>
+        <v>54602.86875165837</v>
       </c>
       <c r="H143" t="n">
-        <v>66.46483333333336</v>
+        <v>0</v>
       </c>
       <c r="I143" t="n">
         <v>0</v>
       </c>
-      <c r="J143" t="n">
-        <v>0</v>
-      </c>
+      <c r="J143" t="inlineStr"/>
       <c r="K143" t="inlineStr"/>
-      <c r="L143" t="n">
-        <v>66.37</v>
-      </c>
-      <c r="M143" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N143" t="n">
+      <c r="L143" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M143" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6004,42 +5827,37 @@
         <v>142</v>
       </c>
       <c r="B144" t="n">
-        <v>67.5</v>
+        <v>66</v>
       </c>
       <c r="C144" t="n">
-        <v>67.8</v>
+        <v>66</v>
       </c>
       <c r="D144" t="n">
-        <v>67.8</v>
+        <v>66</v>
       </c>
       <c r="E144" t="n">
-        <v>67.5</v>
+        <v>66</v>
       </c>
       <c r="F144" t="n">
-        <v>34</v>
+        <v>2813.46</v>
       </c>
       <c r="G144" t="n">
-        <v>67.06466666666661</v>
+        <v>54602.86875165837</v>
       </c>
       <c r="H144" t="n">
-        <v>66.4591666666667</v>
+        <v>0</v>
       </c>
       <c r="I144" t="n">
         <v>0</v>
       </c>
-      <c r="J144" t="n">
-        <v>0</v>
-      </c>
+      <c r="J144" t="inlineStr"/>
       <c r="K144" t="inlineStr"/>
-      <c r="L144" t="n">
-        <v>66.37</v>
-      </c>
-      <c r="M144" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N144" t="n">
+      <c r="L144" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M144" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6048,42 +5866,37 @@
         <v>143</v>
       </c>
       <c r="B145" t="n">
-        <v>67.01000000000001</v>
+        <v>66.3</v>
       </c>
       <c r="C145" t="n">
-        <v>67.01000000000001</v>
+        <v>65.95</v>
       </c>
       <c r="D145" t="n">
-        <v>67.01000000000001</v>
+        <v>66.37</v>
       </c>
       <c r="E145" t="n">
-        <v>67.01000000000001</v>
+        <v>65.95</v>
       </c>
       <c r="F145" t="n">
-        <v>13</v>
+        <v>4779.146</v>
       </c>
       <c r="G145" t="n">
-        <v>67.0986666666666</v>
+        <v>49823.72275165837</v>
       </c>
       <c r="H145" t="n">
-        <v>66.44266666666671</v>
+        <v>0</v>
       </c>
       <c r="I145" t="n">
         <v>0</v>
       </c>
-      <c r="J145" t="n">
-        <v>0</v>
-      </c>
+      <c r="J145" t="inlineStr"/>
       <c r="K145" t="inlineStr"/>
-      <c r="L145" t="n">
-        <v>66.37</v>
-      </c>
-      <c r="M145" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N145" t="n">
+      <c r="L145" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M145" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6092,42 +5905,37 @@
         <v>144</v>
       </c>
       <c r="B146" t="n">
-        <v>67</v>
+        <v>65.92</v>
       </c>
       <c r="C146" t="n">
-        <v>67</v>
+        <v>65.91</v>
       </c>
       <c r="D146" t="n">
-        <v>67</v>
+        <v>65.92</v>
       </c>
       <c r="E146" t="n">
-        <v>67</v>
+        <v>65.91</v>
       </c>
       <c r="F146" t="n">
-        <v>13</v>
+        <v>11422.4051</v>
       </c>
       <c r="G146" t="n">
-        <v>67.02599999999994</v>
+        <v>38401.31765165836</v>
       </c>
       <c r="H146" t="n">
-        <v>66.42433333333337</v>
+        <v>0</v>
       </c>
       <c r="I146" t="n">
         <v>0</v>
       </c>
-      <c r="J146" t="n">
-        <v>0</v>
-      </c>
+      <c r="J146" t="inlineStr"/>
       <c r="K146" t="inlineStr"/>
-      <c r="L146" t="n">
-        <v>66.37</v>
-      </c>
-      <c r="M146" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N146" t="n">
+      <c r="L146" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M146" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6136,42 +5944,37 @@
         <v>145</v>
       </c>
       <c r="B147" t="n">
-        <v>66.79000000000001</v>
+        <v>66.3</v>
       </c>
       <c r="C147" t="n">
-        <v>66.2</v>
+        <v>66.3</v>
       </c>
       <c r="D147" t="n">
-        <v>66.79000000000001</v>
+        <v>66.3</v>
       </c>
       <c r="E147" t="n">
-        <v>66.2</v>
+        <v>66.3</v>
       </c>
       <c r="F147" t="n">
-        <v>65</v>
+        <v>410.4897</v>
       </c>
       <c r="G147" t="n">
-        <v>66.93266666666661</v>
+        <v>38811.80735165836</v>
       </c>
       <c r="H147" t="n">
-        <v>66.4256666666667</v>
+        <v>0</v>
       </c>
       <c r="I147" t="n">
         <v>0</v>
       </c>
-      <c r="J147" t="n">
-        <v>0</v>
-      </c>
+      <c r="J147" t="inlineStr"/>
       <c r="K147" t="inlineStr"/>
-      <c r="L147" t="n">
-        <v>66.37</v>
-      </c>
-      <c r="M147" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N147" t="n">
+      <c r="L147" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M147" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6180,42 +5983,37 @@
         <v>146</v>
       </c>
       <c r="B148" t="n">
-        <v>66.09999999999999</v>
+        <v>66.3</v>
       </c>
       <c r="C148" t="n">
-        <v>66.09999999999999</v>
+        <v>66.3</v>
       </c>
       <c r="D148" t="n">
-        <v>66.09999999999999</v>
+        <v>66.3</v>
       </c>
       <c r="E148" t="n">
-        <v>66.09999999999999</v>
+        <v>66.3</v>
       </c>
       <c r="F148" t="n">
-        <v>13</v>
+        <v>352.7613</v>
       </c>
       <c r="G148" t="n">
-        <v>66.79999999999993</v>
+        <v>38811.80735165836</v>
       </c>
       <c r="H148" t="n">
-        <v>66.42400000000004</v>
+        <v>0</v>
       </c>
       <c r="I148" t="n">
         <v>0</v>
       </c>
-      <c r="J148" t="n">
-        <v>0</v>
-      </c>
+      <c r="J148" t="inlineStr"/>
       <c r="K148" t="inlineStr"/>
-      <c r="L148" t="n">
-        <v>66.37</v>
-      </c>
-      <c r="M148" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N148" t="n">
+      <c r="L148" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M148" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6224,42 +6022,37 @@
         <v>147</v>
       </c>
       <c r="B149" t="n">
-        <v>66.01000000000001</v>
+        <v>66.3</v>
       </c>
       <c r="C149" t="n">
-        <v>65.81</v>
+        <v>66.3</v>
       </c>
       <c r="D149" t="n">
-        <v>66.01000000000001</v>
+        <v>66.3</v>
       </c>
       <c r="E149" t="n">
-        <v>65.81</v>
+        <v>66.3</v>
       </c>
       <c r="F149" t="n">
-        <v>46582.0545</v>
+        <v>779.9924999999999</v>
       </c>
       <c r="G149" t="n">
-        <v>66.77999999999993</v>
+        <v>38811.80735165836</v>
       </c>
       <c r="H149" t="n">
-        <v>66.41900000000004</v>
+        <v>0</v>
       </c>
       <c r="I149" t="n">
         <v>0</v>
       </c>
-      <c r="J149" t="n">
-        <v>0</v>
-      </c>
+      <c r="J149" t="inlineStr"/>
       <c r="K149" t="inlineStr"/>
-      <c r="L149" t="n">
-        <v>66.37</v>
-      </c>
-      <c r="M149" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N149" t="n">
+      <c r="L149" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M149" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6268,42 +6061,37 @@
         <v>148</v>
       </c>
       <c r="B150" t="n">
-        <v>65.81</v>
+        <v>66.3</v>
       </c>
       <c r="C150" t="n">
-        <v>65.09999999999999</v>
+        <v>66.37</v>
       </c>
       <c r="D150" t="n">
-        <v>65.81</v>
+        <v>66.37</v>
       </c>
       <c r="E150" t="n">
-        <v>65.09999999999999</v>
+        <v>66.3</v>
       </c>
       <c r="F150" t="n">
-        <v>513</v>
+        <v>1014.3134</v>
       </c>
       <c r="G150" t="n">
-        <v>66.6466666666666</v>
+        <v>39826.12075165836</v>
       </c>
       <c r="H150" t="n">
-        <v>66.40383333333337</v>
+        <v>0</v>
       </c>
       <c r="I150" t="n">
         <v>0</v>
       </c>
-      <c r="J150" t="n">
-        <v>0</v>
-      </c>
+      <c r="J150" t="inlineStr"/>
       <c r="K150" t="inlineStr"/>
-      <c r="L150" t="n">
-        <v>66.37</v>
-      </c>
-      <c r="M150" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N150" t="n">
+      <c r="L150" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M150" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6312,42 +6100,37 @@
         <v>149</v>
       </c>
       <c r="B151" t="n">
-        <v>65.09999999999999</v>
+        <v>66.3</v>
       </c>
       <c r="C151" t="n">
-        <v>65.98</v>
+        <v>66.3</v>
       </c>
       <c r="D151" t="n">
-        <v>65.98999999999999</v>
+        <v>66.3</v>
       </c>
       <c r="E151" t="n">
-        <v>65.09999999999999</v>
+        <v>66.3</v>
       </c>
       <c r="F151" t="n">
-        <v>39.1818</v>
+        <v>2282.9534</v>
       </c>
       <c r="G151" t="n">
-        <v>66.60533333333326</v>
+        <v>37543.16735165836</v>
       </c>
       <c r="H151" t="n">
-        <v>66.40333333333336</v>
+        <v>0</v>
       </c>
       <c r="I151" t="n">
         <v>0</v>
       </c>
-      <c r="J151" t="n">
-        <v>0</v>
-      </c>
+      <c r="J151" t="inlineStr"/>
       <c r="K151" t="inlineStr"/>
-      <c r="L151" t="n">
-        <v>66.37</v>
-      </c>
-      <c r="M151" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N151" t="n">
+      <c r="L151" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M151" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6356,42 +6139,1090 @@
         <v>150</v>
       </c>
       <c r="B152" t="n">
+        <v>66.3</v>
+      </c>
+      <c r="C152" t="n">
+        <v>66.37</v>
+      </c>
+      <c r="D152" t="n">
+        <v>66.37</v>
+      </c>
+      <c r="E152" t="n">
+        <v>66.3</v>
+      </c>
+      <c r="F152" t="n">
+        <v>511.1552</v>
+      </c>
+      <c r="G152" t="n">
+        <v>38054.32255165836</v>
+      </c>
+      <c r="H152" t="n">
+        <v>0</v>
+      </c>
+      <c r="I152" t="n">
+        <v>0</v>
+      </c>
+      <c r="J152" t="inlineStr"/>
+      <c r="K152" t="inlineStr"/>
+      <c r="L152" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M152" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" s="1" t="n">
+        <v>151</v>
+      </c>
+      <c r="B153" t="n">
+        <v>66.37</v>
+      </c>
+      <c r="C153" t="n">
+        <v>66.37</v>
+      </c>
+      <c r="D153" t="n">
+        <v>66.37</v>
+      </c>
+      <c r="E153" t="n">
+        <v>66.37</v>
+      </c>
+      <c r="F153" t="n">
+        <v>897.2539</v>
+      </c>
+      <c r="G153" t="n">
+        <v>38054.32255165836</v>
+      </c>
+      <c r="H153" t="n">
+        <v>0</v>
+      </c>
+      <c r="I153" t="n">
+        <v>0</v>
+      </c>
+      <c r="J153" t="inlineStr"/>
+      <c r="K153" t="inlineStr"/>
+      <c r="L153" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M153" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" s="1" t="n">
+        <v>152</v>
+      </c>
+      <c r="B154" t="n">
+        <v>66.37</v>
+      </c>
+      <c r="C154" t="n">
+        <v>66.37</v>
+      </c>
+      <c r="D154" t="n">
+        <v>66.37</v>
+      </c>
+      <c r="E154" t="n">
+        <v>66.37</v>
+      </c>
+      <c r="F154" t="n">
+        <v>224.3059</v>
+      </c>
+      <c r="G154" t="n">
+        <v>38054.32255165836</v>
+      </c>
+      <c r="H154" t="n">
+        <v>0</v>
+      </c>
+      <c r="I154" t="n">
+        <v>0</v>
+      </c>
+      <c r="J154" t="inlineStr"/>
+      <c r="K154" t="inlineStr"/>
+      <c r="L154" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M154" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" s="1" t="n">
+        <v>153</v>
+      </c>
+      <c r="B155" t="n">
+        <v>66.37</v>
+      </c>
+      <c r="C155" t="n">
+        <v>66.5</v>
+      </c>
+      <c r="D155" t="n">
+        <v>66.5</v>
+      </c>
+      <c r="E155" t="n">
+        <v>66.37</v>
+      </c>
+      <c r="F155" t="n">
+        <v>5665.527063250888</v>
+      </c>
+      <c r="G155" t="n">
+        <v>43719.84961490925</v>
+      </c>
+      <c r="H155" t="n">
+        <v>0</v>
+      </c>
+      <c r="I155" t="n">
+        <v>0</v>
+      </c>
+      <c r="J155" t="inlineStr"/>
+      <c r="K155" t="inlineStr"/>
+      <c r="L155" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M155" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" s="1" t="n">
+        <v>154</v>
+      </c>
+      <c r="B156" t="n">
+        <v>66.5</v>
+      </c>
+      <c r="C156" t="n">
+        <v>66.5</v>
+      </c>
+      <c r="D156" t="n">
+        <v>66.5</v>
+      </c>
+      <c r="E156" t="n">
+        <v>66.5</v>
+      </c>
+      <c r="F156" t="n">
+        <v>9204.752399999999</v>
+      </c>
+      <c r="G156" t="n">
+        <v>43719.84961490925</v>
+      </c>
+      <c r="H156" t="n">
+        <v>0</v>
+      </c>
+      <c r="I156" t="n">
+        <v>0</v>
+      </c>
+      <c r="J156" t="inlineStr"/>
+      <c r="K156" t="inlineStr"/>
+      <c r="L156" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M156" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" s="1" t="n">
+        <v>155</v>
+      </c>
+      <c r="B157" t="n">
+        <v>66.5</v>
+      </c>
+      <c r="C157" t="n">
+        <v>66.5</v>
+      </c>
+      <c r="D157" t="n">
+        <v>66.5</v>
+      </c>
+      <c r="E157" t="n">
+        <v>66.5</v>
+      </c>
+      <c r="F157" t="n">
+        <v>197.8697</v>
+      </c>
+      <c r="G157" t="n">
+        <v>43719.84961490925</v>
+      </c>
+      <c r="H157" t="n">
+        <v>0</v>
+      </c>
+      <c r="I157" t="n">
+        <v>0</v>
+      </c>
+      <c r="J157" t="inlineStr"/>
+      <c r="K157" t="inlineStr"/>
+      <c r="L157" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M157" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" s="1" t="n">
+        <v>156</v>
+      </c>
+      <c r="B158" t="n">
+        <v>66.2</v>
+      </c>
+      <c r="C158" t="n">
+        <v>66.2</v>
+      </c>
+      <c r="D158" t="n">
+        <v>66.2</v>
+      </c>
+      <c r="E158" t="n">
+        <v>66.2</v>
+      </c>
+      <c r="F158" t="n">
+        <v>20</v>
+      </c>
+      <c r="G158" t="n">
+        <v>43699.84961490925</v>
+      </c>
+      <c r="H158" t="n">
+        <v>0</v>
+      </c>
+      <c r="I158" t="n">
+        <v>0</v>
+      </c>
+      <c r="J158" t="inlineStr"/>
+      <c r="K158" t="inlineStr"/>
+      <c r="L158" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M158" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" s="1" t="n">
+        <v>157</v>
+      </c>
+      <c r="B159" t="n">
+        <v>66.5</v>
+      </c>
+      <c r="C159" t="n">
+        <v>66.5</v>
+      </c>
+      <c r="D159" t="n">
+        <v>66.5</v>
+      </c>
+      <c r="E159" t="n">
+        <v>66.5</v>
+      </c>
+      <c r="F159" t="n">
+        <v>8</v>
+      </c>
+      <c r="G159" t="n">
+        <v>43707.84961490925</v>
+      </c>
+      <c r="H159" t="n">
+        <v>0</v>
+      </c>
+      <c r="I159" t="n">
+        <v>0</v>
+      </c>
+      <c r="J159" t="inlineStr"/>
+      <c r="K159" t="inlineStr"/>
+      <c r="L159" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M159" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" s="1" t="n">
+        <v>158</v>
+      </c>
+      <c r="B160" t="n">
+        <v>66.5</v>
+      </c>
+      <c r="C160" t="n">
+        <v>68.09</v>
+      </c>
+      <c r="D160" t="n">
+        <v>68.09</v>
+      </c>
+      <c r="E160" t="n">
+        <v>66.5</v>
+      </c>
+      <c r="F160" t="n">
+        <v>29868.37079970366</v>
+      </c>
+      <c r="G160" t="n">
+        <v>73576.22041461291</v>
+      </c>
+      <c r="H160" t="n">
+        <v>0</v>
+      </c>
+      <c r="I160" t="n">
+        <v>0</v>
+      </c>
+      <c r="J160" t="inlineStr"/>
+      <c r="K160" t="inlineStr"/>
+      <c r="L160" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M160" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" s="1" t="n">
+        <v>159</v>
+      </c>
+      <c r="B161" t="n">
+        <v>68.04000000000001</v>
+      </c>
+      <c r="C161" t="n">
+        <v>67.59999999999999</v>
+      </c>
+      <c r="D161" t="n">
+        <v>68.09</v>
+      </c>
+      <c r="E161" t="n">
+        <v>67.5</v>
+      </c>
+      <c r="F161" t="n">
+        <v>45</v>
+      </c>
+      <c r="G161" t="n">
+        <v>73531.22041461291</v>
+      </c>
+      <c r="H161" t="n">
+        <v>0</v>
+      </c>
+      <c r="I161" t="n">
+        <v>0</v>
+      </c>
+      <c r="J161" t="inlineStr"/>
+      <c r="K161" t="inlineStr"/>
+      <c r="L161" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M161" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" s="1" t="n">
+        <v>160</v>
+      </c>
+      <c r="B162" t="n">
+        <v>68.09</v>
+      </c>
+      <c r="C162" t="n">
+        <v>68.09</v>
+      </c>
+      <c r="D162" t="n">
+        <v>68.09</v>
+      </c>
+      <c r="E162" t="n">
+        <v>68.09</v>
+      </c>
+      <c r="F162" t="n">
+        <v>8</v>
+      </c>
+      <c r="G162" t="n">
+        <v>73539.22041461291</v>
+      </c>
+      <c r="H162" t="n">
+        <v>0</v>
+      </c>
+      <c r="I162" t="n">
+        <v>1</v>
+      </c>
+      <c r="J162" t="inlineStr"/>
+      <c r="K162" t="inlineStr"/>
+      <c r="L162" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="M162" t="inlineStr"/>
+    </row>
+    <row r="163">
+      <c r="A163" s="1" t="n">
+        <v>161</v>
+      </c>
+      <c r="B163" t="n">
+        <v>66.59999999999999</v>
+      </c>
+      <c r="C163" t="n">
+        <v>66.11</v>
+      </c>
+      <c r="D163" t="n">
+        <v>66.59999999999999</v>
+      </c>
+      <c r="E163" t="n">
+        <v>66.11</v>
+      </c>
+      <c r="F163" t="n">
+        <v>15319</v>
+      </c>
+      <c r="G163" t="n">
+        <v>58220.22041461291</v>
+      </c>
+      <c r="H163" t="n">
+        <v>0</v>
+      </c>
+      <c r="I163" t="n">
+        <v>1</v>
+      </c>
+      <c r="J163" t="inlineStr"/>
+      <c r="K163" t="inlineStr"/>
+      <c r="L163" t="inlineStr"/>
+      <c r="M163" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" s="1" t="n">
+        <v>162</v>
+      </c>
+      <c r="B164" t="n">
+        <v>66.11</v>
+      </c>
+      <c r="C164" t="n">
+        <v>67.09999999999999</v>
+      </c>
+      <c r="D164" t="n">
+        <v>67.09999999999999</v>
+      </c>
+      <c r="E164" t="n">
+        <v>65.91</v>
+      </c>
+      <c r="F164" t="n">
+        <v>3709.5057</v>
+      </c>
+      <c r="G164" t="n">
+        <v>61929.72611461291</v>
+      </c>
+      <c r="H164" t="n">
+        <v>0</v>
+      </c>
+      <c r="I164" t="n">
+        <v>0</v>
+      </c>
+      <c r="J164" t="inlineStr"/>
+      <c r="K164" t="inlineStr"/>
+      <c r="L164" t="inlineStr"/>
+      <c r="M164" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" s="1" t="n">
+        <v>163</v>
+      </c>
+      <c r="B165" t="n">
+        <v>66.59999999999999</v>
+      </c>
+      <c r="C165" t="n">
+        <v>66.59999999999999</v>
+      </c>
+      <c r="D165" t="n">
+        <v>66.59999999999999</v>
+      </c>
+      <c r="E165" t="n">
+        <v>66.59999999999999</v>
+      </c>
+      <c r="F165" t="n">
+        <v>2302.6392</v>
+      </c>
+      <c r="G165" t="n">
+        <v>59627.08691461291</v>
+      </c>
+      <c r="H165" t="n">
+        <v>0</v>
+      </c>
+      <c r="I165" t="n">
+        <v>0</v>
+      </c>
+      <c r="J165" t="inlineStr"/>
+      <c r="K165" t="inlineStr"/>
+      <c r="L165" t="inlineStr"/>
+      <c r="M165" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" s="1" t="n">
+        <v>164</v>
+      </c>
+      <c r="B166" t="n">
+        <v>66.59999999999999</v>
+      </c>
+      <c r="C166" t="n">
+        <v>66.59999999999999</v>
+      </c>
+      <c r="D166" t="n">
+        <v>66.59999999999999</v>
+      </c>
+      <c r="E166" t="n">
+        <v>66.59999999999999</v>
+      </c>
+      <c r="F166" t="n">
+        <v>5212</v>
+      </c>
+      <c r="G166" t="n">
+        <v>59627.08691461291</v>
+      </c>
+      <c r="H166" t="n">
+        <v>0</v>
+      </c>
+      <c r="I166" t="n">
+        <v>0</v>
+      </c>
+      <c r="J166" t="inlineStr"/>
+      <c r="K166" t="inlineStr"/>
+      <c r="L166" t="inlineStr"/>
+      <c r="M166" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" s="1" t="n">
+        <v>165</v>
+      </c>
+      <c r="B167" t="n">
+        <v>66.59999999999999</v>
+      </c>
+      <c r="C167" t="n">
+        <v>66.59999999999999</v>
+      </c>
+      <c r="D167" t="n">
+        <v>66.59999999999999</v>
+      </c>
+      <c r="E167" t="n">
+        <v>66.59999999999999</v>
+      </c>
+      <c r="F167" t="n">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="G167" t="n">
+        <v>59627.08691461291</v>
+      </c>
+      <c r="H167" t="n">
+        <v>0</v>
+      </c>
+      <c r="I167" t="n">
+        <v>0</v>
+      </c>
+      <c r="J167" t="inlineStr"/>
+      <c r="K167" t="inlineStr"/>
+      <c r="L167" t="inlineStr"/>
+      <c r="M167" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" s="1" t="n">
+        <v>166</v>
+      </c>
+      <c r="B168" t="n">
+        <v>66</v>
+      </c>
+      <c r="C168" t="n">
+        <v>66</v>
+      </c>
+      <c r="D168" t="n">
+        <v>66</v>
+      </c>
+      <c r="E168" t="n">
+        <v>66</v>
+      </c>
+      <c r="F168" t="n">
+        <v>5284.1068</v>
+      </c>
+      <c r="G168" t="n">
+        <v>54342.98011461291</v>
+      </c>
+      <c r="H168" t="n">
+        <v>0</v>
+      </c>
+      <c r="I168" t="n">
+        <v>0</v>
+      </c>
+      <c r="J168" t="inlineStr"/>
+      <c r="K168" t="inlineStr"/>
+      <c r="L168" t="inlineStr"/>
+      <c r="M168" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" s="1" t="n">
+        <v>167</v>
+      </c>
+      <c r="B169" t="n">
+        <v>66</v>
+      </c>
+      <c r="C169" t="n">
+        <v>68</v>
+      </c>
+      <c r="D169" t="n">
+        <v>68</v>
+      </c>
+      <c r="E169" t="n">
+        <v>66</v>
+      </c>
+      <c r="F169" t="n">
+        <v>752.6118</v>
+      </c>
+      <c r="G169" t="n">
+        <v>55095.59191461291</v>
+      </c>
+      <c r="H169" t="n">
+        <v>0</v>
+      </c>
+      <c r="I169" t="n">
+        <v>0</v>
+      </c>
+      <c r="J169" t="inlineStr"/>
+      <c r="K169" t="inlineStr"/>
+      <c r="L169" t="inlineStr"/>
+      <c r="M169" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" s="1" t="n">
+        <v>168</v>
+      </c>
+      <c r="B170" t="n">
+        <v>66</v>
+      </c>
+      <c r="C170" t="n">
+        <v>66</v>
+      </c>
+      <c r="D170" t="n">
+        <v>66</v>
+      </c>
+      <c r="E170" t="n">
+        <v>66</v>
+      </c>
+      <c r="F170" t="n">
+        <v>803</v>
+      </c>
+      <c r="G170" t="n">
+        <v>54292.59191461291</v>
+      </c>
+      <c r="H170" t="n">
+        <v>0</v>
+      </c>
+      <c r="I170" t="n">
+        <v>0</v>
+      </c>
+      <c r="J170" t="inlineStr"/>
+      <c r="K170" t="inlineStr"/>
+      <c r="L170" t="inlineStr"/>
+      <c r="M170" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" s="1" t="n">
+        <v>169</v>
+      </c>
+      <c r="B171" t="n">
+        <v>66.8</v>
+      </c>
+      <c r="C171" t="n">
+        <v>66.8</v>
+      </c>
+      <c r="D171" t="n">
+        <v>66.8</v>
+      </c>
+      <c r="E171" t="n">
+        <v>66.8</v>
+      </c>
+      <c r="F171" t="n">
+        <v>830.0009</v>
+      </c>
+      <c r="G171" t="n">
+        <v>55122.59281461291</v>
+      </c>
+      <c r="H171" t="n">
+        <v>0</v>
+      </c>
+      <c r="I171" t="n">
+        <v>0</v>
+      </c>
+      <c r="J171" t="inlineStr"/>
+      <c r="K171" t="inlineStr"/>
+      <c r="L171" t="inlineStr"/>
+      <c r="M171" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" s="1" t="n">
+        <v>170</v>
+      </c>
+      <c r="B172" t="n">
+        <v>68.08</v>
+      </c>
+      <c r="C172" t="n">
+        <v>68.08</v>
+      </c>
+      <c r="D172" t="n">
+        <v>68.08</v>
+      </c>
+      <c r="E172" t="n">
+        <v>68.08</v>
+      </c>
+      <c r="F172" t="n">
+        <v>13</v>
+      </c>
+      <c r="G172" t="n">
+        <v>55135.59281461291</v>
+      </c>
+      <c r="H172" t="n">
+        <v>0</v>
+      </c>
+      <c r="I172" t="n">
+        <v>0</v>
+      </c>
+      <c r="J172" t="inlineStr"/>
+      <c r="K172" t="inlineStr"/>
+      <c r="L172" t="inlineStr"/>
+      <c r="M172" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" s="1" t="n">
+        <v>171</v>
+      </c>
+      <c r="B173" t="n">
+        <v>67.5</v>
+      </c>
+      <c r="C173" t="n">
+        <v>67.8</v>
+      </c>
+      <c r="D173" t="n">
+        <v>67.8</v>
+      </c>
+      <c r="E173" t="n">
+        <v>67.5</v>
+      </c>
+      <c r="F173" t="n">
+        <v>34</v>
+      </c>
+      <c r="G173" t="n">
+        <v>55101.59281461291</v>
+      </c>
+      <c r="H173" t="n">
+        <v>0</v>
+      </c>
+      <c r="I173" t="n">
+        <v>0</v>
+      </c>
+      <c r="J173" t="inlineStr"/>
+      <c r="K173" t="inlineStr"/>
+      <c r="L173" t="inlineStr"/>
+      <c r="M173" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" s="1" t="n">
+        <v>172</v>
+      </c>
+      <c r="B174" t="n">
+        <v>67.01000000000001</v>
+      </c>
+      <c r="C174" t="n">
+        <v>67.01000000000001</v>
+      </c>
+      <c r="D174" t="n">
+        <v>67.01000000000001</v>
+      </c>
+      <c r="E174" t="n">
+        <v>67.01000000000001</v>
+      </c>
+      <c r="F174" t="n">
+        <v>13</v>
+      </c>
+      <c r="G174" t="n">
+        <v>55088.59281461291</v>
+      </c>
+      <c r="H174" t="n">
+        <v>0</v>
+      </c>
+      <c r="I174" t="n">
+        <v>0</v>
+      </c>
+      <c r="J174" t="inlineStr"/>
+      <c r="K174" t="inlineStr"/>
+      <c r="L174" t="inlineStr"/>
+      <c r="M174" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" s="1" t="n">
+        <v>173</v>
+      </c>
+      <c r="B175" t="n">
+        <v>67</v>
+      </c>
+      <c r="C175" t="n">
+        <v>67</v>
+      </c>
+      <c r="D175" t="n">
+        <v>67</v>
+      </c>
+      <c r="E175" t="n">
+        <v>67</v>
+      </c>
+      <c r="F175" t="n">
+        <v>13</v>
+      </c>
+      <c r="G175" t="n">
+        <v>55075.59281461291</v>
+      </c>
+      <c r="H175" t="n">
+        <v>0</v>
+      </c>
+      <c r="I175" t="n">
+        <v>0</v>
+      </c>
+      <c r="J175" t="inlineStr"/>
+      <c r="K175" t="inlineStr"/>
+      <c r="L175" t="inlineStr"/>
+      <c r="M175" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" s="1" t="n">
+        <v>174</v>
+      </c>
+      <c r="B176" t="n">
+        <v>66.79000000000001</v>
+      </c>
+      <c r="C176" t="n">
+        <v>66.2</v>
+      </c>
+      <c r="D176" t="n">
+        <v>66.79000000000001</v>
+      </c>
+      <c r="E176" t="n">
+        <v>66.2</v>
+      </c>
+      <c r="F176" t="n">
+        <v>65</v>
+      </c>
+      <c r="G176" t="n">
+        <v>55010.59281461291</v>
+      </c>
+      <c r="H176" t="n">
+        <v>0</v>
+      </c>
+      <c r="I176" t="n">
+        <v>0</v>
+      </c>
+      <c r="J176" t="inlineStr"/>
+      <c r="K176" t="inlineStr"/>
+      <c r="L176" t="inlineStr"/>
+      <c r="M176" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" s="1" t="n">
+        <v>175</v>
+      </c>
+      <c r="B177" t="n">
+        <v>66.09999999999999</v>
+      </c>
+      <c r="C177" t="n">
+        <v>66.09999999999999</v>
+      </c>
+      <c r="D177" t="n">
+        <v>66.09999999999999</v>
+      </c>
+      <c r="E177" t="n">
+        <v>66.09999999999999</v>
+      </c>
+      <c r="F177" t="n">
+        <v>13</v>
+      </c>
+      <c r="G177" t="n">
+        <v>54997.59281461291</v>
+      </c>
+      <c r="H177" t="n">
+        <v>0</v>
+      </c>
+      <c r="I177" t="n">
+        <v>0</v>
+      </c>
+      <c r="J177" t="inlineStr"/>
+      <c r="K177" t="inlineStr"/>
+      <c r="L177" t="inlineStr"/>
+      <c r="M177" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" s="1" t="n">
+        <v>176</v>
+      </c>
+      <c r="B178" t="n">
+        <v>66.01000000000001</v>
+      </c>
+      <c r="C178" t="n">
+        <v>65.81</v>
+      </c>
+      <c r="D178" t="n">
+        <v>66.01000000000001</v>
+      </c>
+      <c r="E178" t="n">
+        <v>65.81</v>
+      </c>
+      <c r="F178" t="n">
+        <v>46582.0545</v>
+      </c>
+      <c r="G178" t="n">
+        <v>8415.53831461291</v>
+      </c>
+      <c r="H178" t="n">
+        <v>0</v>
+      </c>
+      <c r="I178" t="n">
+        <v>0</v>
+      </c>
+      <c r="J178" t="inlineStr"/>
+      <c r="K178" t="inlineStr"/>
+      <c r="L178" t="inlineStr"/>
+      <c r="M178" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" s="1" t="n">
+        <v>177</v>
+      </c>
+      <c r="B179" t="n">
+        <v>65.81</v>
+      </c>
+      <c r="C179" t="n">
+        <v>65.09999999999999</v>
+      </c>
+      <c r="D179" t="n">
+        <v>65.81</v>
+      </c>
+      <c r="E179" t="n">
+        <v>65.09999999999999</v>
+      </c>
+      <c r="F179" t="n">
+        <v>513</v>
+      </c>
+      <c r="G179" t="n">
+        <v>7902.53831461291</v>
+      </c>
+      <c r="H179" t="n">
+        <v>0</v>
+      </c>
+      <c r="I179" t="n">
+        <v>0</v>
+      </c>
+      <c r="J179" t="inlineStr"/>
+      <c r="K179" t="inlineStr"/>
+      <c r="L179" t="inlineStr"/>
+      <c r="M179" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" s="1" t="n">
+        <v>178</v>
+      </c>
+      <c r="B180" t="n">
+        <v>65.09999999999999</v>
+      </c>
+      <c r="C180" t="n">
         <v>65.98</v>
       </c>
-      <c r="C152" t="n">
+      <c r="D180" t="n">
+        <v>65.98999999999999</v>
+      </c>
+      <c r="E180" t="n">
+        <v>65.09999999999999</v>
+      </c>
+      <c r="F180" t="n">
+        <v>39.1818</v>
+      </c>
+      <c r="G180" t="n">
+        <v>7941.72011461291</v>
+      </c>
+      <c r="H180" t="n">
+        <v>0</v>
+      </c>
+      <c r="I180" t="n">
+        <v>0</v>
+      </c>
+      <c r="J180" t="inlineStr"/>
+      <c r="K180" t="inlineStr"/>
+      <c r="L180" t="inlineStr"/>
+      <c r="M180" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" s="1" t="n">
+        <v>179</v>
+      </c>
+      <c r="B181" t="n">
         <v>65.98</v>
       </c>
-      <c r="D152" t="n">
+      <c r="C181" t="n">
         <v>65.98</v>
       </c>
-      <c r="E152" t="n">
+      <c r="D181" t="n">
         <v>65.98</v>
       </c>
-      <c r="F152" t="n">
+      <c r="E181" t="n">
+        <v>65.98</v>
+      </c>
+      <c r="F181" t="n">
         <v>18.1818</v>
       </c>
-      <c r="G152" t="n">
-        <v>66.56399999999992</v>
-      </c>
-      <c r="H152" t="n">
-        <v>66.38133333333336</v>
-      </c>
-      <c r="I152" t="n">
-        <v>0</v>
-      </c>
-      <c r="J152" t="n">
-        <v>0</v>
-      </c>
-      <c r="K152" t="inlineStr"/>
-      <c r="L152" t="n">
-        <v>66.37</v>
-      </c>
-      <c r="M152" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N152" t="n">
+      <c r="G181" t="n">
+        <v>7941.72011461291</v>
+      </c>
+      <c r="H181" t="n">
+        <v>0</v>
+      </c>
+      <c r="I181" t="n">
+        <v>0</v>
+      </c>
+      <c r="J181" t="inlineStr"/>
+      <c r="K181" t="inlineStr"/>
+      <c r="L181" t="inlineStr"/>
+      <c r="M181" t="n">
         <v>1</v>
       </c>
     </row>

--- a/BackTest/2020-01-24 BackTest FX.xlsx
+++ b/BackTest/2020-01-24 BackTest FX.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N139"/>
+  <dimension ref="A1:N210"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -438,22 +438,22 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>65.2</v>
+        <v>67</v>
       </c>
       <c r="C2" t="n">
-        <v>65.2</v>
+        <v>67</v>
       </c>
       <c r="D2" t="n">
-        <v>65.2</v>
+        <v>67</v>
       </c>
       <c r="E2" t="n">
-        <v>65.2</v>
+        <v>67</v>
       </c>
       <c r="F2" t="n">
-        <v>7951.0687</v>
+        <v>1216.496</v>
       </c>
       <c r="G2" t="n">
-        <v>14360.58482916517</v>
+        <v>42582.70312282412</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -474,22 +474,22 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>66.73</v>
+        <v>67</v>
       </c>
       <c r="C3" t="n">
-        <v>66.73</v>
+        <v>67</v>
       </c>
       <c r="D3" t="n">
-        <v>66.73</v>
+        <v>67</v>
       </c>
       <c r="E3" t="n">
-        <v>66.73</v>
+        <v>67</v>
       </c>
       <c r="F3" t="n">
-        <v>8</v>
+        <v>183</v>
       </c>
       <c r="G3" t="n">
-        <v>14368.58482916517</v>
+        <v>42582.70312282412</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -510,22 +510,22 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>65.2</v>
+        <v>67.8</v>
       </c>
       <c r="C4" t="n">
-        <v>65.2</v>
+        <v>67.98</v>
       </c>
       <c r="D4" t="n">
-        <v>65.2</v>
+        <v>67.98</v>
       </c>
       <c r="E4" t="n">
-        <v>65.2</v>
+        <v>67.8</v>
       </c>
       <c r="F4" t="n">
-        <v>2300</v>
+        <v>4451.3607</v>
       </c>
       <c r="G4" t="n">
-        <v>12068.58482916517</v>
+        <v>47034.06382282412</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -546,22 +546,22 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>66.2</v>
+        <v>67.8</v>
       </c>
       <c r="C5" t="n">
-        <v>66.2</v>
+        <v>67</v>
       </c>
       <c r="D5" t="n">
-        <v>66.2</v>
+        <v>67.8</v>
       </c>
       <c r="E5" t="n">
-        <v>66.2</v>
+        <v>67</v>
       </c>
       <c r="F5" t="n">
-        <v>8</v>
+        <v>1563.3409</v>
       </c>
       <c r="G5" t="n">
-        <v>12076.58482916517</v>
+        <v>45470.72292282412</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -582,35 +582,31 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>66.53</v>
+        <v>67.98</v>
       </c>
       <c r="C6" t="n">
-        <v>66.54000000000001</v>
+        <v>67.98</v>
       </c>
       <c r="D6" t="n">
-        <v>66.54000000000001</v>
+        <v>67.98</v>
       </c>
       <c r="E6" t="n">
-        <v>66.53</v>
+        <v>67.98</v>
       </c>
       <c r="F6" t="n">
-        <v>20344</v>
+        <v>15.46</v>
       </c>
       <c r="G6" t="n">
-        <v>32420.58482916517</v>
+        <v>45486.18292282412</v>
       </c>
       <c r="H6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
       </c>
-      <c r="J6" t="n">
-        <v>66.2</v>
-      </c>
-      <c r="K6" t="n">
-        <v>66.2</v>
-      </c>
+      <c r="J6" t="inlineStr"/>
+      <c r="K6" t="inlineStr"/>
       <c r="L6" t="inlineStr"/>
       <c r="M6" t="n">
         <v>1</v>
@@ -622,40 +618,32 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>66.54000000000001</v>
+        <v>67.98999999999999</v>
       </c>
       <c r="C7" t="n">
-        <v>66.54000000000001</v>
+        <v>67.98999999999999</v>
       </c>
       <c r="D7" t="n">
-        <v>66.54000000000001</v>
+        <v>67.98999999999999</v>
       </c>
       <c r="E7" t="n">
-        <v>66.54000000000001</v>
+        <v>67.98999999999999</v>
       </c>
       <c r="F7" t="n">
-        <v>10100</v>
+        <v>8</v>
       </c>
       <c r="G7" t="n">
-        <v>32420.58482916517</v>
+        <v>45494.18292282412</v>
       </c>
       <c r="H7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
       </c>
-      <c r="J7" t="n">
-        <v>66.54000000000001</v>
-      </c>
-      <c r="K7" t="n">
-        <v>66.2</v>
-      </c>
-      <c r="L7" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J7" t="inlineStr"/>
+      <c r="K7" t="inlineStr"/>
+      <c r="L7" t="inlineStr"/>
       <c r="M7" t="n">
         <v>1</v>
       </c>
@@ -666,40 +654,32 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>66.59999999999999</v>
+        <v>67.51000000000001</v>
       </c>
       <c r="C8" t="n">
-        <v>66.54000000000001</v>
+        <v>67.51000000000001</v>
       </c>
       <c r="D8" t="n">
-        <v>66.59999999999999</v>
+        <v>67.51000000000001</v>
       </c>
       <c r="E8" t="n">
-        <v>66.54000000000001</v>
+        <v>67.51000000000001</v>
       </c>
       <c r="F8" t="n">
-        <v>4445.1312</v>
+        <v>10</v>
       </c>
       <c r="G8" t="n">
-        <v>32420.58482916517</v>
+        <v>45484.18292282412</v>
       </c>
       <c r="H8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
       </c>
-      <c r="J8" t="n">
-        <v>66.54000000000001</v>
-      </c>
-      <c r="K8" t="n">
-        <v>66.2</v>
-      </c>
-      <c r="L8" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J8" t="inlineStr"/>
+      <c r="K8" t="inlineStr"/>
+      <c r="L8" t="inlineStr"/>
       <c r="M8" t="n">
         <v>1</v>
       </c>
@@ -710,22 +690,22 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>66.54000000000001</v>
+        <v>67.98999999999999</v>
       </c>
       <c r="C9" t="n">
-        <v>66.54000000000001</v>
+        <v>67.98999999999999</v>
       </c>
       <c r="D9" t="n">
-        <v>66.54000000000001</v>
+        <v>67.98999999999999</v>
       </c>
       <c r="E9" t="n">
-        <v>66.54000000000001</v>
+        <v>67.98999999999999</v>
       </c>
       <c r="F9" t="n">
-        <v>10000.5788</v>
+        <v>100</v>
       </c>
       <c r="G9" t="n">
-        <v>32420.58482916517</v>
+        <v>45584.18292282412</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -746,22 +726,22 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>66.56</v>
+        <v>67.98999999999999</v>
       </c>
       <c r="C10" t="n">
-        <v>66.56</v>
+        <v>67.98999999999999</v>
       </c>
       <c r="D10" t="n">
-        <v>66.56</v>
+        <v>67.98999999999999</v>
       </c>
       <c r="E10" t="n">
-        <v>66.56</v>
+        <v>67.98999999999999</v>
       </c>
       <c r="F10" t="n">
-        <v>11539.7811</v>
+        <v>100</v>
       </c>
       <c r="G10" t="n">
-        <v>43960.36592916517</v>
+        <v>45584.18292282412</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -782,22 +762,22 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>66.56</v>
+        <v>67.98</v>
       </c>
       <c r="C11" t="n">
-        <v>66.56</v>
+        <v>67.98</v>
       </c>
       <c r="D11" t="n">
-        <v>66.56</v>
+        <v>67.98</v>
       </c>
       <c r="E11" t="n">
-        <v>66.56</v>
+        <v>67.98</v>
       </c>
       <c r="F11" t="n">
-        <v>1620.3589</v>
+        <v>100</v>
       </c>
       <c r="G11" t="n">
-        <v>43960.36592916517</v>
+        <v>45484.18292282412</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -818,22 +798,22 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>66.8</v>
+        <v>67.95999999999999</v>
       </c>
       <c r="C12" t="n">
-        <v>66.90000000000001</v>
+        <v>66</v>
       </c>
       <c r="D12" t="n">
-        <v>66.90000000000001</v>
+        <v>67.95999999999999</v>
       </c>
       <c r="E12" t="n">
-        <v>66.8</v>
+        <v>66</v>
       </c>
       <c r="F12" t="n">
-        <v>9500.947099999999</v>
+        <v>8431.454100000001</v>
       </c>
       <c r="G12" t="n">
-        <v>53461.31302916517</v>
+        <v>37052.72882282412</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -854,22 +834,22 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>67</v>
+        <v>66.54000000000001</v>
       </c>
       <c r="C13" t="n">
-        <v>67</v>
+        <v>67.88</v>
       </c>
       <c r="D13" t="n">
-        <v>67</v>
+        <v>67.88</v>
       </c>
       <c r="E13" t="n">
-        <v>67</v>
+        <v>66.54000000000001</v>
       </c>
       <c r="F13" t="n">
-        <v>5077.423885447761</v>
+        <v>1109</v>
       </c>
       <c r="G13" t="n">
-        <v>58538.73691461293</v>
+        <v>38161.72882282412</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -890,22 +870,22 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>67.5</v>
+        <v>67.88</v>
       </c>
       <c r="C14" t="n">
-        <v>67.98</v>
+        <v>67.88</v>
       </c>
       <c r="D14" t="n">
-        <v>67.98</v>
+        <v>67.88</v>
       </c>
       <c r="E14" t="n">
-        <v>67.5</v>
+        <v>67.88</v>
       </c>
       <c r="F14" t="n">
-        <v>1836.1611</v>
+        <v>10</v>
       </c>
       <c r="G14" t="n">
-        <v>60374.89801461293</v>
+        <v>38161.72882282412</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -926,22 +906,22 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>66.69</v>
+        <v>67.01000000000001</v>
       </c>
       <c r="C15" t="n">
-        <v>68.3</v>
+        <v>67.01000000000001</v>
       </c>
       <c r="D15" t="n">
-        <v>68.3</v>
+        <v>67.01000000000001</v>
       </c>
       <c r="E15" t="n">
-        <v>66.69</v>
+        <v>67.01000000000001</v>
       </c>
       <c r="F15" t="n">
-        <v>54443.3814</v>
+        <v>1279</v>
       </c>
       <c r="G15" t="n">
-        <v>114818.2794146129</v>
+        <v>36882.72882282412</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -962,22 +942,22 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>68.42</v>
+        <v>67.09999999999999</v>
       </c>
       <c r="C16" t="n">
-        <v>68.42</v>
+        <v>67.06999999999999</v>
       </c>
       <c r="D16" t="n">
-        <v>68.42</v>
+        <v>67.09999999999999</v>
       </c>
       <c r="E16" t="n">
-        <v>68.42</v>
+        <v>67.06999999999999</v>
       </c>
       <c r="F16" t="n">
-        <v>976.2195</v>
+        <v>902</v>
       </c>
       <c r="G16" t="n">
-        <v>115794.4989146129</v>
+        <v>37784.72882282412</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -998,22 +978,22 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>68.42</v>
+        <v>67.88</v>
       </c>
       <c r="C17" t="n">
-        <v>68.42</v>
+        <v>67.88</v>
       </c>
       <c r="D17" t="n">
-        <v>68.42</v>
+        <v>67.88</v>
       </c>
       <c r="E17" t="n">
-        <v>68.42</v>
+        <v>67.88</v>
       </c>
       <c r="F17" t="n">
-        <v>1240</v>
+        <v>8</v>
       </c>
       <c r="G17" t="n">
-        <v>115794.4989146129</v>
+        <v>37792.72882282412</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -1034,22 +1014,22 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>68.42</v>
+        <v>67.5</v>
       </c>
       <c r="C18" t="n">
-        <v>68.42</v>
+        <v>67.5</v>
       </c>
       <c r="D18" t="n">
-        <v>68.42</v>
+        <v>67.5</v>
       </c>
       <c r="E18" t="n">
-        <v>68.42</v>
+        <v>67.5</v>
       </c>
       <c r="F18" t="n">
-        <v>7000</v>
+        <v>20</v>
       </c>
       <c r="G18" t="n">
-        <v>115794.4989146129</v>
+        <v>37772.72882282412</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1070,28 +1050,28 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>68.42</v>
+        <v>67.48999999999999</v>
       </c>
       <c r="C19" t="n">
-        <v>68.42</v>
+        <v>67.48999999999999</v>
       </c>
       <c r="D19" t="n">
-        <v>68.42</v>
+        <v>67.48999999999999</v>
       </c>
       <c r="E19" t="n">
-        <v>68.42</v>
+        <v>67.48999999999999</v>
       </c>
       <c r="F19" t="n">
-        <v>505</v>
+        <v>3673.392</v>
       </c>
       <c r="G19" t="n">
-        <v>115794.4989146129</v>
+        <v>34099.33682282412</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr"/>
@@ -1106,28 +1086,28 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>68.42</v>
+        <v>67.3</v>
       </c>
       <c r="C20" t="n">
-        <v>68.42</v>
+        <v>67.3</v>
       </c>
       <c r="D20" t="n">
-        <v>68.42</v>
+        <v>67.3</v>
       </c>
       <c r="E20" t="n">
-        <v>68.42</v>
+        <v>67.3</v>
       </c>
       <c r="F20" t="n">
-        <v>2000</v>
+        <v>20</v>
       </c>
       <c r="G20" t="n">
-        <v>115794.4989146129</v>
+        <v>34079.33682282412</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J20" t="inlineStr"/>
       <c r="K20" t="inlineStr"/>
@@ -1142,28 +1122,28 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>68.42</v>
+        <v>67.09999999999999</v>
       </c>
       <c r="C21" t="n">
-        <v>68.42</v>
+        <v>67.09999999999999</v>
       </c>
       <c r="D21" t="n">
-        <v>68.42</v>
+        <v>67.09999999999999</v>
       </c>
       <c r="E21" t="n">
-        <v>68.42</v>
+        <v>67.09999999999999</v>
       </c>
       <c r="F21" t="n">
-        <v>479.787</v>
+        <v>20</v>
       </c>
       <c r="G21" t="n">
-        <v>115794.4989146129</v>
+        <v>34059.33682282412</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J21" t="inlineStr"/>
       <c r="K21" t="inlineStr"/>
@@ -1178,28 +1158,28 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>68.42</v>
+        <v>67.5</v>
       </c>
       <c r="C22" t="n">
-        <v>68.42</v>
+        <v>67.5</v>
       </c>
       <c r="D22" t="n">
-        <v>68.42</v>
+        <v>67.5</v>
       </c>
       <c r="E22" t="n">
-        <v>67.62</v>
+        <v>67.5</v>
       </c>
       <c r="F22" t="n">
-        <v>1732</v>
+        <v>10</v>
       </c>
       <c r="G22" t="n">
-        <v>115794.4989146129</v>
+        <v>34069.33682282412</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J22" t="inlineStr"/>
       <c r="K22" t="inlineStr"/>
@@ -1214,28 +1194,28 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>67.62</v>
+        <v>67.40000000000001</v>
       </c>
       <c r="C23" t="n">
-        <v>67.62</v>
+        <v>67.40000000000001</v>
       </c>
       <c r="D23" t="n">
-        <v>67.62</v>
+        <v>67.40000000000001</v>
       </c>
       <c r="E23" t="n">
-        <v>67.62</v>
+        <v>67.40000000000001</v>
       </c>
       <c r="F23" t="n">
-        <v>0.0454</v>
+        <v>20</v>
       </c>
       <c r="G23" t="n">
-        <v>115794.4535146129</v>
+        <v>34049.33682282412</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J23" t="inlineStr"/>
       <c r="K23" t="inlineStr"/>
@@ -1250,22 +1230,22 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>66</v>
+        <v>67.5</v>
       </c>
       <c r="C24" t="n">
-        <v>66</v>
+        <v>67.5</v>
       </c>
       <c r="D24" t="n">
-        <v>66</v>
+        <v>67.5</v>
       </c>
       <c r="E24" t="n">
-        <v>66</v>
+        <v>67.5</v>
       </c>
       <c r="F24" t="n">
-        <v>803.2178</v>
+        <v>8</v>
       </c>
       <c r="G24" t="n">
-        <v>114991.2357146129</v>
+        <v>34057.33682282412</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -1286,22 +1266,22 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>65.91</v>
+        <v>67.40000000000001</v>
       </c>
       <c r="C25" t="n">
-        <v>65.91</v>
+        <v>67.40000000000001</v>
       </c>
       <c r="D25" t="n">
-        <v>65.91</v>
+        <v>67.40000000000001</v>
       </c>
       <c r="E25" t="n">
-        <v>65.91</v>
+        <v>67.40000000000001</v>
       </c>
       <c r="F25" t="n">
-        <v>866.239</v>
+        <v>55.6379</v>
       </c>
       <c r="G25" t="n">
-        <v>114124.9967146129</v>
+        <v>34001.69892282411</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -1322,22 +1302,22 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>65.8</v>
+        <v>67.40000000000001</v>
       </c>
       <c r="C26" t="n">
-        <v>65.8</v>
+        <v>67.40000000000001</v>
       </c>
       <c r="D26" t="n">
-        <v>65.8</v>
+        <v>67.40000000000001</v>
       </c>
       <c r="E26" t="n">
-        <v>65.8</v>
+        <v>67.40000000000001</v>
       </c>
       <c r="F26" t="n">
-        <v>7699.9546</v>
+        <v>97</v>
       </c>
       <c r="G26" t="n">
-        <v>106425.0421146129</v>
+        <v>34001.69892282411</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -1358,22 +1338,22 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>67.61</v>
+        <v>67.40000000000001</v>
       </c>
       <c r="C27" t="n">
-        <v>67.61</v>
+        <v>67.48999999999999</v>
       </c>
       <c r="D27" t="n">
-        <v>67.61</v>
+        <v>67.5</v>
       </c>
       <c r="E27" t="n">
-        <v>67.61</v>
+        <v>67.40000000000001</v>
       </c>
       <c r="F27" t="n">
-        <v>40.2773</v>
+        <v>28.3621</v>
       </c>
       <c r="G27" t="n">
-        <v>106465.3194146129</v>
+        <v>34030.06102282411</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -1394,22 +1374,22 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>67.61</v>
+        <v>67.48</v>
       </c>
       <c r="C28" t="n">
-        <v>67.61</v>
+        <v>67.48</v>
       </c>
       <c r="D28" t="n">
-        <v>67.61</v>
+        <v>67.48</v>
       </c>
       <c r="E28" t="n">
-        <v>67.61</v>
+        <v>67.48</v>
       </c>
       <c r="F28" t="n">
-        <v>2718.467</v>
+        <v>20</v>
       </c>
       <c r="G28" t="n">
-        <v>106465.3194146129</v>
+        <v>34010.06102282411</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -1430,22 +1410,22 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>67.7</v>
+        <v>67.40000000000001</v>
       </c>
       <c r="C29" t="n">
-        <v>68.3</v>
+        <v>67.40000000000001</v>
       </c>
       <c r="D29" t="n">
-        <v>68.3</v>
+        <v>67.40000000000001</v>
       </c>
       <c r="E29" t="n">
-        <v>67.62</v>
+        <v>67.40000000000001</v>
       </c>
       <c r="F29" t="n">
-        <v>13838.0995</v>
+        <v>19.6379</v>
       </c>
       <c r="G29" t="n">
-        <v>120303.4189146129</v>
+        <v>33990.42312282411</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -1466,28 +1446,28 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>67.62</v>
+        <v>67.48999999999999</v>
       </c>
       <c r="C30" t="n">
-        <v>67.61</v>
+        <v>67.48999999999999</v>
       </c>
       <c r="D30" t="n">
-        <v>67.62</v>
+        <v>67.48999999999999</v>
       </c>
       <c r="E30" t="n">
-        <v>67.61</v>
+        <v>67.48999999999999</v>
       </c>
       <c r="F30" t="n">
-        <v>34502.2672</v>
+        <v>8</v>
       </c>
       <c r="G30" t="n">
-        <v>85801.15171461292</v>
+        <v>33998.42312282411</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J30" t="inlineStr"/>
       <c r="K30" t="inlineStr"/>
@@ -1502,28 +1482,28 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>68.2</v>
+        <v>67.06999999999999</v>
       </c>
       <c r="C31" t="n">
-        <v>68.2</v>
+        <v>67</v>
       </c>
       <c r="D31" t="n">
-        <v>68.2</v>
+        <v>67.06999999999999</v>
       </c>
       <c r="E31" t="n">
-        <v>68.2</v>
+        <v>67</v>
       </c>
       <c r="F31" t="n">
-        <v>8</v>
+        <v>37.1877</v>
       </c>
       <c r="G31" t="n">
-        <v>85809.15171461292</v>
+        <v>33961.23542282411</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J31" t="inlineStr"/>
       <c r="K31" t="inlineStr"/>
@@ -1538,28 +1518,28 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>67.5</v>
+        <v>67.47</v>
       </c>
       <c r="C32" t="n">
-        <v>67.5</v>
+        <v>67.47</v>
       </c>
       <c r="D32" t="n">
-        <v>67.5</v>
+        <v>67.47</v>
       </c>
       <c r="E32" t="n">
-        <v>67.5</v>
+        <v>67.47</v>
       </c>
       <c r="F32" t="n">
-        <v>243.5025</v>
+        <v>8</v>
       </c>
       <c r="G32" t="n">
-        <v>85565.64921461292</v>
+        <v>33969.23542282411</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J32" t="inlineStr"/>
       <c r="K32" t="inlineStr"/>
@@ -1574,28 +1554,28 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>67.5</v>
+        <v>67</v>
       </c>
       <c r="C33" t="n">
-        <v>67.48</v>
+        <v>66.66</v>
       </c>
       <c r="D33" t="n">
-        <v>67.5</v>
+        <v>67</v>
       </c>
       <c r="E33" t="n">
-        <v>67.48</v>
+        <v>66.66</v>
       </c>
       <c r="F33" t="n">
-        <v>1683.3268</v>
+        <v>529.1807</v>
       </c>
       <c r="G33" t="n">
-        <v>83882.32241461292</v>
+        <v>33440.05472282411</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J33" t="inlineStr"/>
       <c r="K33" t="inlineStr"/>
@@ -1610,28 +1590,28 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>68.2</v>
+        <v>66.51000000000001</v>
       </c>
       <c r="C34" t="n">
-        <v>68.2</v>
+        <v>66.51000000000001</v>
       </c>
       <c r="D34" t="n">
-        <v>68.2</v>
+        <v>66.51000000000001</v>
       </c>
       <c r="E34" t="n">
-        <v>68.2</v>
+        <v>66.51000000000001</v>
       </c>
       <c r="F34" t="n">
-        <v>8</v>
+        <v>600</v>
       </c>
       <c r="G34" t="n">
-        <v>83890.32241461292</v>
+        <v>32840.05472282411</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J34" t="inlineStr"/>
       <c r="K34" t="inlineStr"/>
@@ -1646,22 +1626,22 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>66.09999999999999</v>
+        <v>66.51000000000001</v>
       </c>
       <c r="C35" t="n">
-        <v>66.09999999999999</v>
+        <v>66.51000000000001</v>
       </c>
       <c r="D35" t="n">
-        <v>66.09999999999999</v>
+        <v>66.51000000000001</v>
       </c>
       <c r="E35" t="n">
-        <v>66.09999999999999</v>
+        <v>66.51000000000001</v>
       </c>
       <c r="F35" t="n">
-        <v>48.402</v>
+        <v>11.5283</v>
       </c>
       <c r="G35" t="n">
-        <v>83841.92041461292</v>
+        <v>32840.05472282411</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -1682,22 +1662,22 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>68.14</v>
+        <v>66.5</v>
       </c>
       <c r="C36" t="n">
-        <v>68.14</v>
+        <v>66.5</v>
       </c>
       <c r="D36" t="n">
-        <v>68.14</v>
+        <v>66.5</v>
       </c>
       <c r="E36" t="n">
-        <v>68.14</v>
+        <v>66.5</v>
       </c>
       <c r="F36" t="n">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="G36" t="n">
-        <v>83849.92041461292</v>
+        <v>32820.05472282411</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -1718,28 +1698,28 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>66.2</v>
+        <v>65.90000000000001</v>
       </c>
       <c r="C37" t="n">
-        <v>66.2</v>
+        <v>65.81</v>
       </c>
       <c r="D37" t="n">
-        <v>66.2</v>
+        <v>65.90000000000001</v>
       </c>
       <c r="E37" t="n">
-        <v>66.2</v>
+        <v>65.81</v>
       </c>
       <c r="F37" t="n">
-        <v>62.4187</v>
+        <v>150</v>
       </c>
       <c r="G37" t="n">
-        <v>83787.50171461292</v>
+        <v>32670.05472282411</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J37" t="inlineStr"/>
       <c r="K37" t="inlineStr"/>
@@ -1754,31 +1734,35 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>66.2</v>
+        <v>66.5</v>
       </c>
       <c r="C38" t="n">
-        <v>66.2</v>
+        <v>66.5</v>
       </c>
       <c r="D38" t="n">
-        <v>66.2</v>
+        <v>66.5</v>
       </c>
       <c r="E38" t="n">
-        <v>66.2</v>
+        <v>66.5</v>
       </c>
       <c r="F38" t="n">
-        <v>215</v>
+        <v>8</v>
       </c>
       <c r="G38" t="n">
-        <v>83787.50171461292</v>
+        <v>32678.05472282411</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I38" t="n">
-        <v>1</v>
-      </c>
-      <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J38" t="n">
+        <v>65.81</v>
+      </c>
+      <c r="K38" t="n">
+        <v>65.81</v>
+      </c>
       <c r="L38" t="inlineStr"/>
       <c r="M38" t="n">
         <v>1</v>
@@ -1790,32 +1774,40 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>66.09999999999999</v>
+        <v>66.5</v>
       </c>
       <c r="C39" t="n">
-        <v>66.09999999999999</v>
+        <v>66.5</v>
       </c>
       <c r="D39" t="n">
-        <v>66.09999999999999</v>
+        <v>66.5</v>
       </c>
       <c r="E39" t="n">
-        <v>66.09999999999999</v>
+        <v>66.5</v>
       </c>
       <c r="F39" t="n">
-        <v>1127</v>
+        <v>810</v>
       </c>
       <c r="G39" t="n">
-        <v>82660.50171461292</v>
+        <v>32678.05472282411</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I39" t="n">
-        <v>1</v>
-      </c>
-      <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr"/>
-      <c r="L39" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J39" t="n">
+        <v>66.5</v>
+      </c>
+      <c r="K39" t="n">
+        <v>65.81</v>
+      </c>
+      <c r="L39" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M39" t="n">
         <v>1</v>
       </c>
@@ -1826,22 +1818,22 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>66.09999999999999</v>
+        <v>67.39</v>
       </c>
       <c r="C40" t="n">
-        <v>65.84</v>
+        <v>67.39</v>
       </c>
       <c r="D40" t="n">
-        <v>66.09999999999999</v>
+        <v>67.39</v>
       </c>
       <c r="E40" t="n">
-        <v>65.84</v>
+        <v>67.39</v>
       </c>
       <c r="F40" t="n">
-        <v>8819.540000000001</v>
+        <v>8</v>
       </c>
       <c r="G40" t="n">
-        <v>73840.96171461293</v>
+        <v>32686.05472282411</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -1850,8 +1842,14 @@
         <v>0</v>
       </c>
       <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr"/>
-      <c r="L40" t="inlineStr"/>
+      <c r="K40" t="n">
+        <v>65.81</v>
+      </c>
+      <c r="L40" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M40" t="n">
         <v>1</v>
       </c>
@@ -1862,22 +1860,22 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>65.84</v>
+        <v>67.39</v>
       </c>
       <c r="C41" t="n">
-        <v>65.84</v>
+        <v>67.39</v>
       </c>
       <c r="D41" t="n">
-        <v>65.84</v>
+        <v>67.39</v>
       </c>
       <c r="E41" t="n">
-        <v>65.84</v>
+        <v>67.39</v>
       </c>
       <c r="F41" t="n">
-        <v>900</v>
+        <v>170.7144</v>
       </c>
       <c r="G41" t="n">
-        <v>73840.96171461293</v>
+        <v>32686.05472282411</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -1898,22 +1896,22 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>66.2</v>
+        <v>67</v>
       </c>
       <c r="C42" t="n">
-        <v>66.2</v>
+        <v>66.58</v>
       </c>
       <c r="D42" t="n">
-        <v>66.2</v>
+        <v>67</v>
       </c>
       <c r="E42" t="n">
-        <v>66.2</v>
+        <v>66.58</v>
       </c>
       <c r="F42" t="n">
-        <v>8</v>
+        <v>367.2078</v>
       </c>
       <c r="G42" t="n">
-        <v>73848.96171461293</v>
+        <v>32318.84692282411</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -1934,22 +1932,22 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>65.84</v>
+        <v>66.09999999999999</v>
       </c>
       <c r="C43" t="n">
-        <v>65.84</v>
+        <v>66.09999999999999</v>
       </c>
       <c r="D43" t="n">
-        <v>65.84</v>
+        <v>66.09999999999999</v>
       </c>
       <c r="E43" t="n">
-        <v>65.84</v>
+        <v>66.09999999999999</v>
       </c>
       <c r="F43" t="n">
-        <v>990</v>
+        <v>300</v>
       </c>
       <c r="G43" t="n">
-        <v>72858.96171461293</v>
+        <v>32018.84692282411</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -1970,22 +1968,22 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>65.84</v>
+        <v>66.11</v>
       </c>
       <c r="C44" t="n">
-        <v>65.83</v>
+        <v>66.09999999999999</v>
       </c>
       <c r="D44" t="n">
-        <v>65.84</v>
+        <v>66.11</v>
       </c>
       <c r="E44" t="n">
-        <v>65.83</v>
+        <v>66.09999999999999</v>
       </c>
       <c r="F44" t="n">
-        <v>710.5161000000001</v>
+        <v>297.5061</v>
       </c>
       <c r="G44" t="n">
-        <v>72148.44561461294</v>
+        <v>32018.84692282411</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -2006,32 +2004,38 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>65.83</v>
+        <v>66.09999999999999</v>
       </c>
       <c r="C45" t="n">
-        <v>65.83</v>
+        <v>67.3</v>
       </c>
       <c r="D45" t="n">
-        <v>65.83</v>
+        <v>67.3</v>
       </c>
       <c r="E45" t="n">
-        <v>65.83</v>
+        <v>66.09999999999999</v>
       </c>
       <c r="F45" t="n">
-        <v>1399.4839</v>
+        <v>10.4939</v>
       </c>
       <c r="G45" t="n">
-        <v>72148.44561461294</v>
+        <v>32029.34082282411</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
       </c>
-      <c r="J45" t="inlineStr"/>
+      <c r="J45" t="n">
+        <v>66.09999999999999</v>
+      </c>
       <c r="K45" t="inlineStr"/>
-      <c r="L45" t="inlineStr"/>
+      <c r="L45" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="M45" t="n">
         <v>1</v>
       </c>
@@ -2042,22 +2046,22 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>65.83</v>
+        <v>66.11</v>
       </c>
       <c r="C46" t="n">
-        <v>65.12</v>
+        <v>66.11</v>
       </c>
       <c r="D46" t="n">
-        <v>65.83</v>
+        <v>66.11</v>
       </c>
       <c r="E46" t="n">
-        <v>65.12</v>
+        <v>66.11</v>
       </c>
       <c r="F46" t="n">
-        <v>40.136</v>
+        <v>100</v>
       </c>
       <c r="G46" t="n">
-        <v>72108.30961461294</v>
+        <v>31929.34082282411</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -2067,7 +2071,11 @@
       </c>
       <c r="J46" t="inlineStr"/>
       <c r="K46" t="inlineStr"/>
-      <c r="L46" t="inlineStr"/>
+      <c r="L46" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M46" t="n">
         <v>1</v>
       </c>
@@ -2078,32 +2086,38 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>65.12</v>
+        <v>67.11</v>
       </c>
       <c r="C47" t="n">
-        <v>65.12</v>
+        <v>67.11</v>
       </c>
       <c r="D47" t="n">
-        <v>65.12</v>
+        <v>67.11</v>
       </c>
       <c r="E47" t="n">
-        <v>65.12</v>
+        <v>67.11</v>
       </c>
       <c r="F47" t="n">
-        <v>98.3608</v>
+        <v>8</v>
       </c>
       <c r="G47" t="n">
-        <v>72108.30961461294</v>
+        <v>31937.34082282411</v>
       </c>
       <c r="H47" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I47" t="n">
         <v>0</v>
       </c>
-      <c r="J47" t="inlineStr"/>
+      <c r="J47" t="n">
+        <v>66.11</v>
+      </c>
       <c r="K47" t="inlineStr"/>
-      <c r="L47" t="inlineStr"/>
+      <c r="L47" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M47" t="n">
         <v>1</v>
       </c>
@@ -2114,22 +2128,22 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>65.06</v>
+        <v>66.11</v>
       </c>
       <c r="C48" t="n">
-        <v>65.06</v>
+        <v>66.11</v>
       </c>
       <c r="D48" t="n">
-        <v>65.06</v>
+        <v>66.11</v>
       </c>
       <c r="E48" t="n">
-        <v>65.06</v>
+        <v>66.11</v>
       </c>
       <c r="F48" t="n">
-        <v>213</v>
+        <v>100</v>
       </c>
       <c r="G48" t="n">
-        <v>71895.30961461294</v>
+        <v>31837.34082282411</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -2139,7 +2153,11 @@
       </c>
       <c r="J48" t="inlineStr"/>
       <c r="K48" t="inlineStr"/>
-      <c r="L48" t="inlineStr"/>
+      <c r="L48" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M48" t="n">
         <v>1</v>
       </c>
@@ -2150,22 +2168,22 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>65.12</v>
+        <v>66.11</v>
       </c>
       <c r="C49" t="n">
-        <v>65.12</v>
+        <v>66.11</v>
       </c>
       <c r="D49" t="n">
-        <v>65.12</v>
+        <v>66.11</v>
       </c>
       <c r="E49" t="n">
-        <v>65.12</v>
+        <v>66.11</v>
       </c>
       <c r="F49" t="n">
-        <v>121.1446</v>
+        <v>36.1298</v>
       </c>
       <c r="G49" t="n">
-        <v>72016.45421461294</v>
+        <v>31837.34082282411</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -2175,7 +2193,11 @@
       </c>
       <c r="J49" t="inlineStr"/>
       <c r="K49" t="inlineStr"/>
-      <c r="L49" t="inlineStr"/>
+      <c r="L49" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M49" t="n">
         <v>1</v>
       </c>
@@ -2186,22 +2208,22 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>65.69</v>
+        <v>66.11</v>
       </c>
       <c r="C50" t="n">
-        <v>65.83</v>
+        <v>66.86</v>
       </c>
       <c r="D50" t="n">
-        <v>65.83</v>
+        <v>66.86</v>
       </c>
       <c r="E50" t="n">
-        <v>65.69</v>
+        <v>66.11</v>
       </c>
       <c r="F50" t="n">
-        <v>13132.7132</v>
+        <v>16.99089178881244</v>
       </c>
       <c r="G50" t="n">
-        <v>85149.16741461294</v>
+        <v>31854.33171461293</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -2211,7 +2233,11 @@
       </c>
       <c r="J50" t="inlineStr"/>
       <c r="K50" t="inlineStr"/>
-      <c r="L50" t="inlineStr"/>
+      <c r="L50" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M50" t="n">
         <v>1</v>
       </c>
@@ -2222,22 +2248,22 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>66</v>
+        <v>66.5</v>
       </c>
       <c r="C51" t="n">
-        <v>68.16</v>
+        <v>66.5</v>
       </c>
       <c r="D51" t="n">
-        <v>68.16</v>
+        <v>66.5</v>
       </c>
       <c r="E51" t="n">
-        <v>66</v>
+        <v>66.5</v>
       </c>
       <c r="F51" t="n">
-        <v>145.7753</v>
+        <v>9</v>
       </c>
       <c r="G51" t="n">
-        <v>85294.94271461293</v>
+        <v>31845.33171461293</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -2247,7 +2273,11 @@
       </c>
       <c r="J51" t="inlineStr"/>
       <c r="K51" t="inlineStr"/>
-      <c r="L51" t="inlineStr"/>
+      <c r="L51" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M51" t="n">
         <v>1</v>
       </c>
@@ -2258,22 +2288,22 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>68.15000000000001</v>
+        <v>66.3</v>
       </c>
       <c r="C52" t="n">
-        <v>68.14</v>
+        <v>66.3</v>
       </c>
       <c r="D52" t="n">
-        <v>68.15000000000001</v>
+        <v>66.3</v>
       </c>
       <c r="E52" t="n">
-        <v>68.14</v>
+        <v>66.3</v>
       </c>
       <c r="F52" t="n">
-        <v>17.6847</v>
+        <v>9</v>
       </c>
       <c r="G52" t="n">
-        <v>85277.25801461293</v>
+        <v>31836.33171461293</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -2283,7 +2313,11 @@
       </c>
       <c r="J52" t="inlineStr"/>
       <c r="K52" t="inlineStr"/>
-      <c r="L52" t="inlineStr"/>
+      <c r="L52" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M52" t="n">
         <v>1</v>
       </c>
@@ -2294,22 +2328,22 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>68.09999999999999</v>
+        <v>65.81</v>
       </c>
       <c r="C53" t="n">
-        <v>68</v>
+        <v>65.7</v>
       </c>
       <c r="D53" t="n">
-        <v>68.09999999999999</v>
+        <v>65.81</v>
       </c>
       <c r="E53" t="n">
-        <v>68</v>
+        <v>65.7</v>
       </c>
       <c r="F53" t="n">
-        <v>24</v>
+        <v>8103.0354</v>
       </c>
       <c r="G53" t="n">
-        <v>85253.25801461293</v>
+        <v>23733.29631461293</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -2319,7 +2353,11 @@
       </c>
       <c r="J53" t="inlineStr"/>
       <c r="K53" t="inlineStr"/>
-      <c r="L53" t="inlineStr"/>
+      <c r="L53" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M53" t="n">
         <v>1</v>
       </c>
@@ -2330,32 +2368,38 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>67.56</v>
+        <v>65.44</v>
       </c>
       <c r="C54" t="n">
-        <v>66.70999999999999</v>
+        <v>64.90000000000001</v>
       </c>
       <c r="D54" t="n">
-        <v>67.56</v>
+        <v>65.44</v>
       </c>
       <c r="E54" t="n">
-        <v>66.70999999999999</v>
+        <v>64.90000000000001</v>
       </c>
       <c r="F54" t="n">
-        <v>200</v>
+        <v>20699.0677</v>
       </c>
       <c r="G54" t="n">
-        <v>85053.25801461293</v>
+        <v>3034.228614612926</v>
       </c>
       <c r="H54" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I54" t="n">
         <v>0</v>
       </c>
-      <c r="J54" t="inlineStr"/>
+      <c r="J54" t="n">
+        <v>65.7</v>
+      </c>
       <c r="K54" t="inlineStr"/>
-      <c r="L54" t="inlineStr"/>
+      <c r="L54" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M54" t="n">
         <v>1</v>
       </c>
@@ -2366,32 +2410,38 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>66.70999999999999</v>
+        <v>65.5</v>
       </c>
       <c r="C55" t="n">
-        <v>66.36</v>
+        <v>65.59</v>
       </c>
       <c r="D55" t="n">
-        <v>66.70999999999999</v>
+        <v>65.59</v>
       </c>
       <c r="E55" t="n">
-        <v>66.36</v>
+        <v>65.5</v>
       </c>
       <c r="F55" t="n">
-        <v>704.6618999999999</v>
+        <v>10000</v>
       </c>
       <c r="G55" t="n">
-        <v>84348.59611461293</v>
+        <v>13034.22861461293</v>
       </c>
       <c r="H55" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I55" t="n">
         <v>0</v>
       </c>
-      <c r="J55" t="inlineStr"/>
+      <c r="J55" t="n">
+        <v>64.90000000000001</v>
+      </c>
       <c r="K55" t="inlineStr"/>
-      <c r="L55" t="inlineStr"/>
+      <c r="L55" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M55" t="n">
         <v>1</v>
       </c>
@@ -2402,32 +2452,38 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>66.36</v>
+        <v>65.59</v>
       </c>
       <c r="C56" t="n">
-        <v>66.51000000000001</v>
+        <v>66.5</v>
       </c>
       <c r="D56" t="n">
-        <v>66.51000000000001</v>
+        <v>66.5</v>
       </c>
       <c r="E56" t="n">
-        <v>66.36</v>
+        <v>65.59</v>
       </c>
       <c r="F56" t="n">
-        <v>10.3381</v>
+        <v>15913.3822</v>
       </c>
       <c r="G56" t="n">
-        <v>84358.93421461292</v>
+        <v>28947.61081461293</v>
       </c>
       <c r="H56" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I56" t="n">
         <v>0</v>
       </c>
-      <c r="J56" t="inlineStr"/>
+      <c r="J56" t="n">
+        <v>65.59</v>
+      </c>
       <c r="K56" t="inlineStr"/>
-      <c r="L56" t="inlineStr"/>
+      <c r="L56" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M56" t="n">
         <v>1</v>
       </c>
@@ -2438,22 +2494,22 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>68.14</v>
+        <v>65.11</v>
       </c>
       <c r="C57" t="n">
-        <v>68.15000000000001</v>
+        <v>65.11</v>
       </c>
       <c r="D57" t="n">
-        <v>68.15000000000001</v>
+        <v>65.11</v>
       </c>
       <c r="E57" t="n">
-        <v>68.14</v>
+        <v>65.11</v>
       </c>
       <c r="F57" t="n">
-        <v>57</v>
+        <v>360.4969</v>
       </c>
       <c r="G57" t="n">
-        <v>84415.93421461292</v>
+        <v>28587.11391461293</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -2463,7 +2519,11 @@
       </c>
       <c r="J57" t="inlineStr"/>
       <c r="K57" t="inlineStr"/>
-      <c r="L57" t="inlineStr"/>
+      <c r="L57" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M57" t="n">
         <v>1</v>
       </c>
@@ -2474,32 +2534,38 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>66.40000000000001</v>
+        <v>66.48999999999999</v>
       </c>
       <c r="C58" t="n">
-        <v>66.2</v>
+        <v>66.48999999999999</v>
       </c>
       <c r="D58" t="n">
-        <v>66.40000000000001</v>
+        <v>66.48999999999999</v>
       </c>
       <c r="E58" t="n">
-        <v>66.2</v>
+        <v>66.48999999999999</v>
       </c>
       <c r="F58" t="n">
-        <v>12145.4979</v>
+        <v>20</v>
       </c>
       <c r="G58" t="n">
-        <v>72270.43631461292</v>
+        <v>28607.11391461293</v>
       </c>
       <c r="H58" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I58" t="n">
         <v>0</v>
       </c>
-      <c r="J58" t="inlineStr"/>
+      <c r="J58" t="n">
+        <v>65.11</v>
+      </c>
       <c r="K58" t="inlineStr"/>
-      <c r="L58" t="inlineStr"/>
+      <c r="L58" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M58" t="n">
         <v>1</v>
       </c>
@@ -2510,22 +2576,22 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>66.2</v>
+        <v>65.11</v>
       </c>
       <c r="C59" t="n">
-        <v>66.2</v>
+        <v>65.11</v>
       </c>
       <c r="D59" t="n">
-        <v>66.2</v>
+        <v>65.11</v>
       </c>
       <c r="E59" t="n">
-        <v>66.2</v>
+        <v>65.11</v>
       </c>
       <c r="F59" t="n">
-        <v>1175.6625</v>
+        <v>7482.7938</v>
       </c>
       <c r="G59" t="n">
-        <v>72270.43631461292</v>
+        <v>21124.32011461293</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -2535,7 +2601,11 @@
       </c>
       <c r="J59" t="inlineStr"/>
       <c r="K59" t="inlineStr"/>
-      <c r="L59" t="inlineStr"/>
+      <c r="L59" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M59" t="n">
         <v>1</v>
       </c>
@@ -2546,22 +2616,22 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>66.3</v>
+        <v>65.01000000000001</v>
       </c>
       <c r="C60" t="n">
-        <v>66.3</v>
+        <v>66</v>
       </c>
       <c r="D60" t="n">
-        <v>66.3</v>
+        <v>66</v>
       </c>
       <c r="E60" t="n">
-        <v>66.3</v>
+        <v>65.01000000000001</v>
       </c>
       <c r="F60" t="n">
-        <v>5856.9831</v>
+        <v>19</v>
       </c>
       <c r="G60" t="n">
-        <v>78127.41941461292</v>
+        <v>21143.32011461293</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -2571,7 +2641,11 @@
       </c>
       <c r="J60" t="inlineStr"/>
       <c r="K60" t="inlineStr"/>
-      <c r="L60" t="inlineStr"/>
+      <c r="L60" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M60" t="n">
         <v>1</v>
       </c>
@@ -2582,22 +2656,22 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>66.40000000000001</v>
+        <v>65.5</v>
       </c>
       <c r="C61" t="n">
-        <v>66.2</v>
+        <v>65.5</v>
       </c>
       <c r="D61" t="n">
-        <v>66.40000000000001</v>
+        <v>65.5</v>
       </c>
       <c r="E61" t="n">
-        <v>66.2</v>
+        <v>65.5</v>
       </c>
       <c r="F61" t="n">
-        <v>3942.5386</v>
+        <v>100</v>
       </c>
       <c r="G61" t="n">
-        <v>74184.88081461292</v>
+        <v>21043.32011461293</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -2607,7 +2681,11 @@
       </c>
       <c r="J61" t="inlineStr"/>
       <c r="K61" t="inlineStr"/>
-      <c r="L61" t="inlineStr"/>
+      <c r="L61" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M61" t="n">
         <v>1</v>
       </c>
@@ -2618,22 +2696,22 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>66.09999999999999</v>
+        <v>65.98999999999999</v>
       </c>
       <c r="C62" t="n">
-        <v>66.09999999999999</v>
+        <v>65.98999999999999</v>
       </c>
       <c r="D62" t="n">
-        <v>66.09999999999999</v>
+        <v>65.98999999999999</v>
       </c>
       <c r="E62" t="n">
-        <v>66.09999999999999</v>
+        <v>65.98999999999999</v>
       </c>
       <c r="F62" t="n">
-        <v>124.8401</v>
+        <v>18</v>
       </c>
       <c r="G62" t="n">
-        <v>74060.04071461291</v>
+        <v>21061.32011461293</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -2643,7 +2721,11 @@
       </c>
       <c r="J62" t="inlineStr"/>
       <c r="K62" t="inlineStr"/>
-      <c r="L62" t="inlineStr"/>
+      <c r="L62" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M62" t="n">
         <v>1</v>
       </c>
@@ -2654,22 +2736,22 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>66.09999999999999</v>
+        <v>66.48999999999999</v>
       </c>
       <c r="C63" t="n">
-        <v>66.3</v>
+        <v>66.48999999999999</v>
       </c>
       <c r="D63" t="n">
-        <v>66.3</v>
+        <v>66.48999999999999</v>
       </c>
       <c r="E63" t="n">
-        <v>66.09999999999999</v>
+        <v>66.48999999999999</v>
       </c>
       <c r="F63" t="n">
-        <v>1000</v>
+        <v>18</v>
       </c>
       <c r="G63" t="n">
-        <v>75060.04071461291</v>
+        <v>21079.32011461293</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -2679,7 +2761,11 @@
       </c>
       <c r="J63" t="inlineStr"/>
       <c r="K63" t="inlineStr"/>
-      <c r="L63" t="inlineStr"/>
+      <c r="L63" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M63" t="n">
         <v>1</v>
       </c>
@@ -2690,22 +2776,22 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>67.55</v>
+        <v>66.2</v>
       </c>
       <c r="C64" t="n">
-        <v>67.56</v>
+        <v>66.2</v>
       </c>
       <c r="D64" t="n">
-        <v>67.56</v>
+        <v>66.2</v>
       </c>
       <c r="E64" t="n">
-        <v>67.55</v>
+        <v>66.2</v>
       </c>
       <c r="F64" t="n">
-        <v>806</v>
+        <v>20</v>
       </c>
       <c r="G64" t="n">
-        <v>75866.04071461291</v>
+        <v>21059.32011461293</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -2715,7 +2801,11 @@
       </c>
       <c r="J64" t="inlineStr"/>
       <c r="K64" t="inlineStr"/>
-      <c r="L64" t="inlineStr"/>
+      <c r="L64" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M64" t="n">
         <v>1</v>
       </c>
@@ -2726,22 +2816,22 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>67.56</v>
+        <v>66.5</v>
       </c>
       <c r="C65" t="n">
-        <v>68.16</v>
+        <v>66.5</v>
       </c>
       <c r="D65" t="n">
-        <v>68.16</v>
+        <v>66.5</v>
       </c>
       <c r="E65" t="n">
-        <v>67.56</v>
+        <v>66.5</v>
       </c>
       <c r="F65" t="n">
-        <v>59</v>
+        <v>360.4968</v>
       </c>
       <c r="G65" t="n">
-        <v>75925.04071461291</v>
+        <v>21419.81691461293</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -2751,7 +2841,11 @@
       </c>
       <c r="J65" t="inlineStr"/>
       <c r="K65" t="inlineStr"/>
-      <c r="L65" t="inlineStr"/>
+      <c r="L65" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M65" t="n">
         <v>1</v>
       </c>
@@ -2762,22 +2856,22 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>68.09</v>
+        <v>66.3</v>
       </c>
       <c r="C66" t="n">
-        <v>68.09</v>
+        <v>66</v>
       </c>
       <c r="D66" t="n">
-        <v>68.09</v>
+        <v>66.3</v>
       </c>
       <c r="E66" t="n">
-        <v>68.09</v>
+        <v>66</v>
       </c>
       <c r="F66" t="n">
-        <v>124</v>
+        <v>140</v>
       </c>
       <c r="G66" t="n">
-        <v>75801.04071461291</v>
+        <v>21279.81691461293</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -2787,7 +2881,11 @@
       </c>
       <c r="J66" t="inlineStr"/>
       <c r="K66" t="inlineStr"/>
-      <c r="L66" t="inlineStr"/>
+      <c r="L66" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M66" t="n">
         <v>1</v>
       </c>
@@ -2798,22 +2896,22 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>68.09</v>
+        <v>65.3</v>
       </c>
       <c r="C67" t="n">
-        <v>68.09999999999999</v>
+        <v>65.3</v>
       </c>
       <c r="D67" t="n">
-        <v>68.09999999999999</v>
+        <v>65.3</v>
       </c>
       <c r="E67" t="n">
-        <v>68.09</v>
+        <v>65.3</v>
       </c>
       <c r="F67" t="n">
-        <v>8</v>
+        <v>1277.1684</v>
       </c>
       <c r="G67" t="n">
-        <v>75809.04071461291</v>
+        <v>20002.64851461293</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -2823,7 +2921,11 @@
       </c>
       <c r="J67" t="inlineStr"/>
       <c r="K67" t="inlineStr"/>
-      <c r="L67" t="inlineStr"/>
+      <c r="L67" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M67" t="n">
         <v>1</v>
       </c>
@@ -2834,32 +2936,38 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>68.09999999999999</v>
+        <v>66.5</v>
       </c>
       <c r="C68" t="n">
-        <v>68.09999999999999</v>
+        <v>66.5</v>
       </c>
       <c r="D68" t="n">
-        <v>68.09999999999999</v>
+        <v>66.5</v>
       </c>
       <c r="E68" t="n">
-        <v>68.09999999999999</v>
+        <v>66.5</v>
       </c>
       <c r="F68" t="n">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="G68" t="n">
-        <v>75809.04071461291</v>
+        <v>20010.64851461293</v>
       </c>
       <c r="H68" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I68" t="n">
         <v>0</v>
       </c>
-      <c r="J68" t="inlineStr"/>
+      <c r="J68" t="n">
+        <v>65.3</v>
+      </c>
       <c r="K68" t="inlineStr"/>
-      <c r="L68" t="inlineStr"/>
+      <c r="L68" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M68" t="n">
         <v>1</v>
       </c>
@@ -2870,32 +2978,38 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>68.09</v>
+        <v>66.45</v>
       </c>
       <c r="C69" t="n">
-        <v>68</v>
+        <v>65.01000000000001</v>
       </c>
       <c r="D69" t="n">
-        <v>68.09</v>
+        <v>66.45</v>
       </c>
       <c r="E69" t="n">
-        <v>68</v>
+        <v>65.01000000000001</v>
       </c>
       <c r="F69" t="n">
-        <v>110</v>
+        <v>5851</v>
       </c>
       <c r="G69" t="n">
-        <v>75699.04071461291</v>
+        <v>14159.64851461293</v>
       </c>
       <c r="H69" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I69" t="n">
         <v>0</v>
       </c>
-      <c r="J69" t="inlineStr"/>
+      <c r="J69" t="n">
+        <v>66.5</v>
+      </c>
       <c r="K69" t="inlineStr"/>
-      <c r="L69" t="inlineStr"/>
+      <c r="L69" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M69" t="n">
         <v>1</v>
       </c>
@@ -2906,22 +3020,22 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>67.90000000000001</v>
+        <v>66.98999999999999</v>
       </c>
       <c r="C70" t="n">
-        <v>68</v>
+        <v>66.98999999999999</v>
       </c>
       <c r="D70" t="n">
-        <v>68</v>
+        <v>66.98999999999999</v>
       </c>
       <c r="E70" t="n">
-        <v>67.90000000000001</v>
+        <v>66.98999999999999</v>
       </c>
       <c r="F70" t="n">
-        <v>260.9815</v>
+        <v>8</v>
       </c>
       <c r="G70" t="n">
-        <v>75699.04071461291</v>
+        <v>14167.64851461293</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -2931,7 +3045,11 @@
       </c>
       <c r="J70" t="inlineStr"/>
       <c r="K70" t="inlineStr"/>
-      <c r="L70" t="inlineStr"/>
+      <c r="L70" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M70" t="n">
         <v>1</v>
       </c>
@@ -2942,22 +3060,22 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>68.14</v>
+        <v>66.7</v>
       </c>
       <c r="C71" t="n">
-        <v>68.14</v>
+        <v>67</v>
       </c>
       <c r="D71" t="n">
-        <v>68.14</v>
+        <v>67</v>
       </c>
       <c r="E71" t="n">
-        <v>68.14</v>
+        <v>66.7</v>
       </c>
       <c r="F71" t="n">
-        <v>8</v>
+        <v>499.4876145522388</v>
       </c>
       <c r="G71" t="n">
-        <v>75707.04071461291</v>
+        <v>14667.13612916517</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -2967,7 +3085,11 @@
       </c>
       <c r="J71" t="inlineStr"/>
       <c r="K71" t="inlineStr"/>
-      <c r="L71" t="inlineStr"/>
+      <c r="L71" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M71" t="n">
         <v>1</v>
       </c>
@@ -2978,22 +3100,22 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>68</v>
+        <v>65.2</v>
       </c>
       <c r="C72" t="n">
-        <v>68</v>
+        <v>65.2</v>
       </c>
       <c r="D72" t="n">
-        <v>68</v>
+        <v>65.2</v>
       </c>
       <c r="E72" t="n">
-        <v>68</v>
+        <v>65.2</v>
       </c>
       <c r="F72" t="n">
-        <v>269.0539</v>
+        <v>306.5513</v>
       </c>
       <c r="G72" t="n">
-        <v>75437.98681461292</v>
+        <v>14360.58482916517</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -3003,7 +3125,11 @@
       </c>
       <c r="J72" t="inlineStr"/>
       <c r="K72" t="inlineStr"/>
-      <c r="L72" t="inlineStr"/>
+      <c r="L72" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M72" t="n">
         <v>1</v>
       </c>
@@ -3014,32 +3140,36 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>68.09999999999999</v>
+        <v>65.2</v>
       </c>
       <c r="C73" t="n">
-        <v>68.09999999999999</v>
+        <v>65.2</v>
       </c>
       <c r="D73" t="n">
-        <v>68.09999999999999</v>
+        <v>65.2</v>
       </c>
       <c r="E73" t="n">
-        <v>68.09999999999999</v>
+        <v>65.2</v>
       </c>
       <c r="F73" t="n">
-        <v>300.6735</v>
+        <v>7951.0687</v>
       </c>
       <c r="G73" t="n">
-        <v>75738.66031461292</v>
+        <v>14360.58482916517</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
       </c>
       <c r="I73" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J73" t="inlineStr"/>
       <c r="K73" t="inlineStr"/>
-      <c r="L73" t="inlineStr"/>
+      <c r="L73" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M73" t="n">
         <v>1</v>
       </c>
@@ -3050,22 +3180,22 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>67</v>
+        <v>66.73</v>
       </c>
       <c r="C74" t="n">
-        <v>66.12</v>
+        <v>66.73</v>
       </c>
       <c r="D74" t="n">
-        <v>67</v>
+        <v>66.73</v>
       </c>
       <c r="E74" t="n">
-        <v>66.12</v>
+        <v>66.73</v>
       </c>
       <c r="F74" t="n">
-        <v>3100</v>
+        <v>8</v>
       </c>
       <c r="G74" t="n">
-        <v>72638.66031461292</v>
+        <v>14368.58482916517</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -3075,7 +3205,11 @@
       </c>
       <c r="J74" t="inlineStr"/>
       <c r="K74" t="inlineStr"/>
-      <c r="L74" t="inlineStr"/>
+      <c r="L74" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M74" t="n">
         <v>1</v>
       </c>
@@ -3086,22 +3220,22 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>66.2</v>
+        <v>65.2</v>
       </c>
       <c r="C75" t="n">
-        <v>66.2</v>
+        <v>65.2</v>
       </c>
       <c r="D75" t="n">
-        <v>66.2</v>
+        <v>65.2</v>
       </c>
       <c r="E75" t="n">
-        <v>66.2</v>
+        <v>65.2</v>
       </c>
       <c r="F75" t="n">
-        <v>5683.1978</v>
+        <v>2300</v>
       </c>
       <c r="G75" t="n">
-        <v>78321.85811461291</v>
+        <v>12068.58482916517</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -3111,7 +3245,11 @@
       </c>
       <c r="J75" t="inlineStr"/>
       <c r="K75" t="inlineStr"/>
-      <c r="L75" t="inlineStr"/>
+      <c r="L75" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M75" t="n">
         <v>1</v>
       </c>
@@ -3122,22 +3260,22 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>66.11</v>
+        <v>66.2</v>
       </c>
       <c r="C76" t="n">
-        <v>66.11</v>
+        <v>66.2</v>
       </c>
       <c r="D76" t="n">
-        <v>66.11</v>
+        <v>66.2</v>
       </c>
       <c r="E76" t="n">
-        <v>66.11</v>
+        <v>66.2</v>
       </c>
       <c r="F76" t="n">
-        <v>5683.1978</v>
+        <v>8</v>
       </c>
       <c r="G76" t="n">
-        <v>72638.66031461292</v>
+        <v>12076.58482916517</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -3147,7 +3285,11 @@
       </c>
       <c r="J76" t="inlineStr"/>
       <c r="K76" t="inlineStr"/>
-      <c r="L76" t="inlineStr"/>
+      <c r="L76" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M76" t="n">
         <v>1</v>
       </c>
@@ -3158,22 +3300,22 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>66.01000000000001</v>
+        <v>66.53</v>
       </c>
       <c r="C77" t="n">
-        <v>66.01000000000001</v>
+        <v>66.54000000000001</v>
       </c>
       <c r="D77" t="n">
-        <v>66.01000000000001</v>
+        <v>66.54000000000001</v>
       </c>
       <c r="E77" t="n">
-        <v>66.01000000000001</v>
+        <v>66.53</v>
       </c>
       <c r="F77" t="n">
-        <v>140</v>
+        <v>20344</v>
       </c>
       <c r="G77" t="n">
-        <v>72498.66031461292</v>
+        <v>32420.58482916517</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -3183,7 +3325,11 @@
       </c>
       <c r="J77" t="inlineStr"/>
       <c r="K77" t="inlineStr"/>
-      <c r="L77" t="inlineStr"/>
+      <c r="L77" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M77" t="n">
         <v>1</v>
       </c>
@@ -3194,22 +3340,22 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>66.01000000000001</v>
+        <v>66.54000000000001</v>
       </c>
       <c r="C78" t="n">
-        <v>66.01000000000001</v>
+        <v>66.54000000000001</v>
       </c>
       <c r="D78" t="n">
-        <v>66.01000000000001</v>
+        <v>66.54000000000001</v>
       </c>
       <c r="E78" t="n">
-        <v>66.01000000000001</v>
+        <v>66.54000000000001</v>
       </c>
       <c r="F78" t="n">
-        <v>353</v>
+        <v>10100</v>
       </c>
       <c r="G78" t="n">
-        <v>72498.66031461292</v>
+        <v>32420.58482916517</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -3219,7 +3365,11 @@
       </c>
       <c r="J78" t="inlineStr"/>
       <c r="K78" t="inlineStr"/>
-      <c r="L78" t="inlineStr"/>
+      <c r="L78" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M78" t="n">
         <v>1</v>
       </c>
@@ -3230,22 +3380,22 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>67.3</v>
+        <v>66.59999999999999</v>
       </c>
       <c r="C79" t="n">
-        <v>67.3</v>
+        <v>66.54000000000001</v>
       </c>
       <c r="D79" t="n">
-        <v>67.3</v>
+        <v>66.59999999999999</v>
       </c>
       <c r="E79" t="n">
-        <v>67.3</v>
+        <v>66.54000000000001</v>
       </c>
       <c r="F79" t="n">
-        <v>8</v>
+        <v>4445.1312</v>
       </c>
       <c r="G79" t="n">
-        <v>72506.66031461292</v>
+        <v>32420.58482916517</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -3255,7 +3405,11 @@
       </c>
       <c r="J79" t="inlineStr"/>
       <c r="K79" t="inlineStr"/>
-      <c r="L79" t="inlineStr"/>
+      <c r="L79" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M79" t="n">
         <v>1</v>
       </c>
@@ -3266,22 +3420,22 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>66.11</v>
+        <v>66.54000000000001</v>
       </c>
       <c r="C80" t="n">
-        <v>65.95</v>
+        <v>66.54000000000001</v>
       </c>
       <c r="D80" t="n">
-        <v>66.11</v>
+        <v>66.54000000000001</v>
       </c>
       <c r="E80" t="n">
-        <v>65.95</v>
+        <v>66.54000000000001</v>
       </c>
       <c r="F80" t="n">
-        <v>10924.544</v>
+        <v>10000.5788</v>
       </c>
       <c r="G80" t="n">
-        <v>61582.11631461292</v>
+        <v>32420.58482916517</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -3291,7 +3445,11 @@
       </c>
       <c r="J80" t="inlineStr"/>
       <c r="K80" t="inlineStr"/>
-      <c r="L80" t="inlineStr"/>
+      <c r="L80" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M80" t="n">
         <v>1</v>
       </c>
@@ -3302,22 +3460,22 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>66</v>
+        <v>66.56</v>
       </c>
       <c r="C81" t="n">
-        <v>66</v>
+        <v>66.56</v>
       </c>
       <c r="D81" t="n">
-        <v>66</v>
+        <v>66.56</v>
       </c>
       <c r="E81" t="n">
-        <v>66</v>
+        <v>66.56</v>
       </c>
       <c r="F81" t="n">
-        <v>9385.376099999999</v>
+        <v>11539.7811</v>
       </c>
       <c r="G81" t="n">
-        <v>70967.49241461292</v>
+        <v>43960.36592916517</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -3327,7 +3485,11 @@
       </c>
       <c r="J81" t="inlineStr"/>
       <c r="K81" t="inlineStr"/>
-      <c r="L81" t="inlineStr"/>
+      <c r="L81" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M81" t="n">
         <v>1</v>
       </c>
@@ -3338,22 +3500,22 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>66.01000000000001</v>
+        <v>66.56</v>
       </c>
       <c r="C82" t="n">
-        <v>66</v>
+        <v>66.56</v>
       </c>
       <c r="D82" t="n">
-        <v>66.01000000000001</v>
+        <v>66.56</v>
       </c>
       <c r="E82" t="n">
-        <v>66</v>
+        <v>66.56</v>
       </c>
       <c r="F82" t="n">
-        <v>8725.1842</v>
+        <v>1620.3589</v>
       </c>
       <c r="G82" t="n">
-        <v>70967.49241461292</v>
+        <v>43960.36592916517</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -3363,7 +3525,11 @@
       </c>
       <c r="J82" t="inlineStr"/>
       <c r="K82" t="inlineStr"/>
-      <c r="L82" t="inlineStr"/>
+      <c r="L82" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M82" t="n">
         <v>1</v>
       </c>
@@ -3374,22 +3540,22 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>66.39</v>
+        <v>66.8</v>
       </c>
       <c r="C83" t="n">
-        <v>66.5</v>
+        <v>66.90000000000001</v>
       </c>
       <c r="D83" t="n">
-        <v>66.5</v>
+        <v>66.90000000000001</v>
       </c>
       <c r="E83" t="n">
-        <v>66.39</v>
+        <v>66.8</v>
       </c>
       <c r="F83" t="n">
-        <v>10000</v>
+        <v>9500.947099999999</v>
       </c>
       <c r="G83" t="n">
-        <v>80967.49241461292</v>
+        <v>53461.31302916517</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -3399,7 +3565,11 @@
       </c>
       <c r="J83" t="inlineStr"/>
       <c r="K83" t="inlineStr"/>
-      <c r="L83" t="inlineStr"/>
+      <c r="L83" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M83" t="n">
         <v>1</v>
       </c>
@@ -3410,22 +3580,22 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C84" t="n">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D84" t="n">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E84" t="n">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="F84" t="n">
-        <v>12343.5751</v>
+        <v>5077.423885447761</v>
       </c>
       <c r="G84" t="n">
-        <v>68623.91731461292</v>
+        <v>58538.73691461293</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -3435,7 +3605,11 @@
       </c>
       <c r="J84" t="inlineStr"/>
       <c r="K84" t="inlineStr"/>
-      <c r="L84" t="inlineStr"/>
+      <c r="L84" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M84" t="n">
         <v>1</v>
       </c>
@@ -3446,22 +3620,22 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>65.94</v>
+        <v>67.5</v>
       </c>
       <c r="C85" t="n">
-        <v>65.94</v>
+        <v>67.98</v>
       </c>
       <c r="D85" t="n">
-        <v>65.94</v>
+        <v>67.98</v>
       </c>
       <c r="E85" t="n">
-        <v>65.94</v>
+        <v>67.5</v>
       </c>
       <c r="F85" t="n">
-        <v>897</v>
+        <v>1836.1611</v>
       </c>
       <c r="G85" t="n">
-        <v>67726.91731461292</v>
+        <v>60374.89801461293</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -3471,7 +3645,11 @@
       </c>
       <c r="J85" t="inlineStr"/>
       <c r="K85" t="inlineStr"/>
-      <c r="L85" t="inlineStr"/>
+      <c r="L85" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M85" t="n">
         <v>1</v>
       </c>
@@ -3482,22 +3660,22 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>65.95</v>
+        <v>66.69</v>
       </c>
       <c r="C86" t="n">
-        <v>65.90000000000001</v>
+        <v>68.3</v>
       </c>
       <c r="D86" t="n">
-        <v>65.95</v>
+        <v>68.3</v>
       </c>
       <c r="E86" t="n">
-        <v>65.90000000000001</v>
+        <v>66.69</v>
       </c>
       <c r="F86" t="n">
-        <v>10083.3285</v>
+        <v>54443.3814</v>
       </c>
       <c r="G86" t="n">
-        <v>57643.58881461291</v>
+        <v>114818.2794146129</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -3507,7 +3685,11 @@
       </c>
       <c r="J86" t="inlineStr"/>
       <c r="K86" t="inlineStr"/>
-      <c r="L86" t="inlineStr"/>
+      <c r="L86" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M86" t="n">
         <v>1</v>
       </c>
@@ -3518,22 +3700,22 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>65.90000000000001</v>
+        <v>68.42</v>
       </c>
       <c r="C87" t="n">
-        <v>65.84999999999999</v>
+        <v>68.42</v>
       </c>
       <c r="D87" t="n">
-        <v>65.90000000000001</v>
+        <v>68.42</v>
       </c>
       <c r="E87" t="n">
-        <v>65.84999999999999</v>
+        <v>68.42</v>
       </c>
       <c r="F87" t="n">
-        <v>215.47</v>
+        <v>976.2195</v>
       </c>
       <c r="G87" t="n">
-        <v>57428.11881461291</v>
+        <v>115794.4989146129</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -3543,7 +3725,11 @@
       </c>
       <c r="J87" t="inlineStr"/>
       <c r="K87" t="inlineStr"/>
-      <c r="L87" t="inlineStr"/>
+      <c r="L87" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M87" t="n">
         <v>1</v>
       </c>
@@ -3554,22 +3740,22 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>65.86</v>
+        <v>68.42</v>
       </c>
       <c r="C88" t="n">
-        <v>65.84999999999999</v>
+        <v>68.42</v>
       </c>
       <c r="D88" t="n">
-        <v>65.86</v>
+        <v>68.42</v>
       </c>
       <c r="E88" t="n">
-        <v>65.84999999999999</v>
+        <v>68.42</v>
       </c>
       <c r="F88" t="n">
-        <v>4119.6317</v>
+        <v>1240</v>
       </c>
       <c r="G88" t="n">
-        <v>57428.11881461291</v>
+        <v>115794.4989146129</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -3579,7 +3765,11 @@
       </c>
       <c r="J88" t="inlineStr"/>
       <c r="K88" t="inlineStr"/>
-      <c r="L88" t="inlineStr"/>
+      <c r="L88" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M88" t="n">
         <v>1</v>
       </c>
@@ -3590,22 +3780,22 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>65.84999999999999</v>
+        <v>68.42</v>
       </c>
       <c r="C89" t="n">
-        <v>66</v>
+        <v>68.42</v>
       </c>
       <c r="D89" t="n">
-        <v>66</v>
+        <v>68.42</v>
       </c>
       <c r="E89" t="n">
-        <v>65.84999999999999</v>
+        <v>68.42</v>
       </c>
       <c r="F89" t="n">
-        <v>81.00083704545455</v>
+        <v>7000</v>
       </c>
       <c r="G89" t="n">
-        <v>57509.11965165837</v>
+        <v>115794.4989146129</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -3615,7 +3805,11 @@
       </c>
       <c r="J89" t="inlineStr"/>
       <c r="K89" t="inlineStr"/>
-      <c r="L89" t="inlineStr"/>
+      <c r="L89" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M89" t="n">
         <v>1</v>
       </c>
@@ -3626,22 +3820,22 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>66</v>
+        <v>68.42</v>
       </c>
       <c r="C90" t="n">
-        <v>66.37</v>
+        <v>68.42</v>
       </c>
       <c r="D90" t="n">
-        <v>66.37</v>
+        <v>68.42</v>
       </c>
       <c r="E90" t="n">
-        <v>66</v>
+        <v>68.42</v>
       </c>
       <c r="F90" t="n">
-        <v>3420</v>
+        <v>505</v>
       </c>
       <c r="G90" t="n">
-        <v>60929.11965165837</v>
+        <v>115794.4989146129</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -3651,7 +3845,11 @@
       </c>
       <c r="J90" t="inlineStr"/>
       <c r="K90" t="inlineStr"/>
-      <c r="L90" t="inlineStr"/>
+      <c r="L90" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M90" t="n">
         <v>1</v>
       </c>
@@ -3662,22 +3860,22 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>65.91</v>
+        <v>68.42</v>
       </c>
       <c r="C91" t="n">
-        <v>65.91</v>
+        <v>68.42</v>
       </c>
       <c r="D91" t="n">
-        <v>65.91</v>
+        <v>68.42</v>
       </c>
       <c r="E91" t="n">
-        <v>65.91</v>
+        <v>68.42</v>
       </c>
       <c r="F91" t="n">
-        <v>1131</v>
+        <v>2000</v>
       </c>
       <c r="G91" t="n">
-        <v>59798.11965165837</v>
+        <v>115794.4989146129</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -3687,7 +3885,11 @@
       </c>
       <c r="J91" t="inlineStr"/>
       <c r="K91" t="inlineStr"/>
-      <c r="L91" t="inlineStr"/>
+      <c r="L91" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M91" t="n">
         <v>1</v>
       </c>
@@ -3698,22 +3900,22 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>66.37</v>
+        <v>68.42</v>
       </c>
       <c r="C92" t="n">
-        <v>66.37</v>
+        <v>68.42</v>
       </c>
       <c r="D92" t="n">
-        <v>66.37</v>
+        <v>68.42</v>
       </c>
       <c r="E92" t="n">
-        <v>66.37</v>
+        <v>68.42</v>
       </c>
       <c r="F92" t="n">
-        <v>8</v>
+        <v>479.787</v>
       </c>
       <c r="G92" t="n">
-        <v>59806.11965165837</v>
+        <v>115794.4989146129</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -3723,7 +3925,11 @@
       </c>
       <c r="J92" t="inlineStr"/>
       <c r="K92" t="inlineStr"/>
-      <c r="L92" t="inlineStr"/>
+      <c r="L92" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M92" t="n">
         <v>1</v>
       </c>
@@ -3734,22 +3940,22 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>65.91</v>
+        <v>68.42</v>
       </c>
       <c r="C93" t="n">
-        <v>65.91</v>
+        <v>68.42</v>
       </c>
       <c r="D93" t="n">
-        <v>65.91</v>
+        <v>68.42</v>
       </c>
       <c r="E93" t="n">
-        <v>65.91</v>
+        <v>67.62</v>
       </c>
       <c r="F93" t="n">
-        <v>1083</v>
+        <v>1732</v>
       </c>
       <c r="G93" t="n">
-        <v>58723.11965165837</v>
+        <v>115794.4989146129</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -3759,7 +3965,11 @@
       </c>
       <c r="J93" t="inlineStr"/>
       <c r="K93" t="inlineStr"/>
-      <c r="L93" t="inlineStr"/>
+      <c r="L93" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M93" t="n">
         <v>1</v>
       </c>
@@ -3770,22 +3980,22 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>65.91</v>
+        <v>67.62</v>
       </c>
       <c r="C94" t="n">
-        <v>65.91</v>
+        <v>67.62</v>
       </c>
       <c r="D94" t="n">
-        <v>65.91</v>
+        <v>67.62</v>
       </c>
       <c r="E94" t="n">
-        <v>65.91</v>
+        <v>67.62</v>
       </c>
       <c r="F94" t="n">
-        <v>288</v>
+        <v>0.0454</v>
       </c>
       <c r="G94" t="n">
-        <v>58723.11965165837</v>
+        <v>115794.4535146129</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -3795,7 +4005,11 @@
       </c>
       <c r="J94" t="inlineStr"/>
       <c r="K94" t="inlineStr"/>
-      <c r="L94" t="inlineStr"/>
+      <c r="L94" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M94" t="n">
         <v>1</v>
       </c>
@@ -3806,22 +4020,22 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>66.37</v>
+        <v>66</v>
       </c>
       <c r="C95" t="n">
-        <v>66.37</v>
+        <v>66</v>
       </c>
       <c r="D95" t="n">
-        <v>66.37</v>
+        <v>66</v>
       </c>
       <c r="E95" t="n">
-        <v>66.37</v>
+        <v>66</v>
       </c>
       <c r="F95" t="n">
-        <v>8</v>
+        <v>803.2178</v>
       </c>
       <c r="G95" t="n">
-        <v>58731.11965165837</v>
+        <v>114991.2357146129</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -3831,7 +4045,11 @@
       </c>
       <c r="J95" t="inlineStr"/>
       <c r="K95" t="inlineStr"/>
-      <c r="L95" t="inlineStr"/>
+      <c r="L95" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M95" t="n">
         <v>1</v>
       </c>
@@ -3854,10 +4072,10 @@
         <v>65.91</v>
       </c>
       <c r="F96" t="n">
-        <v>572</v>
+        <v>866.239</v>
       </c>
       <c r="G96" t="n">
-        <v>58159.11965165837</v>
+        <v>114124.9967146129</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -3867,7 +4085,11 @@
       </c>
       <c r="J96" t="inlineStr"/>
       <c r="K96" t="inlineStr"/>
-      <c r="L96" t="inlineStr"/>
+      <c r="L96" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M96" t="n">
         <v>1</v>
       </c>
@@ -3878,36 +4100,36 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>66.37</v>
+        <v>65.8</v>
       </c>
       <c r="C97" t="n">
-        <v>66.37</v>
+        <v>65.8</v>
       </c>
       <c r="D97" t="n">
-        <v>66.37</v>
+        <v>65.8</v>
       </c>
       <c r="E97" t="n">
-        <v>66.37</v>
+        <v>65.8</v>
       </c>
       <c r="F97" t="n">
-        <v>8</v>
+        <v>7699.9546</v>
       </c>
       <c r="G97" t="n">
-        <v>58167.11965165837</v>
+        <v>106425.0421146129</v>
       </c>
       <c r="H97" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I97" t="n">
         <v>0</v>
       </c>
-      <c r="J97" t="n">
-        <v>65.91</v>
-      </c>
-      <c r="K97" t="n">
-        <v>65.91</v>
-      </c>
-      <c r="L97" t="inlineStr"/>
+      <c r="J97" t="inlineStr"/>
+      <c r="K97" t="inlineStr"/>
+      <c r="L97" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M97" t="n">
         <v>1</v>
       </c>
@@ -3918,22 +4140,22 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>66</v>
+        <v>67.61</v>
       </c>
       <c r="C98" t="n">
-        <v>66.37</v>
+        <v>67.61</v>
       </c>
       <c r="D98" t="n">
-        <v>66.37</v>
+        <v>67.61</v>
       </c>
       <c r="E98" t="n">
-        <v>66</v>
+        <v>67.61</v>
       </c>
       <c r="F98" t="n">
-        <v>258.6031</v>
+        <v>40.2773</v>
       </c>
       <c r="G98" t="n">
-        <v>58167.11965165837</v>
+        <v>106465.3194146129</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -3942,12 +4164,10 @@
         <v>0</v>
       </c>
       <c r="J98" t="inlineStr"/>
-      <c r="K98" t="n">
-        <v>65.91</v>
-      </c>
+      <c r="K98" t="inlineStr"/>
       <c r="L98" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M98" t="n">
@@ -3960,22 +4180,22 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>66.01000000000001</v>
+        <v>67.61</v>
       </c>
       <c r="C99" t="n">
-        <v>66</v>
+        <v>67.61</v>
       </c>
       <c r="D99" t="n">
-        <v>66.01000000000001</v>
+        <v>67.61</v>
       </c>
       <c r="E99" t="n">
-        <v>66</v>
+        <v>67.61</v>
       </c>
       <c r="F99" t="n">
-        <v>1283</v>
+        <v>2718.467</v>
       </c>
       <c r="G99" t="n">
-        <v>56884.11965165837</v>
+        <v>106465.3194146129</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -3984,12 +4204,10 @@
         <v>0</v>
       </c>
       <c r="J99" t="inlineStr"/>
-      <c r="K99" t="n">
-        <v>65.91</v>
-      </c>
+      <c r="K99" t="inlineStr"/>
       <c r="L99" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M99" t="n">
@@ -4002,22 +4220,22 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>66.09999999999999</v>
+        <v>67.7</v>
       </c>
       <c r="C100" t="n">
-        <v>66.01000000000001</v>
+        <v>68.3</v>
       </c>
       <c r="D100" t="n">
-        <v>66.09999999999999</v>
+        <v>68.3</v>
       </c>
       <c r="E100" t="n">
-        <v>66.01000000000001</v>
+        <v>67.62</v>
       </c>
       <c r="F100" t="n">
-        <v>1700</v>
+        <v>13838.0995</v>
       </c>
       <c r="G100" t="n">
-        <v>58584.11965165837</v>
+        <v>120303.4189146129</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -4027,7 +4245,11 @@
       </c>
       <c r="J100" t="inlineStr"/>
       <c r="K100" t="inlineStr"/>
-      <c r="L100" t="inlineStr"/>
+      <c r="L100" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M100" t="n">
         <v>1</v>
       </c>
@@ -4038,22 +4260,22 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>66</v>
+        <v>67.62</v>
       </c>
       <c r="C101" t="n">
-        <v>66</v>
+        <v>67.61</v>
       </c>
       <c r="D101" t="n">
-        <v>66</v>
+        <v>67.62</v>
       </c>
       <c r="E101" t="n">
-        <v>66</v>
+        <v>67.61</v>
       </c>
       <c r="F101" t="n">
-        <v>3981.2509</v>
+        <v>34502.2672</v>
       </c>
       <c r="G101" t="n">
-        <v>54602.86875165837</v>
+        <v>85801.15171461292</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -4063,7 +4285,11 @@
       </c>
       <c r="J101" t="inlineStr"/>
       <c r="K101" t="inlineStr"/>
-      <c r="L101" t="inlineStr"/>
+      <c r="L101" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M101" t="n">
         <v>1</v>
       </c>
@@ -4074,22 +4300,22 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>66</v>
+        <v>68.2</v>
       </c>
       <c r="C102" t="n">
-        <v>66</v>
+        <v>68.2</v>
       </c>
       <c r="D102" t="n">
-        <v>66</v>
+        <v>68.2</v>
       </c>
       <c r="E102" t="n">
-        <v>66</v>
+        <v>68.2</v>
       </c>
       <c r="F102" t="n">
-        <v>2813.46</v>
+        <v>8</v>
       </c>
       <c r="G102" t="n">
-        <v>54602.86875165837</v>
+        <v>85809.15171461292</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -4099,7 +4325,11 @@
       </c>
       <c r="J102" t="inlineStr"/>
       <c r="K102" t="inlineStr"/>
-      <c r="L102" t="inlineStr"/>
+      <c r="L102" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M102" t="n">
         <v>1</v>
       </c>
@@ -4110,22 +4340,22 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>66.3</v>
+        <v>67.5</v>
       </c>
       <c r="C103" t="n">
-        <v>65.95</v>
+        <v>67.5</v>
       </c>
       <c r="D103" t="n">
-        <v>66.37</v>
+        <v>67.5</v>
       </c>
       <c r="E103" t="n">
-        <v>65.95</v>
+        <v>67.5</v>
       </c>
       <c r="F103" t="n">
-        <v>4779.146</v>
+        <v>243.5025</v>
       </c>
       <c r="G103" t="n">
-        <v>49823.72275165837</v>
+        <v>85565.64921461292</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -4135,7 +4365,11 @@
       </c>
       <c r="J103" t="inlineStr"/>
       <c r="K103" t="inlineStr"/>
-      <c r="L103" t="inlineStr"/>
+      <c r="L103" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M103" t="n">
         <v>1</v>
       </c>
@@ -4146,22 +4380,22 @@
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>65.92</v>
+        <v>67.5</v>
       </c>
       <c r="C104" t="n">
-        <v>65.91</v>
+        <v>67.48</v>
       </c>
       <c r="D104" t="n">
-        <v>65.92</v>
+        <v>67.5</v>
       </c>
       <c r="E104" t="n">
-        <v>65.91</v>
+        <v>67.48</v>
       </c>
       <c r="F104" t="n">
-        <v>11422.4051</v>
+        <v>1683.3268</v>
       </c>
       <c r="G104" t="n">
-        <v>38401.31765165836</v>
+        <v>83882.32241461292</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -4171,7 +4405,11 @@
       </c>
       <c r="J104" t="inlineStr"/>
       <c r="K104" t="inlineStr"/>
-      <c r="L104" t="inlineStr"/>
+      <c r="L104" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M104" t="n">
         <v>1</v>
       </c>
@@ -4182,22 +4420,22 @@
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>66.3</v>
+        <v>68.2</v>
       </c>
       <c r="C105" t="n">
-        <v>66.3</v>
+        <v>68.2</v>
       </c>
       <c r="D105" t="n">
-        <v>66.3</v>
+        <v>68.2</v>
       </c>
       <c r="E105" t="n">
-        <v>66.3</v>
+        <v>68.2</v>
       </c>
       <c r="F105" t="n">
-        <v>410.4897</v>
+        <v>8</v>
       </c>
       <c r="G105" t="n">
-        <v>38811.80735165836</v>
+        <v>83890.32241461292</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -4207,7 +4445,11 @@
       </c>
       <c r="J105" t="inlineStr"/>
       <c r="K105" t="inlineStr"/>
-      <c r="L105" t="inlineStr"/>
+      <c r="L105" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M105" t="n">
         <v>1</v>
       </c>
@@ -4218,22 +4460,22 @@
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>66.3</v>
+        <v>66.09999999999999</v>
       </c>
       <c r="C106" t="n">
-        <v>66.3</v>
+        <v>66.09999999999999</v>
       </c>
       <c r="D106" t="n">
-        <v>66.3</v>
+        <v>66.09999999999999</v>
       </c>
       <c r="E106" t="n">
-        <v>66.3</v>
+        <v>66.09999999999999</v>
       </c>
       <c r="F106" t="n">
-        <v>352.7613</v>
+        <v>48.402</v>
       </c>
       <c r="G106" t="n">
-        <v>38811.80735165836</v>
+        <v>83841.92041461292</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -4243,7 +4485,11 @@
       </c>
       <c r="J106" t="inlineStr"/>
       <c r="K106" t="inlineStr"/>
-      <c r="L106" t="inlineStr"/>
+      <c r="L106" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M106" t="n">
         <v>1</v>
       </c>
@@ -4254,22 +4500,22 @@
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>66.3</v>
+        <v>68.14</v>
       </c>
       <c r="C107" t="n">
-        <v>66.3</v>
+        <v>68.14</v>
       </c>
       <c r="D107" t="n">
-        <v>66.3</v>
+        <v>68.14</v>
       </c>
       <c r="E107" t="n">
-        <v>66.3</v>
+        <v>68.14</v>
       </c>
       <c r="F107" t="n">
-        <v>779.9924999999999</v>
+        <v>8</v>
       </c>
       <c r="G107" t="n">
-        <v>38811.80735165836</v>
+        <v>83849.92041461292</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -4279,7 +4525,11 @@
       </c>
       <c r="J107" t="inlineStr"/>
       <c r="K107" t="inlineStr"/>
-      <c r="L107" t="inlineStr"/>
+      <c r="L107" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M107" t="n">
         <v>1</v>
       </c>
@@ -4290,22 +4540,22 @@
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>66.3</v>
+        <v>66.2</v>
       </c>
       <c r="C108" t="n">
-        <v>66.37</v>
+        <v>66.2</v>
       </c>
       <c r="D108" t="n">
-        <v>66.37</v>
+        <v>66.2</v>
       </c>
       <c r="E108" t="n">
-        <v>66.3</v>
+        <v>66.2</v>
       </c>
       <c r="F108" t="n">
-        <v>1014.3134</v>
+        <v>62.4187</v>
       </c>
       <c r="G108" t="n">
-        <v>39826.12075165836</v>
+        <v>83787.50171461292</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -4315,7 +4565,11 @@
       </c>
       <c r="J108" t="inlineStr"/>
       <c r="K108" t="inlineStr"/>
-      <c r="L108" t="inlineStr"/>
+      <c r="L108" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M108" t="n">
         <v>1</v>
       </c>
@@ -4326,22 +4580,22 @@
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>66.3</v>
+        <v>66.2</v>
       </c>
       <c r="C109" t="n">
-        <v>66.3</v>
+        <v>66.2</v>
       </c>
       <c r="D109" t="n">
-        <v>66.3</v>
+        <v>66.2</v>
       </c>
       <c r="E109" t="n">
-        <v>66.3</v>
+        <v>66.2</v>
       </c>
       <c r="F109" t="n">
-        <v>2282.9534</v>
+        <v>215</v>
       </c>
       <c r="G109" t="n">
-        <v>37543.16735165836</v>
+        <v>83787.50171461292</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -4351,7 +4605,11 @@
       </c>
       <c r="J109" t="inlineStr"/>
       <c r="K109" t="inlineStr"/>
-      <c r="L109" t="inlineStr"/>
+      <c r="L109" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M109" t="n">
         <v>1</v>
       </c>
@@ -4362,22 +4620,22 @@
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>66.3</v>
+        <v>66.09999999999999</v>
       </c>
       <c r="C110" t="n">
-        <v>66.37</v>
+        <v>66.09999999999999</v>
       </c>
       <c r="D110" t="n">
-        <v>66.37</v>
+        <v>66.09999999999999</v>
       </c>
       <c r="E110" t="n">
-        <v>66.3</v>
+        <v>66.09999999999999</v>
       </c>
       <c r="F110" t="n">
-        <v>511.1552</v>
+        <v>1127</v>
       </c>
       <c r="G110" t="n">
-        <v>38054.32255165836</v>
+        <v>82660.50171461292</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -4387,7 +4645,11 @@
       </c>
       <c r="J110" t="inlineStr"/>
       <c r="K110" t="inlineStr"/>
-      <c r="L110" t="inlineStr"/>
+      <c r="L110" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M110" t="n">
         <v>1</v>
       </c>
@@ -4398,22 +4660,22 @@
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>66.37</v>
+        <v>66.09999999999999</v>
       </c>
       <c r="C111" t="n">
-        <v>66.37</v>
+        <v>65.84</v>
       </c>
       <c r="D111" t="n">
-        <v>66.37</v>
+        <v>66.09999999999999</v>
       </c>
       <c r="E111" t="n">
-        <v>66.37</v>
+        <v>65.84</v>
       </c>
       <c r="F111" t="n">
-        <v>897.2539</v>
+        <v>8819.540000000001</v>
       </c>
       <c r="G111" t="n">
-        <v>38054.32255165836</v>
+        <v>73840.96171461293</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -4423,7 +4685,11 @@
       </c>
       <c r="J111" t="inlineStr"/>
       <c r="K111" t="inlineStr"/>
-      <c r="L111" t="inlineStr"/>
+      <c r="L111" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M111" t="n">
         <v>1</v>
       </c>
@@ -4434,22 +4700,22 @@
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>66.37</v>
+        <v>65.84</v>
       </c>
       <c r="C112" t="n">
-        <v>66.37</v>
+        <v>65.84</v>
       </c>
       <c r="D112" t="n">
-        <v>66.37</v>
+        <v>65.84</v>
       </c>
       <c r="E112" t="n">
-        <v>66.37</v>
+        <v>65.84</v>
       </c>
       <c r="F112" t="n">
-        <v>224.3059</v>
+        <v>900</v>
       </c>
       <c r="G112" t="n">
-        <v>38054.32255165836</v>
+        <v>73840.96171461293</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -4459,7 +4725,11 @@
       </c>
       <c r="J112" t="inlineStr"/>
       <c r="K112" t="inlineStr"/>
-      <c r="L112" t="inlineStr"/>
+      <c r="L112" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M112" t="n">
         <v>1</v>
       </c>
@@ -4470,22 +4740,22 @@
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>66.37</v>
+        <v>66.2</v>
       </c>
       <c r="C113" t="n">
-        <v>66.5</v>
+        <v>66.2</v>
       </c>
       <c r="D113" t="n">
-        <v>66.5</v>
+        <v>66.2</v>
       </c>
       <c r="E113" t="n">
-        <v>66.37</v>
+        <v>66.2</v>
       </c>
       <c r="F113" t="n">
-        <v>5665.527063250888</v>
+        <v>8</v>
       </c>
       <c r="G113" t="n">
-        <v>43719.84961490925</v>
+        <v>73848.96171461293</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -4495,7 +4765,11 @@
       </c>
       <c r="J113" t="inlineStr"/>
       <c r="K113" t="inlineStr"/>
-      <c r="L113" t="inlineStr"/>
+      <c r="L113" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M113" t="n">
         <v>1</v>
       </c>
@@ -4506,22 +4780,22 @@
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>66.5</v>
+        <v>65.84</v>
       </c>
       <c r="C114" t="n">
-        <v>66.5</v>
+        <v>65.84</v>
       </c>
       <c r="D114" t="n">
-        <v>66.5</v>
+        <v>65.84</v>
       </c>
       <c r="E114" t="n">
-        <v>66.5</v>
+        <v>65.84</v>
       </c>
       <c r="F114" t="n">
-        <v>9204.752399999999</v>
+        <v>990</v>
       </c>
       <c r="G114" t="n">
-        <v>43719.84961490925</v>
+        <v>72858.96171461293</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -4531,7 +4805,11 @@
       </c>
       <c r="J114" t="inlineStr"/>
       <c r="K114" t="inlineStr"/>
-      <c r="L114" t="inlineStr"/>
+      <c r="L114" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M114" t="n">
         <v>1</v>
       </c>
@@ -4542,22 +4820,22 @@
         <v>113</v>
       </c>
       <c r="B115" t="n">
-        <v>66.5</v>
+        <v>65.84</v>
       </c>
       <c r="C115" t="n">
-        <v>66.5</v>
+        <v>65.83</v>
       </c>
       <c r="D115" t="n">
-        <v>66.5</v>
+        <v>65.84</v>
       </c>
       <c r="E115" t="n">
-        <v>66.5</v>
+        <v>65.83</v>
       </c>
       <c r="F115" t="n">
-        <v>197.8697</v>
+        <v>710.5161000000001</v>
       </c>
       <c r="G115" t="n">
-        <v>43719.84961490925</v>
+        <v>72148.44561461294</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
@@ -4567,7 +4845,11 @@
       </c>
       <c r="J115" t="inlineStr"/>
       <c r="K115" t="inlineStr"/>
-      <c r="L115" t="inlineStr"/>
+      <c r="L115" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M115" t="n">
         <v>1</v>
       </c>
@@ -4578,22 +4860,22 @@
         <v>114</v>
       </c>
       <c r="B116" t="n">
-        <v>66.2</v>
+        <v>65.83</v>
       </c>
       <c r="C116" t="n">
-        <v>66.2</v>
+        <v>65.83</v>
       </c>
       <c r="D116" t="n">
-        <v>66.2</v>
+        <v>65.83</v>
       </c>
       <c r="E116" t="n">
-        <v>66.2</v>
+        <v>65.83</v>
       </c>
       <c r="F116" t="n">
-        <v>20</v>
+        <v>1399.4839</v>
       </c>
       <c r="G116" t="n">
-        <v>43699.84961490925</v>
+        <v>72148.44561461294</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
@@ -4603,7 +4885,11 @@
       </c>
       <c r="J116" t="inlineStr"/>
       <c r="K116" t="inlineStr"/>
-      <c r="L116" t="inlineStr"/>
+      <c r="L116" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M116" t="n">
         <v>1</v>
       </c>
@@ -4614,22 +4900,22 @@
         <v>115</v>
       </c>
       <c r="B117" t="n">
-        <v>66.5</v>
+        <v>65.83</v>
       </c>
       <c r="C117" t="n">
-        <v>66.5</v>
+        <v>65.12</v>
       </c>
       <c r="D117" t="n">
-        <v>66.5</v>
+        <v>65.83</v>
       </c>
       <c r="E117" t="n">
-        <v>66.5</v>
+        <v>65.12</v>
       </c>
       <c r="F117" t="n">
-        <v>8</v>
+        <v>40.136</v>
       </c>
       <c r="G117" t="n">
-        <v>43707.84961490925</v>
+        <v>72108.30961461294</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
@@ -4639,7 +4925,11 @@
       </c>
       <c r="J117" t="inlineStr"/>
       <c r="K117" t="inlineStr"/>
-      <c r="L117" t="inlineStr"/>
+      <c r="L117" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M117" t="n">
         <v>1</v>
       </c>
@@ -4650,22 +4940,22 @@
         <v>116</v>
       </c>
       <c r="B118" t="n">
-        <v>66.5</v>
+        <v>65.12</v>
       </c>
       <c r="C118" t="n">
-        <v>68.09</v>
+        <v>65.12</v>
       </c>
       <c r="D118" t="n">
-        <v>68.09</v>
+        <v>65.12</v>
       </c>
       <c r="E118" t="n">
-        <v>66.5</v>
+        <v>65.12</v>
       </c>
       <c r="F118" t="n">
-        <v>29868.37079970366</v>
+        <v>98.3608</v>
       </c>
       <c r="G118" t="n">
-        <v>73576.22041461291</v>
+        <v>72108.30961461294</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
@@ -4675,7 +4965,11 @@
       </c>
       <c r="J118" t="inlineStr"/>
       <c r="K118" t="inlineStr"/>
-      <c r="L118" t="inlineStr"/>
+      <c r="L118" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M118" t="n">
         <v>1</v>
       </c>
@@ -4686,22 +4980,22 @@
         <v>117</v>
       </c>
       <c r="B119" t="n">
-        <v>68.04000000000001</v>
+        <v>65.06</v>
       </c>
       <c r="C119" t="n">
-        <v>67.59999999999999</v>
+        <v>65.06</v>
       </c>
       <c r="D119" t="n">
-        <v>68.09</v>
+        <v>65.06</v>
       </c>
       <c r="E119" t="n">
-        <v>67.5</v>
+        <v>65.06</v>
       </c>
       <c r="F119" t="n">
-        <v>45</v>
+        <v>213</v>
       </c>
       <c r="G119" t="n">
-        <v>73531.22041461291</v>
+        <v>71895.30961461294</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
@@ -4711,7 +5005,11 @@
       </c>
       <c r="J119" t="inlineStr"/>
       <c r="K119" t="inlineStr"/>
-      <c r="L119" t="inlineStr"/>
+      <c r="L119" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M119" t="n">
         <v>1</v>
       </c>
@@ -4722,22 +5020,22 @@
         <v>118</v>
       </c>
       <c r="B120" t="n">
-        <v>68.09</v>
+        <v>65.12</v>
       </c>
       <c r="C120" t="n">
-        <v>68.09</v>
+        <v>65.12</v>
       </c>
       <c r="D120" t="n">
-        <v>68.09</v>
+        <v>65.12</v>
       </c>
       <c r="E120" t="n">
-        <v>68.09</v>
+        <v>65.12</v>
       </c>
       <c r="F120" t="n">
-        <v>8</v>
+        <v>121.1446</v>
       </c>
       <c r="G120" t="n">
-        <v>73539.22041461291</v>
+        <v>72016.45421461294</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>
@@ -4747,7 +5045,11 @@
       </c>
       <c r="J120" t="inlineStr"/>
       <c r="K120" t="inlineStr"/>
-      <c r="L120" t="inlineStr"/>
+      <c r="L120" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M120" t="n">
         <v>1</v>
       </c>
@@ -4758,22 +5060,22 @@
         <v>119</v>
       </c>
       <c r="B121" t="n">
-        <v>66.59999999999999</v>
+        <v>65.69</v>
       </c>
       <c r="C121" t="n">
-        <v>66.11</v>
+        <v>65.83</v>
       </c>
       <c r="D121" t="n">
-        <v>66.59999999999999</v>
+        <v>65.83</v>
       </c>
       <c r="E121" t="n">
-        <v>66.11</v>
+        <v>65.69</v>
       </c>
       <c r="F121" t="n">
-        <v>15319</v>
+        <v>13132.7132</v>
       </c>
       <c r="G121" t="n">
-        <v>58220.22041461291</v>
+        <v>85149.16741461294</v>
       </c>
       <c r="H121" t="n">
         <v>0</v>
@@ -4783,7 +5085,11 @@
       </c>
       <c r="J121" t="inlineStr"/>
       <c r="K121" t="inlineStr"/>
-      <c r="L121" t="inlineStr"/>
+      <c r="L121" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M121" t="n">
         <v>1</v>
       </c>
@@ -4794,22 +5100,22 @@
         <v>120</v>
       </c>
       <c r="B122" t="n">
-        <v>66.11</v>
+        <v>66</v>
       </c>
       <c r="C122" t="n">
-        <v>67.09999999999999</v>
+        <v>68.16</v>
       </c>
       <c r="D122" t="n">
-        <v>67.09999999999999</v>
+        <v>68.16</v>
       </c>
       <c r="E122" t="n">
-        <v>65.91</v>
+        <v>66</v>
       </c>
       <c r="F122" t="n">
-        <v>3709.5057</v>
+        <v>145.7753</v>
       </c>
       <c r="G122" t="n">
-        <v>61929.72611461291</v>
+        <v>85294.94271461293</v>
       </c>
       <c r="H122" t="n">
         <v>0</v>
@@ -4819,7 +5125,11 @@
       </c>
       <c r="J122" t="inlineStr"/>
       <c r="K122" t="inlineStr"/>
-      <c r="L122" t="inlineStr"/>
+      <c r="L122" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M122" t="n">
         <v>1</v>
       </c>
@@ -4830,22 +5140,22 @@
         <v>121</v>
       </c>
       <c r="B123" t="n">
-        <v>66.59999999999999</v>
+        <v>68.15000000000001</v>
       </c>
       <c r="C123" t="n">
-        <v>66.59999999999999</v>
+        <v>68.14</v>
       </c>
       <c r="D123" t="n">
-        <v>66.59999999999999</v>
+        <v>68.15000000000001</v>
       </c>
       <c r="E123" t="n">
-        <v>66.59999999999999</v>
+        <v>68.14</v>
       </c>
       <c r="F123" t="n">
-        <v>2302.6392</v>
+        <v>17.6847</v>
       </c>
       <c r="G123" t="n">
-        <v>59627.08691461291</v>
+        <v>85277.25801461293</v>
       </c>
       <c r="H123" t="n">
         <v>0</v>
@@ -4855,7 +5165,11 @@
       </c>
       <c r="J123" t="inlineStr"/>
       <c r="K123" t="inlineStr"/>
-      <c r="L123" t="inlineStr"/>
+      <c r="L123" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M123" t="n">
         <v>1</v>
       </c>
@@ -4866,22 +5180,22 @@
         <v>122</v>
       </c>
       <c r="B124" t="n">
-        <v>66.59999999999999</v>
+        <v>68.09999999999999</v>
       </c>
       <c r="C124" t="n">
-        <v>66.59999999999999</v>
+        <v>68</v>
       </c>
       <c r="D124" t="n">
-        <v>66.59999999999999</v>
+        <v>68.09999999999999</v>
       </c>
       <c r="E124" t="n">
-        <v>66.59999999999999</v>
+        <v>68</v>
       </c>
       <c r="F124" t="n">
-        <v>5212</v>
+        <v>24</v>
       </c>
       <c r="G124" t="n">
-        <v>59627.08691461291</v>
+        <v>85253.25801461293</v>
       </c>
       <c r="H124" t="n">
         <v>0</v>
@@ -4891,7 +5205,11 @@
       </c>
       <c r="J124" t="inlineStr"/>
       <c r="K124" t="inlineStr"/>
-      <c r="L124" t="inlineStr"/>
+      <c r="L124" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M124" t="n">
         <v>1</v>
       </c>
@@ -4902,22 +5220,22 @@
         <v>123</v>
       </c>
       <c r="B125" t="n">
-        <v>66.59999999999999</v>
+        <v>67.56</v>
       </c>
       <c r="C125" t="n">
-        <v>66.59999999999999</v>
+        <v>66.70999999999999</v>
       </c>
       <c r="D125" t="n">
-        <v>66.59999999999999</v>
+        <v>67.56</v>
       </c>
       <c r="E125" t="n">
-        <v>66.59999999999999</v>
+        <v>66.70999999999999</v>
       </c>
       <c r="F125" t="n">
-        <v>0.5600000000000001</v>
+        <v>200</v>
       </c>
       <c r="G125" t="n">
-        <v>59627.08691461291</v>
+        <v>85053.25801461293</v>
       </c>
       <c r="H125" t="n">
         <v>0</v>
@@ -4927,7 +5245,11 @@
       </c>
       <c r="J125" t="inlineStr"/>
       <c r="K125" t="inlineStr"/>
-      <c r="L125" t="inlineStr"/>
+      <c r="L125" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M125" t="n">
         <v>1</v>
       </c>
@@ -4938,22 +5260,22 @@
         <v>124</v>
       </c>
       <c r="B126" t="n">
-        <v>66</v>
+        <v>66.70999999999999</v>
       </c>
       <c r="C126" t="n">
-        <v>66</v>
+        <v>66.36</v>
       </c>
       <c r="D126" t="n">
-        <v>66</v>
+        <v>66.70999999999999</v>
       </c>
       <c r="E126" t="n">
-        <v>66</v>
+        <v>66.36</v>
       </c>
       <c r="F126" t="n">
-        <v>5284.1068</v>
+        <v>704.6618999999999</v>
       </c>
       <c r="G126" t="n">
-        <v>54342.98011461291</v>
+        <v>84348.59611461293</v>
       </c>
       <c r="H126" t="n">
         <v>0</v>
@@ -4963,7 +5285,11 @@
       </c>
       <c r="J126" t="inlineStr"/>
       <c r="K126" t="inlineStr"/>
-      <c r="L126" t="inlineStr"/>
+      <c r="L126" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M126" t="n">
         <v>1</v>
       </c>
@@ -4974,22 +5300,22 @@
         <v>125</v>
       </c>
       <c r="B127" t="n">
-        <v>66</v>
+        <v>66.36</v>
       </c>
       <c r="C127" t="n">
-        <v>68</v>
+        <v>66.51000000000001</v>
       </c>
       <c r="D127" t="n">
-        <v>68</v>
+        <v>66.51000000000001</v>
       </c>
       <c r="E127" t="n">
-        <v>66</v>
+        <v>66.36</v>
       </c>
       <c r="F127" t="n">
-        <v>752.6118</v>
+        <v>10.3381</v>
       </c>
       <c r="G127" t="n">
-        <v>55095.59191461291</v>
+        <v>84358.93421461292</v>
       </c>
       <c r="H127" t="n">
         <v>0</v>
@@ -4999,7 +5325,11 @@
       </c>
       <c r="J127" t="inlineStr"/>
       <c r="K127" t="inlineStr"/>
-      <c r="L127" t="inlineStr"/>
+      <c r="L127" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M127" t="n">
         <v>1</v>
       </c>
@@ -5010,22 +5340,22 @@
         <v>126</v>
       </c>
       <c r="B128" t="n">
-        <v>66</v>
+        <v>68.14</v>
       </c>
       <c r="C128" t="n">
-        <v>66</v>
+        <v>68.15000000000001</v>
       </c>
       <c r="D128" t="n">
-        <v>66</v>
+        <v>68.15000000000001</v>
       </c>
       <c r="E128" t="n">
-        <v>66</v>
+        <v>68.14</v>
       </c>
       <c r="F128" t="n">
-        <v>803</v>
+        <v>57</v>
       </c>
       <c r="G128" t="n">
-        <v>54292.59191461291</v>
+        <v>84415.93421461292</v>
       </c>
       <c r="H128" t="n">
         <v>0</v>
@@ -5035,7 +5365,11 @@
       </c>
       <c r="J128" t="inlineStr"/>
       <c r="K128" t="inlineStr"/>
-      <c r="L128" t="inlineStr"/>
+      <c r="L128" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M128" t="n">
         <v>1</v>
       </c>
@@ -5046,22 +5380,22 @@
         <v>127</v>
       </c>
       <c r="B129" t="n">
-        <v>66.8</v>
+        <v>66.40000000000001</v>
       </c>
       <c r="C129" t="n">
-        <v>66.8</v>
+        <v>66.2</v>
       </c>
       <c r="D129" t="n">
-        <v>66.8</v>
+        <v>66.40000000000001</v>
       </c>
       <c r="E129" t="n">
-        <v>66.8</v>
+        <v>66.2</v>
       </c>
       <c r="F129" t="n">
-        <v>830.0009</v>
+        <v>12145.4979</v>
       </c>
       <c r="G129" t="n">
-        <v>55122.59281461291</v>
+        <v>72270.43631461292</v>
       </c>
       <c r="H129" t="n">
         <v>0</v>
@@ -5071,7 +5405,11 @@
       </c>
       <c r="J129" t="inlineStr"/>
       <c r="K129" t="inlineStr"/>
-      <c r="L129" t="inlineStr"/>
+      <c r="L129" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M129" t="n">
         <v>1</v>
       </c>
@@ -5082,22 +5420,22 @@
         <v>128</v>
       </c>
       <c r="B130" t="n">
-        <v>68.08</v>
+        <v>66.2</v>
       </c>
       <c r="C130" t="n">
-        <v>68.08</v>
+        <v>66.2</v>
       </c>
       <c r="D130" t="n">
-        <v>68.08</v>
+        <v>66.2</v>
       </c>
       <c r="E130" t="n">
-        <v>68.08</v>
+        <v>66.2</v>
       </c>
       <c r="F130" t="n">
-        <v>13</v>
+        <v>1175.6625</v>
       </c>
       <c r="G130" t="n">
-        <v>55135.59281461291</v>
+        <v>72270.43631461292</v>
       </c>
       <c r="H130" t="n">
         <v>0</v>
@@ -5107,7 +5445,11 @@
       </c>
       <c r="J130" t="inlineStr"/>
       <c r="K130" t="inlineStr"/>
-      <c r="L130" t="inlineStr"/>
+      <c r="L130" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M130" t="n">
         <v>1</v>
       </c>
@@ -5118,22 +5460,22 @@
         <v>129</v>
       </c>
       <c r="B131" t="n">
-        <v>67.5</v>
+        <v>66.3</v>
       </c>
       <c r="C131" t="n">
-        <v>67.8</v>
+        <v>66.3</v>
       </c>
       <c r="D131" t="n">
-        <v>67.8</v>
+        <v>66.3</v>
       </c>
       <c r="E131" t="n">
-        <v>67.5</v>
+        <v>66.3</v>
       </c>
       <c r="F131" t="n">
-        <v>34</v>
+        <v>5856.9831</v>
       </c>
       <c r="G131" t="n">
-        <v>55101.59281461291</v>
+        <v>78127.41941461292</v>
       </c>
       <c r="H131" t="n">
         <v>0</v>
@@ -5143,7 +5485,11 @@
       </c>
       <c r="J131" t="inlineStr"/>
       <c r="K131" t="inlineStr"/>
-      <c r="L131" t="inlineStr"/>
+      <c r="L131" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M131" t="n">
         <v>1</v>
       </c>
@@ -5154,22 +5500,22 @@
         <v>130</v>
       </c>
       <c r="B132" t="n">
-        <v>67.01000000000001</v>
+        <v>66.40000000000001</v>
       </c>
       <c r="C132" t="n">
-        <v>67.01000000000001</v>
+        <v>66.2</v>
       </c>
       <c r="D132" t="n">
-        <v>67.01000000000001</v>
+        <v>66.40000000000001</v>
       </c>
       <c r="E132" t="n">
-        <v>67.01000000000001</v>
+        <v>66.2</v>
       </c>
       <c r="F132" t="n">
-        <v>13</v>
+        <v>3942.5386</v>
       </c>
       <c r="G132" t="n">
-        <v>55088.59281461291</v>
+        <v>74184.88081461292</v>
       </c>
       <c r="H132" t="n">
         <v>0</v>
@@ -5179,7 +5525,11 @@
       </c>
       <c r="J132" t="inlineStr"/>
       <c r="K132" t="inlineStr"/>
-      <c r="L132" t="inlineStr"/>
+      <c r="L132" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M132" t="n">
         <v>1</v>
       </c>
@@ -5190,22 +5540,22 @@
         <v>131</v>
       </c>
       <c r="B133" t="n">
-        <v>67</v>
+        <v>66.09999999999999</v>
       </c>
       <c r="C133" t="n">
-        <v>67</v>
+        <v>66.09999999999999</v>
       </c>
       <c r="D133" t="n">
-        <v>67</v>
+        <v>66.09999999999999</v>
       </c>
       <c r="E133" t="n">
-        <v>67</v>
+        <v>66.09999999999999</v>
       </c>
       <c r="F133" t="n">
-        <v>13</v>
+        <v>124.8401</v>
       </c>
       <c r="G133" t="n">
-        <v>55075.59281461291</v>
+        <v>74060.04071461291</v>
       </c>
       <c r="H133" t="n">
         <v>0</v>
@@ -5215,7 +5565,11 @@
       </c>
       <c r="J133" t="inlineStr"/>
       <c r="K133" t="inlineStr"/>
-      <c r="L133" t="inlineStr"/>
+      <c r="L133" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M133" t="n">
         <v>1</v>
       </c>
@@ -5226,22 +5580,22 @@
         <v>132</v>
       </c>
       <c r="B134" t="n">
-        <v>66.79000000000001</v>
+        <v>66.09999999999999</v>
       </c>
       <c r="C134" t="n">
-        <v>66.2</v>
+        <v>66.3</v>
       </c>
       <c r="D134" t="n">
-        <v>66.79000000000001</v>
+        <v>66.3</v>
       </c>
       <c r="E134" t="n">
-        <v>66.2</v>
+        <v>66.09999999999999</v>
       </c>
       <c r="F134" t="n">
-        <v>65</v>
+        <v>1000</v>
       </c>
       <c r="G134" t="n">
-        <v>55010.59281461291</v>
+        <v>75060.04071461291</v>
       </c>
       <c r="H134" t="n">
         <v>0</v>
@@ -5251,7 +5605,11 @@
       </c>
       <c r="J134" t="inlineStr"/>
       <c r="K134" t="inlineStr"/>
-      <c r="L134" t="inlineStr"/>
+      <c r="L134" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M134" t="n">
         <v>1</v>
       </c>
@@ -5262,22 +5620,22 @@
         <v>133</v>
       </c>
       <c r="B135" t="n">
-        <v>66.09999999999999</v>
+        <v>67.55</v>
       </c>
       <c r="C135" t="n">
-        <v>66.09999999999999</v>
+        <v>67.56</v>
       </c>
       <c r="D135" t="n">
-        <v>66.09999999999999</v>
+        <v>67.56</v>
       </c>
       <c r="E135" t="n">
-        <v>66.09999999999999</v>
+        <v>67.55</v>
       </c>
       <c r="F135" t="n">
-        <v>13</v>
+        <v>806</v>
       </c>
       <c r="G135" t="n">
-        <v>54997.59281461291</v>
+        <v>75866.04071461291</v>
       </c>
       <c r="H135" t="n">
         <v>0</v>
@@ -5287,7 +5645,11 @@
       </c>
       <c r="J135" t="inlineStr"/>
       <c r="K135" t="inlineStr"/>
-      <c r="L135" t="inlineStr"/>
+      <c r="L135" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M135" t="n">
         <v>1</v>
       </c>
@@ -5298,22 +5660,22 @@
         <v>134</v>
       </c>
       <c r="B136" t="n">
-        <v>66.01000000000001</v>
+        <v>67.56</v>
       </c>
       <c r="C136" t="n">
-        <v>65.81</v>
+        <v>68.16</v>
       </c>
       <c r="D136" t="n">
-        <v>66.01000000000001</v>
+        <v>68.16</v>
       </c>
       <c r="E136" t="n">
-        <v>65.81</v>
+        <v>67.56</v>
       </c>
       <c r="F136" t="n">
-        <v>46582.0545</v>
+        <v>59</v>
       </c>
       <c r="G136" t="n">
-        <v>8415.53831461291</v>
+        <v>75925.04071461291</v>
       </c>
       <c r="H136" t="n">
         <v>0</v>
@@ -5323,7 +5685,11 @@
       </c>
       <c r="J136" t="inlineStr"/>
       <c r="K136" t="inlineStr"/>
-      <c r="L136" t="inlineStr"/>
+      <c r="L136" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M136" t="n">
         <v>1</v>
       </c>
@@ -5334,36 +5700,34 @@
         <v>135</v>
       </c>
       <c r="B137" t="n">
-        <v>65.81</v>
+        <v>68.09</v>
       </c>
       <c r="C137" t="n">
-        <v>65.09999999999999</v>
+        <v>68.09</v>
       </c>
       <c r="D137" t="n">
-        <v>65.81</v>
+        <v>68.09</v>
       </c>
       <c r="E137" t="n">
-        <v>65.09999999999999</v>
+        <v>68.09</v>
       </c>
       <c r="F137" t="n">
-        <v>513</v>
+        <v>124</v>
       </c>
       <c r="G137" t="n">
-        <v>7902.53831461291</v>
+        <v>75801.04071461291</v>
       </c>
       <c r="H137" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I137" t="n">
         <v>0</v>
       </c>
-      <c r="J137" t="n">
-        <v>65.81</v>
-      </c>
+      <c r="J137" t="inlineStr"/>
       <c r="K137" t="inlineStr"/>
       <c r="L137" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M137" t="n">
@@ -5376,32 +5740,30 @@
         <v>136</v>
       </c>
       <c r="B138" t="n">
-        <v>65.09999999999999</v>
+        <v>68.09</v>
       </c>
       <c r="C138" t="n">
-        <v>65.98</v>
+        <v>68.09999999999999</v>
       </c>
       <c r="D138" t="n">
-        <v>65.98999999999999</v>
+        <v>68.09999999999999</v>
       </c>
       <c r="E138" t="n">
-        <v>65.09999999999999</v>
+        <v>68.09</v>
       </c>
       <c r="F138" t="n">
-        <v>39.1818</v>
+        <v>8</v>
       </c>
       <c r="G138" t="n">
-        <v>7941.72011461291</v>
+        <v>75809.04071461291</v>
       </c>
       <c r="H138" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I138" t="n">
         <v>0</v>
       </c>
-      <c r="J138" t="n">
-        <v>65.09999999999999</v>
-      </c>
+      <c r="J138" t="inlineStr"/>
       <c r="K138" t="inlineStr"/>
       <c r="L138" t="inlineStr">
         <is>
@@ -5418,32 +5780,30 @@
         <v>137</v>
       </c>
       <c r="B139" t="n">
-        <v>65.98</v>
+        <v>68.09999999999999</v>
       </c>
       <c r="C139" t="n">
-        <v>65.98</v>
+        <v>68.09999999999999</v>
       </c>
       <c r="D139" t="n">
-        <v>65.98</v>
+        <v>68.09999999999999</v>
       </c>
       <c r="E139" t="n">
-        <v>65.98</v>
+        <v>68.09999999999999</v>
       </c>
       <c r="F139" t="n">
-        <v>18.1818</v>
+        <v>11</v>
       </c>
       <c r="G139" t="n">
-        <v>7941.72011461291</v>
+        <v>75809.04071461291</v>
       </c>
       <c r="H139" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I139" t="n">
         <v>0</v>
       </c>
-      <c r="J139" t="n">
-        <v>65.98</v>
-      </c>
+      <c r="J139" t="inlineStr"/>
       <c r="K139" t="inlineStr"/>
       <c r="L139" t="inlineStr">
         <is>
@@ -5454,6 +5814,2778 @@
         <v>1</v>
       </c>
       <c r="N139" t="inlineStr"/>
+    </row>
+    <row r="140">
+      <c r="A140" s="1" t="n">
+        <v>138</v>
+      </c>
+      <c r="B140" t="n">
+        <v>68.09</v>
+      </c>
+      <c r="C140" t="n">
+        <v>68</v>
+      </c>
+      <c r="D140" t="n">
+        <v>68.09</v>
+      </c>
+      <c r="E140" t="n">
+        <v>68</v>
+      </c>
+      <c r="F140" t="n">
+        <v>110</v>
+      </c>
+      <c r="G140" t="n">
+        <v>75699.04071461291</v>
+      </c>
+      <c r="H140" t="n">
+        <v>0</v>
+      </c>
+      <c r="I140" t="n">
+        <v>0</v>
+      </c>
+      <c r="J140" t="inlineStr"/>
+      <c r="K140" t="inlineStr"/>
+      <c r="L140" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M140" t="n">
+        <v>1</v>
+      </c>
+      <c r="N140" t="inlineStr"/>
+    </row>
+    <row r="141">
+      <c r="A141" s="1" t="n">
+        <v>139</v>
+      </c>
+      <c r="B141" t="n">
+        <v>67.90000000000001</v>
+      </c>
+      <c r="C141" t="n">
+        <v>68</v>
+      </c>
+      <c r="D141" t="n">
+        <v>68</v>
+      </c>
+      <c r="E141" t="n">
+        <v>67.90000000000001</v>
+      </c>
+      <c r="F141" t="n">
+        <v>260.9815</v>
+      </c>
+      <c r="G141" t="n">
+        <v>75699.04071461291</v>
+      </c>
+      <c r="H141" t="n">
+        <v>0</v>
+      </c>
+      <c r="I141" t="n">
+        <v>0</v>
+      </c>
+      <c r="J141" t="inlineStr"/>
+      <c r="K141" t="inlineStr"/>
+      <c r="L141" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M141" t="n">
+        <v>1</v>
+      </c>
+      <c r="N141" t="inlineStr"/>
+    </row>
+    <row r="142">
+      <c r="A142" s="1" t="n">
+        <v>140</v>
+      </c>
+      <c r="B142" t="n">
+        <v>68.14</v>
+      </c>
+      <c r="C142" t="n">
+        <v>68.14</v>
+      </c>
+      <c r="D142" t="n">
+        <v>68.14</v>
+      </c>
+      <c r="E142" t="n">
+        <v>68.14</v>
+      </c>
+      <c r="F142" t="n">
+        <v>8</v>
+      </c>
+      <c r="G142" t="n">
+        <v>75707.04071461291</v>
+      </c>
+      <c r="H142" t="n">
+        <v>0</v>
+      </c>
+      <c r="I142" t="n">
+        <v>0</v>
+      </c>
+      <c r="J142" t="inlineStr"/>
+      <c r="K142" t="inlineStr"/>
+      <c r="L142" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M142" t="n">
+        <v>1</v>
+      </c>
+      <c r="N142" t="inlineStr"/>
+    </row>
+    <row r="143">
+      <c r="A143" s="1" t="n">
+        <v>141</v>
+      </c>
+      <c r="B143" t="n">
+        <v>68</v>
+      </c>
+      <c r="C143" t="n">
+        <v>68</v>
+      </c>
+      <c r="D143" t="n">
+        <v>68</v>
+      </c>
+      <c r="E143" t="n">
+        <v>68</v>
+      </c>
+      <c r="F143" t="n">
+        <v>269.0539</v>
+      </c>
+      <c r="G143" t="n">
+        <v>75437.98681461292</v>
+      </c>
+      <c r="H143" t="n">
+        <v>0</v>
+      </c>
+      <c r="I143" t="n">
+        <v>0</v>
+      </c>
+      <c r="J143" t="inlineStr"/>
+      <c r="K143" t="inlineStr"/>
+      <c r="L143" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M143" t="n">
+        <v>1</v>
+      </c>
+      <c r="N143" t="inlineStr"/>
+    </row>
+    <row r="144">
+      <c r="A144" s="1" t="n">
+        <v>142</v>
+      </c>
+      <c r="B144" t="n">
+        <v>68.09999999999999</v>
+      </c>
+      <c r="C144" t="n">
+        <v>68.09999999999999</v>
+      </c>
+      <c r="D144" t="n">
+        <v>68.09999999999999</v>
+      </c>
+      <c r="E144" t="n">
+        <v>68.09999999999999</v>
+      </c>
+      <c r="F144" t="n">
+        <v>300.6735</v>
+      </c>
+      <c r="G144" t="n">
+        <v>75738.66031461292</v>
+      </c>
+      <c r="H144" t="n">
+        <v>0</v>
+      </c>
+      <c r="I144" t="n">
+        <v>0</v>
+      </c>
+      <c r="J144" t="inlineStr"/>
+      <c r="K144" t="inlineStr"/>
+      <c r="L144" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M144" t="n">
+        <v>1</v>
+      </c>
+      <c r="N144" t="inlineStr"/>
+    </row>
+    <row r="145">
+      <c r="A145" s="1" t="n">
+        <v>143</v>
+      </c>
+      <c r="B145" t="n">
+        <v>67</v>
+      </c>
+      <c r="C145" t="n">
+        <v>66.12</v>
+      </c>
+      <c r="D145" t="n">
+        <v>67</v>
+      </c>
+      <c r="E145" t="n">
+        <v>66.12</v>
+      </c>
+      <c r="F145" t="n">
+        <v>3100</v>
+      </c>
+      <c r="G145" t="n">
+        <v>72638.66031461292</v>
+      </c>
+      <c r="H145" t="n">
+        <v>0</v>
+      </c>
+      <c r="I145" t="n">
+        <v>0</v>
+      </c>
+      <c r="J145" t="inlineStr"/>
+      <c r="K145" t="inlineStr"/>
+      <c r="L145" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M145" t="n">
+        <v>1</v>
+      </c>
+      <c r="N145" t="inlineStr"/>
+    </row>
+    <row r="146">
+      <c r="A146" s="1" t="n">
+        <v>144</v>
+      </c>
+      <c r="B146" t="n">
+        <v>66.2</v>
+      </c>
+      <c r="C146" t="n">
+        <v>66.2</v>
+      </c>
+      <c r="D146" t="n">
+        <v>66.2</v>
+      </c>
+      <c r="E146" t="n">
+        <v>66.2</v>
+      </c>
+      <c r="F146" t="n">
+        <v>5683.1978</v>
+      </c>
+      <c r="G146" t="n">
+        <v>78321.85811461291</v>
+      </c>
+      <c r="H146" t="n">
+        <v>0</v>
+      </c>
+      <c r="I146" t="n">
+        <v>0</v>
+      </c>
+      <c r="J146" t="inlineStr"/>
+      <c r="K146" t="inlineStr"/>
+      <c r="L146" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M146" t="n">
+        <v>1</v>
+      </c>
+      <c r="N146" t="inlineStr"/>
+    </row>
+    <row r="147">
+      <c r="A147" s="1" t="n">
+        <v>145</v>
+      </c>
+      <c r="B147" t="n">
+        <v>66.11</v>
+      </c>
+      <c r="C147" t="n">
+        <v>66.11</v>
+      </c>
+      <c r="D147" t="n">
+        <v>66.11</v>
+      </c>
+      <c r="E147" t="n">
+        <v>66.11</v>
+      </c>
+      <c r="F147" t="n">
+        <v>5683.1978</v>
+      </c>
+      <c r="G147" t="n">
+        <v>72638.66031461292</v>
+      </c>
+      <c r="H147" t="n">
+        <v>0</v>
+      </c>
+      <c r="I147" t="n">
+        <v>0</v>
+      </c>
+      <c r="J147" t="inlineStr"/>
+      <c r="K147" t="inlineStr"/>
+      <c r="L147" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M147" t="n">
+        <v>1</v>
+      </c>
+      <c r="N147" t="inlineStr"/>
+    </row>
+    <row r="148">
+      <c r="A148" s="1" t="n">
+        <v>146</v>
+      </c>
+      <c r="B148" t="n">
+        <v>66.01000000000001</v>
+      </c>
+      <c r="C148" t="n">
+        <v>66.01000000000001</v>
+      </c>
+      <c r="D148" t="n">
+        <v>66.01000000000001</v>
+      </c>
+      <c r="E148" t="n">
+        <v>66.01000000000001</v>
+      </c>
+      <c r="F148" t="n">
+        <v>140</v>
+      </c>
+      <c r="G148" t="n">
+        <v>72498.66031461292</v>
+      </c>
+      <c r="H148" t="n">
+        <v>0</v>
+      </c>
+      <c r="I148" t="n">
+        <v>0</v>
+      </c>
+      <c r="J148" t="inlineStr"/>
+      <c r="K148" t="inlineStr"/>
+      <c r="L148" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M148" t="n">
+        <v>1</v>
+      </c>
+      <c r="N148" t="inlineStr"/>
+    </row>
+    <row r="149">
+      <c r="A149" s="1" t="n">
+        <v>147</v>
+      </c>
+      <c r="B149" t="n">
+        <v>66.01000000000001</v>
+      </c>
+      <c r="C149" t="n">
+        <v>66.01000000000001</v>
+      </c>
+      <c r="D149" t="n">
+        <v>66.01000000000001</v>
+      </c>
+      <c r="E149" t="n">
+        <v>66.01000000000001</v>
+      </c>
+      <c r="F149" t="n">
+        <v>353</v>
+      </c>
+      <c r="G149" t="n">
+        <v>72498.66031461292</v>
+      </c>
+      <c r="H149" t="n">
+        <v>0</v>
+      </c>
+      <c r="I149" t="n">
+        <v>0</v>
+      </c>
+      <c r="J149" t="inlineStr"/>
+      <c r="K149" t="inlineStr"/>
+      <c r="L149" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M149" t="n">
+        <v>1</v>
+      </c>
+      <c r="N149" t="inlineStr"/>
+    </row>
+    <row r="150">
+      <c r="A150" s="1" t="n">
+        <v>148</v>
+      </c>
+      <c r="B150" t="n">
+        <v>67.3</v>
+      </c>
+      <c r="C150" t="n">
+        <v>67.3</v>
+      </c>
+      <c r="D150" t="n">
+        <v>67.3</v>
+      </c>
+      <c r="E150" t="n">
+        <v>67.3</v>
+      </c>
+      <c r="F150" t="n">
+        <v>8</v>
+      </c>
+      <c r="G150" t="n">
+        <v>72506.66031461292</v>
+      </c>
+      <c r="H150" t="n">
+        <v>0</v>
+      </c>
+      <c r="I150" t="n">
+        <v>0</v>
+      </c>
+      <c r="J150" t="inlineStr"/>
+      <c r="K150" t="inlineStr"/>
+      <c r="L150" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M150" t="n">
+        <v>1</v>
+      </c>
+      <c r="N150" t="inlineStr"/>
+    </row>
+    <row r="151">
+      <c r="A151" s="1" t="n">
+        <v>149</v>
+      </c>
+      <c r="B151" t="n">
+        <v>66.11</v>
+      </c>
+      <c r="C151" t="n">
+        <v>65.95</v>
+      </c>
+      <c r="D151" t="n">
+        <v>66.11</v>
+      </c>
+      <c r="E151" t="n">
+        <v>65.95</v>
+      </c>
+      <c r="F151" t="n">
+        <v>10924.544</v>
+      </c>
+      <c r="G151" t="n">
+        <v>61582.11631461292</v>
+      </c>
+      <c r="H151" t="n">
+        <v>0</v>
+      </c>
+      <c r="I151" t="n">
+        <v>0</v>
+      </c>
+      <c r="J151" t="inlineStr"/>
+      <c r="K151" t="inlineStr"/>
+      <c r="L151" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M151" t="n">
+        <v>1</v>
+      </c>
+      <c r="N151" t="inlineStr"/>
+    </row>
+    <row r="152">
+      <c r="A152" s="1" t="n">
+        <v>150</v>
+      </c>
+      <c r="B152" t="n">
+        <v>66</v>
+      </c>
+      <c r="C152" t="n">
+        <v>66</v>
+      </c>
+      <c r="D152" t="n">
+        <v>66</v>
+      </c>
+      <c r="E152" t="n">
+        <v>66</v>
+      </c>
+      <c r="F152" t="n">
+        <v>9385.376099999999</v>
+      </c>
+      <c r="G152" t="n">
+        <v>70967.49241461292</v>
+      </c>
+      <c r="H152" t="n">
+        <v>0</v>
+      </c>
+      <c r="I152" t="n">
+        <v>0</v>
+      </c>
+      <c r="J152" t="inlineStr"/>
+      <c r="K152" t="inlineStr"/>
+      <c r="L152" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M152" t="n">
+        <v>1</v>
+      </c>
+      <c r="N152" t="inlineStr"/>
+    </row>
+    <row r="153">
+      <c r="A153" s="1" t="n">
+        <v>151</v>
+      </c>
+      <c r="B153" t="n">
+        <v>66.01000000000001</v>
+      </c>
+      <c r="C153" t="n">
+        <v>66</v>
+      </c>
+      <c r="D153" t="n">
+        <v>66.01000000000001</v>
+      </c>
+      <c r="E153" t="n">
+        <v>66</v>
+      </c>
+      <c r="F153" t="n">
+        <v>8725.1842</v>
+      </c>
+      <c r="G153" t="n">
+        <v>70967.49241461292</v>
+      </c>
+      <c r="H153" t="n">
+        <v>0</v>
+      </c>
+      <c r="I153" t="n">
+        <v>0</v>
+      </c>
+      <c r="J153" t="inlineStr"/>
+      <c r="K153" t="inlineStr"/>
+      <c r="L153" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M153" t="n">
+        <v>1</v>
+      </c>
+      <c r="N153" t="inlineStr"/>
+    </row>
+    <row r="154">
+      <c r="A154" s="1" t="n">
+        <v>152</v>
+      </c>
+      <c r="B154" t="n">
+        <v>66.39</v>
+      </c>
+      <c r="C154" t="n">
+        <v>66.5</v>
+      </c>
+      <c r="D154" t="n">
+        <v>66.5</v>
+      </c>
+      <c r="E154" t="n">
+        <v>66.39</v>
+      </c>
+      <c r="F154" t="n">
+        <v>10000</v>
+      </c>
+      <c r="G154" t="n">
+        <v>80967.49241461292</v>
+      </c>
+      <c r="H154" t="n">
+        <v>0</v>
+      </c>
+      <c r="I154" t="n">
+        <v>0</v>
+      </c>
+      <c r="J154" t="inlineStr"/>
+      <c r="K154" t="inlineStr"/>
+      <c r="L154" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M154" t="n">
+        <v>1</v>
+      </c>
+      <c r="N154" t="inlineStr"/>
+    </row>
+    <row r="155">
+      <c r="A155" s="1" t="n">
+        <v>153</v>
+      </c>
+      <c r="B155" t="n">
+        <v>66</v>
+      </c>
+      <c r="C155" t="n">
+        <v>66</v>
+      </c>
+      <c r="D155" t="n">
+        <v>66</v>
+      </c>
+      <c r="E155" t="n">
+        <v>66</v>
+      </c>
+      <c r="F155" t="n">
+        <v>12343.5751</v>
+      </c>
+      <c r="G155" t="n">
+        <v>68623.91731461292</v>
+      </c>
+      <c r="H155" t="n">
+        <v>0</v>
+      </c>
+      <c r="I155" t="n">
+        <v>0</v>
+      </c>
+      <c r="J155" t="inlineStr"/>
+      <c r="K155" t="inlineStr"/>
+      <c r="L155" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M155" t="n">
+        <v>1</v>
+      </c>
+      <c r="N155" t="inlineStr"/>
+    </row>
+    <row r="156">
+      <c r="A156" s="1" t="n">
+        <v>154</v>
+      </c>
+      <c r="B156" t="n">
+        <v>65.94</v>
+      </c>
+      <c r="C156" t="n">
+        <v>65.94</v>
+      </c>
+      <c r="D156" t="n">
+        <v>65.94</v>
+      </c>
+      <c r="E156" t="n">
+        <v>65.94</v>
+      </c>
+      <c r="F156" t="n">
+        <v>897</v>
+      </c>
+      <c r="G156" t="n">
+        <v>67726.91731461292</v>
+      </c>
+      <c r="H156" t="n">
+        <v>0</v>
+      </c>
+      <c r="I156" t="n">
+        <v>0</v>
+      </c>
+      <c r="J156" t="inlineStr"/>
+      <c r="K156" t="inlineStr"/>
+      <c r="L156" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M156" t="n">
+        <v>1</v>
+      </c>
+      <c r="N156" t="inlineStr"/>
+    </row>
+    <row r="157">
+      <c r="A157" s="1" t="n">
+        <v>155</v>
+      </c>
+      <c r="B157" t="n">
+        <v>65.95</v>
+      </c>
+      <c r="C157" t="n">
+        <v>65.90000000000001</v>
+      </c>
+      <c r="D157" t="n">
+        <v>65.95</v>
+      </c>
+      <c r="E157" t="n">
+        <v>65.90000000000001</v>
+      </c>
+      <c r="F157" t="n">
+        <v>10083.3285</v>
+      </c>
+      <c r="G157" t="n">
+        <v>57643.58881461291</v>
+      </c>
+      <c r="H157" t="n">
+        <v>0</v>
+      </c>
+      <c r="I157" t="n">
+        <v>0</v>
+      </c>
+      <c r="J157" t="inlineStr"/>
+      <c r="K157" t="inlineStr"/>
+      <c r="L157" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M157" t="n">
+        <v>1</v>
+      </c>
+      <c r="N157" t="inlineStr"/>
+    </row>
+    <row r="158">
+      <c r="A158" s="1" t="n">
+        <v>156</v>
+      </c>
+      <c r="B158" t="n">
+        <v>65.90000000000001</v>
+      </c>
+      <c r="C158" t="n">
+        <v>65.84999999999999</v>
+      </c>
+      <c r="D158" t="n">
+        <v>65.90000000000001</v>
+      </c>
+      <c r="E158" t="n">
+        <v>65.84999999999999</v>
+      </c>
+      <c r="F158" t="n">
+        <v>215.47</v>
+      </c>
+      <c r="G158" t="n">
+        <v>57428.11881461291</v>
+      </c>
+      <c r="H158" t="n">
+        <v>0</v>
+      </c>
+      <c r="I158" t="n">
+        <v>0</v>
+      </c>
+      <c r="J158" t="inlineStr"/>
+      <c r="K158" t="inlineStr"/>
+      <c r="L158" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M158" t="n">
+        <v>1</v>
+      </c>
+      <c r="N158" t="inlineStr"/>
+    </row>
+    <row r="159">
+      <c r="A159" s="1" t="n">
+        <v>157</v>
+      </c>
+      <c r="B159" t="n">
+        <v>65.86</v>
+      </c>
+      <c r="C159" t="n">
+        <v>65.84999999999999</v>
+      </c>
+      <c r="D159" t="n">
+        <v>65.86</v>
+      </c>
+      <c r="E159" t="n">
+        <v>65.84999999999999</v>
+      </c>
+      <c r="F159" t="n">
+        <v>4119.6317</v>
+      </c>
+      <c r="G159" t="n">
+        <v>57428.11881461291</v>
+      </c>
+      <c r="H159" t="n">
+        <v>0</v>
+      </c>
+      <c r="I159" t="n">
+        <v>0</v>
+      </c>
+      <c r="J159" t="inlineStr"/>
+      <c r="K159" t="inlineStr"/>
+      <c r="L159" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M159" t="n">
+        <v>1</v>
+      </c>
+      <c r="N159" t="inlineStr"/>
+    </row>
+    <row r="160">
+      <c r="A160" s="1" t="n">
+        <v>158</v>
+      </c>
+      <c r="B160" t="n">
+        <v>65.84999999999999</v>
+      </c>
+      <c r="C160" t="n">
+        <v>66</v>
+      </c>
+      <c r="D160" t="n">
+        <v>66</v>
+      </c>
+      <c r="E160" t="n">
+        <v>65.84999999999999</v>
+      </c>
+      <c r="F160" t="n">
+        <v>81.00083704545455</v>
+      </c>
+      <c r="G160" t="n">
+        <v>57509.11965165837</v>
+      </c>
+      <c r="H160" t="n">
+        <v>0</v>
+      </c>
+      <c r="I160" t="n">
+        <v>0</v>
+      </c>
+      <c r="J160" t="inlineStr"/>
+      <c r="K160" t="inlineStr"/>
+      <c r="L160" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M160" t="n">
+        <v>1</v>
+      </c>
+      <c r="N160" t="inlineStr"/>
+    </row>
+    <row r="161">
+      <c r="A161" s="1" t="n">
+        <v>159</v>
+      </c>
+      <c r="B161" t="n">
+        <v>66</v>
+      </c>
+      <c r="C161" t="n">
+        <v>66.37</v>
+      </c>
+      <c r="D161" t="n">
+        <v>66.37</v>
+      </c>
+      <c r="E161" t="n">
+        <v>66</v>
+      </c>
+      <c r="F161" t="n">
+        <v>3420</v>
+      </c>
+      <c r="G161" t="n">
+        <v>60929.11965165837</v>
+      </c>
+      <c r="H161" t="n">
+        <v>0</v>
+      </c>
+      <c r="I161" t="n">
+        <v>0</v>
+      </c>
+      <c r="J161" t="inlineStr"/>
+      <c r="K161" t="inlineStr"/>
+      <c r="L161" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M161" t="n">
+        <v>1</v>
+      </c>
+      <c r="N161" t="inlineStr"/>
+    </row>
+    <row r="162">
+      <c r="A162" s="1" t="n">
+        <v>160</v>
+      </c>
+      <c r="B162" t="n">
+        <v>65.91</v>
+      </c>
+      <c r="C162" t="n">
+        <v>65.91</v>
+      </c>
+      <c r="D162" t="n">
+        <v>65.91</v>
+      </c>
+      <c r="E162" t="n">
+        <v>65.91</v>
+      </c>
+      <c r="F162" t="n">
+        <v>1131</v>
+      </c>
+      <c r="G162" t="n">
+        <v>59798.11965165837</v>
+      </c>
+      <c r="H162" t="n">
+        <v>0</v>
+      </c>
+      <c r="I162" t="n">
+        <v>0</v>
+      </c>
+      <c r="J162" t="inlineStr"/>
+      <c r="K162" t="inlineStr"/>
+      <c r="L162" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M162" t="n">
+        <v>1</v>
+      </c>
+      <c r="N162" t="inlineStr"/>
+    </row>
+    <row r="163">
+      <c r="A163" s="1" t="n">
+        <v>161</v>
+      </c>
+      <c r="B163" t="n">
+        <v>66.37</v>
+      </c>
+      <c r="C163" t="n">
+        <v>66.37</v>
+      </c>
+      <c r="D163" t="n">
+        <v>66.37</v>
+      </c>
+      <c r="E163" t="n">
+        <v>66.37</v>
+      </c>
+      <c r="F163" t="n">
+        <v>8</v>
+      </c>
+      <c r="G163" t="n">
+        <v>59806.11965165837</v>
+      </c>
+      <c r="H163" t="n">
+        <v>0</v>
+      </c>
+      <c r="I163" t="n">
+        <v>0</v>
+      </c>
+      <c r="J163" t="inlineStr"/>
+      <c r="K163" t="inlineStr"/>
+      <c r="L163" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M163" t="n">
+        <v>1</v>
+      </c>
+      <c r="N163" t="inlineStr"/>
+    </row>
+    <row r="164">
+      <c r="A164" s="1" t="n">
+        <v>162</v>
+      </c>
+      <c r="B164" t="n">
+        <v>65.91</v>
+      </c>
+      <c r="C164" t="n">
+        <v>65.91</v>
+      </c>
+      <c r="D164" t="n">
+        <v>65.91</v>
+      </c>
+      <c r="E164" t="n">
+        <v>65.91</v>
+      </c>
+      <c r="F164" t="n">
+        <v>1083</v>
+      </c>
+      <c r="G164" t="n">
+        <v>58723.11965165837</v>
+      </c>
+      <c r="H164" t="n">
+        <v>0</v>
+      </c>
+      <c r="I164" t="n">
+        <v>0</v>
+      </c>
+      <c r="J164" t="inlineStr"/>
+      <c r="K164" t="inlineStr"/>
+      <c r="L164" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M164" t="n">
+        <v>1</v>
+      </c>
+      <c r="N164" t="inlineStr"/>
+    </row>
+    <row r="165">
+      <c r="A165" s="1" t="n">
+        <v>163</v>
+      </c>
+      <c r="B165" t="n">
+        <v>65.91</v>
+      </c>
+      <c r="C165" t="n">
+        <v>65.91</v>
+      </c>
+      <c r="D165" t="n">
+        <v>65.91</v>
+      </c>
+      <c r="E165" t="n">
+        <v>65.91</v>
+      </c>
+      <c r="F165" t="n">
+        <v>288</v>
+      </c>
+      <c r="G165" t="n">
+        <v>58723.11965165837</v>
+      </c>
+      <c r="H165" t="n">
+        <v>0</v>
+      </c>
+      <c r="I165" t="n">
+        <v>0</v>
+      </c>
+      <c r="J165" t="inlineStr"/>
+      <c r="K165" t="inlineStr"/>
+      <c r="L165" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M165" t="n">
+        <v>1</v>
+      </c>
+      <c r="N165" t="inlineStr"/>
+    </row>
+    <row r="166">
+      <c r="A166" s="1" t="n">
+        <v>164</v>
+      </c>
+      <c r="B166" t="n">
+        <v>66.37</v>
+      </c>
+      <c r="C166" t="n">
+        <v>66.37</v>
+      </c>
+      <c r="D166" t="n">
+        <v>66.37</v>
+      </c>
+      <c r="E166" t="n">
+        <v>66.37</v>
+      </c>
+      <c r="F166" t="n">
+        <v>8</v>
+      </c>
+      <c r="G166" t="n">
+        <v>58731.11965165837</v>
+      </c>
+      <c r="H166" t="n">
+        <v>0</v>
+      </c>
+      <c r="I166" t="n">
+        <v>0</v>
+      </c>
+      <c r="J166" t="inlineStr"/>
+      <c r="K166" t="inlineStr"/>
+      <c r="L166" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M166" t="n">
+        <v>1</v>
+      </c>
+      <c r="N166" t="inlineStr"/>
+    </row>
+    <row r="167">
+      <c r="A167" s="1" t="n">
+        <v>165</v>
+      </c>
+      <c r="B167" t="n">
+        <v>65.91</v>
+      </c>
+      <c r="C167" t="n">
+        <v>65.91</v>
+      </c>
+      <c r="D167" t="n">
+        <v>65.91</v>
+      </c>
+      <c r="E167" t="n">
+        <v>65.91</v>
+      </c>
+      <c r="F167" t="n">
+        <v>572</v>
+      </c>
+      <c r="G167" t="n">
+        <v>58159.11965165837</v>
+      </c>
+      <c r="H167" t="n">
+        <v>0</v>
+      </c>
+      <c r="I167" t="n">
+        <v>0</v>
+      </c>
+      <c r="J167" t="inlineStr"/>
+      <c r="K167" t="inlineStr"/>
+      <c r="L167" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M167" t="n">
+        <v>1</v>
+      </c>
+      <c r="N167" t="inlineStr"/>
+    </row>
+    <row r="168">
+      <c r="A168" s="1" t="n">
+        <v>166</v>
+      </c>
+      <c r="B168" t="n">
+        <v>66.37</v>
+      </c>
+      <c r="C168" t="n">
+        <v>66.37</v>
+      </c>
+      <c r="D168" t="n">
+        <v>66.37</v>
+      </c>
+      <c r="E168" t="n">
+        <v>66.37</v>
+      </c>
+      <c r="F168" t="n">
+        <v>8</v>
+      </c>
+      <c r="G168" t="n">
+        <v>58167.11965165837</v>
+      </c>
+      <c r="H168" t="n">
+        <v>1</v>
+      </c>
+      <c r="I168" t="n">
+        <v>0</v>
+      </c>
+      <c r="J168" t="n">
+        <v>65.91</v>
+      </c>
+      <c r="K168" t="inlineStr"/>
+      <c r="L168" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M168" t="n">
+        <v>1</v>
+      </c>
+      <c r="N168" t="inlineStr"/>
+    </row>
+    <row r="169">
+      <c r="A169" s="1" t="n">
+        <v>167</v>
+      </c>
+      <c r="B169" t="n">
+        <v>66</v>
+      </c>
+      <c r="C169" t="n">
+        <v>66.37</v>
+      </c>
+      <c r="D169" t="n">
+        <v>66.37</v>
+      </c>
+      <c r="E169" t="n">
+        <v>66</v>
+      </c>
+      <c r="F169" t="n">
+        <v>258.6031</v>
+      </c>
+      <c r="G169" t="n">
+        <v>58167.11965165837</v>
+      </c>
+      <c r="H169" t="n">
+        <v>0</v>
+      </c>
+      <c r="I169" t="n">
+        <v>0</v>
+      </c>
+      <c r="J169" t="inlineStr"/>
+      <c r="K169" t="inlineStr"/>
+      <c r="L169" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M169" t="n">
+        <v>1</v>
+      </c>
+      <c r="N169" t="inlineStr"/>
+    </row>
+    <row r="170">
+      <c r="A170" s="1" t="n">
+        <v>168</v>
+      </c>
+      <c r="B170" t="n">
+        <v>66.01000000000001</v>
+      </c>
+      <c r="C170" t="n">
+        <v>66</v>
+      </c>
+      <c r="D170" t="n">
+        <v>66.01000000000001</v>
+      </c>
+      <c r="E170" t="n">
+        <v>66</v>
+      </c>
+      <c r="F170" t="n">
+        <v>1283</v>
+      </c>
+      <c r="G170" t="n">
+        <v>56884.11965165837</v>
+      </c>
+      <c r="H170" t="n">
+        <v>0</v>
+      </c>
+      <c r="I170" t="n">
+        <v>0</v>
+      </c>
+      <c r="J170" t="inlineStr"/>
+      <c r="K170" t="inlineStr"/>
+      <c r="L170" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M170" t="n">
+        <v>1</v>
+      </c>
+      <c r="N170" t="inlineStr"/>
+    </row>
+    <row r="171">
+      <c r="A171" s="1" t="n">
+        <v>169</v>
+      </c>
+      <c r="B171" t="n">
+        <v>66.09999999999999</v>
+      </c>
+      <c r="C171" t="n">
+        <v>66.01000000000001</v>
+      </c>
+      <c r="D171" t="n">
+        <v>66.09999999999999</v>
+      </c>
+      <c r="E171" t="n">
+        <v>66.01000000000001</v>
+      </c>
+      <c r="F171" t="n">
+        <v>1700</v>
+      </c>
+      <c r="G171" t="n">
+        <v>58584.11965165837</v>
+      </c>
+      <c r="H171" t="n">
+        <v>1</v>
+      </c>
+      <c r="I171" t="n">
+        <v>0</v>
+      </c>
+      <c r="J171" t="n">
+        <v>66</v>
+      </c>
+      <c r="K171" t="inlineStr"/>
+      <c r="L171" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M171" t="n">
+        <v>1</v>
+      </c>
+      <c r="N171" t="inlineStr"/>
+    </row>
+    <row r="172">
+      <c r="A172" s="1" t="n">
+        <v>170</v>
+      </c>
+      <c r="B172" t="n">
+        <v>66</v>
+      </c>
+      <c r="C172" t="n">
+        <v>66</v>
+      </c>
+      <c r="D172" t="n">
+        <v>66</v>
+      </c>
+      <c r="E172" t="n">
+        <v>66</v>
+      </c>
+      <c r="F172" t="n">
+        <v>3981.2509</v>
+      </c>
+      <c r="G172" t="n">
+        <v>54602.86875165837</v>
+      </c>
+      <c r="H172" t="n">
+        <v>0</v>
+      </c>
+      <c r="I172" t="n">
+        <v>0</v>
+      </c>
+      <c r="J172" t="inlineStr"/>
+      <c r="K172" t="inlineStr"/>
+      <c r="L172" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M172" t="n">
+        <v>1</v>
+      </c>
+      <c r="N172" t="inlineStr"/>
+    </row>
+    <row r="173">
+      <c r="A173" s="1" t="n">
+        <v>171</v>
+      </c>
+      <c r="B173" t="n">
+        <v>66</v>
+      </c>
+      <c r="C173" t="n">
+        <v>66</v>
+      </c>
+      <c r="D173" t="n">
+        <v>66</v>
+      </c>
+      <c r="E173" t="n">
+        <v>66</v>
+      </c>
+      <c r="F173" t="n">
+        <v>2813.46</v>
+      </c>
+      <c r="G173" t="n">
+        <v>54602.86875165837</v>
+      </c>
+      <c r="H173" t="n">
+        <v>0</v>
+      </c>
+      <c r="I173" t="n">
+        <v>0</v>
+      </c>
+      <c r="J173" t="inlineStr"/>
+      <c r="K173" t="inlineStr"/>
+      <c r="L173" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M173" t="n">
+        <v>1</v>
+      </c>
+      <c r="N173" t="inlineStr"/>
+    </row>
+    <row r="174">
+      <c r="A174" s="1" t="n">
+        <v>172</v>
+      </c>
+      <c r="B174" t="n">
+        <v>66.3</v>
+      </c>
+      <c r="C174" t="n">
+        <v>65.95</v>
+      </c>
+      <c r="D174" t="n">
+        <v>66.37</v>
+      </c>
+      <c r="E174" t="n">
+        <v>65.95</v>
+      </c>
+      <c r="F174" t="n">
+        <v>4779.146</v>
+      </c>
+      <c r="G174" t="n">
+        <v>49823.72275165837</v>
+      </c>
+      <c r="H174" t="n">
+        <v>0</v>
+      </c>
+      <c r="I174" t="n">
+        <v>0</v>
+      </c>
+      <c r="J174" t="inlineStr"/>
+      <c r="K174" t="inlineStr"/>
+      <c r="L174" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M174" t="n">
+        <v>1</v>
+      </c>
+      <c r="N174" t="inlineStr"/>
+    </row>
+    <row r="175">
+      <c r="A175" s="1" t="n">
+        <v>173</v>
+      </c>
+      <c r="B175" t="n">
+        <v>65.92</v>
+      </c>
+      <c r="C175" t="n">
+        <v>65.91</v>
+      </c>
+      <c r="D175" t="n">
+        <v>65.92</v>
+      </c>
+      <c r="E175" t="n">
+        <v>65.91</v>
+      </c>
+      <c r="F175" t="n">
+        <v>11422.4051</v>
+      </c>
+      <c r="G175" t="n">
+        <v>38401.31765165836</v>
+      </c>
+      <c r="H175" t="n">
+        <v>0</v>
+      </c>
+      <c r="I175" t="n">
+        <v>0</v>
+      </c>
+      <c r="J175" t="inlineStr"/>
+      <c r="K175" t="inlineStr"/>
+      <c r="L175" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M175" t="n">
+        <v>1</v>
+      </c>
+      <c r="N175" t="inlineStr"/>
+    </row>
+    <row r="176">
+      <c r="A176" s="1" t="n">
+        <v>174</v>
+      </c>
+      <c r="B176" t="n">
+        <v>66.3</v>
+      </c>
+      <c r="C176" t="n">
+        <v>66.3</v>
+      </c>
+      <c r="D176" t="n">
+        <v>66.3</v>
+      </c>
+      <c r="E176" t="n">
+        <v>66.3</v>
+      </c>
+      <c r="F176" t="n">
+        <v>410.4897</v>
+      </c>
+      <c r="G176" t="n">
+        <v>38811.80735165836</v>
+      </c>
+      <c r="H176" t="n">
+        <v>0</v>
+      </c>
+      <c r="I176" t="n">
+        <v>0</v>
+      </c>
+      <c r="J176" t="inlineStr"/>
+      <c r="K176" t="inlineStr"/>
+      <c r="L176" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M176" t="n">
+        <v>1</v>
+      </c>
+      <c r="N176" t="inlineStr"/>
+    </row>
+    <row r="177">
+      <c r="A177" s="1" t="n">
+        <v>175</v>
+      </c>
+      <c r="B177" t="n">
+        <v>66.3</v>
+      </c>
+      <c r="C177" t="n">
+        <v>66.3</v>
+      </c>
+      <c r="D177" t="n">
+        <v>66.3</v>
+      </c>
+      <c r="E177" t="n">
+        <v>66.3</v>
+      </c>
+      <c r="F177" t="n">
+        <v>352.7613</v>
+      </c>
+      <c r="G177" t="n">
+        <v>38811.80735165836</v>
+      </c>
+      <c r="H177" t="n">
+        <v>0</v>
+      </c>
+      <c r="I177" t="n">
+        <v>0</v>
+      </c>
+      <c r="J177" t="inlineStr"/>
+      <c r="K177" t="inlineStr"/>
+      <c r="L177" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M177" t="n">
+        <v>1</v>
+      </c>
+      <c r="N177" t="inlineStr"/>
+    </row>
+    <row r="178">
+      <c r="A178" s="1" t="n">
+        <v>176</v>
+      </c>
+      <c r="B178" t="n">
+        <v>66.3</v>
+      </c>
+      <c r="C178" t="n">
+        <v>66.3</v>
+      </c>
+      <c r="D178" t="n">
+        <v>66.3</v>
+      </c>
+      <c r="E178" t="n">
+        <v>66.3</v>
+      </c>
+      <c r="F178" t="n">
+        <v>779.9924999999999</v>
+      </c>
+      <c r="G178" t="n">
+        <v>38811.80735165836</v>
+      </c>
+      <c r="H178" t="n">
+        <v>0</v>
+      </c>
+      <c r="I178" t="n">
+        <v>0</v>
+      </c>
+      <c r="J178" t="inlineStr"/>
+      <c r="K178" t="inlineStr"/>
+      <c r="L178" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M178" t="n">
+        <v>1</v>
+      </c>
+      <c r="N178" t="inlineStr"/>
+    </row>
+    <row r="179">
+      <c r="A179" s="1" t="n">
+        <v>177</v>
+      </c>
+      <c r="B179" t="n">
+        <v>66.3</v>
+      </c>
+      <c r="C179" t="n">
+        <v>66.37</v>
+      </c>
+      <c r="D179" t="n">
+        <v>66.37</v>
+      </c>
+      <c r="E179" t="n">
+        <v>66.3</v>
+      </c>
+      <c r="F179" t="n">
+        <v>1014.3134</v>
+      </c>
+      <c r="G179" t="n">
+        <v>39826.12075165836</v>
+      </c>
+      <c r="H179" t="n">
+        <v>0</v>
+      </c>
+      <c r="I179" t="n">
+        <v>0</v>
+      </c>
+      <c r="J179" t="inlineStr"/>
+      <c r="K179" t="inlineStr"/>
+      <c r="L179" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M179" t="n">
+        <v>1</v>
+      </c>
+      <c r="N179" t="inlineStr"/>
+    </row>
+    <row r="180">
+      <c r="A180" s="1" t="n">
+        <v>178</v>
+      </c>
+      <c r="B180" t="n">
+        <v>66.3</v>
+      </c>
+      <c r="C180" t="n">
+        <v>66.3</v>
+      </c>
+      <c r="D180" t="n">
+        <v>66.3</v>
+      </c>
+      <c r="E180" t="n">
+        <v>66.3</v>
+      </c>
+      <c r="F180" t="n">
+        <v>2282.9534</v>
+      </c>
+      <c r="G180" t="n">
+        <v>37543.16735165836</v>
+      </c>
+      <c r="H180" t="n">
+        <v>0</v>
+      </c>
+      <c r="I180" t="n">
+        <v>0</v>
+      </c>
+      <c r="J180" t="inlineStr"/>
+      <c r="K180" t="inlineStr"/>
+      <c r="L180" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M180" t="n">
+        <v>1</v>
+      </c>
+      <c r="N180" t="inlineStr"/>
+    </row>
+    <row r="181">
+      <c r="A181" s="1" t="n">
+        <v>179</v>
+      </c>
+      <c r="B181" t="n">
+        <v>66.3</v>
+      </c>
+      <c r="C181" t="n">
+        <v>66.37</v>
+      </c>
+      <c r="D181" t="n">
+        <v>66.37</v>
+      </c>
+      <c r="E181" t="n">
+        <v>66.3</v>
+      </c>
+      <c r="F181" t="n">
+        <v>511.1552</v>
+      </c>
+      <c r="G181" t="n">
+        <v>38054.32255165836</v>
+      </c>
+      <c r="H181" t="n">
+        <v>0</v>
+      </c>
+      <c r="I181" t="n">
+        <v>0</v>
+      </c>
+      <c r="J181" t="inlineStr"/>
+      <c r="K181" t="inlineStr"/>
+      <c r="L181" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M181" t="n">
+        <v>1</v>
+      </c>
+      <c r="N181" t="inlineStr"/>
+    </row>
+    <row r="182">
+      <c r="A182" s="1" t="n">
+        <v>180</v>
+      </c>
+      <c r="B182" t="n">
+        <v>66.37</v>
+      </c>
+      <c r="C182" t="n">
+        <v>66.37</v>
+      </c>
+      <c r="D182" t="n">
+        <v>66.37</v>
+      </c>
+      <c r="E182" t="n">
+        <v>66.37</v>
+      </c>
+      <c r="F182" t="n">
+        <v>897.2539</v>
+      </c>
+      <c r="G182" t="n">
+        <v>38054.32255165836</v>
+      </c>
+      <c r="H182" t="n">
+        <v>0</v>
+      </c>
+      <c r="I182" t="n">
+        <v>0</v>
+      </c>
+      <c r="J182" t="inlineStr"/>
+      <c r="K182" t="inlineStr"/>
+      <c r="L182" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M182" t="n">
+        <v>1</v>
+      </c>
+      <c r="N182" t="inlineStr"/>
+    </row>
+    <row r="183">
+      <c r="A183" s="1" t="n">
+        <v>181</v>
+      </c>
+      <c r="B183" t="n">
+        <v>66.37</v>
+      </c>
+      <c r="C183" t="n">
+        <v>66.37</v>
+      </c>
+      <c r="D183" t="n">
+        <v>66.37</v>
+      </c>
+      <c r="E183" t="n">
+        <v>66.37</v>
+      </c>
+      <c r="F183" t="n">
+        <v>224.3059</v>
+      </c>
+      <c r="G183" t="n">
+        <v>38054.32255165836</v>
+      </c>
+      <c r="H183" t="n">
+        <v>1</v>
+      </c>
+      <c r="I183" t="n">
+        <v>0</v>
+      </c>
+      <c r="J183" t="n">
+        <v>66.37</v>
+      </c>
+      <c r="K183" t="inlineStr"/>
+      <c r="L183" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M183" t="n">
+        <v>1</v>
+      </c>
+      <c r="N183" t="inlineStr"/>
+    </row>
+    <row r="184">
+      <c r="A184" s="1" t="n">
+        <v>182</v>
+      </c>
+      <c r="B184" t="n">
+        <v>66.37</v>
+      </c>
+      <c r="C184" t="n">
+        <v>66.5</v>
+      </c>
+      <c r="D184" t="n">
+        <v>66.5</v>
+      </c>
+      <c r="E184" t="n">
+        <v>66.37</v>
+      </c>
+      <c r="F184" t="n">
+        <v>5665.527063250888</v>
+      </c>
+      <c r="G184" t="n">
+        <v>43719.84961490925</v>
+      </c>
+      <c r="H184" t="n">
+        <v>1</v>
+      </c>
+      <c r="I184" t="n">
+        <v>0</v>
+      </c>
+      <c r="J184" t="n">
+        <v>66.37</v>
+      </c>
+      <c r="K184" t="inlineStr"/>
+      <c r="L184" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M184" t="n">
+        <v>1</v>
+      </c>
+      <c r="N184" t="inlineStr"/>
+    </row>
+    <row r="185">
+      <c r="A185" s="1" t="n">
+        <v>183</v>
+      </c>
+      <c r="B185" t="n">
+        <v>66.5</v>
+      </c>
+      <c r="C185" t="n">
+        <v>66.5</v>
+      </c>
+      <c r="D185" t="n">
+        <v>66.5</v>
+      </c>
+      <c r="E185" t="n">
+        <v>66.5</v>
+      </c>
+      <c r="F185" t="n">
+        <v>9204.752399999999</v>
+      </c>
+      <c r="G185" t="n">
+        <v>43719.84961490925</v>
+      </c>
+      <c r="H185" t="n">
+        <v>1</v>
+      </c>
+      <c r="I185" t="n">
+        <v>0</v>
+      </c>
+      <c r="J185" t="n">
+        <v>66.5</v>
+      </c>
+      <c r="K185" t="inlineStr"/>
+      <c r="L185" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M185" t="n">
+        <v>1</v>
+      </c>
+      <c r="N185" t="inlineStr"/>
+    </row>
+    <row r="186">
+      <c r="A186" s="1" t="n">
+        <v>184</v>
+      </c>
+      <c r="B186" t="n">
+        <v>66.5</v>
+      </c>
+      <c r="C186" t="n">
+        <v>66.5</v>
+      </c>
+      <c r="D186" t="n">
+        <v>66.5</v>
+      </c>
+      <c r="E186" t="n">
+        <v>66.5</v>
+      </c>
+      <c r="F186" t="n">
+        <v>197.8697</v>
+      </c>
+      <c r="G186" t="n">
+        <v>43719.84961490925</v>
+      </c>
+      <c r="H186" t="n">
+        <v>0</v>
+      </c>
+      <c r="I186" t="n">
+        <v>0</v>
+      </c>
+      <c r="J186" t="inlineStr"/>
+      <c r="K186" t="inlineStr"/>
+      <c r="L186" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M186" t="n">
+        <v>1</v>
+      </c>
+      <c r="N186" t="inlineStr"/>
+    </row>
+    <row r="187">
+      <c r="A187" s="1" t="n">
+        <v>185</v>
+      </c>
+      <c r="B187" t="n">
+        <v>66.2</v>
+      </c>
+      <c r="C187" t="n">
+        <v>66.2</v>
+      </c>
+      <c r="D187" t="n">
+        <v>66.2</v>
+      </c>
+      <c r="E187" t="n">
+        <v>66.2</v>
+      </c>
+      <c r="F187" t="n">
+        <v>20</v>
+      </c>
+      <c r="G187" t="n">
+        <v>43699.84961490925</v>
+      </c>
+      <c r="H187" t="n">
+        <v>0</v>
+      </c>
+      <c r="I187" t="n">
+        <v>0</v>
+      </c>
+      <c r="J187" t="inlineStr"/>
+      <c r="K187" t="inlineStr"/>
+      <c r="L187" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M187" t="n">
+        <v>1</v>
+      </c>
+      <c r="N187" t="inlineStr"/>
+    </row>
+    <row r="188">
+      <c r="A188" s="1" t="n">
+        <v>186</v>
+      </c>
+      <c r="B188" t="n">
+        <v>66.5</v>
+      </c>
+      <c r="C188" t="n">
+        <v>66.5</v>
+      </c>
+      <c r="D188" t="n">
+        <v>66.5</v>
+      </c>
+      <c r="E188" t="n">
+        <v>66.5</v>
+      </c>
+      <c r="F188" t="n">
+        <v>8</v>
+      </c>
+      <c r="G188" t="n">
+        <v>43707.84961490925</v>
+      </c>
+      <c r="H188" t="n">
+        <v>0</v>
+      </c>
+      <c r="I188" t="n">
+        <v>0</v>
+      </c>
+      <c r="J188" t="inlineStr"/>
+      <c r="K188" t="inlineStr"/>
+      <c r="L188" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M188" t="n">
+        <v>1</v>
+      </c>
+      <c r="N188" t="inlineStr"/>
+    </row>
+    <row r="189">
+      <c r="A189" s="1" t="n">
+        <v>187</v>
+      </c>
+      <c r="B189" t="n">
+        <v>66.5</v>
+      </c>
+      <c r="C189" t="n">
+        <v>68.09</v>
+      </c>
+      <c r="D189" t="n">
+        <v>68.09</v>
+      </c>
+      <c r="E189" t="n">
+        <v>66.5</v>
+      </c>
+      <c r="F189" t="n">
+        <v>29868.37079970366</v>
+      </c>
+      <c r="G189" t="n">
+        <v>73576.22041461291</v>
+      </c>
+      <c r="H189" t="n">
+        <v>0</v>
+      </c>
+      <c r="I189" t="n">
+        <v>0</v>
+      </c>
+      <c r="J189" t="inlineStr"/>
+      <c r="K189" t="inlineStr"/>
+      <c r="L189" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M189" t="n">
+        <v>1</v>
+      </c>
+      <c r="N189" t="inlineStr"/>
+    </row>
+    <row r="190">
+      <c r="A190" s="1" t="n">
+        <v>188</v>
+      </c>
+      <c r="B190" t="n">
+        <v>68.04000000000001</v>
+      </c>
+      <c r="C190" t="n">
+        <v>67.59999999999999</v>
+      </c>
+      <c r="D190" t="n">
+        <v>68.09</v>
+      </c>
+      <c r="E190" t="n">
+        <v>67.5</v>
+      </c>
+      <c r="F190" t="n">
+        <v>45</v>
+      </c>
+      <c r="G190" t="n">
+        <v>73531.22041461291</v>
+      </c>
+      <c r="H190" t="n">
+        <v>0</v>
+      </c>
+      <c r="I190" t="n">
+        <v>0</v>
+      </c>
+      <c r="J190" t="inlineStr"/>
+      <c r="K190" t="inlineStr"/>
+      <c r="L190" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M190" t="n">
+        <v>1</v>
+      </c>
+      <c r="N190" t="inlineStr"/>
+    </row>
+    <row r="191">
+      <c r="A191" s="1" t="n">
+        <v>189</v>
+      </c>
+      <c r="B191" t="n">
+        <v>68.09</v>
+      </c>
+      <c r="C191" t="n">
+        <v>68.09</v>
+      </c>
+      <c r="D191" t="n">
+        <v>68.09</v>
+      </c>
+      <c r="E191" t="n">
+        <v>68.09</v>
+      </c>
+      <c r="F191" t="n">
+        <v>8</v>
+      </c>
+      <c r="G191" t="n">
+        <v>73539.22041461291</v>
+      </c>
+      <c r="H191" t="n">
+        <v>0</v>
+      </c>
+      <c r="I191" t="n">
+        <v>1</v>
+      </c>
+      <c r="J191" t="inlineStr"/>
+      <c r="K191" t="inlineStr"/>
+      <c r="L191" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="M191" t="inlineStr"/>
+      <c r="N191" t="inlineStr"/>
+    </row>
+    <row r="192">
+      <c r="A192" s="1" t="n">
+        <v>190</v>
+      </c>
+      <c r="B192" t="n">
+        <v>66.59999999999999</v>
+      </c>
+      <c r="C192" t="n">
+        <v>66.11</v>
+      </c>
+      <c r="D192" t="n">
+        <v>66.59999999999999</v>
+      </c>
+      <c r="E192" t="n">
+        <v>66.11</v>
+      </c>
+      <c r="F192" t="n">
+        <v>15319</v>
+      </c>
+      <c r="G192" t="n">
+        <v>58220.22041461291</v>
+      </c>
+      <c r="H192" t="n">
+        <v>0</v>
+      </c>
+      <c r="I192" t="n">
+        <v>1</v>
+      </c>
+      <c r="J192" t="inlineStr"/>
+      <c r="K192" t="inlineStr"/>
+      <c r="L192" t="inlineStr"/>
+      <c r="M192" t="n">
+        <v>1</v>
+      </c>
+      <c r="N192" t="inlineStr"/>
+    </row>
+    <row r="193">
+      <c r="A193" s="1" t="n">
+        <v>191</v>
+      </c>
+      <c r="B193" t="n">
+        <v>66.11</v>
+      </c>
+      <c r="C193" t="n">
+        <v>67.09999999999999</v>
+      </c>
+      <c r="D193" t="n">
+        <v>67.09999999999999</v>
+      </c>
+      <c r="E193" t="n">
+        <v>65.91</v>
+      </c>
+      <c r="F193" t="n">
+        <v>3709.5057</v>
+      </c>
+      <c r="G193" t="n">
+        <v>61929.72611461291</v>
+      </c>
+      <c r="H193" t="n">
+        <v>0</v>
+      </c>
+      <c r="I193" t="n">
+        <v>0</v>
+      </c>
+      <c r="J193" t="inlineStr"/>
+      <c r="K193" t="inlineStr"/>
+      <c r="L193" t="inlineStr"/>
+      <c r="M193" t="n">
+        <v>1</v>
+      </c>
+      <c r="N193" t="inlineStr"/>
+    </row>
+    <row r="194">
+      <c r="A194" s="1" t="n">
+        <v>192</v>
+      </c>
+      <c r="B194" t="n">
+        <v>66.59999999999999</v>
+      </c>
+      <c r="C194" t="n">
+        <v>66.59999999999999</v>
+      </c>
+      <c r="D194" t="n">
+        <v>66.59999999999999</v>
+      </c>
+      <c r="E194" t="n">
+        <v>66.59999999999999</v>
+      </c>
+      <c r="F194" t="n">
+        <v>2302.6392</v>
+      </c>
+      <c r="G194" t="n">
+        <v>59627.08691461291</v>
+      </c>
+      <c r="H194" t="n">
+        <v>0</v>
+      </c>
+      <c r="I194" t="n">
+        <v>0</v>
+      </c>
+      <c r="J194" t="inlineStr"/>
+      <c r="K194" t="inlineStr"/>
+      <c r="L194" t="inlineStr"/>
+      <c r="M194" t="n">
+        <v>1</v>
+      </c>
+      <c r="N194" t="inlineStr"/>
+    </row>
+    <row r="195">
+      <c r="A195" s="1" t="n">
+        <v>193</v>
+      </c>
+      <c r="B195" t="n">
+        <v>66.59999999999999</v>
+      </c>
+      <c r="C195" t="n">
+        <v>66.59999999999999</v>
+      </c>
+      <c r="D195" t="n">
+        <v>66.59999999999999</v>
+      </c>
+      <c r="E195" t="n">
+        <v>66.59999999999999</v>
+      </c>
+      <c r="F195" t="n">
+        <v>5212</v>
+      </c>
+      <c r="G195" t="n">
+        <v>59627.08691461291</v>
+      </c>
+      <c r="H195" t="n">
+        <v>0</v>
+      </c>
+      <c r="I195" t="n">
+        <v>0</v>
+      </c>
+      <c r="J195" t="inlineStr"/>
+      <c r="K195" t="inlineStr"/>
+      <c r="L195" t="inlineStr"/>
+      <c r="M195" t="n">
+        <v>1</v>
+      </c>
+      <c r="N195" t="inlineStr"/>
+    </row>
+    <row r="196">
+      <c r="A196" s="1" t="n">
+        <v>194</v>
+      </c>
+      <c r="B196" t="n">
+        <v>66.59999999999999</v>
+      </c>
+      <c r="C196" t="n">
+        <v>66.59999999999999</v>
+      </c>
+      <c r="D196" t="n">
+        <v>66.59999999999999</v>
+      </c>
+      <c r="E196" t="n">
+        <v>66.59999999999999</v>
+      </c>
+      <c r="F196" t="n">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="G196" t="n">
+        <v>59627.08691461291</v>
+      </c>
+      <c r="H196" t="n">
+        <v>0</v>
+      </c>
+      <c r="I196" t="n">
+        <v>0</v>
+      </c>
+      <c r="J196" t="inlineStr"/>
+      <c r="K196" t="inlineStr"/>
+      <c r="L196" t="inlineStr"/>
+      <c r="M196" t="n">
+        <v>1</v>
+      </c>
+      <c r="N196" t="inlineStr"/>
+    </row>
+    <row r="197">
+      <c r="A197" s="1" t="n">
+        <v>195</v>
+      </c>
+      <c r="B197" t="n">
+        <v>66</v>
+      </c>
+      <c r="C197" t="n">
+        <v>66</v>
+      </c>
+      <c r="D197" t="n">
+        <v>66</v>
+      </c>
+      <c r="E197" t="n">
+        <v>66</v>
+      </c>
+      <c r="F197" t="n">
+        <v>5284.1068</v>
+      </c>
+      <c r="G197" t="n">
+        <v>54342.98011461291</v>
+      </c>
+      <c r="H197" t="n">
+        <v>0</v>
+      </c>
+      <c r="I197" t="n">
+        <v>0</v>
+      </c>
+      <c r="J197" t="inlineStr"/>
+      <c r="K197" t="inlineStr"/>
+      <c r="L197" t="inlineStr"/>
+      <c r="M197" t="n">
+        <v>1</v>
+      </c>
+      <c r="N197" t="inlineStr"/>
+    </row>
+    <row r="198">
+      <c r="A198" s="1" t="n">
+        <v>196</v>
+      </c>
+      <c r="B198" t="n">
+        <v>66</v>
+      </c>
+      <c r="C198" t="n">
+        <v>68</v>
+      </c>
+      <c r="D198" t="n">
+        <v>68</v>
+      </c>
+      <c r="E198" t="n">
+        <v>66</v>
+      </c>
+      <c r="F198" t="n">
+        <v>752.6118</v>
+      </c>
+      <c r="G198" t="n">
+        <v>55095.59191461291</v>
+      </c>
+      <c r="H198" t="n">
+        <v>0</v>
+      </c>
+      <c r="I198" t="n">
+        <v>0</v>
+      </c>
+      <c r="J198" t="inlineStr"/>
+      <c r="K198" t="inlineStr"/>
+      <c r="L198" t="inlineStr"/>
+      <c r="M198" t="n">
+        <v>1</v>
+      </c>
+      <c r="N198" t="inlineStr"/>
+    </row>
+    <row r="199">
+      <c r="A199" s="1" t="n">
+        <v>197</v>
+      </c>
+      <c r="B199" t="n">
+        <v>66</v>
+      </c>
+      <c r="C199" t="n">
+        <v>66</v>
+      </c>
+      <c r="D199" t="n">
+        <v>66</v>
+      </c>
+      <c r="E199" t="n">
+        <v>66</v>
+      </c>
+      <c r="F199" t="n">
+        <v>803</v>
+      </c>
+      <c r="G199" t="n">
+        <v>54292.59191461291</v>
+      </c>
+      <c r="H199" t="n">
+        <v>0</v>
+      </c>
+      <c r="I199" t="n">
+        <v>0</v>
+      </c>
+      <c r="J199" t="inlineStr"/>
+      <c r="K199" t="inlineStr"/>
+      <c r="L199" t="inlineStr"/>
+      <c r="M199" t="n">
+        <v>1</v>
+      </c>
+      <c r="N199" t="inlineStr"/>
+    </row>
+    <row r="200">
+      <c r="A200" s="1" t="n">
+        <v>198</v>
+      </c>
+      <c r="B200" t="n">
+        <v>66.8</v>
+      </c>
+      <c r="C200" t="n">
+        <v>66.8</v>
+      </c>
+      <c r="D200" t="n">
+        <v>66.8</v>
+      </c>
+      <c r="E200" t="n">
+        <v>66.8</v>
+      </c>
+      <c r="F200" t="n">
+        <v>830.0009</v>
+      </c>
+      <c r="G200" t="n">
+        <v>55122.59281461291</v>
+      </c>
+      <c r="H200" t="n">
+        <v>0</v>
+      </c>
+      <c r="I200" t="n">
+        <v>0</v>
+      </c>
+      <c r="J200" t="inlineStr"/>
+      <c r="K200" t="inlineStr"/>
+      <c r="L200" t="inlineStr"/>
+      <c r="M200" t="n">
+        <v>1</v>
+      </c>
+      <c r="N200" t="inlineStr"/>
+    </row>
+    <row r="201">
+      <c r="A201" s="1" t="n">
+        <v>199</v>
+      </c>
+      <c r="B201" t="n">
+        <v>68.08</v>
+      </c>
+      <c r="C201" t="n">
+        <v>68.08</v>
+      </c>
+      <c r="D201" t="n">
+        <v>68.08</v>
+      </c>
+      <c r="E201" t="n">
+        <v>68.08</v>
+      </c>
+      <c r="F201" t="n">
+        <v>13</v>
+      </c>
+      <c r="G201" t="n">
+        <v>55135.59281461291</v>
+      </c>
+      <c r="H201" t="n">
+        <v>0</v>
+      </c>
+      <c r="I201" t="n">
+        <v>0</v>
+      </c>
+      <c r="J201" t="inlineStr"/>
+      <c r="K201" t="inlineStr"/>
+      <c r="L201" t="inlineStr"/>
+      <c r="M201" t="n">
+        <v>1</v>
+      </c>
+      <c r="N201" t="inlineStr"/>
+    </row>
+    <row r="202">
+      <c r="A202" s="1" t="n">
+        <v>200</v>
+      </c>
+      <c r="B202" t="n">
+        <v>67.5</v>
+      </c>
+      <c r="C202" t="n">
+        <v>67.8</v>
+      </c>
+      <c r="D202" t="n">
+        <v>67.8</v>
+      </c>
+      <c r="E202" t="n">
+        <v>67.5</v>
+      </c>
+      <c r="F202" t="n">
+        <v>34</v>
+      </c>
+      <c r="G202" t="n">
+        <v>55101.59281461291</v>
+      </c>
+      <c r="H202" t="n">
+        <v>0</v>
+      </c>
+      <c r="I202" t="n">
+        <v>1</v>
+      </c>
+      <c r="J202" t="inlineStr"/>
+      <c r="K202" t="inlineStr"/>
+      <c r="L202" t="inlineStr"/>
+      <c r="M202" t="n">
+        <v>1</v>
+      </c>
+      <c r="N202" t="inlineStr"/>
+    </row>
+    <row r="203">
+      <c r="A203" s="1" t="n">
+        <v>201</v>
+      </c>
+      <c r="B203" t="n">
+        <v>67.01000000000001</v>
+      </c>
+      <c r="C203" t="n">
+        <v>67.01000000000001</v>
+      </c>
+      <c r="D203" t="n">
+        <v>67.01000000000001</v>
+      </c>
+      <c r="E203" t="n">
+        <v>67.01000000000001</v>
+      </c>
+      <c r="F203" t="n">
+        <v>13</v>
+      </c>
+      <c r="G203" t="n">
+        <v>55088.59281461291</v>
+      </c>
+      <c r="H203" t="n">
+        <v>0</v>
+      </c>
+      <c r="I203" t="n">
+        <v>0</v>
+      </c>
+      <c r="J203" t="inlineStr"/>
+      <c r="K203" t="inlineStr"/>
+      <c r="L203" t="inlineStr"/>
+      <c r="M203" t="n">
+        <v>1</v>
+      </c>
+      <c r="N203" t="inlineStr"/>
+    </row>
+    <row r="204">
+      <c r="A204" s="1" t="n">
+        <v>202</v>
+      </c>
+      <c r="B204" t="n">
+        <v>67</v>
+      </c>
+      <c r="C204" t="n">
+        <v>67</v>
+      </c>
+      <c r="D204" t="n">
+        <v>67</v>
+      </c>
+      <c r="E204" t="n">
+        <v>67</v>
+      </c>
+      <c r="F204" t="n">
+        <v>13</v>
+      </c>
+      <c r="G204" t="n">
+        <v>55075.59281461291</v>
+      </c>
+      <c r="H204" t="n">
+        <v>0</v>
+      </c>
+      <c r="I204" t="n">
+        <v>0</v>
+      </c>
+      <c r="J204" t="inlineStr"/>
+      <c r="K204" t="inlineStr"/>
+      <c r="L204" t="inlineStr"/>
+      <c r="M204" t="n">
+        <v>1</v>
+      </c>
+      <c r="N204" t="inlineStr"/>
+    </row>
+    <row r="205">
+      <c r="A205" s="1" t="n">
+        <v>203</v>
+      </c>
+      <c r="B205" t="n">
+        <v>66.79000000000001</v>
+      </c>
+      <c r="C205" t="n">
+        <v>66.2</v>
+      </c>
+      <c r="D205" t="n">
+        <v>66.79000000000001</v>
+      </c>
+      <c r="E205" t="n">
+        <v>66.2</v>
+      </c>
+      <c r="F205" t="n">
+        <v>65</v>
+      </c>
+      <c r="G205" t="n">
+        <v>55010.59281461291</v>
+      </c>
+      <c r="H205" t="n">
+        <v>0</v>
+      </c>
+      <c r="I205" t="n">
+        <v>0</v>
+      </c>
+      <c r="J205" t="inlineStr"/>
+      <c r="K205" t="inlineStr"/>
+      <c r="L205" t="inlineStr"/>
+      <c r="M205" t="n">
+        <v>1</v>
+      </c>
+      <c r="N205" t="inlineStr"/>
+    </row>
+    <row r="206">
+      <c r="A206" s="1" t="n">
+        <v>204</v>
+      </c>
+      <c r="B206" t="n">
+        <v>66.09999999999999</v>
+      </c>
+      <c r="C206" t="n">
+        <v>66.09999999999999</v>
+      </c>
+      <c r="D206" t="n">
+        <v>66.09999999999999</v>
+      </c>
+      <c r="E206" t="n">
+        <v>66.09999999999999</v>
+      </c>
+      <c r="F206" t="n">
+        <v>13</v>
+      </c>
+      <c r="G206" t="n">
+        <v>54997.59281461291</v>
+      </c>
+      <c r="H206" t="n">
+        <v>0</v>
+      </c>
+      <c r="I206" t="n">
+        <v>0</v>
+      </c>
+      <c r="J206" t="inlineStr"/>
+      <c r="K206" t="inlineStr"/>
+      <c r="L206" t="inlineStr"/>
+      <c r="M206" t="n">
+        <v>1</v>
+      </c>
+      <c r="N206" t="inlineStr"/>
+    </row>
+    <row r="207">
+      <c r="A207" s="1" t="n">
+        <v>205</v>
+      </c>
+      <c r="B207" t="n">
+        <v>66.01000000000001</v>
+      </c>
+      <c r="C207" t="n">
+        <v>65.81</v>
+      </c>
+      <c r="D207" t="n">
+        <v>66.01000000000001</v>
+      </c>
+      <c r="E207" t="n">
+        <v>65.81</v>
+      </c>
+      <c r="F207" t="n">
+        <v>46582.0545</v>
+      </c>
+      <c r="G207" t="n">
+        <v>8415.53831461291</v>
+      </c>
+      <c r="H207" t="n">
+        <v>0</v>
+      </c>
+      <c r="I207" t="n">
+        <v>0</v>
+      </c>
+      <c r="J207" t="inlineStr"/>
+      <c r="K207" t="inlineStr"/>
+      <c r="L207" t="inlineStr"/>
+      <c r="M207" t="n">
+        <v>1</v>
+      </c>
+      <c r="N207" t="inlineStr"/>
+    </row>
+    <row r="208">
+      <c r="A208" s="1" t="n">
+        <v>206</v>
+      </c>
+      <c r="B208" t="n">
+        <v>65.81</v>
+      </c>
+      <c r="C208" t="n">
+        <v>65.09999999999999</v>
+      </c>
+      <c r="D208" t="n">
+        <v>65.81</v>
+      </c>
+      <c r="E208" t="n">
+        <v>65.09999999999999</v>
+      </c>
+      <c r="F208" t="n">
+        <v>513</v>
+      </c>
+      <c r="G208" t="n">
+        <v>7902.53831461291</v>
+      </c>
+      <c r="H208" t="n">
+        <v>0</v>
+      </c>
+      <c r="I208" t="n">
+        <v>0</v>
+      </c>
+      <c r="J208" t="inlineStr"/>
+      <c r="K208" t="inlineStr"/>
+      <c r="L208" t="inlineStr"/>
+      <c r="M208" t="n">
+        <v>1</v>
+      </c>
+      <c r="N208" t="inlineStr"/>
+    </row>
+    <row r="209">
+      <c r="A209" s="1" t="n">
+        <v>207</v>
+      </c>
+      <c r="B209" t="n">
+        <v>65.09999999999999</v>
+      </c>
+      <c r="C209" t="n">
+        <v>65.98</v>
+      </c>
+      <c r="D209" t="n">
+        <v>65.98999999999999</v>
+      </c>
+      <c r="E209" t="n">
+        <v>65.09999999999999</v>
+      </c>
+      <c r="F209" t="n">
+        <v>39.1818</v>
+      </c>
+      <c r="G209" t="n">
+        <v>7941.72011461291</v>
+      </c>
+      <c r="H209" t="n">
+        <v>0</v>
+      </c>
+      <c r="I209" t="n">
+        <v>0</v>
+      </c>
+      <c r="J209" t="inlineStr"/>
+      <c r="K209" t="inlineStr"/>
+      <c r="L209" t="inlineStr"/>
+      <c r="M209" t="n">
+        <v>1</v>
+      </c>
+      <c r="N209" t="inlineStr"/>
+    </row>
+    <row r="210">
+      <c r="A210" s="1" t="n">
+        <v>208</v>
+      </c>
+      <c r="B210" t="n">
+        <v>65.98</v>
+      </c>
+      <c r="C210" t="n">
+        <v>65.98</v>
+      </c>
+      <c r="D210" t="n">
+        <v>65.98</v>
+      </c>
+      <c r="E210" t="n">
+        <v>65.98</v>
+      </c>
+      <c r="F210" t="n">
+        <v>18.1818</v>
+      </c>
+      <c r="G210" t="n">
+        <v>7941.72011461291</v>
+      </c>
+      <c r="H210" t="n">
+        <v>0</v>
+      </c>
+      <c r="I210" t="n">
+        <v>0</v>
+      </c>
+      <c r="J210" t="inlineStr"/>
+      <c r="K210" t="inlineStr"/>
+      <c r="L210" t="inlineStr"/>
+      <c r="M210" t="n">
+        <v>1</v>
+      </c>
+      <c r="N210" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>

--- a/BackTest/2020-01-24 BackTest FX.xlsx
+++ b/BackTest/2020-01-24 BackTest FX.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -2629,10 +2629,14 @@
         <v>20010.64851461293</v>
       </c>
       <c r="H68" t="n">
-        <v>0</v>
-      </c>
-      <c r="I68" t="inlineStr"/>
-      <c r="J68" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I68" t="n">
+        <v>65.3</v>
+      </c>
+      <c r="J68" t="n">
+        <v>65.3</v>
+      </c>
       <c r="K68" t="inlineStr"/>
       <c r="L68" t="n">
         <v>1</v>
@@ -2665,8 +2669,14 @@
         <v>0</v>
       </c>
       <c r="I69" t="inlineStr"/>
-      <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr"/>
+      <c r="J69" t="n">
+        <v>65.3</v>
+      </c>
+      <c r="K69" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L69" t="n">
         <v>1</v>
       </c>
@@ -2698,8 +2708,14 @@
         <v>0</v>
       </c>
       <c r="I70" t="inlineStr"/>
-      <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr"/>
+      <c r="J70" t="n">
+        <v>65.3</v>
+      </c>
+      <c r="K70" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L70" t="n">
         <v>1</v>
       </c>
@@ -2731,8 +2747,14 @@
         <v>0</v>
       </c>
       <c r="I71" t="inlineStr"/>
-      <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr"/>
+      <c r="J71" t="n">
+        <v>65.3</v>
+      </c>
+      <c r="K71" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L71" t="n">
         <v>1</v>
       </c>
@@ -2764,8 +2786,14 @@
         <v>0</v>
       </c>
       <c r="I72" t="inlineStr"/>
-      <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr"/>
+      <c r="J72" t="n">
+        <v>65.3</v>
+      </c>
+      <c r="K72" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L72" t="n">
         <v>1</v>
       </c>
@@ -2797,8 +2825,14 @@
         <v>0</v>
       </c>
       <c r="I73" t="inlineStr"/>
-      <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr"/>
+      <c r="J73" t="n">
+        <v>65.3</v>
+      </c>
+      <c r="K73" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L73" t="n">
         <v>1</v>
       </c>
@@ -2830,8 +2864,14 @@
         <v>0</v>
       </c>
       <c r="I74" t="inlineStr"/>
-      <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr"/>
+      <c r="J74" t="n">
+        <v>65.3</v>
+      </c>
+      <c r="K74" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L74" t="n">
         <v>1</v>
       </c>
@@ -2863,8 +2903,14 @@
         <v>0</v>
       </c>
       <c r="I75" t="inlineStr"/>
-      <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr"/>
+      <c r="J75" t="n">
+        <v>65.3</v>
+      </c>
+      <c r="K75" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L75" t="n">
         <v>1</v>
       </c>
@@ -2896,8 +2942,14 @@
         <v>0</v>
       </c>
       <c r="I76" t="inlineStr"/>
-      <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr"/>
+      <c r="J76" t="n">
+        <v>65.3</v>
+      </c>
+      <c r="K76" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L76" t="n">
         <v>1</v>
       </c>
@@ -2929,8 +2981,14 @@
         <v>0</v>
       </c>
       <c r="I77" t="inlineStr"/>
-      <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr"/>
+      <c r="J77" t="n">
+        <v>65.3</v>
+      </c>
+      <c r="K77" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L77" t="n">
         <v>1</v>
       </c>
@@ -2962,8 +3020,14 @@
         <v>0</v>
       </c>
       <c r="I78" t="inlineStr"/>
-      <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr"/>
+      <c r="J78" t="n">
+        <v>65.3</v>
+      </c>
+      <c r="K78" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L78" t="n">
         <v>1</v>
       </c>
@@ -2995,8 +3059,14 @@
         <v>0</v>
       </c>
       <c r="I79" t="inlineStr"/>
-      <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr"/>
+      <c r="J79" t="n">
+        <v>65.3</v>
+      </c>
+      <c r="K79" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L79" t="n">
         <v>1</v>
       </c>
@@ -3028,8 +3098,14 @@
         <v>0</v>
       </c>
       <c r="I80" t="inlineStr"/>
-      <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr"/>
+      <c r="J80" t="n">
+        <v>65.3</v>
+      </c>
+      <c r="K80" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L80" t="n">
         <v>1</v>
       </c>
@@ -3061,8 +3137,14 @@
         <v>0</v>
       </c>
       <c r="I81" t="inlineStr"/>
-      <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr"/>
+      <c r="J81" t="n">
+        <v>65.3</v>
+      </c>
+      <c r="K81" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L81" t="n">
         <v>1</v>
       </c>
@@ -3094,8 +3176,14 @@
         <v>0</v>
       </c>
       <c r="I82" t="inlineStr"/>
-      <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr"/>
+      <c r="J82" t="n">
+        <v>65.3</v>
+      </c>
+      <c r="K82" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L82" t="n">
         <v>1</v>
       </c>
@@ -3127,8 +3215,14 @@
         <v>0</v>
       </c>
       <c r="I83" t="inlineStr"/>
-      <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr"/>
+      <c r="J83" t="n">
+        <v>65.3</v>
+      </c>
+      <c r="K83" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L83" t="n">
         <v>1</v>
       </c>
@@ -3160,8 +3254,14 @@
         <v>0</v>
       </c>
       <c r="I84" t="inlineStr"/>
-      <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr"/>
+      <c r="J84" t="n">
+        <v>65.3</v>
+      </c>
+      <c r="K84" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L84" t="n">
         <v>1</v>
       </c>
@@ -3193,8 +3293,14 @@
         <v>0</v>
       </c>
       <c r="I85" t="inlineStr"/>
-      <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr"/>
+      <c r="J85" t="n">
+        <v>65.3</v>
+      </c>
+      <c r="K85" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L85" t="n">
         <v>1</v>
       </c>
@@ -3226,8 +3332,14 @@
         <v>0</v>
       </c>
       <c r="I86" t="inlineStr"/>
-      <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr"/>
+      <c r="J86" t="n">
+        <v>65.3</v>
+      </c>
+      <c r="K86" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L86" t="n">
         <v>1</v>
       </c>
@@ -3259,8 +3371,14 @@
         <v>0</v>
       </c>
       <c r="I87" t="inlineStr"/>
-      <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr"/>
+      <c r="J87" t="n">
+        <v>65.3</v>
+      </c>
+      <c r="K87" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L87" t="n">
         <v>1</v>
       </c>
@@ -3292,8 +3410,14 @@
         <v>0</v>
       </c>
       <c r="I88" t="inlineStr"/>
-      <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr"/>
+      <c r="J88" t="n">
+        <v>65.3</v>
+      </c>
+      <c r="K88" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L88" t="n">
         <v>1</v>
       </c>
@@ -3325,8 +3449,14 @@
         <v>0</v>
       </c>
       <c r="I89" t="inlineStr"/>
-      <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr"/>
+      <c r="J89" t="n">
+        <v>65.3</v>
+      </c>
+      <c r="K89" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L89" t="n">
         <v>1</v>
       </c>
@@ -3358,8 +3488,14 @@
         <v>0</v>
       </c>
       <c r="I90" t="inlineStr"/>
-      <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr"/>
+      <c r="J90" t="n">
+        <v>65.3</v>
+      </c>
+      <c r="K90" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L90" t="n">
         <v>1</v>
       </c>
@@ -3391,8 +3527,14 @@
         <v>0</v>
       </c>
       <c r="I91" t="inlineStr"/>
-      <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr"/>
+      <c r="J91" t="n">
+        <v>65.3</v>
+      </c>
+      <c r="K91" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L91" t="n">
         <v>1</v>
       </c>
@@ -3424,8 +3566,14 @@
         <v>0</v>
       </c>
       <c r="I92" t="inlineStr"/>
-      <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr"/>
+      <c r="J92" t="n">
+        <v>65.3</v>
+      </c>
+      <c r="K92" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L92" t="n">
         <v>1</v>
       </c>
@@ -3457,8 +3605,14 @@
         <v>0</v>
       </c>
       <c r="I93" t="inlineStr"/>
-      <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr"/>
+      <c r="J93" t="n">
+        <v>65.3</v>
+      </c>
+      <c r="K93" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L93" t="n">
         <v>1</v>
       </c>
@@ -3490,8 +3644,14 @@
         <v>0</v>
       </c>
       <c r="I94" t="inlineStr"/>
-      <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr"/>
+      <c r="J94" t="n">
+        <v>65.3</v>
+      </c>
+      <c r="K94" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L94" t="n">
         <v>1</v>
       </c>
@@ -3523,8 +3683,14 @@
         <v>0</v>
       </c>
       <c r="I95" t="inlineStr"/>
-      <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr"/>
+      <c r="J95" t="n">
+        <v>65.3</v>
+      </c>
+      <c r="K95" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L95" t="n">
         <v>1</v>
       </c>
@@ -3556,8 +3722,14 @@
         <v>0</v>
       </c>
       <c r="I96" t="inlineStr"/>
-      <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr"/>
+      <c r="J96" t="n">
+        <v>65.3</v>
+      </c>
+      <c r="K96" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L96" t="n">
         <v>1</v>
       </c>
@@ -3589,8 +3761,14 @@
         <v>0</v>
       </c>
       <c r="I97" t="inlineStr"/>
-      <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr"/>
+      <c r="J97" t="n">
+        <v>65.3</v>
+      </c>
+      <c r="K97" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L97" t="n">
         <v>1</v>
       </c>
@@ -3622,8 +3800,14 @@
         <v>0</v>
       </c>
       <c r="I98" t="inlineStr"/>
-      <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr"/>
+      <c r="J98" t="n">
+        <v>65.3</v>
+      </c>
+      <c r="K98" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L98" t="n">
         <v>1</v>
       </c>
@@ -3655,8 +3839,14 @@
         <v>0</v>
       </c>
       <c r="I99" t="inlineStr"/>
-      <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr"/>
+      <c r="J99" t="n">
+        <v>65.3</v>
+      </c>
+      <c r="K99" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L99" t="n">
         <v>1</v>
       </c>
@@ -3688,8 +3878,14 @@
         <v>0</v>
       </c>
       <c r="I100" t="inlineStr"/>
-      <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr"/>
+      <c r="J100" t="n">
+        <v>65.3</v>
+      </c>
+      <c r="K100" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L100" t="n">
         <v>1</v>
       </c>
@@ -3721,8 +3917,14 @@
         <v>0</v>
       </c>
       <c r="I101" t="inlineStr"/>
-      <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr"/>
+      <c r="J101" t="n">
+        <v>65.3</v>
+      </c>
+      <c r="K101" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L101" t="n">
         <v>1</v>
       </c>
@@ -3754,8 +3956,14 @@
         <v>0</v>
       </c>
       <c r="I102" t="inlineStr"/>
-      <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr"/>
+      <c r="J102" t="n">
+        <v>65.3</v>
+      </c>
+      <c r="K102" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L102" t="n">
         <v>1</v>
       </c>
@@ -3787,8 +3995,14 @@
         <v>0</v>
       </c>
       <c r="I103" t="inlineStr"/>
-      <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr"/>
+      <c r="J103" t="n">
+        <v>65.3</v>
+      </c>
+      <c r="K103" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L103" t="n">
         <v>1</v>
       </c>
@@ -3820,8 +4034,14 @@
         <v>0</v>
       </c>
       <c r="I104" t="inlineStr"/>
-      <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr"/>
+      <c r="J104" t="n">
+        <v>65.3</v>
+      </c>
+      <c r="K104" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L104" t="n">
         <v>1</v>
       </c>
@@ -3853,8 +4073,14 @@
         <v>0</v>
       </c>
       <c r="I105" t="inlineStr"/>
-      <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr"/>
+      <c r="J105" t="n">
+        <v>65.3</v>
+      </c>
+      <c r="K105" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L105" t="n">
         <v>1</v>
       </c>
@@ -3886,8 +4112,14 @@
         <v>0</v>
       </c>
       <c r="I106" t="inlineStr"/>
-      <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr"/>
+      <c r="J106" t="n">
+        <v>65.3</v>
+      </c>
+      <c r="K106" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L106" t="n">
         <v>1</v>
       </c>
@@ -3919,8 +4151,14 @@
         <v>0</v>
       </c>
       <c r="I107" t="inlineStr"/>
-      <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr"/>
+      <c r="J107" t="n">
+        <v>65.3</v>
+      </c>
+      <c r="K107" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L107" t="n">
         <v>1</v>
       </c>
@@ -3952,8 +4190,14 @@
         <v>0</v>
       </c>
       <c r="I108" t="inlineStr"/>
-      <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr"/>
+      <c r="J108" t="n">
+        <v>65.3</v>
+      </c>
+      <c r="K108" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L108" t="n">
         <v>1</v>
       </c>
@@ -3985,8 +4229,14 @@
         <v>0</v>
       </c>
       <c r="I109" t="inlineStr"/>
-      <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr"/>
+      <c r="J109" t="n">
+        <v>65.3</v>
+      </c>
+      <c r="K109" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L109" t="n">
         <v>1</v>
       </c>
@@ -4018,8 +4268,14 @@
         <v>0</v>
       </c>
       <c r="I110" t="inlineStr"/>
-      <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr"/>
+      <c r="J110" t="n">
+        <v>65.3</v>
+      </c>
+      <c r="K110" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L110" t="n">
         <v>1</v>
       </c>
@@ -4051,8 +4307,14 @@
         <v>0</v>
       </c>
       <c r="I111" t="inlineStr"/>
-      <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr"/>
+      <c r="J111" t="n">
+        <v>65.3</v>
+      </c>
+      <c r="K111" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L111" t="n">
         <v>1</v>
       </c>
@@ -4081,13 +4343,19 @@
         <v>73840.96171461293</v>
       </c>
       <c r="H112" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I112" t="inlineStr"/>
-      <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr"/>
+      <c r="J112" t="n">
+        <v>65.3</v>
+      </c>
+      <c r="K112" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
       <c r="L112" t="n">
-        <v>1</v>
+        <v>1.003269525267994</v>
       </c>
       <c r="M112" t="inlineStr"/>
     </row>
@@ -4147,7 +4415,7 @@
         <v>72858.96171461293</v>
       </c>
       <c r="H114" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
@@ -4543,7 +4811,7 @@
         <v>84348.59611461293</v>
       </c>
       <c r="H126" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
@@ -4576,7 +4844,7 @@
         <v>84358.93421461292</v>
       </c>
       <c r="H127" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
@@ -4609,7 +4877,7 @@
         <v>84415.93421461292</v>
       </c>
       <c r="H128" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
@@ -4642,7 +4910,7 @@
         <v>72270.43631461292</v>
       </c>
       <c r="H129" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
@@ -5038,7 +5306,7 @@
         <v>75699.04071461291</v>
       </c>
       <c r="H141" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
@@ -5104,7 +5372,7 @@
         <v>75437.98681461292</v>
       </c>
       <c r="H143" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
@@ -5170,7 +5438,7 @@
         <v>72638.66031461292</v>
       </c>
       <c r="H145" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
@@ -5269,7 +5537,7 @@
         <v>72498.66031461292</v>
       </c>
       <c r="H148" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
@@ -5302,7 +5570,7 @@
         <v>72498.66031461292</v>
       </c>
       <c r="H149" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
@@ -5335,7 +5603,7 @@
         <v>72506.66031461292</v>
       </c>
       <c r="H150" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
@@ -5368,7 +5636,7 @@
         <v>61582.11631461292</v>
       </c>
       <c r="H151" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
@@ -5401,7 +5669,7 @@
         <v>70967.49241461292</v>
       </c>
       <c r="H152" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
@@ -5962,17 +6230,11 @@
         <v>58167.11965165837</v>
       </c>
       <c r="H169" t="n">
-        <v>2</v>
-      </c>
-      <c r="I169" t="n">
-        <v>66.37</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I169" t="inlineStr"/>
       <c r="J169" t="inlineStr"/>
-      <c r="K169" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="K169" t="inlineStr"/>
       <c r="L169" t="n">
         <v>1</v>
       </c>
@@ -6005,11 +6267,7 @@
       </c>
       <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr"/>
-      <c r="K170" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K170" t="inlineStr"/>
       <c r="L170" t="n">
         <v>1</v>
       </c>
@@ -6042,11 +6300,7 @@
       </c>
       <c r="I171" t="inlineStr"/>
       <c r="J171" t="inlineStr"/>
-      <c r="K171" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K171" t="inlineStr"/>
       <c r="L171" t="n">
         <v>1</v>
       </c>
@@ -6079,11 +6333,7 @@
       </c>
       <c r="I172" t="inlineStr"/>
       <c r="J172" t="inlineStr"/>
-      <c r="K172" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K172" t="inlineStr"/>
       <c r="L172" t="n">
         <v>1</v>
       </c>
@@ -6116,11 +6366,7 @@
       </c>
       <c r="I173" t="inlineStr"/>
       <c r="J173" t="inlineStr"/>
-      <c r="K173" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K173" t="inlineStr"/>
       <c r="L173" t="n">
         <v>1</v>
       </c>
@@ -6153,11 +6399,7 @@
       </c>
       <c r="I174" t="inlineStr"/>
       <c r="J174" t="inlineStr"/>
-      <c r="K174" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K174" t="inlineStr"/>
       <c r="L174" t="n">
         <v>1</v>
       </c>
@@ -6190,11 +6432,7 @@
       </c>
       <c r="I175" t="inlineStr"/>
       <c r="J175" t="inlineStr"/>
-      <c r="K175" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K175" t="inlineStr"/>
       <c r="L175" t="n">
         <v>1</v>
       </c>
@@ -6227,11 +6465,7 @@
       </c>
       <c r="I176" t="inlineStr"/>
       <c r="J176" t="inlineStr"/>
-      <c r="K176" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K176" t="inlineStr"/>
       <c r="L176" t="n">
         <v>1</v>
       </c>
@@ -6264,11 +6498,7 @@
       </c>
       <c r="I177" t="inlineStr"/>
       <c r="J177" t="inlineStr"/>
-      <c r="K177" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K177" t="inlineStr"/>
       <c r="L177" t="n">
         <v>1</v>
       </c>
@@ -6301,11 +6531,7 @@
       </c>
       <c r="I178" t="inlineStr"/>
       <c r="J178" t="inlineStr"/>
-      <c r="K178" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K178" t="inlineStr"/>
       <c r="L178" t="n">
         <v>1</v>
       </c>
@@ -6338,11 +6564,7 @@
       </c>
       <c r="I179" t="inlineStr"/>
       <c r="J179" t="inlineStr"/>
-      <c r="K179" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K179" t="inlineStr"/>
       <c r="L179" t="n">
         <v>1</v>
       </c>
@@ -6371,15 +6593,11 @@
         <v>37543.16735165836</v>
       </c>
       <c r="H180" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I180" t="inlineStr"/>
       <c r="J180" t="inlineStr"/>
-      <c r="K180" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K180" t="inlineStr"/>
       <c r="L180" t="n">
         <v>1</v>
       </c>
@@ -6412,11 +6630,7 @@
       </c>
       <c r="I181" t="inlineStr"/>
       <c r="J181" t="inlineStr"/>
-      <c r="K181" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K181" t="inlineStr"/>
       <c r="L181" t="n">
         <v>1</v>
       </c>
@@ -6449,11 +6663,7 @@
       </c>
       <c r="I182" t="inlineStr"/>
       <c r="J182" t="inlineStr"/>
-      <c r="K182" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K182" t="inlineStr"/>
       <c r="L182" t="n">
         <v>1</v>
       </c>
@@ -6482,17 +6692,11 @@
         <v>38054.32255165836</v>
       </c>
       <c r="H183" t="n">
-        <v>2</v>
-      </c>
-      <c r="I183" t="n">
-        <v>66.37</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I183" t="inlineStr"/>
       <c r="J183" t="inlineStr"/>
-      <c r="K183" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K183" t="inlineStr"/>
       <c r="L183" t="n">
         <v>1</v>
       </c>
@@ -6521,17 +6725,11 @@
         <v>43719.84961490925</v>
       </c>
       <c r="H184" t="n">
-        <v>2</v>
-      </c>
-      <c r="I184" t="n">
-        <v>66.37</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I184" t="inlineStr"/>
       <c r="J184" t="inlineStr"/>
-      <c r="K184" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K184" t="inlineStr"/>
       <c r="L184" t="n">
         <v>1</v>
       </c>
@@ -6564,11 +6762,7 @@
       </c>
       <c r="I185" t="inlineStr"/>
       <c r="J185" t="inlineStr"/>
-      <c r="K185" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K185" t="inlineStr"/>
       <c r="L185" t="n">
         <v>1</v>
       </c>
@@ -6597,17 +6791,11 @@
         <v>43719.84961490925</v>
       </c>
       <c r="H186" t="n">
-        <v>2</v>
-      </c>
-      <c r="I186" t="n">
-        <v>66.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I186" t="inlineStr"/>
       <c r="J186" t="inlineStr"/>
-      <c r="K186" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K186" t="inlineStr"/>
       <c r="L186" t="n">
         <v>1</v>
       </c>
@@ -6640,11 +6828,7 @@
       </c>
       <c r="I187" t="inlineStr"/>
       <c r="J187" t="inlineStr"/>
-      <c r="K187" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K187" t="inlineStr"/>
       <c r="L187" t="n">
         <v>1</v>
       </c>
@@ -6673,17 +6857,11 @@
         <v>43707.84961490925</v>
       </c>
       <c r="H188" t="n">
-        <v>2</v>
-      </c>
-      <c r="I188" t="n">
-        <v>66.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I188" t="inlineStr"/>
       <c r="J188" t="inlineStr"/>
-      <c r="K188" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K188" t="inlineStr"/>
       <c r="L188" t="n">
         <v>1</v>
       </c>
@@ -6712,17 +6890,11 @@
         <v>73576.22041461291</v>
       </c>
       <c r="H189" t="n">
-        <v>2</v>
-      </c>
-      <c r="I189" t="n">
-        <v>66.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I189" t="inlineStr"/>
       <c r="J189" t="inlineStr"/>
-      <c r="K189" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K189" t="inlineStr"/>
       <c r="L189" t="n">
         <v>1</v>
       </c>
@@ -6755,11 +6927,7 @@
       </c>
       <c r="I190" t="inlineStr"/>
       <c r="J190" t="inlineStr"/>
-      <c r="K190" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K190" t="inlineStr"/>
       <c r="L190" t="n">
         <v>1</v>
       </c>
@@ -6792,11 +6960,7 @@
       </c>
       <c r="I191" t="inlineStr"/>
       <c r="J191" t="inlineStr"/>
-      <c r="K191" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K191" t="inlineStr"/>
       <c r="L191" t="n">
         <v>1</v>
       </c>
@@ -6825,16 +6989,14 @@
         <v>58220.22041461291</v>
       </c>
       <c r="H192" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I192" t="inlineStr"/>
       <c r="J192" t="inlineStr"/>
-      <c r="K192" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="L192" t="inlineStr"/>
+      <c r="K192" t="inlineStr"/>
+      <c r="L192" t="n">
+        <v>1</v>
+      </c>
       <c r="M192" t="inlineStr"/>
     </row>
     <row r="193">
@@ -6893,7 +7055,7 @@
         <v>59627.08691461291</v>
       </c>
       <c r="H194" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I194" t="inlineStr"/>
       <c r="J194" t="inlineStr"/>
@@ -6959,14 +7121,10 @@
         <v>59627.08691461291</v>
       </c>
       <c r="H196" t="n">
-        <v>2</v>
-      </c>
-      <c r="I196" t="n">
-        <v>66.59999999999999</v>
-      </c>
-      <c r="J196" t="n">
-        <v>66.59999999999999</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I196" t="inlineStr"/>
+      <c r="J196" t="inlineStr"/>
       <c r="K196" t="inlineStr"/>
       <c r="L196" t="n">
         <v>1</v>
@@ -6999,14 +7157,8 @@
         <v>0</v>
       </c>
       <c r="I197" t="inlineStr"/>
-      <c r="J197" t="n">
-        <v>66.59999999999999</v>
-      </c>
-      <c r="K197" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J197" t="inlineStr"/>
+      <c r="K197" t="inlineStr"/>
       <c r="L197" t="n">
         <v>1</v>
       </c>
@@ -7038,14 +7190,8 @@
         <v>0</v>
       </c>
       <c r="I198" t="inlineStr"/>
-      <c r="J198" t="n">
-        <v>66.59999999999999</v>
-      </c>
-      <c r="K198" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="J198" t="inlineStr"/>
+      <c r="K198" t="inlineStr"/>
       <c r="L198" t="n">
         <v>1</v>
       </c>
@@ -7074,19 +7220,11 @@
         <v>54292.59191461291</v>
       </c>
       <c r="H199" t="n">
-        <v>2</v>
-      </c>
-      <c r="I199" t="n">
-        <v>68</v>
-      </c>
-      <c r="J199" t="n">
-        <v>66.59999999999999</v>
-      </c>
-      <c r="K199" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I199" t="inlineStr"/>
+      <c r="J199" t="inlineStr"/>
+      <c r="K199" t="inlineStr"/>
       <c r="L199" t="n">
         <v>1</v>
       </c>
@@ -7115,19 +7253,11 @@
         <v>55122.59281461291</v>
       </c>
       <c r="H200" t="n">
-        <v>2</v>
-      </c>
-      <c r="I200" t="n">
-        <v>66</v>
-      </c>
-      <c r="J200" t="n">
-        <v>66.59999999999999</v>
-      </c>
-      <c r="K200" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I200" t="inlineStr"/>
+      <c r="J200" t="inlineStr"/>
+      <c r="K200" t="inlineStr"/>
       <c r="L200" t="n">
         <v>1</v>
       </c>
@@ -7159,14 +7289,8 @@
         <v>0</v>
       </c>
       <c r="I201" t="inlineStr"/>
-      <c r="J201" t="n">
-        <v>66.59999999999999</v>
-      </c>
-      <c r="K201" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J201" t="inlineStr"/>
+      <c r="K201" t="inlineStr"/>
       <c r="L201" t="n">
         <v>1</v>
       </c>
@@ -7198,14 +7322,8 @@
         <v>0</v>
       </c>
       <c r="I202" t="inlineStr"/>
-      <c r="J202" t="n">
-        <v>66.59999999999999</v>
-      </c>
-      <c r="K202" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J202" t="inlineStr"/>
+      <c r="K202" t="inlineStr"/>
       <c r="L202" t="n">
         <v>1</v>
       </c>
@@ -7237,14 +7355,8 @@
         <v>0</v>
       </c>
       <c r="I203" t="inlineStr"/>
-      <c r="J203" t="n">
-        <v>66.59999999999999</v>
-      </c>
-      <c r="K203" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J203" t="inlineStr"/>
+      <c r="K203" t="inlineStr"/>
       <c r="L203" t="n">
         <v>1</v>
       </c>
@@ -7276,14 +7388,8 @@
         <v>0</v>
       </c>
       <c r="I204" t="inlineStr"/>
-      <c r="J204" t="n">
-        <v>66.59999999999999</v>
-      </c>
-      <c r="K204" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J204" t="inlineStr"/>
+      <c r="K204" t="inlineStr"/>
       <c r="L204" t="n">
         <v>1</v>
       </c>
@@ -7315,14 +7421,8 @@
         <v>0</v>
       </c>
       <c r="I205" t="inlineStr"/>
-      <c r="J205" t="n">
-        <v>66.59999999999999</v>
-      </c>
-      <c r="K205" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J205" t="inlineStr"/>
+      <c r="K205" t="inlineStr"/>
       <c r="L205" t="n">
         <v>1</v>
       </c>
@@ -7354,14 +7454,8 @@
         <v>0</v>
       </c>
       <c r="I206" t="inlineStr"/>
-      <c r="J206" t="n">
-        <v>66.59999999999999</v>
-      </c>
-      <c r="K206" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J206" t="inlineStr"/>
+      <c r="K206" t="inlineStr"/>
       <c r="L206" t="n">
         <v>1</v>
       </c>
@@ -7393,14 +7487,8 @@
         <v>0</v>
       </c>
       <c r="I207" t="inlineStr"/>
-      <c r="J207" t="n">
-        <v>66.59999999999999</v>
-      </c>
-      <c r="K207" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J207" t="inlineStr"/>
+      <c r="K207" t="inlineStr"/>
       <c r="L207" t="n">
         <v>1</v>
       </c>
@@ -7429,19 +7517,11 @@
         <v>7902.53831461291</v>
       </c>
       <c r="H208" t="n">
-        <v>2</v>
-      </c>
-      <c r="I208" t="n">
-        <v>65.81</v>
-      </c>
-      <c r="J208" t="n">
-        <v>66.59999999999999</v>
-      </c>
-      <c r="K208" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I208" t="inlineStr"/>
+      <c r="J208" t="inlineStr"/>
+      <c r="K208" t="inlineStr"/>
       <c r="L208" t="n">
         <v>1</v>
       </c>
@@ -7473,14 +7553,8 @@
         <v>0</v>
       </c>
       <c r="I209" t="inlineStr"/>
-      <c r="J209" t="n">
-        <v>66.59999999999999</v>
-      </c>
-      <c r="K209" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J209" t="inlineStr"/>
+      <c r="K209" t="inlineStr"/>
       <c r="L209" t="n">
         <v>1</v>
       </c>
@@ -7512,20 +7586,14 @@
         <v>0</v>
       </c>
       <c r="I210" t="inlineStr"/>
-      <c r="J210" t="n">
-        <v>66.59999999999999</v>
-      </c>
-      <c r="K210" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J210" t="inlineStr"/>
+      <c r="K210" t="inlineStr"/>
       <c r="L210" t="n">
         <v>1</v>
       </c>
       <c r="M210" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-24 BackTest FX.xlsx
+++ b/BackTest/2020-01-24 BackTest FX.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -2299,10 +2299,14 @@
         <v>28607.11391461293</v>
       </c>
       <c r="H58" t="n">
-        <v>0</v>
-      </c>
-      <c r="I58" t="inlineStr"/>
-      <c r="J58" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I58" t="n">
+        <v>65.11</v>
+      </c>
+      <c r="J58" t="n">
+        <v>65.11</v>
+      </c>
       <c r="K58" t="inlineStr"/>
       <c r="L58" t="n">
         <v>1</v>
@@ -2332,11 +2336,19 @@
         <v>21124.32011461293</v>
       </c>
       <c r="H59" t="n">
-        <v>0</v>
-      </c>
-      <c r="I59" t="inlineStr"/>
-      <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I59" t="n">
+        <v>66.48999999999999</v>
+      </c>
+      <c r="J59" t="n">
+        <v>65.11</v>
+      </c>
+      <c r="K59" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L59" t="n">
         <v>1</v>
       </c>
@@ -2368,8 +2380,14 @@
         <v>0</v>
       </c>
       <c r="I60" t="inlineStr"/>
-      <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr"/>
+      <c r="J60" t="n">
+        <v>65.11</v>
+      </c>
+      <c r="K60" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L60" t="n">
         <v>1</v>
       </c>
@@ -2401,8 +2419,14 @@
         <v>0</v>
       </c>
       <c r="I61" t="inlineStr"/>
-      <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr"/>
+      <c r="J61" t="n">
+        <v>65.11</v>
+      </c>
+      <c r="K61" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L61" t="n">
         <v>1</v>
       </c>
@@ -2431,11 +2455,19 @@
         <v>21061.32011461293</v>
       </c>
       <c r="H62" t="n">
-        <v>0</v>
-      </c>
-      <c r="I62" t="inlineStr"/>
-      <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I62" t="n">
+        <v>65.5</v>
+      </c>
+      <c r="J62" t="n">
+        <v>65.11</v>
+      </c>
+      <c r="K62" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L62" t="n">
         <v>1</v>
       </c>
@@ -2464,11 +2496,19 @@
         <v>21079.32011461293</v>
       </c>
       <c r="H63" t="n">
-        <v>0</v>
-      </c>
-      <c r="I63" t="inlineStr"/>
-      <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I63" t="n">
+        <v>65.98999999999999</v>
+      </c>
+      <c r="J63" t="n">
+        <v>65.11</v>
+      </c>
+      <c r="K63" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L63" t="n">
         <v>1</v>
       </c>
@@ -2500,8 +2540,14 @@
         <v>0</v>
       </c>
       <c r="I64" t="inlineStr"/>
-      <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr"/>
+      <c r="J64" t="n">
+        <v>65.11</v>
+      </c>
+      <c r="K64" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L64" t="n">
         <v>1</v>
       </c>
@@ -2533,8 +2579,14 @@
         <v>0</v>
       </c>
       <c r="I65" t="inlineStr"/>
-      <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr"/>
+      <c r="J65" t="n">
+        <v>65.11</v>
+      </c>
+      <c r="K65" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L65" t="n">
         <v>1</v>
       </c>
@@ -2566,8 +2618,14 @@
         <v>0</v>
       </c>
       <c r="I66" t="inlineStr"/>
-      <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr"/>
+      <c r="J66" t="n">
+        <v>65.11</v>
+      </c>
+      <c r="K66" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L66" t="n">
         <v>1</v>
       </c>
@@ -2599,8 +2657,14 @@
         <v>0</v>
       </c>
       <c r="I67" t="inlineStr"/>
-      <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr"/>
+      <c r="J67" t="n">
+        <v>65.11</v>
+      </c>
+      <c r="K67" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L67" t="n">
         <v>1</v>
       </c>
@@ -2629,15 +2693,17 @@
         <v>20010.64851461293</v>
       </c>
       <c r="H68" t="n">
-        <v>1</v>
-      </c>
-      <c r="I68" t="n">
-        <v>65.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I68" t="inlineStr"/>
       <c r="J68" t="n">
-        <v>65.3</v>
-      </c>
-      <c r="K68" t="inlineStr"/>
+        <v>65.11</v>
+      </c>
+      <c r="K68" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L68" t="n">
         <v>1</v>
       </c>
@@ -2670,11 +2736,11 @@
       </c>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="n">
-        <v>65.3</v>
+        <v>65.11</v>
       </c>
       <c r="K69" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L69" t="n">
@@ -2709,7 +2775,7 @@
       </c>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="n">
-        <v>65.3</v>
+        <v>65.11</v>
       </c>
       <c r="K70" t="inlineStr">
         <is>
@@ -2748,7 +2814,7 @@
       </c>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="n">
-        <v>65.3</v>
+        <v>65.11</v>
       </c>
       <c r="K71" t="inlineStr">
         <is>
@@ -2787,7 +2853,7 @@
       </c>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="n">
-        <v>65.3</v>
+        <v>65.11</v>
       </c>
       <c r="K72" t="inlineStr">
         <is>
@@ -2826,7 +2892,7 @@
       </c>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="n">
-        <v>65.3</v>
+        <v>65.11</v>
       </c>
       <c r="K73" t="inlineStr">
         <is>
@@ -2865,7 +2931,7 @@
       </c>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="n">
-        <v>65.3</v>
+        <v>65.11</v>
       </c>
       <c r="K74" t="inlineStr">
         <is>
@@ -2904,7 +2970,7 @@
       </c>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="n">
-        <v>65.3</v>
+        <v>65.11</v>
       </c>
       <c r="K75" t="inlineStr">
         <is>
@@ -2943,7 +3009,7 @@
       </c>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="n">
-        <v>65.3</v>
+        <v>65.11</v>
       </c>
       <c r="K76" t="inlineStr">
         <is>
@@ -2982,7 +3048,7 @@
       </c>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="n">
-        <v>65.3</v>
+        <v>65.11</v>
       </c>
       <c r="K77" t="inlineStr">
         <is>
@@ -3021,7 +3087,7 @@
       </c>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="n">
-        <v>65.3</v>
+        <v>65.11</v>
       </c>
       <c r="K78" t="inlineStr">
         <is>
@@ -3060,7 +3126,7 @@
       </c>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="n">
-        <v>65.3</v>
+        <v>65.11</v>
       </c>
       <c r="K79" t="inlineStr">
         <is>
@@ -3099,7 +3165,7 @@
       </c>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="n">
-        <v>65.3</v>
+        <v>65.11</v>
       </c>
       <c r="K80" t="inlineStr">
         <is>
@@ -3138,7 +3204,7 @@
       </c>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="n">
-        <v>65.3</v>
+        <v>65.11</v>
       </c>
       <c r="K81" t="inlineStr">
         <is>
@@ -3177,7 +3243,7 @@
       </c>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="n">
-        <v>65.3</v>
+        <v>65.11</v>
       </c>
       <c r="K82" t="inlineStr">
         <is>
@@ -3216,7 +3282,7 @@
       </c>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="n">
-        <v>65.3</v>
+        <v>65.11</v>
       </c>
       <c r="K83" t="inlineStr">
         <is>
@@ -3255,7 +3321,7 @@
       </c>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="n">
-        <v>65.3</v>
+        <v>65.11</v>
       </c>
       <c r="K84" t="inlineStr">
         <is>
@@ -3294,7 +3360,7 @@
       </c>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="n">
-        <v>65.3</v>
+        <v>65.11</v>
       </c>
       <c r="K85" t="inlineStr">
         <is>
@@ -3333,7 +3399,7 @@
       </c>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="n">
-        <v>65.3</v>
+        <v>65.11</v>
       </c>
       <c r="K86" t="inlineStr">
         <is>
@@ -3372,7 +3438,7 @@
       </c>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="n">
-        <v>65.3</v>
+        <v>65.11</v>
       </c>
       <c r="K87" t="inlineStr">
         <is>
@@ -3411,7 +3477,7 @@
       </c>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="n">
-        <v>65.3</v>
+        <v>65.11</v>
       </c>
       <c r="K88" t="inlineStr">
         <is>
@@ -3450,7 +3516,7 @@
       </c>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="n">
-        <v>65.3</v>
+        <v>65.11</v>
       </c>
       <c r="K89" t="inlineStr">
         <is>
@@ -3489,7 +3555,7 @@
       </c>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="n">
-        <v>65.3</v>
+        <v>65.11</v>
       </c>
       <c r="K90" t="inlineStr">
         <is>
@@ -3528,7 +3594,7 @@
       </c>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="n">
-        <v>65.3</v>
+        <v>65.11</v>
       </c>
       <c r="K91" t="inlineStr">
         <is>
@@ -3567,7 +3633,7 @@
       </c>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="n">
-        <v>65.3</v>
+        <v>65.11</v>
       </c>
       <c r="K92" t="inlineStr">
         <is>
@@ -3606,7 +3672,7 @@
       </c>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="n">
-        <v>65.3</v>
+        <v>65.11</v>
       </c>
       <c r="K93" t="inlineStr">
         <is>
@@ -3645,7 +3711,7 @@
       </c>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="n">
-        <v>65.3</v>
+        <v>65.11</v>
       </c>
       <c r="K94" t="inlineStr">
         <is>
@@ -3684,7 +3750,7 @@
       </c>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="n">
-        <v>65.3</v>
+        <v>65.11</v>
       </c>
       <c r="K95" t="inlineStr">
         <is>
@@ -3723,7 +3789,7 @@
       </c>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="n">
-        <v>65.3</v>
+        <v>65.11</v>
       </c>
       <c r="K96" t="inlineStr">
         <is>
@@ -3762,7 +3828,7 @@
       </c>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="n">
-        <v>65.3</v>
+        <v>65.11</v>
       </c>
       <c r="K97" t="inlineStr">
         <is>
@@ -3801,7 +3867,7 @@
       </c>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="n">
-        <v>65.3</v>
+        <v>65.11</v>
       </c>
       <c r="K98" t="inlineStr">
         <is>
@@ -3840,7 +3906,7 @@
       </c>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="n">
-        <v>65.3</v>
+        <v>65.11</v>
       </c>
       <c r="K99" t="inlineStr">
         <is>
@@ -3879,7 +3945,7 @@
       </c>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="n">
-        <v>65.3</v>
+        <v>65.11</v>
       </c>
       <c r="K100" t="inlineStr">
         <is>
@@ -3918,7 +3984,7 @@
       </c>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="n">
-        <v>65.3</v>
+        <v>65.11</v>
       </c>
       <c r="K101" t="inlineStr">
         <is>
@@ -3957,7 +4023,7 @@
       </c>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="n">
-        <v>65.3</v>
+        <v>65.11</v>
       </c>
       <c r="K102" t="inlineStr">
         <is>
@@ -3996,7 +4062,7 @@
       </c>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="n">
-        <v>65.3</v>
+        <v>65.11</v>
       </c>
       <c r="K103" t="inlineStr">
         <is>
@@ -4035,7 +4101,7 @@
       </c>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="n">
-        <v>65.3</v>
+        <v>65.11</v>
       </c>
       <c r="K104" t="inlineStr">
         <is>
@@ -4074,7 +4140,7 @@
       </c>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="n">
-        <v>65.3</v>
+        <v>65.11</v>
       </c>
       <c r="K105" t="inlineStr">
         <is>
@@ -4113,7 +4179,7 @@
       </c>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="n">
-        <v>65.3</v>
+        <v>65.11</v>
       </c>
       <c r="K106" t="inlineStr">
         <is>
@@ -4152,7 +4218,7 @@
       </c>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="n">
-        <v>65.3</v>
+        <v>65.11</v>
       </c>
       <c r="K107" t="inlineStr">
         <is>
@@ -4191,7 +4257,7 @@
       </c>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="n">
-        <v>65.3</v>
+        <v>65.11</v>
       </c>
       <c r="K108" t="inlineStr">
         <is>
@@ -4230,7 +4296,7 @@
       </c>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="n">
-        <v>65.3</v>
+        <v>65.11</v>
       </c>
       <c r="K109" t="inlineStr">
         <is>
@@ -4269,7 +4335,7 @@
       </c>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="n">
-        <v>65.3</v>
+        <v>65.11</v>
       </c>
       <c r="K110" t="inlineStr">
         <is>
@@ -4308,7 +4374,7 @@
       </c>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="n">
-        <v>65.3</v>
+        <v>65.11</v>
       </c>
       <c r="K111" t="inlineStr">
         <is>
@@ -4343,19 +4409,19 @@
         <v>73840.96171461293</v>
       </c>
       <c r="H112" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="n">
-        <v>65.3</v>
+        <v>65.11</v>
       </c>
       <c r="K112" t="inlineStr">
         <is>
-          <t>매도 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L112" t="n">
-        <v>1.003269525267994</v>
+        <v>1</v>
       </c>
       <c r="M112" t="inlineStr"/>
     </row>
@@ -4385,8 +4451,14 @@
         <v>0</v>
       </c>
       <c r="I113" t="inlineStr"/>
-      <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr"/>
+      <c r="J113" t="n">
+        <v>65.11</v>
+      </c>
+      <c r="K113" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L113" t="n">
         <v>1</v>
       </c>
@@ -4415,11 +4487,17 @@
         <v>72858.96171461293</v>
       </c>
       <c r="H114" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I114" t="inlineStr"/>
-      <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr"/>
+      <c r="J114" t="n">
+        <v>65.11</v>
+      </c>
+      <c r="K114" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L114" t="n">
         <v>1</v>
       </c>
@@ -4451,8 +4529,14 @@
         <v>0</v>
       </c>
       <c r="I115" t="inlineStr"/>
-      <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr"/>
+      <c r="J115" t="n">
+        <v>65.11</v>
+      </c>
+      <c r="K115" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L115" t="n">
         <v>1</v>
       </c>
@@ -4484,8 +4568,14 @@
         <v>0</v>
       </c>
       <c r="I116" t="inlineStr"/>
-      <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr"/>
+      <c r="J116" t="n">
+        <v>65.11</v>
+      </c>
+      <c r="K116" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L116" t="n">
         <v>1</v>
       </c>
@@ -4517,8 +4607,14 @@
         <v>0</v>
       </c>
       <c r="I117" t="inlineStr"/>
-      <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr"/>
+      <c r="J117" t="n">
+        <v>65.11</v>
+      </c>
+      <c r="K117" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L117" t="n">
         <v>1</v>
       </c>
@@ -4550,8 +4646,14 @@
         <v>0</v>
       </c>
       <c r="I118" t="inlineStr"/>
-      <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr"/>
+      <c r="J118" t="n">
+        <v>65.11</v>
+      </c>
+      <c r="K118" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L118" t="n">
         <v>1</v>
       </c>
@@ -4583,8 +4685,14 @@
         <v>0</v>
       </c>
       <c r="I119" t="inlineStr"/>
-      <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr"/>
+      <c r="J119" t="n">
+        <v>65.11</v>
+      </c>
+      <c r="K119" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L119" t="n">
         <v>1</v>
       </c>
@@ -4616,8 +4724,14 @@
         <v>0</v>
       </c>
       <c r="I120" t="inlineStr"/>
-      <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr"/>
+      <c r="J120" t="n">
+        <v>65.11</v>
+      </c>
+      <c r="K120" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L120" t="n">
         <v>1</v>
       </c>
@@ -4649,8 +4763,14 @@
         <v>0</v>
       </c>
       <c r="I121" t="inlineStr"/>
-      <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr"/>
+      <c r="J121" t="n">
+        <v>65.11</v>
+      </c>
+      <c r="K121" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L121" t="n">
         <v>1</v>
       </c>
@@ -4682,8 +4802,14 @@
         <v>0</v>
       </c>
       <c r="I122" t="inlineStr"/>
-      <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr"/>
+      <c r="J122" t="n">
+        <v>65.11</v>
+      </c>
+      <c r="K122" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L122" t="n">
         <v>1</v>
       </c>
@@ -4715,8 +4841,14 @@
         <v>0</v>
       </c>
       <c r="I123" t="inlineStr"/>
-      <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr"/>
+      <c r="J123" t="n">
+        <v>65.11</v>
+      </c>
+      <c r="K123" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L123" t="n">
         <v>1</v>
       </c>
@@ -4748,8 +4880,14 @@
         <v>0</v>
       </c>
       <c r="I124" t="inlineStr"/>
-      <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr"/>
+      <c r="J124" t="n">
+        <v>65.11</v>
+      </c>
+      <c r="K124" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L124" t="n">
         <v>1</v>
       </c>
@@ -4781,8 +4919,14 @@
         <v>0</v>
       </c>
       <c r="I125" t="inlineStr"/>
-      <c r="J125" t="inlineStr"/>
-      <c r="K125" t="inlineStr"/>
+      <c r="J125" t="n">
+        <v>65.11</v>
+      </c>
+      <c r="K125" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L125" t="n">
         <v>1</v>
       </c>
@@ -4811,11 +4955,17 @@
         <v>84348.59611461293</v>
       </c>
       <c r="H126" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I126" t="inlineStr"/>
-      <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr"/>
+      <c r="J126" t="n">
+        <v>65.11</v>
+      </c>
+      <c r="K126" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L126" t="n">
         <v>1</v>
       </c>
@@ -4844,11 +4994,17 @@
         <v>84358.93421461292</v>
       </c>
       <c r="H127" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I127" t="inlineStr"/>
-      <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr"/>
+      <c r="J127" t="n">
+        <v>65.11</v>
+      </c>
+      <c r="K127" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L127" t="n">
         <v>1</v>
       </c>
@@ -4877,11 +5033,17 @@
         <v>84415.93421461292</v>
       </c>
       <c r="H128" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I128" t="inlineStr"/>
-      <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr"/>
+      <c r="J128" t="n">
+        <v>65.11</v>
+      </c>
+      <c r="K128" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L128" t="n">
         <v>1</v>
       </c>
@@ -4910,11 +5072,17 @@
         <v>72270.43631461292</v>
       </c>
       <c r="H129" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I129" t="inlineStr"/>
-      <c r="J129" t="inlineStr"/>
-      <c r="K129" t="inlineStr"/>
+      <c r="J129" t="n">
+        <v>65.11</v>
+      </c>
+      <c r="K129" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L129" t="n">
         <v>1</v>
       </c>
@@ -4946,8 +5114,14 @@
         <v>0</v>
       </c>
       <c r="I130" t="inlineStr"/>
-      <c r="J130" t="inlineStr"/>
-      <c r="K130" t="inlineStr"/>
+      <c r="J130" t="n">
+        <v>65.11</v>
+      </c>
+      <c r="K130" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L130" t="n">
         <v>1</v>
       </c>
@@ -4979,8 +5153,14 @@
         <v>0</v>
       </c>
       <c r="I131" t="inlineStr"/>
-      <c r="J131" t="inlineStr"/>
-      <c r="K131" t="inlineStr"/>
+      <c r="J131" t="n">
+        <v>65.11</v>
+      </c>
+      <c r="K131" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L131" t="n">
         <v>1</v>
       </c>
@@ -5012,8 +5192,14 @@
         <v>0</v>
       </c>
       <c r="I132" t="inlineStr"/>
-      <c r="J132" t="inlineStr"/>
-      <c r="K132" t="inlineStr"/>
+      <c r="J132" t="n">
+        <v>65.11</v>
+      </c>
+      <c r="K132" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L132" t="n">
         <v>1</v>
       </c>
@@ -5045,8 +5231,14 @@
         <v>0</v>
       </c>
       <c r="I133" t="inlineStr"/>
-      <c r="J133" t="inlineStr"/>
-      <c r="K133" t="inlineStr"/>
+      <c r="J133" t="n">
+        <v>65.11</v>
+      </c>
+      <c r="K133" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L133" t="n">
         <v>1</v>
       </c>
@@ -5078,8 +5270,14 @@
         <v>0</v>
       </c>
       <c r="I134" t="inlineStr"/>
-      <c r="J134" t="inlineStr"/>
-      <c r="K134" t="inlineStr"/>
+      <c r="J134" t="n">
+        <v>65.11</v>
+      </c>
+      <c r="K134" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L134" t="n">
         <v>1</v>
       </c>
@@ -5111,8 +5309,14 @@
         <v>0</v>
       </c>
       <c r="I135" t="inlineStr"/>
-      <c r="J135" t="inlineStr"/>
-      <c r="K135" t="inlineStr"/>
+      <c r="J135" t="n">
+        <v>65.11</v>
+      </c>
+      <c r="K135" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L135" t="n">
         <v>1</v>
       </c>
@@ -5144,8 +5348,14 @@
         <v>0</v>
       </c>
       <c r="I136" t="inlineStr"/>
-      <c r="J136" t="inlineStr"/>
-      <c r="K136" t="inlineStr"/>
+      <c r="J136" t="n">
+        <v>65.11</v>
+      </c>
+      <c r="K136" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L136" t="n">
         <v>1</v>
       </c>
@@ -5177,8 +5387,14 @@
         <v>0</v>
       </c>
       <c r="I137" t="inlineStr"/>
-      <c r="J137" t="inlineStr"/>
-      <c r="K137" t="inlineStr"/>
+      <c r="J137" t="n">
+        <v>65.11</v>
+      </c>
+      <c r="K137" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L137" t="n">
         <v>1</v>
       </c>
@@ -5210,8 +5426,14 @@
         <v>0</v>
       </c>
       <c r="I138" t="inlineStr"/>
-      <c r="J138" t="inlineStr"/>
-      <c r="K138" t="inlineStr"/>
+      <c r="J138" t="n">
+        <v>65.11</v>
+      </c>
+      <c r="K138" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L138" t="n">
         <v>1</v>
       </c>
@@ -5243,8 +5465,14 @@
         <v>0</v>
       </c>
       <c r="I139" t="inlineStr"/>
-      <c r="J139" t="inlineStr"/>
-      <c r="K139" t="inlineStr"/>
+      <c r="J139" t="n">
+        <v>65.11</v>
+      </c>
+      <c r="K139" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L139" t="n">
         <v>1</v>
       </c>
@@ -5276,8 +5504,14 @@
         <v>0</v>
       </c>
       <c r="I140" t="inlineStr"/>
-      <c r="J140" t="inlineStr"/>
-      <c r="K140" t="inlineStr"/>
+      <c r="J140" t="n">
+        <v>65.11</v>
+      </c>
+      <c r="K140" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L140" t="n">
         <v>1</v>
       </c>
@@ -5309,8 +5543,14 @@
         <v>0</v>
       </c>
       <c r="I141" t="inlineStr"/>
-      <c r="J141" t="inlineStr"/>
-      <c r="K141" t="inlineStr"/>
+      <c r="J141" t="n">
+        <v>65.11</v>
+      </c>
+      <c r="K141" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L141" t="n">
         <v>1</v>
       </c>
@@ -5342,8 +5582,14 @@
         <v>0</v>
       </c>
       <c r="I142" t="inlineStr"/>
-      <c r="J142" t="inlineStr"/>
-      <c r="K142" t="inlineStr"/>
+      <c r="J142" t="n">
+        <v>65.11</v>
+      </c>
+      <c r="K142" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L142" t="n">
         <v>1</v>
       </c>
@@ -5372,11 +5618,17 @@
         <v>75437.98681461292</v>
       </c>
       <c r="H143" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I143" t="inlineStr"/>
-      <c r="J143" t="inlineStr"/>
-      <c r="K143" t="inlineStr"/>
+      <c r="J143" t="n">
+        <v>65.11</v>
+      </c>
+      <c r="K143" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L143" t="n">
         <v>1</v>
       </c>
@@ -5408,8 +5660,14 @@
         <v>0</v>
       </c>
       <c r="I144" t="inlineStr"/>
-      <c r="J144" t="inlineStr"/>
-      <c r="K144" t="inlineStr"/>
+      <c r="J144" t="n">
+        <v>65.11</v>
+      </c>
+      <c r="K144" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L144" t="n">
         <v>1</v>
       </c>
@@ -5441,8 +5699,14 @@
         <v>0</v>
       </c>
       <c r="I145" t="inlineStr"/>
-      <c r="J145" t="inlineStr"/>
-      <c r="K145" t="inlineStr"/>
+      <c r="J145" t="n">
+        <v>65.11</v>
+      </c>
+      <c r="K145" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L145" t="n">
         <v>1</v>
       </c>
@@ -5474,8 +5738,14 @@
         <v>0</v>
       </c>
       <c r="I146" t="inlineStr"/>
-      <c r="J146" t="inlineStr"/>
-      <c r="K146" t="inlineStr"/>
+      <c r="J146" t="n">
+        <v>65.11</v>
+      </c>
+      <c r="K146" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L146" t="n">
         <v>1</v>
       </c>
@@ -5507,8 +5777,14 @@
         <v>0</v>
       </c>
       <c r="I147" t="inlineStr"/>
-      <c r="J147" t="inlineStr"/>
-      <c r="K147" t="inlineStr"/>
+      <c r="J147" t="n">
+        <v>65.11</v>
+      </c>
+      <c r="K147" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L147" t="n">
         <v>1</v>
       </c>
@@ -5537,11 +5813,17 @@
         <v>72498.66031461292</v>
       </c>
       <c r="H148" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I148" t="inlineStr"/>
-      <c r="J148" t="inlineStr"/>
-      <c r="K148" t="inlineStr"/>
+      <c r="J148" t="n">
+        <v>65.11</v>
+      </c>
+      <c r="K148" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L148" t="n">
         <v>1</v>
       </c>
@@ -5570,11 +5852,17 @@
         <v>72498.66031461292</v>
       </c>
       <c r="H149" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I149" t="inlineStr"/>
-      <c r="J149" t="inlineStr"/>
-      <c r="K149" t="inlineStr"/>
+      <c r="J149" t="n">
+        <v>65.11</v>
+      </c>
+      <c r="K149" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L149" t="n">
         <v>1</v>
       </c>
@@ -5603,11 +5891,17 @@
         <v>72506.66031461292</v>
       </c>
       <c r="H150" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I150" t="inlineStr"/>
-      <c r="J150" t="inlineStr"/>
-      <c r="K150" t="inlineStr"/>
+      <c r="J150" t="n">
+        <v>65.11</v>
+      </c>
+      <c r="K150" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L150" t="n">
         <v>1</v>
       </c>
@@ -5636,11 +5930,17 @@
         <v>61582.11631461292</v>
       </c>
       <c r="H151" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I151" t="inlineStr"/>
-      <c r="J151" t="inlineStr"/>
-      <c r="K151" t="inlineStr"/>
+      <c r="J151" t="n">
+        <v>65.11</v>
+      </c>
+      <c r="K151" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L151" t="n">
         <v>1</v>
       </c>
@@ -5669,11 +5969,17 @@
         <v>70967.49241461292</v>
       </c>
       <c r="H152" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I152" t="inlineStr"/>
-      <c r="J152" t="inlineStr"/>
-      <c r="K152" t="inlineStr"/>
+      <c r="J152" t="n">
+        <v>65.11</v>
+      </c>
+      <c r="K152" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L152" t="n">
         <v>1</v>
       </c>
@@ -5705,8 +6011,14 @@
         <v>0</v>
       </c>
       <c r="I153" t="inlineStr"/>
-      <c r="J153" t="inlineStr"/>
-      <c r="K153" t="inlineStr"/>
+      <c r="J153" t="n">
+        <v>65.11</v>
+      </c>
+      <c r="K153" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L153" t="n">
         <v>1</v>
       </c>
@@ -5738,8 +6050,14 @@
         <v>0</v>
       </c>
       <c r="I154" t="inlineStr"/>
-      <c r="J154" t="inlineStr"/>
-      <c r="K154" t="inlineStr"/>
+      <c r="J154" t="n">
+        <v>65.11</v>
+      </c>
+      <c r="K154" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L154" t="n">
         <v>1</v>
       </c>
@@ -5771,8 +6089,14 @@
         <v>0</v>
       </c>
       <c r="I155" t="inlineStr"/>
-      <c r="J155" t="inlineStr"/>
-      <c r="K155" t="inlineStr"/>
+      <c r="J155" t="n">
+        <v>65.11</v>
+      </c>
+      <c r="K155" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L155" t="n">
         <v>1</v>
       </c>
@@ -5804,8 +6128,14 @@
         <v>0</v>
       </c>
       <c r="I156" t="inlineStr"/>
-      <c r="J156" t="inlineStr"/>
-      <c r="K156" t="inlineStr"/>
+      <c r="J156" t="n">
+        <v>65.11</v>
+      </c>
+      <c r="K156" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L156" t="n">
         <v>1</v>
       </c>
@@ -5837,8 +6167,14 @@
         <v>0</v>
       </c>
       <c r="I157" t="inlineStr"/>
-      <c r="J157" t="inlineStr"/>
-      <c r="K157" t="inlineStr"/>
+      <c r="J157" t="n">
+        <v>65.11</v>
+      </c>
+      <c r="K157" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L157" t="n">
         <v>1</v>
       </c>
@@ -5870,8 +6206,14 @@
         <v>0</v>
       </c>
       <c r="I158" t="inlineStr"/>
-      <c r="J158" t="inlineStr"/>
-      <c r="K158" t="inlineStr"/>
+      <c r="J158" t="n">
+        <v>65.11</v>
+      </c>
+      <c r="K158" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L158" t="n">
         <v>1</v>
       </c>
@@ -5903,8 +6245,14 @@
         <v>0</v>
       </c>
       <c r="I159" t="inlineStr"/>
-      <c r="J159" t="inlineStr"/>
-      <c r="K159" t="inlineStr"/>
+      <c r="J159" t="n">
+        <v>65.11</v>
+      </c>
+      <c r="K159" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L159" t="n">
         <v>1</v>
       </c>
@@ -5936,8 +6284,14 @@
         <v>0</v>
       </c>
       <c r="I160" t="inlineStr"/>
-      <c r="J160" t="inlineStr"/>
-      <c r="K160" t="inlineStr"/>
+      <c r="J160" t="n">
+        <v>65.11</v>
+      </c>
+      <c r="K160" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L160" t="n">
         <v>1</v>
       </c>
@@ -5969,8 +6323,14 @@
         <v>0</v>
       </c>
       <c r="I161" t="inlineStr"/>
-      <c r="J161" t="inlineStr"/>
-      <c r="K161" t="inlineStr"/>
+      <c r="J161" t="n">
+        <v>65.11</v>
+      </c>
+      <c r="K161" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L161" t="n">
         <v>1</v>
       </c>
@@ -6002,8 +6362,14 @@
         <v>0</v>
       </c>
       <c r="I162" t="inlineStr"/>
-      <c r="J162" t="inlineStr"/>
-      <c r="K162" t="inlineStr"/>
+      <c r="J162" t="n">
+        <v>65.11</v>
+      </c>
+      <c r="K162" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L162" t="n">
         <v>1</v>
       </c>
@@ -6035,8 +6401,14 @@
         <v>0</v>
       </c>
       <c r="I163" t="inlineStr"/>
-      <c r="J163" t="inlineStr"/>
-      <c r="K163" t="inlineStr"/>
+      <c r="J163" t="n">
+        <v>65.11</v>
+      </c>
+      <c r="K163" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L163" t="n">
         <v>1</v>
       </c>
@@ -6068,8 +6440,14 @@
         <v>0</v>
       </c>
       <c r="I164" t="inlineStr"/>
-      <c r="J164" t="inlineStr"/>
-      <c r="K164" t="inlineStr"/>
+      <c r="J164" t="n">
+        <v>65.11</v>
+      </c>
+      <c r="K164" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L164" t="n">
         <v>1</v>
       </c>
@@ -6101,8 +6479,14 @@
         <v>0</v>
       </c>
       <c r="I165" t="inlineStr"/>
-      <c r="J165" t="inlineStr"/>
-      <c r="K165" t="inlineStr"/>
+      <c r="J165" t="n">
+        <v>65.11</v>
+      </c>
+      <c r="K165" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L165" t="n">
         <v>1</v>
       </c>
@@ -6134,8 +6518,14 @@
         <v>0</v>
       </c>
       <c r="I166" t="inlineStr"/>
-      <c r="J166" t="inlineStr"/>
-      <c r="K166" t="inlineStr"/>
+      <c r="J166" t="n">
+        <v>65.11</v>
+      </c>
+      <c r="K166" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L166" t="n">
         <v>1</v>
       </c>
@@ -6164,13 +6554,19 @@
         <v>58159.11965165837</v>
       </c>
       <c r="H167" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I167" t="inlineStr"/>
-      <c r="J167" t="inlineStr"/>
-      <c r="K167" t="inlineStr"/>
+      <c r="J167" t="n">
+        <v>65.11</v>
+      </c>
+      <c r="K167" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
       <c r="L167" t="n">
-        <v>1</v>
+        <v>1.007286899093841</v>
       </c>
       <c r="M167" t="inlineStr"/>
     </row>
@@ -7594,6 +7990,6 @@
       <c r="M210" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-24 BackTest FX.xlsx
+++ b/BackTest/2020-01-24 BackTest FX.xlsx
@@ -1573,10 +1573,14 @@
         <v>32820.05472282411</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
-      </c>
-      <c r="I36" t="inlineStr"/>
-      <c r="J36" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I36" t="n">
+        <v>66.51000000000001</v>
+      </c>
+      <c r="J36" t="n">
+        <v>66.51000000000001</v>
+      </c>
       <c r="K36" t="inlineStr"/>
       <c r="L36" t="n">
         <v>1</v>
@@ -1609,8 +1613,14 @@
         <v>0</v>
       </c>
       <c r="I37" t="inlineStr"/>
-      <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr"/>
+      <c r="J37" t="n">
+        <v>66.51000000000001</v>
+      </c>
+      <c r="K37" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L37" t="n">
         <v>1</v>
       </c>
@@ -1642,8 +1652,14 @@
         <v>0</v>
       </c>
       <c r="I38" t="inlineStr"/>
-      <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr"/>
+      <c r="J38" t="n">
+        <v>66.51000000000001</v>
+      </c>
+      <c r="K38" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L38" t="n">
         <v>1</v>
       </c>
@@ -1672,11 +1688,19 @@
         <v>32678.05472282411</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
-      </c>
-      <c r="I39" t="inlineStr"/>
-      <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I39" t="n">
+        <v>66.5</v>
+      </c>
+      <c r="J39" t="n">
+        <v>66.51000000000001</v>
+      </c>
+      <c r="K39" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L39" t="n">
         <v>1</v>
       </c>
@@ -1705,11 +1729,19 @@
         <v>32686.05472282411</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
-      </c>
-      <c r="I40" t="inlineStr"/>
-      <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I40" t="n">
+        <v>66.5</v>
+      </c>
+      <c r="J40" t="n">
+        <v>66.51000000000001</v>
+      </c>
+      <c r="K40" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L40" t="n">
         <v>1</v>
       </c>
@@ -1741,8 +1773,14 @@
         <v>0</v>
       </c>
       <c r="I41" t="inlineStr"/>
-      <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr"/>
+      <c r="J41" t="n">
+        <v>66.51000000000001</v>
+      </c>
+      <c r="K41" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L41" t="n">
         <v>1</v>
       </c>
@@ -1774,8 +1812,14 @@
         <v>0</v>
       </c>
       <c r="I42" t="inlineStr"/>
-      <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr"/>
+      <c r="J42" t="n">
+        <v>66.51000000000001</v>
+      </c>
+      <c r="K42" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L42" t="n">
         <v>1</v>
       </c>
@@ -1807,8 +1851,14 @@
         <v>0</v>
       </c>
       <c r="I43" t="inlineStr"/>
-      <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr"/>
+      <c r="J43" t="n">
+        <v>66.51000000000001</v>
+      </c>
+      <c r="K43" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L43" t="n">
         <v>1</v>
       </c>
@@ -1837,11 +1887,19 @@
         <v>32018.84692282411</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
-      </c>
-      <c r="I44" t="inlineStr"/>
-      <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I44" t="n">
+        <v>66.09999999999999</v>
+      </c>
+      <c r="J44" t="n">
+        <v>66.51000000000001</v>
+      </c>
+      <c r="K44" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L44" t="n">
         <v>1</v>
       </c>
@@ -1870,11 +1928,19 @@
         <v>32029.34082282411</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
-      </c>
-      <c r="I45" t="inlineStr"/>
-      <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I45" t="n">
+        <v>66.09999999999999</v>
+      </c>
+      <c r="J45" t="n">
+        <v>66.51000000000001</v>
+      </c>
+      <c r="K45" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L45" t="n">
         <v>1</v>
       </c>
@@ -1906,8 +1972,14 @@
         <v>0</v>
       </c>
       <c r="I46" t="inlineStr"/>
-      <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr"/>
+      <c r="J46" t="n">
+        <v>66.51000000000001</v>
+      </c>
+      <c r="K46" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L46" t="n">
         <v>1</v>
       </c>
@@ -1936,11 +2008,19 @@
         <v>31937.34082282411</v>
       </c>
       <c r="H47" t="n">
-        <v>0</v>
-      </c>
-      <c r="I47" t="inlineStr"/>
-      <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I47" t="n">
+        <v>66.11</v>
+      </c>
+      <c r="J47" t="n">
+        <v>66.51000000000001</v>
+      </c>
+      <c r="K47" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L47" t="n">
         <v>1</v>
       </c>
@@ -1972,8 +2052,14 @@
         <v>0</v>
       </c>
       <c r="I48" t="inlineStr"/>
-      <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr"/>
+      <c r="J48" t="n">
+        <v>66.51000000000001</v>
+      </c>
+      <c r="K48" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L48" t="n">
         <v>1</v>
       </c>
@@ -2005,8 +2091,14 @@
         <v>0</v>
       </c>
       <c r="I49" t="inlineStr"/>
-      <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr"/>
+      <c r="J49" t="n">
+        <v>66.51000000000001</v>
+      </c>
+      <c r="K49" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L49" t="n">
         <v>1</v>
       </c>
@@ -2038,8 +2130,14 @@
         <v>0</v>
       </c>
       <c r="I50" t="inlineStr"/>
-      <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr"/>
+      <c r="J50" t="n">
+        <v>66.51000000000001</v>
+      </c>
+      <c r="K50" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L50" t="n">
         <v>1</v>
       </c>
@@ -2071,8 +2169,14 @@
         <v>0</v>
       </c>
       <c r="I51" t="inlineStr"/>
-      <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr"/>
+      <c r="J51" t="n">
+        <v>66.51000000000001</v>
+      </c>
+      <c r="K51" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L51" t="n">
         <v>1</v>
       </c>
@@ -2104,8 +2208,14 @@
         <v>0</v>
       </c>
       <c r="I52" t="inlineStr"/>
-      <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr"/>
+      <c r="J52" t="n">
+        <v>66.51000000000001</v>
+      </c>
+      <c r="K52" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L52" t="n">
         <v>1</v>
       </c>
@@ -2134,11 +2244,19 @@
         <v>23733.29631461293</v>
       </c>
       <c r="H53" t="n">
-        <v>0</v>
-      </c>
-      <c r="I53" t="inlineStr"/>
-      <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I53" t="n">
+        <v>66.3</v>
+      </c>
+      <c r="J53" t="n">
+        <v>66.51000000000001</v>
+      </c>
+      <c r="K53" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L53" t="n">
         <v>1</v>
       </c>
@@ -2167,11 +2285,19 @@
         <v>3034.228614612926</v>
       </c>
       <c r="H54" t="n">
-        <v>0</v>
-      </c>
-      <c r="I54" t="inlineStr"/>
-      <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I54" t="n">
+        <v>65.7</v>
+      </c>
+      <c r="J54" t="n">
+        <v>66.51000000000001</v>
+      </c>
+      <c r="K54" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L54" t="n">
         <v>1</v>
       </c>
@@ -2200,11 +2326,19 @@
         <v>13034.22861461293</v>
       </c>
       <c r="H55" t="n">
-        <v>0</v>
-      </c>
-      <c r="I55" t="inlineStr"/>
-      <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I55" t="n">
+        <v>64.90000000000001</v>
+      </c>
+      <c r="J55" t="n">
+        <v>66.51000000000001</v>
+      </c>
+      <c r="K55" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L55" t="n">
         <v>1</v>
       </c>
@@ -2233,11 +2367,19 @@
         <v>28947.61081461293</v>
       </c>
       <c r="H56" t="n">
-        <v>0</v>
-      </c>
-      <c r="I56" t="inlineStr"/>
-      <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I56" t="n">
+        <v>65.59</v>
+      </c>
+      <c r="J56" t="n">
+        <v>66.51000000000001</v>
+      </c>
+      <c r="K56" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L56" t="n">
         <v>1</v>
       </c>
@@ -2266,11 +2408,19 @@
         <v>28587.11391461293</v>
       </c>
       <c r="H57" t="n">
-        <v>0</v>
-      </c>
-      <c r="I57" t="inlineStr"/>
-      <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I57" t="n">
+        <v>66.5</v>
+      </c>
+      <c r="J57" t="n">
+        <v>66.51000000000001</v>
+      </c>
+      <c r="K57" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L57" t="n">
         <v>1</v>
       </c>
@@ -2305,9 +2455,13 @@
         <v>65.11</v>
       </c>
       <c r="J58" t="n">
-        <v>65.11</v>
-      </c>
-      <c r="K58" t="inlineStr"/>
+        <v>66.51000000000001</v>
+      </c>
+      <c r="K58" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L58" t="n">
         <v>1</v>
       </c>
@@ -2342,11 +2496,11 @@
         <v>66.48999999999999</v>
       </c>
       <c r="J59" t="n">
-        <v>65.11</v>
+        <v>66.51000000000001</v>
       </c>
       <c r="K59" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L59" t="n">
@@ -2377,15 +2531,17 @@
         <v>21143.32011461293</v>
       </c>
       <c r="H60" t="n">
-        <v>0</v>
-      </c>
-      <c r="I60" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I60" t="n">
+        <v>65.11</v>
+      </c>
       <c r="J60" t="n">
-        <v>65.11</v>
+        <v>66.51000000000001</v>
       </c>
       <c r="K60" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L60" t="n">
@@ -2416,11 +2572,13 @@
         <v>21043.32011461293</v>
       </c>
       <c r="H61" t="n">
-        <v>0</v>
-      </c>
-      <c r="I61" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I61" t="n">
+        <v>66</v>
+      </c>
       <c r="J61" t="n">
-        <v>65.11</v>
+        <v>66.51000000000001</v>
       </c>
       <c r="K61" t="inlineStr">
         <is>
@@ -2461,7 +2619,7 @@
         <v>65.5</v>
       </c>
       <c r="J62" t="n">
-        <v>65.11</v>
+        <v>66.51000000000001</v>
       </c>
       <c r="K62" t="inlineStr">
         <is>
@@ -2502,7 +2660,7 @@
         <v>65.98999999999999</v>
       </c>
       <c r="J63" t="n">
-        <v>65.11</v>
+        <v>66.51000000000001</v>
       </c>
       <c r="K63" t="inlineStr">
         <is>
@@ -2541,7 +2699,7 @@
       </c>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="n">
-        <v>65.11</v>
+        <v>66.51000000000001</v>
       </c>
       <c r="K64" t="inlineStr">
         <is>
@@ -2576,11 +2734,13 @@
         <v>21419.81691461293</v>
       </c>
       <c r="H65" t="n">
-        <v>0</v>
-      </c>
-      <c r="I65" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I65" t="n">
+        <v>66.2</v>
+      </c>
       <c r="J65" t="n">
-        <v>65.11</v>
+        <v>66.51000000000001</v>
       </c>
       <c r="K65" t="inlineStr">
         <is>
@@ -2615,11 +2775,13 @@
         <v>21279.81691461293</v>
       </c>
       <c r="H66" t="n">
-        <v>0</v>
-      </c>
-      <c r="I66" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I66" t="n">
+        <v>66.5</v>
+      </c>
       <c r="J66" t="n">
-        <v>65.11</v>
+        <v>66.51000000000001</v>
       </c>
       <c r="K66" t="inlineStr">
         <is>
@@ -2654,11 +2816,13 @@
         <v>20002.64851461293</v>
       </c>
       <c r="H67" t="n">
-        <v>0</v>
-      </c>
-      <c r="I67" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I67" t="n">
+        <v>66</v>
+      </c>
       <c r="J67" t="n">
-        <v>65.11</v>
+        <v>66.51000000000001</v>
       </c>
       <c r="K67" t="inlineStr">
         <is>
@@ -2693,11 +2857,13 @@
         <v>20010.64851461293</v>
       </c>
       <c r="H68" t="n">
-        <v>0</v>
-      </c>
-      <c r="I68" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I68" t="n">
+        <v>65.3</v>
+      </c>
       <c r="J68" t="n">
-        <v>65.11</v>
+        <v>66.51000000000001</v>
       </c>
       <c r="K68" t="inlineStr">
         <is>
@@ -2732,11 +2898,13 @@
         <v>14159.64851461293</v>
       </c>
       <c r="H69" t="n">
-        <v>0</v>
-      </c>
-      <c r="I69" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I69" t="n">
+        <v>66.5</v>
+      </c>
       <c r="J69" t="n">
-        <v>65.11</v>
+        <v>66.51000000000001</v>
       </c>
       <c r="K69" t="inlineStr">
         <is>
@@ -2771,11 +2939,13 @@
         <v>14167.64851461293</v>
       </c>
       <c r="H70" t="n">
-        <v>0</v>
-      </c>
-      <c r="I70" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I70" t="n">
+        <v>65.01000000000001</v>
+      </c>
       <c r="J70" t="n">
-        <v>65.11</v>
+        <v>66.51000000000001</v>
       </c>
       <c r="K70" t="inlineStr">
         <is>
@@ -2810,11 +2980,13 @@
         <v>14667.13612916517</v>
       </c>
       <c r="H71" t="n">
-        <v>0</v>
-      </c>
-      <c r="I71" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I71" t="n">
+        <v>66.98999999999999</v>
+      </c>
       <c r="J71" t="n">
-        <v>65.11</v>
+        <v>66.51000000000001</v>
       </c>
       <c r="K71" t="inlineStr">
         <is>
@@ -2853,7 +3025,7 @@
       </c>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="n">
-        <v>65.11</v>
+        <v>66.51000000000001</v>
       </c>
       <c r="K72" t="inlineStr">
         <is>
@@ -2888,11 +3060,13 @@
         <v>14360.58482916517</v>
       </c>
       <c r="H73" t="n">
-        <v>0</v>
-      </c>
-      <c r="I73" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I73" t="n">
+        <v>65.2</v>
+      </c>
       <c r="J73" t="n">
-        <v>65.11</v>
+        <v>66.51000000000001</v>
       </c>
       <c r="K73" t="inlineStr">
         <is>
@@ -2927,11 +3101,13 @@
         <v>14368.58482916517</v>
       </c>
       <c r="H74" t="n">
-        <v>0</v>
-      </c>
-      <c r="I74" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I74" t="n">
+        <v>65.2</v>
+      </c>
       <c r="J74" t="n">
-        <v>65.11</v>
+        <v>66.51000000000001</v>
       </c>
       <c r="K74" t="inlineStr">
         <is>
@@ -2970,7 +3146,7 @@
       </c>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="n">
-        <v>65.11</v>
+        <v>66.51000000000001</v>
       </c>
       <c r="K75" t="inlineStr">
         <is>
@@ -3009,7 +3185,7 @@
       </c>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="n">
-        <v>65.11</v>
+        <v>66.51000000000001</v>
       </c>
       <c r="K76" t="inlineStr">
         <is>
@@ -3048,7 +3224,7 @@
       </c>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="n">
-        <v>65.11</v>
+        <v>66.51000000000001</v>
       </c>
       <c r="K77" t="inlineStr">
         <is>
@@ -3087,7 +3263,7 @@
       </c>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="n">
-        <v>65.11</v>
+        <v>66.51000000000001</v>
       </c>
       <c r="K78" t="inlineStr">
         <is>
@@ -3122,11 +3298,13 @@
         <v>32420.58482916517</v>
       </c>
       <c r="H79" t="n">
-        <v>0</v>
-      </c>
-      <c r="I79" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I79" t="n">
+        <v>66.54000000000001</v>
+      </c>
       <c r="J79" t="n">
-        <v>65.11</v>
+        <v>66.51000000000001</v>
       </c>
       <c r="K79" t="inlineStr">
         <is>
@@ -3161,11 +3339,13 @@
         <v>32420.58482916517</v>
       </c>
       <c r="H80" t="n">
-        <v>0</v>
-      </c>
-      <c r="I80" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I80" t="n">
+        <v>66.54000000000001</v>
+      </c>
       <c r="J80" t="n">
-        <v>65.11</v>
+        <v>66.51000000000001</v>
       </c>
       <c r="K80" t="inlineStr">
         <is>
@@ -3204,7 +3384,7 @@
       </c>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="n">
-        <v>65.11</v>
+        <v>66.51000000000001</v>
       </c>
       <c r="K81" t="inlineStr">
         <is>
@@ -3243,7 +3423,7 @@
       </c>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="n">
-        <v>65.11</v>
+        <v>66.51000000000001</v>
       </c>
       <c r="K82" t="inlineStr">
         <is>
@@ -3282,7 +3462,7 @@
       </c>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="n">
-        <v>65.11</v>
+        <v>66.51000000000001</v>
       </c>
       <c r="K83" t="inlineStr">
         <is>
@@ -3321,7 +3501,7 @@
       </c>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="n">
-        <v>65.11</v>
+        <v>66.51000000000001</v>
       </c>
       <c r="K84" t="inlineStr">
         <is>
@@ -3360,7 +3540,7 @@
       </c>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="n">
-        <v>65.11</v>
+        <v>66.51000000000001</v>
       </c>
       <c r="K85" t="inlineStr">
         <is>
@@ -3399,7 +3579,7 @@
       </c>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="n">
-        <v>65.11</v>
+        <v>66.51000000000001</v>
       </c>
       <c r="K86" t="inlineStr">
         <is>
@@ -3438,7 +3618,7 @@
       </c>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="n">
-        <v>65.11</v>
+        <v>66.51000000000001</v>
       </c>
       <c r="K87" t="inlineStr">
         <is>
@@ -3477,7 +3657,7 @@
       </c>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="n">
-        <v>65.11</v>
+        <v>66.51000000000001</v>
       </c>
       <c r="K88" t="inlineStr">
         <is>
@@ -3516,7 +3696,7 @@
       </c>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="n">
-        <v>65.11</v>
+        <v>66.51000000000001</v>
       </c>
       <c r="K89" t="inlineStr">
         <is>
@@ -3555,7 +3735,7 @@
       </c>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="n">
-        <v>65.11</v>
+        <v>66.51000000000001</v>
       </c>
       <c r="K90" t="inlineStr">
         <is>
@@ -3594,7 +3774,7 @@
       </c>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="n">
-        <v>65.11</v>
+        <v>66.51000000000001</v>
       </c>
       <c r="K91" t="inlineStr">
         <is>
@@ -3633,7 +3813,7 @@
       </c>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="n">
-        <v>65.11</v>
+        <v>66.51000000000001</v>
       </c>
       <c r="K92" t="inlineStr">
         <is>
@@ -3672,7 +3852,7 @@
       </c>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="n">
-        <v>65.11</v>
+        <v>66.51000000000001</v>
       </c>
       <c r="K93" t="inlineStr">
         <is>
@@ -3711,7 +3891,7 @@
       </c>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="n">
-        <v>65.11</v>
+        <v>66.51000000000001</v>
       </c>
       <c r="K94" t="inlineStr">
         <is>
@@ -3750,7 +3930,7 @@
       </c>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="n">
-        <v>65.11</v>
+        <v>66.51000000000001</v>
       </c>
       <c r="K95" t="inlineStr">
         <is>
@@ -3789,7 +3969,7 @@
       </c>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="n">
-        <v>65.11</v>
+        <v>66.51000000000001</v>
       </c>
       <c r="K96" t="inlineStr">
         <is>
@@ -3828,7 +4008,7 @@
       </c>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="n">
-        <v>65.11</v>
+        <v>66.51000000000001</v>
       </c>
       <c r="K97" t="inlineStr">
         <is>
@@ -3867,7 +4047,7 @@
       </c>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="n">
-        <v>65.11</v>
+        <v>66.51000000000001</v>
       </c>
       <c r="K98" t="inlineStr">
         <is>
@@ -3906,7 +4086,7 @@
       </c>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="n">
-        <v>65.11</v>
+        <v>66.51000000000001</v>
       </c>
       <c r="K99" t="inlineStr">
         <is>
@@ -3945,7 +4125,7 @@
       </c>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="n">
-        <v>65.11</v>
+        <v>66.51000000000001</v>
       </c>
       <c r="K100" t="inlineStr">
         <is>
@@ -3984,7 +4164,7 @@
       </c>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="n">
-        <v>65.11</v>
+        <v>66.51000000000001</v>
       </c>
       <c r="K101" t="inlineStr">
         <is>
@@ -4023,7 +4203,7 @@
       </c>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="n">
-        <v>65.11</v>
+        <v>66.51000000000001</v>
       </c>
       <c r="K102" t="inlineStr">
         <is>
@@ -4062,7 +4242,7 @@
       </c>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="n">
-        <v>65.11</v>
+        <v>66.51000000000001</v>
       </c>
       <c r="K103" t="inlineStr">
         <is>
@@ -4101,7 +4281,7 @@
       </c>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="n">
-        <v>65.11</v>
+        <v>66.51000000000001</v>
       </c>
       <c r="K104" t="inlineStr">
         <is>
@@ -4140,7 +4320,7 @@
       </c>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="n">
-        <v>65.11</v>
+        <v>66.51000000000001</v>
       </c>
       <c r="K105" t="inlineStr">
         <is>
@@ -4179,7 +4359,7 @@
       </c>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="n">
-        <v>65.11</v>
+        <v>66.51000000000001</v>
       </c>
       <c r="K106" t="inlineStr">
         <is>
@@ -4218,7 +4398,7 @@
       </c>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="n">
-        <v>65.11</v>
+        <v>66.51000000000001</v>
       </c>
       <c r="K107" t="inlineStr">
         <is>
@@ -4257,7 +4437,7 @@
       </c>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="n">
-        <v>65.11</v>
+        <v>66.51000000000001</v>
       </c>
       <c r="K108" t="inlineStr">
         <is>
@@ -4296,7 +4476,7 @@
       </c>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="n">
-        <v>65.11</v>
+        <v>66.51000000000001</v>
       </c>
       <c r="K109" t="inlineStr">
         <is>
@@ -4335,7 +4515,7 @@
       </c>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="n">
-        <v>65.11</v>
+        <v>66.51000000000001</v>
       </c>
       <c r="K110" t="inlineStr">
         <is>
@@ -4374,7 +4554,7 @@
       </c>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="n">
-        <v>65.11</v>
+        <v>66.51000000000001</v>
       </c>
       <c r="K111" t="inlineStr">
         <is>
@@ -4413,7 +4593,7 @@
       </c>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="n">
-        <v>65.11</v>
+        <v>66.51000000000001</v>
       </c>
       <c r="K112" t="inlineStr">
         <is>
@@ -4452,7 +4632,7 @@
       </c>
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="n">
-        <v>65.11</v>
+        <v>66.51000000000001</v>
       </c>
       <c r="K113" t="inlineStr">
         <is>
@@ -4491,7 +4671,7 @@
       </c>
       <c r="I114" t="inlineStr"/>
       <c r="J114" t="n">
-        <v>65.11</v>
+        <v>66.51000000000001</v>
       </c>
       <c r="K114" t="inlineStr">
         <is>
@@ -4530,7 +4710,7 @@
       </c>
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="n">
-        <v>65.11</v>
+        <v>66.51000000000001</v>
       </c>
       <c r="K115" t="inlineStr">
         <is>
@@ -4569,7 +4749,7 @@
       </c>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="n">
-        <v>65.11</v>
+        <v>66.51000000000001</v>
       </c>
       <c r="K116" t="inlineStr">
         <is>
@@ -4608,7 +4788,7 @@
       </c>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="n">
-        <v>65.11</v>
+        <v>66.51000000000001</v>
       </c>
       <c r="K117" t="inlineStr">
         <is>
@@ -4647,7 +4827,7 @@
       </c>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="n">
-        <v>65.11</v>
+        <v>66.51000000000001</v>
       </c>
       <c r="K118" t="inlineStr">
         <is>
@@ -4686,7 +4866,7 @@
       </c>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="n">
-        <v>65.11</v>
+        <v>66.51000000000001</v>
       </c>
       <c r="K119" t="inlineStr">
         <is>
@@ -4725,7 +4905,7 @@
       </c>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="n">
-        <v>65.11</v>
+        <v>66.51000000000001</v>
       </c>
       <c r="K120" t="inlineStr">
         <is>
@@ -4764,7 +4944,7 @@
       </c>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="n">
-        <v>65.11</v>
+        <v>66.51000000000001</v>
       </c>
       <c r="K121" t="inlineStr">
         <is>
@@ -4803,7 +4983,7 @@
       </c>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="n">
-        <v>65.11</v>
+        <v>66.51000000000001</v>
       </c>
       <c r="K122" t="inlineStr">
         <is>
@@ -4842,7 +5022,7 @@
       </c>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="n">
-        <v>65.11</v>
+        <v>66.51000000000001</v>
       </c>
       <c r="K123" t="inlineStr">
         <is>
@@ -4881,7 +5061,7 @@
       </c>
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="n">
-        <v>65.11</v>
+        <v>66.51000000000001</v>
       </c>
       <c r="K124" t="inlineStr">
         <is>
@@ -4920,7 +5100,7 @@
       </c>
       <c r="I125" t="inlineStr"/>
       <c r="J125" t="n">
-        <v>65.11</v>
+        <v>66.51000000000001</v>
       </c>
       <c r="K125" t="inlineStr">
         <is>
@@ -4959,7 +5139,7 @@
       </c>
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="n">
-        <v>65.11</v>
+        <v>66.51000000000001</v>
       </c>
       <c r="K126" t="inlineStr">
         <is>
@@ -4998,7 +5178,7 @@
       </c>
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="n">
-        <v>65.11</v>
+        <v>66.51000000000001</v>
       </c>
       <c r="K127" t="inlineStr">
         <is>
@@ -5037,7 +5217,7 @@
       </c>
       <c r="I128" t="inlineStr"/>
       <c r="J128" t="n">
-        <v>65.11</v>
+        <v>66.51000000000001</v>
       </c>
       <c r="K128" t="inlineStr">
         <is>
@@ -5076,7 +5256,7 @@
       </c>
       <c r="I129" t="inlineStr"/>
       <c r="J129" t="n">
-        <v>65.11</v>
+        <v>66.51000000000001</v>
       </c>
       <c r="K129" t="inlineStr">
         <is>
@@ -5115,7 +5295,7 @@
       </c>
       <c r="I130" t="inlineStr"/>
       <c r="J130" t="n">
-        <v>65.11</v>
+        <v>66.51000000000001</v>
       </c>
       <c r="K130" t="inlineStr">
         <is>
@@ -5154,7 +5334,7 @@
       </c>
       <c r="I131" t="inlineStr"/>
       <c r="J131" t="n">
-        <v>65.11</v>
+        <v>66.51000000000001</v>
       </c>
       <c r="K131" t="inlineStr">
         <is>
@@ -5193,7 +5373,7 @@
       </c>
       <c r="I132" t="inlineStr"/>
       <c r="J132" t="n">
-        <v>65.11</v>
+        <v>66.51000000000001</v>
       </c>
       <c r="K132" t="inlineStr">
         <is>
@@ -5232,7 +5412,7 @@
       </c>
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="n">
-        <v>65.11</v>
+        <v>66.51000000000001</v>
       </c>
       <c r="K133" t="inlineStr">
         <is>
@@ -5271,7 +5451,7 @@
       </c>
       <c r="I134" t="inlineStr"/>
       <c r="J134" t="n">
-        <v>65.11</v>
+        <v>66.51000000000001</v>
       </c>
       <c r="K134" t="inlineStr">
         <is>
@@ -5310,7 +5490,7 @@
       </c>
       <c r="I135" t="inlineStr"/>
       <c r="J135" t="n">
-        <v>65.11</v>
+        <v>66.51000000000001</v>
       </c>
       <c r="K135" t="inlineStr">
         <is>
@@ -5349,7 +5529,7 @@
       </c>
       <c r="I136" t="inlineStr"/>
       <c r="J136" t="n">
-        <v>65.11</v>
+        <v>66.51000000000001</v>
       </c>
       <c r="K136" t="inlineStr">
         <is>
@@ -5388,7 +5568,7 @@
       </c>
       <c r="I137" t="inlineStr"/>
       <c r="J137" t="n">
-        <v>65.11</v>
+        <v>66.51000000000001</v>
       </c>
       <c r="K137" t="inlineStr">
         <is>
@@ -5427,7 +5607,7 @@
       </c>
       <c r="I138" t="inlineStr"/>
       <c r="J138" t="n">
-        <v>65.11</v>
+        <v>66.51000000000001</v>
       </c>
       <c r="K138" t="inlineStr">
         <is>
@@ -5466,7 +5646,7 @@
       </c>
       <c r="I139" t="inlineStr"/>
       <c r="J139" t="n">
-        <v>65.11</v>
+        <v>66.51000000000001</v>
       </c>
       <c r="K139" t="inlineStr">
         <is>
@@ -5505,7 +5685,7 @@
       </c>
       <c r="I140" t="inlineStr"/>
       <c r="J140" t="n">
-        <v>65.11</v>
+        <v>66.51000000000001</v>
       </c>
       <c r="K140" t="inlineStr">
         <is>
@@ -5544,7 +5724,7 @@
       </c>
       <c r="I141" t="inlineStr"/>
       <c r="J141" t="n">
-        <v>65.11</v>
+        <v>66.51000000000001</v>
       </c>
       <c r="K141" t="inlineStr">
         <is>
@@ -5583,7 +5763,7 @@
       </c>
       <c r="I142" t="inlineStr"/>
       <c r="J142" t="n">
-        <v>65.11</v>
+        <v>66.51000000000001</v>
       </c>
       <c r="K142" t="inlineStr">
         <is>
@@ -5622,7 +5802,7 @@
       </c>
       <c r="I143" t="inlineStr"/>
       <c r="J143" t="n">
-        <v>65.11</v>
+        <v>66.51000000000001</v>
       </c>
       <c r="K143" t="inlineStr">
         <is>
@@ -5661,7 +5841,7 @@
       </c>
       <c r="I144" t="inlineStr"/>
       <c r="J144" t="n">
-        <v>65.11</v>
+        <v>66.51000000000001</v>
       </c>
       <c r="K144" t="inlineStr">
         <is>
@@ -5700,7 +5880,7 @@
       </c>
       <c r="I145" t="inlineStr"/>
       <c r="J145" t="n">
-        <v>65.11</v>
+        <v>66.51000000000001</v>
       </c>
       <c r="K145" t="inlineStr">
         <is>
@@ -5739,7 +5919,7 @@
       </c>
       <c r="I146" t="inlineStr"/>
       <c r="J146" t="n">
-        <v>65.11</v>
+        <v>66.51000000000001</v>
       </c>
       <c r="K146" t="inlineStr">
         <is>
@@ -5778,7 +5958,7 @@
       </c>
       <c r="I147" t="inlineStr"/>
       <c r="J147" t="n">
-        <v>65.11</v>
+        <v>66.51000000000001</v>
       </c>
       <c r="K147" t="inlineStr">
         <is>
@@ -5817,7 +5997,7 @@
       </c>
       <c r="I148" t="inlineStr"/>
       <c r="J148" t="n">
-        <v>65.11</v>
+        <v>66.51000000000001</v>
       </c>
       <c r="K148" t="inlineStr">
         <is>
@@ -5856,7 +6036,7 @@
       </c>
       <c r="I149" t="inlineStr"/>
       <c r="J149" t="n">
-        <v>65.11</v>
+        <v>66.51000000000001</v>
       </c>
       <c r="K149" t="inlineStr">
         <is>
@@ -5895,7 +6075,7 @@
       </c>
       <c r="I150" t="inlineStr"/>
       <c r="J150" t="n">
-        <v>65.11</v>
+        <v>66.51000000000001</v>
       </c>
       <c r="K150" t="inlineStr">
         <is>
@@ -5934,7 +6114,7 @@
       </c>
       <c r="I151" t="inlineStr"/>
       <c r="J151" t="n">
-        <v>65.11</v>
+        <v>66.51000000000001</v>
       </c>
       <c r="K151" t="inlineStr">
         <is>
@@ -5973,7 +6153,7 @@
       </c>
       <c r="I152" t="inlineStr"/>
       <c r="J152" t="n">
-        <v>65.11</v>
+        <v>66.51000000000001</v>
       </c>
       <c r="K152" t="inlineStr">
         <is>
@@ -6012,7 +6192,7 @@
       </c>
       <c r="I153" t="inlineStr"/>
       <c r="J153" t="n">
-        <v>65.11</v>
+        <v>66.51000000000001</v>
       </c>
       <c r="K153" t="inlineStr">
         <is>
@@ -6051,7 +6231,7 @@
       </c>
       <c r="I154" t="inlineStr"/>
       <c r="J154" t="n">
-        <v>65.11</v>
+        <v>66.51000000000001</v>
       </c>
       <c r="K154" t="inlineStr">
         <is>
@@ -6090,7 +6270,7 @@
       </c>
       <c r="I155" t="inlineStr"/>
       <c r="J155" t="n">
-        <v>65.11</v>
+        <v>66.51000000000001</v>
       </c>
       <c r="K155" t="inlineStr">
         <is>
@@ -6129,7 +6309,7 @@
       </c>
       <c r="I156" t="inlineStr"/>
       <c r="J156" t="n">
-        <v>65.11</v>
+        <v>66.51000000000001</v>
       </c>
       <c r="K156" t="inlineStr">
         <is>
@@ -6168,7 +6348,7 @@
       </c>
       <c r="I157" t="inlineStr"/>
       <c r="J157" t="n">
-        <v>65.11</v>
+        <v>66.51000000000001</v>
       </c>
       <c r="K157" t="inlineStr">
         <is>
@@ -6207,7 +6387,7 @@
       </c>
       <c r="I158" t="inlineStr"/>
       <c r="J158" t="n">
-        <v>65.11</v>
+        <v>66.51000000000001</v>
       </c>
       <c r="K158" t="inlineStr">
         <is>
@@ -6246,7 +6426,7 @@
       </c>
       <c r="I159" t="inlineStr"/>
       <c r="J159" t="n">
-        <v>65.11</v>
+        <v>66.51000000000001</v>
       </c>
       <c r="K159" t="inlineStr">
         <is>
@@ -6285,7 +6465,7 @@
       </c>
       <c r="I160" t="inlineStr"/>
       <c r="J160" t="n">
-        <v>65.11</v>
+        <v>66.51000000000001</v>
       </c>
       <c r="K160" t="inlineStr">
         <is>
@@ -6324,7 +6504,7 @@
       </c>
       <c r="I161" t="inlineStr"/>
       <c r="J161" t="n">
-        <v>65.11</v>
+        <v>66.51000000000001</v>
       </c>
       <c r="K161" t="inlineStr">
         <is>
@@ -6363,7 +6543,7 @@
       </c>
       <c r="I162" t="inlineStr"/>
       <c r="J162" t="n">
-        <v>65.11</v>
+        <v>66.51000000000001</v>
       </c>
       <c r="K162" t="inlineStr">
         <is>
@@ -6402,7 +6582,7 @@
       </c>
       <c r="I163" t="inlineStr"/>
       <c r="J163" t="n">
-        <v>65.11</v>
+        <v>66.51000000000001</v>
       </c>
       <c r="K163" t="inlineStr">
         <is>
@@ -6441,7 +6621,7 @@
       </c>
       <c r="I164" t="inlineStr"/>
       <c r="J164" t="n">
-        <v>65.11</v>
+        <v>66.51000000000001</v>
       </c>
       <c r="K164" t="inlineStr">
         <is>
@@ -6480,7 +6660,7 @@
       </c>
       <c r="I165" t="inlineStr"/>
       <c r="J165" t="n">
-        <v>65.11</v>
+        <v>66.51000000000001</v>
       </c>
       <c r="K165" t="inlineStr">
         <is>
@@ -6519,7 +6699,7 @@
       </c>
       <c r="I166" t="inlineStr"/>
       <c r="J166" t="n">
-        <v>65.11</v>
+        <v>66.51000000000001</v>
       </c>
       <c r="K166" t="inlineStr">
         <is>
@@ -6554,19 +6734,19 @@
         <v>58159.11965165837</v>
       </c>
       <c r="H167" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I167" t="inlineStr"/>
       <c r="J167" t="n">
-        <v>65.11</v>
+        <v>66.51000000000001</v>
       </c>
       <c r="K167" t="inlineStr">
         <is>
-          <t>매도 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L167" t="n">
-        <v>1.007286899093841</v>
+        <v>1</v>
       </c>
       <c r="M167" t="inlineStr"/>
     </row>
@@ -6596,8 +6776,14 @@
         <v>0</v>
       </c>
       <c r="I168" t="inlineStr"/>
-      <c r="J168" t="inlineStr"/>
-      <c r="K168" t="inlineStr"/>
+      <c r="J168" t="n">
+        <v>66.51000000000001</v>
+      </c>
+      <c r="K168" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L168" t="n">
         <v>1</v>
       </c>
@@ -6629,8 +6815,14 @@
         <v>0</v>
       </c>
       <c r="I169" t="inlineStr"/>
-      <c r="J169" t="inlineStr"/>
-      <c r="K169" t="inlineStr"/>
+      <c r="J169" t="n">
+        <v>66.51000000000001</v>
+      </c>
+      <c r="K169" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L169" t="n">
         <v>1</v>
       </c>
@@ -6662,8 +6854,14 @@
         <v>0</v>
       </c>
       <c r="I170" t="inlineStr"/>
-      <c r="J170" t="inlineStr"/>
-      <c r="K170" t="inlineStr"/>
+      <c r="J170" t="n">
+        <v>66.51000000000001</v>
+      </c>
+      <c r="K170" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L170" t="n">
         <v>1</v>
       </c>
@@ -6695,8 +6893,14 @@
         <v>0</v>
       </c>
       <c r="I171" t="inlineStr"/>
-      <c r="J171" t="inlineStr"/>
-      <c r="K171" t="inlineStr"/>
+      <c r="J171" t="n">
+        <v>66.51000000000001</v>
+      </c>
+      <c r="K171" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L171" t="n">
         <v>1</v>
       </c>
@@ -6728,8 +6932,14 @@
         <v>0</v>
       </c>
       <c r="I172" t="inlineStr"/>
-      <c r="J172" t="inlineStr"/>
-      <c r="K172" t="inlineStr"/>
+      <c r="J172" t="n">
+        <v>66.51000000000001</v>
+      </c>
+      <c r="K172" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L172" t="n">
         <v>1</v>
       </c>
@@ -6761,8 +6971,14 @@
         <v>0</v>
       </c>
       <c r="I173" t="inlineStr"/>
-      <c r="J173" t="inlineStr"/>
-      <c r="K173" t="inlineStr"/>
+      <c r="J173" t="n">
+        <v>66.51000000000001</v>
+      </c>
+      <c r="K173" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L173" t="n">
         <v>1</v>
       </c>
@@ -6794,8 +7010,14 @@
         <v>0</v>
       </c>
       <c r="I174" t="inlineStr"/>
-      <c r="J174" t="inlineStr"/>
-      <c r="K174" t="inlineStr"/>
+      <c r="J174" t="n">
+        <v>66.51000000000001</v>
+      </c>
+      <c r="K174" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L174" t="n">
         <v>1</v>
       </c>
@@ -6827,8 +7049,14 @@
         <v>0</v>
       </c>
       <c r="I175" t="inlineStr"/>
-      <c r="J175" t="inlineStr"/>
-      <c r="K175" t="inlineStr"/>
+      <c r="J175" t="n">
+        <v>66.51000000000001</v>
+      </c>
+      <c r="K175" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L175" t="n">
         <v>1</v>
       </c>
@@ -6860,8 +7088,14 @@
         <v>0</v>
       </c>
       <c r="I176" t="inlineStr"/>
-      <c r="J176" t="inlineStr"/>
-      <c r="K176" t="inlineStr"/>
+      <c r="J176" t="n">
+        <v>66.51000000000001</v>
+      </c>
+      <c r="K176" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L176" t="n">
         <v>1</v>
       </c>
@@ -6893,8 +7127,14 @@
         <v>0</v>
       </c>
       <c r="I177" t="inlineStr"/>
-      <c r="J177" t="inlineStr"/>
-      <c r="K177" t="inlineStr"/>
+      <c r="J177" t="n">
+        <v>66.51000000000001</v>
+      </c>
+      <c r="K177" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L177" t="n">
         <v>1</v>
       </c>
@@ -6926,8 +7166,14 @@
         <v>0</v>
       </c>
       <c r="I178" t="inlineStr"/>
-      <c r="J178" t="inlineStr"/>
-      <c r="K178" t="inlineStr"/>
+      <c r="J178" t="n">
+        <v>66.51000000000001</v>
+      </c>
+      <c r="K178" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L178" t="n">
         <v>1</v>
       </c>
@@ -6959,8 +7205,14 @@
         <v>0</v>
       </c>
       <c r="I179" t="inlineStr"/>
-      <c r="J179" t="inlineStr"/>
-      <c r="K179" t="inlineStr"/>
+      <c r="J179" t="n">
+        <v>66.51000000000001</v>
+      </c>
+      <c r="K179" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L179" t="n">
         <v>1</v>
       </c>
@@ -6992,8 +7244,14 @@
         <v>0</v>
       </c>
       <c r="I180" t="inlineStr"/>
-      <c r="J180" t="inlineStr"/>
-      <c r="K180" t="inlineStr"/>
+      <c r="J180" t="n">
+        <v>66.51000000000001</v>
+      </c>
+      <c r="K180" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L180" t="n">
         <v>1</v>
       </c>
@@ -7025,8 +7283,14 @@
         <v>0</v>
       </c>
       <c r="I181" t="inlineStr"/>
-      <c r="J181" t="inlineStr"/>
-      <c r="K181" t="inlineStr"/>
+      <c r="J181" t="n">
+        <v>66.51000000000001</v>
+      </c>
+      <c r="K181" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L181" t="n">
         <v>1</v>
       </c>
@@ -7058,8 +7322,14 @@
         <v>0</v>
       </c>
       <c r="I182" t="inlineStr"/>
-      <c r="J182" t="inlineStr"/>
-      <c r="K182" t="inlineStr"/>
+      <c r="J182" t="n">
+        <v>66.51000000000001</v>
+      </c>
+      <c r="K182" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L182" t="n">
         <v>1</v>
       </c>
@@ -7091,8 +7361,14 @@
         <v>0</v>
       </c>
       <c r="I183" t="inlineStr"/>
-      <c r="J183" t="inlineStr"/>
-      <c r="K183" t="inlineStr"/>
+      <c r="J183" t="n">
+        <v>66.51000000000001</v>
+      </c>
+      <c r="K183" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L183" t="n">
         <v>1</v>
       </c>
@@ -7124,8 +7400,14 @@
         <v>0</v>
       </c>
       <c r="I184" t="inlineStr"/>
-      <c r="J184" t="inlineStr"/>
-      <c r="K184" t="inlineStr"/>
+      <c r="J184" t="n">
+        <v>66.51000000000001</v>
+      </c>
+      <c r="K184" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L184" t="n">
         <v>1</v>
       </c>
@@ -7157,8 +7439,14 @@
         <v>0</v>
       </c>
       <c r="I185" t="inlineStr"/>
-      <c r="J185" t="inlineStr"/>
-      <c r="K185" t="inlineStr"/>
+      <c r="J185" t="n">
+        <v>66.51000000000001</v>
+      </c>
+      <c r="K185" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L185" t="n">
         <v>1</v>
       </c>
@@ -7190,8 +7478,14 @@
         <v>0</v>
       </c>
       <c r="I186" t="inlineStr"/>
-      <c r="J186" t="inlineStr"/>
-      <c r="K186" t="inlineStr"/>
+      <c r="J186" t="n">
+        <v>66.51000000000001</v>
+      </c>
+      <c r="K186" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L186" t="n">
         <v>1</v>
       </c>
@@ -7223,8 +7517,14 @@
         <v>0</v>
       </c>
       <c r="I187" t="inlineStr"/>
-      <c r="J187" t="inlineStr"/>
-      <c r="K187" t="inlineStr"/>
+      <c r="J187" t="n">
+        <v>66.51000000000001</v>
+      </c>
+      <c r="K187" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L187" t="n">
         <v>1</v>
       </c>
@@ -7256,8 +7556,14 @@
         <v>0</v>
       </c>
       <c r="I188" t="inlineStr"/>
-      <c r="J188" t="inlineStr"/>
-      <c r="K188" t="inlineStr"/>
+      <c r="J188" t="n">
+        <v>66.51000000000001</v>
+      </c>
+      <c r="K188" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L188" t="n">
         <v>1</v>
       </c>
@@ -7289,8 +7595,14 @@
         <v>0</v>
       </c>
       <c r="I189" t="inlineStr"/>
-      <c r="J189" t="inlineStr"/>
-      <c r="K189" t="inlineStr"/>
+      <c r="J189" t="n">
+        <v>66.51000000000001</v>
+      </c>
+      <c r="K189" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L189" t="n">
         <v>1</v>
       </c>
@@ -7322,8 +7634,14 @@
         <v>0</v>
       </c>
       <c r="I190" t="inlineStr"/>
-      <c r="J190" t="inlineStr"/>
-      <c r="K190" t="inlineStr"/>
+      <c r="J190" t="n">
+        <v>66.51000000000001</v>
+      </c>
+      <c r="K190" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L190" t="n">
         <v>1</v>
       </c>
@@ -7352,13 +7670,19 @@
         <v>73539.22041461291</v>
       </c>
       <c r="H191" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I191" t="inlineStr"/>
-      <c r="J191" t="inlineStr"/>
-      <c r="K191" t="inlineStr"/>
+      <c r="J191" t="n">
+        <v>66.51000000000001</v>
+      </c>
+      <c r="K191" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
       <c r="L191" t="n">
-        <v>1</v>
+        <v>1.01875582619155</v>
       </c>
       <c r="M191" t="inlineStr"/>
     </row>
@@ -7385,7 +7709,7 @@
         <v>58220.22041461291</v>
       </c>
       <c r="H192" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I192" t="inlineStr"/>
       <c r="J192" t="inlineStr"/>
@@ -7418,7 +7742,7 @@
         <v>61929.72611461291</v>
       </c>
       <c r="H193" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I193" t="inlineStr"/>
       <c r="J193" t="inlineStr"/>

--- a/BackTest/2020-01-24 BackTest FX.xlsx
+++ b/BackTest/2020-01-24 BackTest FX.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M210"/>
+  <dimension ref="A1:L210"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -389,40 +389,35 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>volume</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>trade_state</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>trade_state</t>
+          <t>BuyPrice</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>BuyPrice</t>
+          <t>bprelay</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>bprelay</t>
+          <t>Condition</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>Condition</t>
+          <t>Profits</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>Profits</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Price_point</t>
         </is>
@@ -448,18 +443,15 @@
         <v>1216.496</v>
       </c>
       <c r="G2" t="n">
-        <v>42582.70312282412</v>
-      </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H2" t="inlineStr"/>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
-      <c r="K2" t="inlineStr"/>
-      <c r="L2" t="n">
-        <v>1</v>
-      </c>
-      <c r="M2" t="inlineStr"/>
+      <c r="K2" t="n">
+        <v>1</v>
+      </c>
+      <c r="L2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -481,18 +473,15 @@
         <v>183</v>
       </c>
       <c r="G3" t="n">
-        <v>42582.70312282412</v>
-      </c>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H3" t="inlineStr"/>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr"/>
-      <c r="L3" t="n">
-        <v>1</v>
-      </c>
-      <c r="M3" t="inlineStr"/>
+      <c r="K3" t="n">
+        <v>1</v>
+      </c>
+      <c r="L3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -514,18 +503,15 @@
         <v>4451.3607</v>
       </c>
       <c r="G4" t="n">
-        <v>47034.06382282412</v>
-      </c>
-      <c r="H4" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H4" t="inlineStr"/>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
-      <c r="L4" t="n">
-        <v>1</v>
-      </c>
-      <c r="M4" t="inlineStr"/>
+      <c r="K4" t="n">
+        <v>1</v>
+      </c>
+      <c r="L4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -547,18 +533,15 @@
         <v>1563.3409</v>
       </c>
       <c r="G5" t="n">
-        <v>45470.72292282412</v>
-      </c>
-      <c r="H5" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H5" t="inlineStr"/>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
-      <c r="L5" t="n">
-        <v>1</v>
-      </c>
-      <c r="M5" t="inlineStr"/>
+      <c r="K5" t="n">
+        <v>1</v>
+      </c>
+      <c r="L5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -580,18 +563,15 @@
         <v>15.46</v>
       </c>
       <c r="G6" t="n">
-        <v>45486.18292282412</v>
-      </c>
-      <c r="H6" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H6" t="inlineStr"/>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr"/>
-      <c r="L6" t="n">
-        <v>1</v>
-      </c>
-      <c r="M6" t="inlineStr"/>
+      <c r="K6" t="n">
+        <v>1</v>
+      </c>
+      <c r="L6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -613,18 +593,15 @@
         <v>8</v>
       </c>
       <c r="G7" t="n">
-        <v>45494.18292282412</v>
-      </c>
-      <c r="H7" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H7" t="inlineStr"/>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr"/>
-      <c r="L7" t="n">
-        <v>1</v>
-      </c>
-      <c r="M7" t="inlineStr"/>
+      <c r="K7" t="n">
+        <v>1</v>
+      </c>
+      <c r="L7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -646,18 +623,15 @@
         <v>10</v>
       </c>
       <c r="G8" t="n">
-        <v>45484.18292282412</v>
-      </c>
-      <c r="H8" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H8" t="inlineStr"/>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
-      <c r="L8" t="n">
-        <v>1</v>
-      </c>
-      <c r="M8" t="inlineStr"/>
+      <c r="K8" t="n">
+        <v>1</v>
+      </c>
+      <c r="L8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -679,18 +653,15 @@
         <v>100</v>
       </c>
       <c r="G9" t="n">
-        <v>45584.18292282412</v>
-      </c>
-      <c r="H9" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H9" t="inlineStr"/>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr"/>
-      <c r="L9" t="n">
-        <v>1</v>
-      </c>
-      <c r="M9" t="inlineStr"/>
+      <c r="K9" t="n">
+        <v>1</v>
+      </c>
+      <c r="L9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -712,18 +683,15 @@
         <v>100</v>
       </c>
       <c r="G10" t="n">
-        <v>45584.18292282412</v>
-      </c>
-      <c r="H10" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H10" t="inlineStr"/>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
-      <c r="L10" t="n">
-        <v>1</v>
-      </c>
-      <c r="M10" t="inlineStr"/>
+      <c r="K10" t="n">
+        <v>1</v>
+      </c>
+      <c r="L10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -745,18 +713,15 @@
         <v>100</v>
       </c>
       <c r="G11" t="n">
-        <v>45484.18292282412</v>
-      </c>
-      <c r="H11" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H11" t="inlineStr"/>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
-      <c r="L11" t="n">
-        <v>1</v>
-      </c>
-      <c r="M11" t="inlineStr"/>
+      <c r="K11" t="n">
+        <v>1</v>
+      </c>
+      <c r="L11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -778,18 +743,15 @@
         <v>8431.454100000001</v>
       </c>
       <c r="G12" t="n">
-        <v>37052.72882282412</v>
-      </c>
-      <c r="H12" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H12" t="inlineStr"/>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr"/>
-      <c r="L12" t="n">
-        <v>1</v>
-      </c>
-      <c r="M12" t="inlineStr"/>
+      <c r="K12" t="n">
+        <v>1</v>
+      </c>
+      <c r="L12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -811,18 +773,15 @@
         <v>1109</v>
       </c>
       <c r="G13" t="n">
-        <v>38161.72882282412</v>
-      </c>
-      <c r="H13" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H13" t="inlineStr"/>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr"/>
-      <c r="L13" t="n">
-        <v>1</v>
-      </c>
-      <c r="M13" t="inlineStr"/>
+      <c r="K13" t="n">
+        <v>1</v>
+      </c>
+      <c r="L13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -844,18 +803,15 @@
         <v>10</v>
       </c>
       <c r="G14" t="n">
-        <v>38161.72882282412</v>
-      </c>
-      <c r="H14" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H14" t="inlineStr"/>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr"/>
-      <c r="L14" t="n">
-        <v>1</v>
-      </c>
-      <c r="M14" t="inlineStr"/>
+      <c r="K14" t="n">
+        <v>1</v>
+      </c>
+      <c r="L14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -877,18 +833,15 @@
         <v>1279</v>
       </c>
       <c r="G15" t="n">
-        <v>36882.72882282412</v>
-      </c>
-      <c r="H15" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H15" t="inlineStr"/>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr"/>
-      <c r="L15" t="n">
-        <v>1</v>
-      </c>
-      <c r="M15" t="inlineStr"/>
+      <c r="K15" t="n">
+        <v>1</v>
+      </c>
+      <c r="L15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -910,18 +863,15 @@
         <v>902</v>
       </c>
       <c r="G16" t="n">
-        <v>37784.72882282412</v>
-      </c>
-      <c r="H16" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H16" t="inlineStr"/>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr"/>
-      <c r="L16" t="n">
-        <v>1</v>
-      </c>
-      <c r="M16" t="inlineStr"/>
+      <c r="K16" t="n">
+        <v>1</v>
+      </c>
+      <c r="L16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -943,18 +893,15 @@
         <v>8</v>
       </c>
       <c r="G17" t="n">
-        <v>37792.72882282412</v>
-      </c>
-      <c r="H17" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H17" t="inlineStr"/>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr"/>
-      <c r="L17" t="n">
-        <v>1</v>
-      </c>
-      <c r="M17" t="inlineStr"/>
+      <c r="K17" t="n">
+        <v>1</v>
+      </c>
+      <c r="L17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -976,18 +923,15 @@
         <v>20</v>
       </c>
       <c r="G18" t="n">
-        <v>37772.72882282412</v>
-      </c>
-      <c r="H18" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H18" t="inlineStr"/>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr"/>
-      <c r="L18" t="n">
-        <v>1</v>
-      </c>
-      <c r="M18" t="inlineStr"/>
+      <c r="K18" t="n">
+        <v>1</v>
+      </c>
+      <c r="L18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1009,18 +953,15 @@
         <v>3673.392</v>
       </c>
       <c r="G19" t="n">
-        <v>34099.33682282412</v>
-      </c>
-      <c r="H19" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H19" t="inlineStr"/>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr"/>
-      <c r="L19" t="n">
-        <v>1</v>
-      </c>
-      <c r="M19" t="inlineStr"/>
+      <c r="K19" t="n">
+        <v>1</v>
+      </c>
+      <c r="L19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1042,18 +983,15 @@
         <v>20</v>
       </c>
       <c r="G20" t="n">
-        <v>34079.33682282412</v>
-      </c>
-      <c r="H20" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H20" t="inlineStr"/>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr"/>
-      <c r="L20" t="n">
-        <v>1</v>
-      </c>
-      <c r="M20" t="inlineStr"/>
+      <c r="K20" t="n">
+        <v>1</v>
+      </c>
+      <c r="L20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1075,18 +1013,15 @@
         <v>20</v>
       </c>
       <c r="G21" t="n">
-        <v>34059.33682282412</v>
-      </c>
-      <c r="H21" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H21" t="inlineStr"/>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr"/>
-      <c r="L21" t="n">
-        <v>1</v>
-      </c>
-      <c r="M21" t="inlineStr"/>
+      <c r="K21" t="n">
+        <v>1</v>
+      </c>
+      <c r="L21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1108,18 +1043,15 @@
         <v>10</v>
       </c>
       <c r="G22" t="n">
-        <v>34069.33682282412</v>
-      </c>
-      <c r="H22" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H22" t="inlineStr"/>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr"/>
-      <c r="L22" t="n">
-        <v>1</v>
-      </c>
-      <c r="M22" t="inlineStr"/>
+      <c r="K22" t="n">
+        <v>1</v>
+      </c>
+      <c r="L22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1141,18 +1073,15 @@
         <v>20</v>
       </c>
       <c r="G23" t="n">
-        <v>34049.33682282412</v>
-      </c>
-      <c r="H23" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H23" t="inlineStr"/>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr"/>
-      <c r="L23" t="n">
-        <v>1</v>
-      </c>
-      <c r="M23" t="inlineStr"/>
+      <c r="K23" t="n">
+        <v>1</v>
+      </c>
+      <c r="L23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1174,18 +1103,15 @@
         <v>8</v>
       </c>
       <c r="G24" t="n">
-        <v>34057.33682282412</v>
-      </c>
-      <c r="H24" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H24" t="inlineStr"/>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr"/>
-      <c r="L24" t="n">
-        <v>1</v>
-      </c>
-      <c r="M24" t="inlineStr"/>
+      <c r="K24" t="n">
+        <v>1</v>
+      </c>
+      <c r="L24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1207,18 +1133,15 @@
         <v>55.6379</v>
       </c>
       <c r="G25" t="n">
-        <v>34001.69892282411</v>
-      </c>
-      <c r="H25" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H25" t="inlineStr"/>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr"/>
-      <c r="L25" t="n">
-        <v>1</v>
-      </c>
-      <c r="M25" t="inlineStr"/>
+      <c r="K25" t="n">
+        <v>1</v>
+      </c>
+      <c r="L25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1240,18 +1163,15 @@
         <v>97</v>
       </c>
       <c r="G26" t="n">
-        <v>34001.69892282411</v>
-      </c>
-      <c r="H26" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H26" t="inlineStr"/>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr"/>
-      <c r="L26" t="n">
-        <v>1</v>
-      </c>
-      <c r="M26" t="inlineStr"/>
+      <c r="K26" t="n">
+        <v>1</v>
+      </c>
+      <c r="L26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1273,18 +1193,15 @@
         <v>28.3621</v>
       </c>
       <c r="G27" t="n">
-        <v>34030.06102282411</v>
-      </c>
-      <c r="H27" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H27" t="inlineStr"/>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr"/>
-      <c r="L27" t="n">
-        <v>1</v>
-      </c>
-      <c r="M27" t="inlineStr"/>
+      <c r="K27" t="n">
+        <v>1</v>
+      </c>
+      <c r="L27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1306,18 +1223,15 @@
         <v>20</v>
       </c>
       <c r="G28" t="n">
-        <v>34010.06102282411</v>
-      </c>
-      <c r="H28" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H28" t="inlineStr"/>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr"/>
-      <c r="L28" t="n">
-        <v>1</v>
-      </c>
-      <c r="M28" t="inlineStr"/>
+      <c r="K28" t="n">
+        <v>1</v>
+      </c>
+      <c r="L28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1339,18 +1253,15 @@
         <v>19.6379</v>
       </c>
       <c r="G29" t="n">
-        <v>33990.42312282411</v>
-      </c>
-      <c r="H29" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H29" t="inlineStr"/>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr"/>
-      <c r="L29" t="n">
-        <v>1</v>
-      </c>
-      <c r="M29" t="inlineStr"/>
+      <c r="K29" t="n">
+        <v>1</v>
+      </c>
+      <c r="L29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1372,18 +1283,15 @@
         <v>8</v>
       </c>
       <c r="G30" t="n">
-        <v>33998.42312282411</v>
-      </c>
-      <c r="H30" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H30" t="inlineStr"/>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr"/>
-      <c r="L30" t="n">
-        <v>1</v>
-      </c>
-      <c r="M30" t="inlineStr"/>
+      <c r="K30" t="n">
+        <v>1</v>
+      </c>
+      <c r="L30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1405,18 +1313,15 @@
         <v>37.1877</v>
       </c>
       <c r="G31" t="n">
-        <v>33961.23542282411</v>
-      </c>
-      <c r="H31" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H31" t="inlineStr"/>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr"/>
-      <c r="L31" t="n">
-        <v>1</v>
-      </c>
-      <c r="M31" t="inlineStr"/>
+      <c r="K31" t="n">
+        <v>1</v>
+      </c>
+      <c r="L31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1438,18 +1343,15 @@
         <v>8</v>
       </c>
       <c r="G32" t="n">
-        <v>33969.23542282411</v>
-      </c>
-      <c r="H32" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H32" t="inlineStr"/>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr"/>
-      <c r="L32" t="n">
-        <v>1</v>
-      </c>
-      <c r="M32" t="inlineStr"/>
+      <c r="K32" t="n">
+        <v>1</v>
+      </c>
+      <c r="L32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1471,18 +1373,15 @@
         <v>529.1807</v>
       </c>
       <c r="G33" t="n">
-        <v>33440.05472282411</v>
-      </c>
-      <c r="H33" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H33" t="inlineStr"/>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr"/>
-      <c r="L33" t="n">
-        <v>1</v>
-      </c>
-      <c r="M33" t="inlineStr"/>
+      <c r="K33" t="n">
+        <v>1</v>
+      </c>
+      <c r="L33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1504,18 +1403,15 @@
         <v>600</v>
       </c>
       <c r="G34" t="n">
-        <v>32840.05472282411</v>
-      </c>
-      <c r="H34" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H34" t="inlineStr"/>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr"/>
-      <c r="L34" t="n">
-        <v>1</v>
-      </c>
-      <c r="M34" t="inlineStr"/>
+      <c r="K34" t="n">
+        <v>1</v>
+      </c>
+      <c r="L34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1537,18 +1433,15 @@
         <v>11.5283</v>
       </c>
       <c r="G35" t="n">
-        <v>32840.05472282411</v>
-      </c>
-      <c r="H35" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H35" t="inlineStr"/>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr"/>
-      <c r="L35" t="n">
-        <v>1</v>
-      </c>
-      <c r="M35" t="inlineStr"/>
+      <c r="K35" t="n">
+        <v>1</v>
+      </c>
+      <c r="L35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1570,22 +1463,15 @@
         <v>20</v>
       </c>
       <c r="G36" t="n">
-        <v>32820.05472282411</v>
-      </c>
-      <c r="H36" t="n">
-        <v>1</v>
-      </c>
-      <c r="I36" t="n">
-        <v>66.51000000000001</v>
-      </c>
-      <c r="J36" t="n">
-        <v>66.51000000000001</v>
-      </c>
-      <c r="K36" t="inlineStr"/>
-      <c r="L36" t="n">
-        <v>1</v>
-      </c>
-      <c r="M36" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H36" t="inlineStr"/>
+      <c r="I36" t="inlineStr"/>
+      <c r="J36" t="inlineStr"/>
+      <c r="K36" t="n">
+        <v>1</v>
+      </c>
+      <c r="L36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1607,24 +1493,15 @@
         <v>150</v>
       </c>
       <c r="G37" t="n">
-        <v>32670.05472282411</v>
-      </c>
-      <c r="H37" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H37" t="inlineStr"/>
       <c r="I37" t="inlineStr"/>
-      <c r="J37" t="n">
-        <v>66.51000000000001</v>
-      </c>
-      <c r="K37" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
-      <c r="L37" t="n">
-        <v>1</v>
-      </c>
-      <c r="M37" t="inlineStr"/>
+      <c r="J37" t="inlineStr"/>
+      <c r="K37" t="n">
+        <v>1</v>
+      </c>
+      <c r="L37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1646,24 +1523,15 @@
         <v>8</v>
       </c>
       <c r="G38" t="n">
-        <v>32678.05472282411</v>
-      </c>
-      <c r="H38" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H38" t="inlineStr"/>
       <c r="I38" t="inlineStr"/>
-      <c r="J38" t="n">
-        <v>66.51000000000001</v>
-      </c>
-      <c r="K38" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L38" t="n">
-        <v>1</v>
-      </c>
-      <c r="M38" t="inlineStr"/>
+      <c r="J38" t="inlineStr"/>
+      <c r="K38" t="n">
+        <v>1</v>
+      </c>
+      <c r="L38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1685,26 +1553,15 @@
         <v>810</v>
       </c>
       <c r="G39" t="n">
-        <v>32678.05472282411</v>
-      </c>
-      <c r="H39" t="n">
-        <v>1</v>
-      </c>
-      <c r="I39" t="n">
-        <v>66.5</v>
-      </c>
-      <c r="J39" t="n">
-        <v>66.51000000000001</v>
-      </c>
-      <c r="K39" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L39" t="n">
-        <v>1</v>
-      </c>
-      <c r="M39" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H39" t="inlineStr"/>
+      <c r="I39" t="inlineStr"/>
+      <c r="J39" t="inlineStr"/>
+      <c r="K39" t="n">
+        <v>1</v>
+      </c>
+      <c r="L39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1726,26 +1583,15 @@
         <v>8</v>
       </c>
       <c r="G40" t="n">
-        <v>32686.05472282411</v>
-      </c>
-      <c r="H40" t="n">
-        <v>1</v>
-      </c>
-      <c r="I40" t="n">
-        <v>66.5</v>
-      </c>
-      <c r="J40" t="n">
-        <v>66.51000000000001</v>
-      </c>
-      <c r="K40" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L40" t="n">
-        <v>1</v>
-      </c>
-      <c r="M40" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H40" t="inlineStr"/>
+      <c r="I40" t="inlineStr"/>
+      <c r="J40" t="inlineStr"/>
+      <c r="K40" t="n">
+        <v>1</v>
+      </c>
+      <c r="L40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1767,24 +1613,15 @@
         <v>170.7144</v>
       </c>
       <c r="G41" t="n">
-        <v>32686.05472282411</v>
-      </c>
-      <c r="H41" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H41" t="inlineStr"/>
       <c r="I41" t="inlineStr"/>
-      <c r="J41" t="n">
-        <v>66.51000000000001</v>
-      </c>
-      <c r="K41" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L41" t="n">
-        <v>1</v>
-      </c>
-      <c r="M41" t="inlineStr"/>
+      <c r="J41" t="inlineStr"/>
+      <c r="K41" t="n">
+        <v>1</v>
+      </c>
+      <c r="L41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1806,24 +1643,15 @@
         <v>367.2078</v>
       </c>
       <c r="G42" t="n">
-        <v>32318.84692282411</v>
-      </c>
-      <c r="H42" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H42" t="inlineStr"/>
       <c r="I42" t="inlineStr"/>
-      <c r="J42" t="n">
-        <v>66.51000000000001</v>
-      </c>
-      <c r="K42" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L42" t="n">
-        <v>1</v>
-      </c>
-      <c r="M42" t="inlineStr"/>
+      <c r="J42" t="inlineStr"/>
+      <c r="K42" t="n">
+        <v>1</v>
+      </c>
+      <c r="L42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -1845,24 +1673,15 @@
         <v>300</v>
       </c>
       <c r="G43" t="n">
-        <v>32018.84692282411</v>
-      </c>
-      <c r="H43" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H43" t="inlineStr"/>
       <c r="I43" t="inlineStr"/>
-      <c r="J43" t="n">
-        <v>66.51000000000001</v>
-      </c>
-      <c r="K43" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L43" t="n">
-        <v>1</v>
-      </c>
-      <c r="M43" t="inlineStr"/>
+      <c r="J43" t="inlineStr"/>
+      <c r="K43" t="n">
+        <v>1</v>
+      </c>
+      <c r="L43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1884,26 +1703,15 @@
         <v>297.5061</v>
       </c>
       <c r="G44" t="n">
-        <v>32018.84692282411</v>
-      </c>
-      <c r="H44" t="n">
-        <v>1</v>
-      </c>
-      <c r="I44" t="n">
-        <v>66.09999999999999</v>
-      </c>
-      <c r="J44" t="n">
-        <v>66.51000000000001</v>
-      </c>
-      <c r="K44" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L44" t="n">
-        <v>1</v>
-      </c>
-      <c r="M44" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H44" t="inlineStr"/>
+      <c r="I44" t="inlineStr"/>
+      <c r="J44" t="inlineStr"/>
+      <c r="K44" t="n">
+        <v>1</v>
+      </c>
+      <c r="L44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -1925,26 +1733,15 @@
         <v>10.4939</v>
       </c>
       <c r="G45" t="n">
-        <v>32029.34082282411</v>
-      </c>
-      <c r="H45" t="n">
-        <v>1</v>
-      </c>
-      <c r="I45" t="n">
-        <v>66.09999999999999</v>
-      </c>
-      <c r="J45" t="n">
-        <v>66.51000000000001</v>
-      </c>
-      <c r="K45" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L45" t="n">
-        <v>1</v>
-      </c>
-      <c r="M45" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H45" t="inlineStr"/>
+      <c r="I45" t="inlineStr"/>
+      <c r="J45" t="inlineStr"/>
+      <c r="K45" t="n">
+        <v>1</v>
+      </c>
+      <c r="L45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -1966,24 +1763,15 @@
         <v>100</v>
       </c>
       <c r="G46" t="n">
-        <v>31929.34082282411</v>
-      </c>
-      <c r="H46" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H46" t="inlineStr"/>
       <c r="I46" t="inlineStr"/>
-      <c r="J46" t="n">
-        <v>66.51000000000001</v>
-      </c>
-      <c r="K46" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L46" t="n">
-        <v>1</v>
-      </c>
-      <c r="M46" t="inlineStr"/>
+      <c r="J46" t="inlineStr"/>
+      <c r="K46" t="n">
+        <v>1</v>
+      </c>
+      <c r="L46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -2005,26 +1793,15 @@
         <v>8</v>
       </c>
       <c r="G47" t="n">
-        <v>31937.34082282411</v>
-      </c>
-      <c r="H47" t="n">
-        <v>1</v>
-      </c>
-      <c r="I47" t="n">
-        <v>66.11</v>
-      </c>
-      <c r="J47" t="n">
-        <v>66.51000000000001</v>
-      </c>
-      <c r="K47" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L47" t="n">
-        <v>1</v>
-      </c>
-      <c r="M47" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H47" t="inlineStr"/>
+      <c r="I47" t="inlineStr"/>
+      <c r="J47" t="inlineStr"/>
+      <c r="K47" t="n">
+        <v>1</v>
+      </c>
+      <c r="L47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -2046,24 +1823,15 @@
         <v>100</v>
       </c>
       <c r="G48" t="n">
-        <v>31837.34082282411</v>
-      </c>
-      <c r="H48" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H48" t="inlineStr"/>
       <c r="I48" t="inlineStr"/>
-      <c r="J48" t="n">
-        <v>66.51000000000001</v>
-      </c>
-      <c r="K48" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L48" t="n">
-        <v>1</v>
-      </c>
-      <c r="M48" t="inlineStr"/>
+      <c r="J48" t="inlineStr"/>
+      <c r="K48" t="n">
+        <v>1</v>
+      </c>
+      <c r="L48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -2085,24 +1853,15 @@
         <v>36.1298</v>
       </c>
       <c r="G49" t="n">
-        <v>31837.34082282411</v>
-      </c>
-      <c r="H49" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H49" t="inlineStr"/>
       <c r="I49" t="inlineStr"/>
-      <c r="J49" t="n">
-        <v>66.51000000000001</v>
-      </c>
-      <c r="K49" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L49" t="n">
-        <v>1</v>
-      </c>
-      <c r="M49" t="inlineStr"/>
+      <c r="J49" t="inlineStr"/>
+      <c r="K49" t="n">
+        <v>1</v>
+      </c>
+      <c r="L49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -2124,24 +1883,15 @@
         <v>16.99089178881244</v>
       </c>
       <c r="G50" t="n">
-        <v>31854.33171461293</v>
-      </c>
-      <c r="H50" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H50" t="inlineStr"/>
       <c r="I50" t="inlineStr"/>
-      <c r="J50" t="n">
-        <v>66.51000000000001</v>
-      </c>
-      <c r="K50" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L50" t="n">
-        <v>1</v>
-      </c>
-      <c r="M50" t="inlineStr"/>
+      <c r="J50" t="inlineStr"/>
+      <c r="K50" t="n">
+        <v>1</v>
+      </c>
+      <c r="L50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -2163,24 +1913,15 @@
         <v>9</v>
       </c>
       <c r="G51" t="n">
-        <v>31845.33171461293</v>
-      </c>
-      <c r="H51" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H51" t="inlineStr"/>
       <c r="I51" t="inlineStr"/>
-      <c r="J51" t="n">
-        <v>66.51000000000001</v>
-      </c>
-      <c r="K51" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L51" t="n">
-        <v>1</v>
-      </c>
-      <c r="M51" t="inlineStr"/>
+      <c r="J51" t="inlineStr"/>
+      <c r="K51" t="n">
+        <v>1</v>
+      </c>
+      <c r="L51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -2202,24 +1943,15 @@
         <v>9</v>
       </c>
       <c r="G52" t="n">
-        <v>31836.33171461293</v>
-      </c>
-      <c r="H52" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H52" t="inlineStr"/>
       <c r="I52" t="inlineStr"/>
-      <c r="J52" t="n">
-        <v>66.51000000000001</v>
-      </c>
-      <c r="K52" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L52" t="n">
-        <v>1</v>
-      </c>
-      <c r="M52" t="inlineStr"/>
+      <c r="J52" t="inlineStr"/>
+      <c r="K52" t="n">
+        <v>1</v>
+      </c>
+      <c r="L52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -2241,26 +1973,15 @@
         <v>8103.0354</v>
       </c>
       <c r="G53" t="n">
-        <v>23733.29631461293</v>
-      </c>
-      <c r="H53" t="n">
-        <v>1</v>
-      </c>
-      <c r="I53" t="n">
-        <v>66.3</v>
-      </c>
-      <c r="J53" t="n">
-        <v>66.51000000000001</v>
-      </c>
-      <c r="K53" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L53" t="n">
-        <v>1</v>
-      </c>
-      <c r="M53" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H53" t="inlineStr"/>
+      <c r="I53" t="inlineStr"/>
+      <c r="J53" t="inlineStr"/>
+      <c r="K53" t="n">
+        <v>1</v>
+      </c>
+      <c r="L53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -2282,26 +2003,15 @@
         <v>20699.0677</v>
       </c>
       <c r="G54" t="n">
-        <v>3034.228614612926</v>
-      </c>
-      <c r="H54" t="n">
-        <v>1</v>
-      </c>
-      <c r="I54" t="n">
-        <v>65.7</v>
-      </c>
-      <c r="J54" t="n">
-        <v>66.51000000000001</v>
-      </c>
-      <c r="K54" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L54" t="n">
-        <v>1</v>
-      </c>
-      <c r="M54" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H54" t="inlineStr"/>
+      <c r="I54" t="inlineStr"/>
+      <c r="J54" t="inlineStr"/>
+      <c r="K54" t="n">
+        <v>1</v>
+      </c>
+      <c r="L54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -2323,26 +2033,15 @@
         <v>10000</v>
       </c>
       <c r="G55" t="n">
-        <v>13034.22861461293</v>
-      </c>
-      <c r="H55" t="n">
-        <v>1</v>
-      </c>
-      <c r="I55" t="n">
-        <v>64.90000000000001</v>
-      </c>
-      <c r="J55" t="n">
-        <v>66.51000000000001</v>
-      </c>
-      <c r="K55" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L55" t="n">
-        <v>1</v>
-      </c>
-      <c r="M55" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H55" t="inlineStr"/>
+      <c r="I55" t="inlineStr"/>
+      <c r="J55" t="inlineStr"/>
+      <c r="K55" t="n">
+        <v>1</v>
+      </c>
+      <c r="L55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -2364,26 +2063,15 @@
         <v>15913.3822</v>
       </c>
       <c r="G56" t="n">
-        <v>28947.61081461293</v>
-      </c>
-      <c r="H56" t="n">
-        <v>1</v>
-      </c>
-      <c r="I56" t="n">
-        <v>65.59</v>
-      </c>
-      <c r="J56" t="n">
-        <v>66.51000000000001</v>
-      </c>
-      <c r="K56" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L56" t="n">
-        <v>1</v>
-      </c>
-      <c r="M56" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H56" t="inlineStr"/>
+      <c r="I56" t="inlineStr"/>
+      <c r="J56" t="inlineStr"/>
+      <c r="K56" t="n">
+        <v>1</v>
+      </c>
+      <c r="L56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2405,26 +2093,15 @@
         <v>360.4969</v>
       </c>
       <c r="G57" t="n">
-        <v>28587.11391461293</v>
-      </c>
-      <c r="H57" t="n">
-        <v>1</v>
-      </c>
-      <c r="I57" t="n">
-        <v>66.5</v>
-      </c>
-      <c r="J57" t="n">
-        <v>66.51000000000001</v>
-      </c>
-      <c r="K57" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L57" t="n">
-        <v>1</v>
-      </c>
-      <c r="M57" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H57" t="inlineStr"/>
+      <c r="I57" t="inlineStr"/>
+      <c r="J57" t="inlineStr"/>
+      <c r="K57" t="n">
+        <v>1</v>
+      </c>
+      <c r="L57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2446,26 +2123,15 @@
         <v>20</v>
       </c>
       <c r="G58" t="n">
-        <v>28607.11391461293</v>
-      </c>
-      <c r="H58" t="n">
-        <v>1</v>
-      </c>
-      <c r="I58" t="n">
-        <v>65.11</v>
-      </c>
-      <c r="J58" t="n">
-        <v>66.51000000000001</v>
-      </c>
-      <c r="K58" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L58" t="n">
-        <v>1</v>
-      </c>
-      <c r="M58" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H58" t="inlineStr"/>
+      <c r="I58" t="inlineStr"/>
+      <c r="J58" t="inlineStr"/>
+      <c r="K58" t="n">
+        <v>1</v>
+      </c>
+      <c r="L58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2487,26 +2153,15 @@
         <v>7482.7938</v>
       </c>
       <c r="G59" t="n">
-        <v>21124.32011461293</v>
-      </c>
-      <c r="H59" t="n">
-        <v>1</v>
-      </c>
-      <c r="I59" t="n">
-        <v>66.48999999999999</v>
-      </c>
-      <c r="J59" t="n">
-        <v>66.51000000000001</v>
-      </c>
-      <c r="K59" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L59" t="n">
-        <v>1</v>
-      </c>
-      <c r="M59" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H59" t="inlineStr"/>
+      <c r="I59" t="inlineStr"/>
+      <c r="J59" t="inlineStr"/>
+      <c r="K59" t="n">
+        <v>1</v>
+      </c>
+      <c r="L59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2528,26 +2183,15 @@
         <v>19</v>
       </c>
       <c r="G60" t="n">
-        <v>21143.32011461293</v>
-      </c>
-      <c r="H60" t="n">
-        <v>1</v>
-      </c>
-      <c r="I60" t="n">
-        <v>65.11</v>
-      </c>
-      <c r="J60" t="n">
-        <v>66.51000000000001</v>
-      </c>
-      <c r="K60" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L60" t="n">
-        <v>1</v>
-      </c>
-      <c r="M60" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H60" t="inlineStr"/>
+      <c r="I60" t="inlineStr"/>
+      <c r="J60" t="inlineStr"/>
+      <c r="K60" t="n">
+        <v>1</v>
+      </c>
+      <c r="L60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2569,26 +2213,15 @@
         <v>100</v>
       </c>
       <c r="G61" t="n">
-        <v>21043.32011461293</v>
-      </c>
-      <c r="H61" t="n">
-        <v>1</v>
-      </c>
-      <c r="I61" t="n">
-        <v>66</v>
-      </c>
-      <c r="J61" t="n">
-        <v>66.51000000000001</v>
-      </c>
-      <c r="K61" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L61" t="n">
-        <v>1</v>
-      </c>
-      <c r="M61" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H61" t="inlineStr"/>
+      <c r="I61" t="inlineStr"/>
+      <c r="J61" t="inlineStr"/>
+      <c r="K61" t="n">
+        <v>1</v>
+      </c>
+      <c r="L61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2610,26 +2243,15 @@
         <v>18</v>
       </c>
       <c r="G62" t="n">
-        <v>21061.32011461293</v>
-      </c>
-      <c r="H62" t="n">
-        <v>1</v>
-      </c>
-      <c r="I62" t="n">
-        <v>65.5</v>
-      </c>
-      <c r="J62" t="n">
-        <v>66.51000000000001</v>
-      </c>
-      <c r="K62" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L62" t="n">
-        <v>1</v>
-      </c>
-      <c r="M62" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H62" t="inlineStr"/>
+      <c r="I62" t="inlineStr"/>
+      <c r="J62" t="inlineStr"/>
+      <c r="K62" t="n">
+        <v>1</v>
+      </c>
+      <c r="L62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2651,26 +2273,15 @@
         <v>18</v>
       </c>
       <c r="G63" t="n">
-        <v>21079.32011461293</v>
-      </c>
-      <c r="H63" t="n">
-        <v>1</v>
-      </c>
-      <c r="I63" t="n">
-        <v>65.98999999999999</v>
-      </c>
-      <c r="J63" t="n">
-        <v>66.51000000000001</v>
-      </c>
-      <c r="K63" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L63" t="n">
-        <v>1</v>
-      </c>
-      <c r="M63" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H63" t="inlineStr"/>
+      <c r="I63" t="inlineStr"/>
+      <c r="J63" t="inlineStr"/>
+      <c r="K63" t="n">
+        <v>1</v>
+      </c>
+      <c r="L63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2692,24 +2303,15 @@
         <v>20</v>
       </c>
       <c r="G64" t="n">
-        <v>21059.32011461293</v>
-      </c>
-      <c r="H64" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H64" t="inlineStr"/>
       <c r="I64" t="inlineStr"/>
-      <c r="J64" t="n">
-        <v>66.51000000000001</v>
-      </c>
-      <c r="K64" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L64" t="n">
-        <v>1</v>
-      </c>
-      <c r="M64" t="inlineStr"/>
+      <c r="J64" t="inlineStr"/>
+      <c r="K64" t="n">
+        <v>1</v>
+      </c>
+      <c r="L64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2731,26 +2333,15 @@
         <v>360.4968</v>
       </c>
       <c r="G65" t="n">
-        <v>21419.81691461293</v>
-      </c>
-      <c r="H65" t="n">
-        <v>1</v>
-      </c>
-      <c r="I65" t="n">
-        <v>66.2</v>
-      </c>
-      <c r="J65" t="n">
-        <v>66.51000000000001</v>
-      </c>
-      <c r="K65" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L65" t="n">
-        <v>1</v>
-      </c>
-      <c r="M65" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H65" t="inlineStr"/>
+      <c r="I65" t="inlineStr"/>
+      <c r="J65" t="inlineStr"/>
+      <c r="K65" t="n">
+        <v>1</v>
+      </c>
+      <c r="L65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -2772,26 +2363,15 @@
         <v>140</v>
       </c>
       <c r="G66" t="n">
-        <v>21279.81691461293</v>
-      </c>
-      <c r="H66" t="n">
-        <v>1</v>
-      </c>
-      <c r="I66" t="n">
-        <v>66.5</v>
-      </c>
-      <c r="J66" t="n">
-        <v>66.51000000000001</v>
-      </c>
-      <c r="K66" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L66" t="n">
-        <v>1</v>
-      </c>
-      <c r="M66" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H66" t="inlineStr"/>
+      <c r="I66" t="inlineStr"/>
+      <c r="J66" t="inlineStr"/>
+      <c r="K66" t="n">
+        <v>1</v>
+      </c>
+      <c r="L66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2813,26 +2393,15 @@
         <v>1277.1684</v>
       </c>
       <c r="G67" t="n">
-        <v>20002.64851461293</v>
-      </c>
-      <c r="H67" t="n">
-        <v>1</v>
-      </c>
-      <c r="I67" t="n">
-        <v>66</v>
-      </c>
-      <c r="J67" t="n">
-        <v>66.51000000000001</v>
-      </c>
-      <c r="K67" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L67" t="n">
-        <v>1</v>
-      </c>
-      <c r="M67" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H67" t="inlineStr"/>
+      <c r="I67" t="inlineStr"/>
+      <c r="J67" t="inlineStr"/>
+      <c r="K67" t="n">
+        <v>1</v>
+      </c>
+      <c r="L67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2854,26 +2423,15 @@
         <v>8</v>
       </c>
       <c r="G68" t="n">
-        <v>20010.64851461293</v>
-      </c>
-      <c r="H68" t="n">
-        <v>1</v>
-      </c>
-      <c r="I68" t="n">
-        <v>65.3</v>
-      </c>
-      <c r="J68" t="n">
-        <v>66.51000000000001</v>
-      </c>
-      <c r="K68" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L68" t="n">
-        <v>1</v>
-      </c>
-      <c r="M68" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H68" t="inlineStr"/>
+      <c r="I68" t="inlineStr"/>
+      <c r="J68" t="inlineStr"/>
+      <c r="K68" t="n">
+        <v>1</v>
+      </c>
+      <c r="L68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -2895,26 +2453,21 @@
         <v>5851</v>
       </c>
       <c r="G69" t="n">
-        <v>14159.64851461293</v>
+        <v>1</v>
       </c>
       <c r="H69" t="n">
-        <v>1</v>
-      </c>
-      <c r="I69" t="n">
         <v>66.5</v>
       </c>
-      <c r="J69" t="n">
-        <v>66.51000000000001</v>
-      </c>
-      <c r="K69" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L69" t="n">
-        <v>1</v>
-      </c>
-      <c r="M69" t="inlineStr"/>
+      <c r="I69" t="inlineStr"/>
+      <c r="J69" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="K69" t="n">
+        <v>1</v>
+      </c>
+      <c r="L69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2936,26 +2489,19 @@
         <v>8</v>
       </c>
       <c r="G70" t="n">
-        <v>14167.64851461293</v>
-      </c>
-      <c r="H70" t="n">
-        <v>1</v>
-      </c>
-      <c r="I70" t="n">
-        <v>65.01000000000001</v>
-      </c>
-      <c r="J70" t="n">
-        <v>66.51000000000001</v>
-      </c>
-      <c r="K70" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H70" t="inlineStr"/>
+      <c r="I70" t="inlineStr"/>
+      <c r="J70" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L70" t="n">
-        <v>1</v>
-      </c>
-      <c r="M70" t="inlineStr"/>
+      <c r="K70" t="n">
+        <v>1</v>
+      </c>
+      <c r="L70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -2977,26 +2523,19 @@
         <v>499.4876145522388</v>
       </c>
       <c r="G71" t="n">
-        <v>14667.13612916517</v>
-      </c>
-      <c r="H71" t="n">
-        <v>1</v>
-      </c>
-      <c r="I71" t="n">
-        <v>66.98999999999999</v>
-      </c>
-      <c r="J71" t="n">
-        <v>66.51000000000001</v>
-      </c>
-      <c r="K71" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H71" t="inlineStr"/>
+      <c r="I71" t="inlineStr"/>
+      <c r="J71" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L71" t="n">
-        <v>1</v>
-      </c>
-      <c r="M71" t="inlineStr"/>
+      <c r="K71" t="n">
+        <v>1</v>
+      </c>
+      <c r="L71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -3018,24 +2557,19 @@
         <v>306.5513</v>
       </c>
       <c r="G72" t="n">
-        <v>14360.58482916517</v>
-      </c>
-      <c r="H72" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H72" t="inlineStr"/>
       <c r="I72" t="inlineStr"/>
-      <c r="J72" t="n">
-        <v>66.51000000000001</v>
-      </c>
-      <c r="K72" t="inlineStr">
+      <c r="J72" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L72" t="n">
-        <v>1</v>
-      </c>
-      <c r="M72" t="inlineStr"/>
+      <c r="K72" t="n">
+        <v>1</v>
+      </c>
+      <c r="L72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -3057,26 +2591,19 @@
         <v>7951.0687</v>
       </c>
       <c r="G73" t="n">
-        <v>14360.58482916517</v>
-      </c>
-      <c r="H73" t="n">
-        <v>1</v>
-      </c>
-      <c r="I73" t="n">
-        <v>65.2</v>
-      </c>
-      <c r="J73" t="n">
-        <v>66.51000000000001</v>
-      </c>
-      <c r="K73" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H73" t="inlineStr"/>
+      <c r="I73" t="inlineStr"/>
+      <c r="J73" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L73" t="n">
-        <v>1</v>
-      </c>
-      <c r="M73" t="inlineStr"/>
+      <c r="K73" t="n">
+        <v>1</v>
+      </c>
+      <c r="L73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -3098,26 +2625,19 @@
         <v>8</v>
       </c>
       <c r="G74" t="n">
-        <v>14368.58482916517</v>
-      </c>
-      <c r="H74" t="n">
-        <v>1</v>
-      </c>
-      <c r="I74" t="n">
-        <v>65.2</v>
-      </c>
-      <c r="J74" t="n">
-        <v>66.51000000000001</v>
-      </c>
-      <c r="K74" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H74" t="inlineStr"/>
+      <c r="I74" t="inlineStr"/>
+      <c r="J74" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L74" t="n">
-        <v>1</v>
-      </c>
-      <c r="M74" t="inlineStr"/>
+      <c r="K74" t="n">
+        <v>1</v>
+      </c>
+      <c r="L74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -3139,24 +2659,19 @@
         <v>2300</v>
       </c>
       <c r="G75" t="n">
-        <v>12068.58482916517</v>
-      </c>
-      <c r="H75" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H75" t="inlineStr"/>
       <c r="I75" t="inlineStr"/>
-      <c r="J75" t="n">
-        <v>66.51000000000001</v>
-      </c>
-      <c r="K75" t="inlineStr">
+      <c r="J75" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L75" t="n">
-        <v>1</v>
-      </c>
-      <c r="M75" t="inlineStr"/>
+      <c r="K75" t="n">
+        <v>1</v>
+      </c>
+      <c r="L75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -3178,24 +2693,19 @@
         <v>8</v>
       </c>
       <c r="G76" t="n">
-        <v>12076.58482916517</v>
-      </c>
-      <c r="H76" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H76" t="inlineStr"/>
       <c r="I76" t="inlineStr"/>
-      <c r="J76" t="n">
-        <v>66.51000000000001</v>
-      </c>
-      <c r="K76" t="inlineStr">
+      <c r="J76" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L76" t="n">
-        <v>1</v>
-      </c>
-      <c r="M76" t="inlineStr"/>
+      <c r="K76" t="n">
+        <v>1</v>
+      </c>
+      <c r="L76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -3217,24 +2727,19 @@
         <v>20344</v>
       </c>
       <c r="G77" t="n">
-        <v>32420.58482916517</v>
-      </c>
-      <c r="H77" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H77" t="inlineStr"/>
       <c r="I77" t="inlineStr"/>
-      <c r="J77" t="n">
-        <v>66.51000000000001</v>
-      </c>
-      <c r="K77" t="inlineStr">
+      <c r="J77" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L77" t="n">
-        <v>1</v>
-      </c>
-      <c r="M77" t="inlineStr"/>
+      <c r="K77" t="n">
+        <v>1</v>
+      </c>
+      <c r="L77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -3256,24 +2761,19 @@
         <v>10100</v>
       </c>
       <c r="G78" t="n">
-        <v>32420.58482916517</v>
-      </c>
-      <c r="H78" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H78" t="inlineStr"/>
       <c r="I78" t="inlineStr"/>
-      <c r="J78" t="n">
-        <v>66.51000000000001</v>
-      </c>
-      <c r="K78" t="inlineStr">
+      <c r="J78" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L78" t="n">
-        <v>1</v>
-      </c>
-      <c r="M78" t="inlineStr"/>
+      <c r="K78" t="n">
+        <v>1</v>
+      </c>
+      <c r="L78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -3295,26 +2795,19 @@
         <v>4445.1312</v>
       </c>
       <c r="G79" t="n">
-        <v>32420.58482916517</v>
-      </c>
-      <c r="H79" t="n">
-        <v>1</v>
-      </c>
-      <c r="I79" t="n">
-        <v>66.54000000000001</v>
-      </c>
-      <c r="J79" t="n">
-        <v>66.51000000000001</v>
-      </c>
-      <c r="K79" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H79" t="inlineStr"/>
+      <c r="I79" t="inlineStr"/>
+      <c r="J79" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L79" t="n">
-        <v>1</v>
-      </c>
-      <c r="M79" t="inlineStr"/>
+      <c r="K79" t="n">
+        <v>1</v>
+      </c>
+      <c r="L79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -3336,26 +2829,19 @@
         <v>10000.5788</v>
       </c>
       <c r="G80" t="n">
-        <v>32420.58482916517</v>
-      </c>
-      <c r="H80" t="n">
-        <v>1</v>
-      </c>
-      <c r="I80" t="n">
-        <v>66.54000000000001</v>
-      </c>
-      <c r="J80" t="n">
-        <v>66.51000000000001</v>
-      </c>
-      <c r="K80" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H80" t="inlineStr"/>
+      <c r="I80" t="inlineStr"/>
+      <c r="J80" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L80" t="n">
-        <v>1</v>
-      </c>
-      <c r="M80" t="inlineStr"/>
+      <c r="K80" t="n">
+        <v>1</v>
+      </c>
+      <c r="L80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -3377,24 +2863,19 @@
         <v>11539.7811</v>
       </c>
       <c r="G81" t="n">
-        <v>43960.36592916517</v>
-      </c>
-      <c r="H81" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H81" t="inlineStr"/>
       <c r="I81" t="inlineStr"/>
-      <c r="J81" t="n">
-        <v>66.51000000000001</v>
-      </c>
-      <c r="K81" t="inlineStr">
+      <c r="J81" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L81" t="n">
-        <v>1</v>
-      </c>
-      <c r="M81" t="inlineStr"/>
+      <c r="K81" t="n">
+        <v>1</v>
+      </c>
+      <c r="L81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -3416,24 +2897,19 @@
         <v>1620.3589</v>
       </c>
       <c r="G82" t="n">
-        <v>43960.36592916517</v>
-      </c>
-      <c r="H82" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H82" t="inlineStr"/>
       <c r="I82" t="inlineStr"/>
-      <c r="J82" t="n">
-        <v>66.51000000000001</v>
-      </c>
-      <c r="K82" t="inlineStr">
+      <c r="J82" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L82" t="n">
-        <v>1</v>
-      </c>
-      <c r="M82" t="inlineStr"/>
+      <c r="K82" t="n">
+        <v>1</v>
+      </c>
+      <c r="L82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -3455,24 +2931,19 @@
         <v>9500.947099999999</v>
       </c>
       <c r="G83" t="n">
-        <v>53461.31302916517</v>
-      </c>
-      <c r="H83" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H83" t="inlineStr"/>
       <c r="I83" t="inlineStr"/>
-      <c r="J83" t="n">
-        <v>66.51000000000001</v>
-      </c>
-      <c r="K83" t="inlineStr">
+      <c r="J83" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L83" t="n">
-        <v>1</v>
-      </c>
-      <c r="M83" t="inlineStr"/>
+      <c r="K83" t="n">
+        <v>1</v>
+      </c>
+      <c r="L83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -3494,24 +2965,19 @@
         <v>5077.423885447761</v>
       </c>
       <c r="G84" t="n">
-        <v>58538.73691461293</v>
-      </c>
-      <c r="H84" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H84" t="inlineStr"/>
       <c r="I84" t="inlineStr"/>
-      <c r="J84" t="n">
-        <v>66.51000000000001</v>
-      </c>
-      <c r="K84" t="inlineStr">
+      <c r="J84" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L84" t="n">
-        <v>1</v>
-      </c>
-      <c r="M84" t="inlineStr"/>
+      <c r="K84" t="n">
+        <v>1</v>
+      </c>
+      <c r="L84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -3533,24 +2999,19 @@
         <v>1836.1611</v>
       </c>
       <c r="G85" t="n">
-        <v>60374.89801461293</v>
-      </c>
-      <c r="H85" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H85" t="inlineStr"/>
       <c r="I85" t="inlineStr"/>
-      <c r="J85" t="n">
-        <v>66.51000000000001</v>
-      </c>
-      <c r="K85" t="inlineStr">
+      <c r="J85" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L85" t="n">
-        <v>1</v>
-      </c>
-      <c r="M85" t="inlineStr"/>
+      <c r="K85" t="n">
+        <v>1</v>
+      </c>
+      <c r="L85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -3572,24 +3033,19 @@
         <v>54443.3814</v>
       </c>
       <c r="G86" t="n">
-        <v>114818.2794146129</v>
-      </c>
-      <c r="H86" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H86" t="inlineStr"/>
       <c r="I86" t="inlineStr"/>
-      <c r="J86" t="n">
-        <v>66.51000000000001</v>
-      </c>
-      <c r="K86" t="inlineStr">
+      <c r="J86" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L86" t="n">
-        <v>1</v>
-      </c>
-      <c r="M86" t="inlineStr"/>
+      <c r="K86" t="n">
+        <v>1</v>
+      </c>
+      <c r="L86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -3611,24 +3067,19 @@
         <v>976.2195</v>
       </c>
       <c r="G87" t="n">
-        <v>115794.4989146129</v>
-      </c>
-      <c r="H87" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H87" t="inlineStr"/>
       <c r="I87" t="inlineStr"/>
-      <c r="J87" t="n">
-        <v>66.51000000000001</v>
-      </c>
-      <c r="K87" t="inlineStr">
+      <c r="J87" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L87" t="n">
-        <v>1</v>
-      </c>
-      <c r="M87" t="inlineStr"/>
+      <c r="K87" t="n">
+        <v>1</v>
+      </c>
+      <c r="L87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -3650,24 +3101,19 @@
         <v>1240</v>
       </c>
       <c r="G88" t="n">
-        <v>115794.4989146129</v>
-      </c>
-      <c r="H88" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H88" t="inlineStr"/>
       <c r="I88" t="inlineStr"/>
-      <c r="J88" t="n">
-        <v>66.51000000000001</v>
-      </c>
-      <c r="K88" t="inlineStr">
+      <c r="J88" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L88" t="n">
-        <v>1</v>
-      </c>
-      <c r="M88" t="inlineStr"/>
+      <c r="K88" t="n">
+        <v>1</v>
+      </c>
+      <c r="L88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -3689,24 +3135,19 @@
         <v>7000</v>
       </c>
       <c r="G89" t="n">
-        <v>115794.4989146129</v>
-      </c>
-      <c r="H89" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H89" t="inlineStr"/>
       <c r="I89" t="inlineStr"/>
-      <c r="J89" t="n">
-        <v>66.51000000000001</v>
-      </c>
-      <c r="K89" t="inlineStr">
+      <c r="J89" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L89" t="n">
-        <v>1</v>
-      </c>
-      <c r="M89" t="inlineStr"/>
+      <c r="K89" t="n">
+        <v>1</v>
+      </c>
+      <c r="L89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -3728,24 +3169,19 @@
         <v>505</v>
       </c>
       <c r="G90" t="n">
-        <v>115794.4989146129</v>
-      </c>
-      <c r="H90" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H90" t="inlineStr"/>
       <c r="I90" t="inlineStr"/>
-      <c r="J90" t="n">
-        <v>66.51000000000001</v>
-      </c>
-      <c r="K90" t="inlineStr">
+      <c r="J90" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L90" t="n">
-        <v>1</v>
-      </c>
-      <c r="M90" t="inlineStr"/>
+      <c r="K90" t="n">
+        <v>1</v>
+      </c>
+      <c r="L90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -3767,24 +3203,19 @@
         <v>2000</v>
       </c>
       <c r="G91" t="n">
-        <v>115794.4989146129</v>
-      </c>
-      <c r="H91" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H91" t="inlineStr"/>
       <c r="I91" t="inlineStr"/>
-      <c r="J91" t="n">
-        <v>66.51000000000001</v>
-      </c>
-      <c r="K91" t="inlineStr">
+      <c r="J91" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L91" t="n">
-        <v>1</v>
-      </c>
-      <c r="M91" t="inlineStr"/>
+      <c r="K91" t="n">
+        <v>1</v>
+      </c>
+      <c r="L91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3806,24 +3237,19 @@
         <v>479.787</v>
       </c>
       <c r="G92" t="n">
-        <v>115794.4989146129</v>
-      </c>
-      <c r="H92" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H92" t="inlineStr"/>
       <c r="I92" t="inlineStr"/>
-      <c r="J92" t="n">
-        <v>66.51000000000001</v>
-      </c>
-      <c r="K92" t="inlineStr">
+      <c r="J92" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L92" t="n">
-        <v>1</v>
-      </c>
-      <c r="M92" t="inlineStr"/>
+      <c r="K92" t="n">
+        <v>1</v>
+      </c>
+      <c r="L92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3845,24 +3271,19 @@
         <v>1732</v>
       </c>
       <c r="G93" t="n">
-        <v>115794.4989146129</v>
-      </c>
-      <c r="H93" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H93" t="inlineStr"/>
       <c r="I93" t="inlineStr"/>
-      <c r="J93" t="n">
-        <v>66.51000000000001</v>
-      </c>
-      <c r="K93" t="inlineStr">
+      <c r="J93" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L93" t="n">
-        <v>1</v>
-      </c>
-      <c r="M93" t="inlineStr"/>
+      <c r="K93" t="n">
+        <v>1</v>
+      </c>
+      <c r="L93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -3884,24 +3305,19 @@
         <v>0.0454</v>
       </c>
       <c r="G94" t="n">
-        <v>115794.4535146129</v>
-      </c>
-      <c r="H94" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H94" t="inlineStr"/>
       <c r="I94" t="inlineStr"/>
-      <c r="J94" t="n">
-        <v>66.51000000000001</v>
-      </c>
-      <c r="K94" t="inlineStr">
+      <c r="J94" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L94" t="n">
-        <v>1</v>
-      </c>
-      <c r="M94" t="inlineStr"/>
+      <c r="K94" t="n">
+        <v>1</v>
+      </c>
+      <c r="L94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3923,24 +3339,19 @@
         <v>803.2178</v>
       </c>
       <c r="G95" t="n">
-        <v>114991.2357146129</v>
-      </c>
-      <c r="H95" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H95" t="inlineStr"/>
       <c r="I95" t="inlineStr"/>
-      <c r="J95" t="n">
-        <v>66.51000000000001</v>
-      </c>
-      <c r="K95" t="inlineStr">
+      <c r="J95" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L95" t="n">
-        <v>1</v>
-      </c>
-      <c r="M95" t="inlineStr"/>
+      <c r="K95" t="n">
+        <v>1</v>
+      </c>
+      <c r="L95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3962,24 +3373,19 @@
         <v>866.239</v>
       </c>
       <c r="G96" t="n">
-        <v>114124.9967146129</v>
-      </c>
-      <c r="H96" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H96" t="inlineStr"/>
       <c r="I96" t="inlineStr"/>
-      <c r="J96" t="n">
-        <v>66.51000000000001</v>
-      </c>
-      <c r="K96" t="inlineStr">
+      <c r="J96" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L96" t="n">
-        <v>1</v>
-      </c>
-      <c r="M96" t="inlineStr"/>
+      <c r="K96" t="n">
+        <v>1</v>
+      </c>
+      <c r="L96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -4001,24 +3407,19 @@
         <v>7699.9546</v>
       </c>
       <c r="G97" t="n">
-        <v>106425.0421146129</v>
-      </c>
-      <c r="H97" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H97" t="inlineStr"/>
       <c r="I97" t="inlineStr"/>
-      <c r="J97" t="n">
-        <v>66.51000000000001</v>
-      </c>
-      <c r="K97" t="inlineStr">
+      <c r="J97" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L97" t="n">
-        <v>1</v>
-      </c>
-      <c r="M97" t="inlineStr"/>
+      <c r="K97" t="n">
+        <v>1</v>
+      </c>
+      <c r="L97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -4040,24 +3441,19 @@
         <v>40.2773</v>
       </c>
       <c r="G98" t="n">
-        <v>106465.3194146129</v>
-      </c>
-      <c r="H98" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H98" t="inlineStr"/>
       <c r="I98" t="inlineStr"/>
-      <c r="J98" t="n">
-        <v>66.51000000000001</v>
-      </c>
-      <c r="K98" t="inlineStr">
+      <c r="J98" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L98" t="n">
-        <v>1</v>
-      </c>
-      <c r="M98" t="inlineStr"/>
+      <c r="K98" t="n">
+        <v>1</v>
+      </c>
+      <c r="L98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -4079,24 +3475,19 @@
         <v>2718.467</v>
       </c>
       <c r="G99" t="n">
-        <v>106465.3194146129</v>
-      </c>
-      <c r="H99" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H99" t="inlineStr"/>
       <c r="I99" t="inlineStr"/>
-      <c r="J99" t="n">
-        <v>66.51000000000001</v>
-      </c>
-      <c r="K99" t="inlineStr">
+      <c r="J99" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L99" t="n">
-        <v>1</v>
-      </c>
-      <c r="M99" t="inlineStr"/>
+      <c r="K99" t="n">
+        <v>1</v>
+      </c>
+      <c r="L99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -4118,24 +3509,19 @@
         <v>13838.0995</v>
       </c>
       <c r="G100" t="n">
-        <v>120303.4189146129</v>
-      </c>
-      <c r="H100" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H100" t="inlineStr"/>
       <c r="I100" t="inlineStr"/>
-      <c r="J100" t="n">
-        <v>66.51000000000001</v>
-      </c>
-      <c r="K100" t="inlineStr">
+      <c r="J100" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L100" t="n">
-        <v>1</v>
-      </c>
-      <c r="M100" t="inlineStr"/>
+      <c r="K100" t="n">
+        <v>1</v>
+      </c>
+      <c r="L100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -4157,24 +3543,19 @@
         <v>34502.2672</v>
       </c>
       <c r="G101" t="n">
-        <v>85801.15171461292</v>
-      </c>
-      <c r="H101" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H101" t="inlineStr"/>
       <c r="I101" t="inlineStr"/>
-      <c r="J101" t="n">
-        <v>66.51000000000001</v>
-      </c>
-      <c r="K101" t="inlineStr">
+      <c r="J101" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L101" t="n">
-        <v>1</v>
-      </c>
-      <c r="M101" t="inlineStr"/>
+      <c r="K101" t="n">
+        <v>1</v>
+      </c>
+      <c r="L101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -4196,24 +3577,19 @@
         <v>8</v>
       </c>
       <c r="G102" t="n">
-        <v>85809.15171461292</v>
-      </c>
-      <c r="H102" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H102" t="inlineStr"/>
       <c r="I102" t="inlineStr"/>
-      <c r="J102" t="n">
-        <v>66.51000000000001</v>
-      </c>
-      <c r="K102" t="inlineStr">
+      <c r="J102" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L102" t="n">
-        <v>1</v>
-      </c>
-      <c r="M102" t="inlineStr"/>
+      <c r="K102" t="n">
+        <v>1</v>
+      </c>
+      <c r="L102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -4235,24 +3611,19 @@
         <v>243.5025</v>
       </c>
       <c r="G103" t="n">
-        <v>85565.64921461292</v>
-      </c>
-      <c r="H103" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H103" t="inlineStr"/>
       <c r="I103" t="inlineStr"/>
-      <c r="J103" t="n">
-        <v>66.51000000000001</v>
-      </c>
-      <c r="K103" t="inlineStr">
+      <c r="J103" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L103" t="n">
-        <v>1</v>
-      </c>
-      <c r="M103" t="inlineStr"/>
+      <c r="K103" t="n">
+        <v>1</v>
+      </c>
+      <c r="L103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -4274,24 +3645,19 @@
         <v>1683.3268</v>
       </c>
       <c r="G104" t="n">
-        <v>83882.32241461292</v>
-      </c>
-      <c r="H104" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H104" t="inlineStr"/>
       <c r="I104" t="inlineStr"/>
-      <c r="J104" t="n">
-        <v>66.51000000000001</v>
-      </c>
-      <c r="K104" t="inlineStr">
+      <c r="J104" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L104" t="n">
-        <v>1</v>
-      </c>
-      <c r="M104" t="inlineStr"/>
+      <c r="K104" t="n">
+        <v>1</v>
+      </c>
+      <c r="L104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -4313,24 +3679,17 @@
         <v>8</v>
       </c>
       <c r="G105" t="n">
-        <v>83890.32241461292</v>
-      </c>
-      <c r="H105" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H105" t="inlineStr"/>
       <c r="I105" t="inlineStr"/>
-      <c r="J105" t="n">
-        <v>66.51000000000001</v>
-      </c>
-      <c r="K105" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L105" t="n">
-        <v>1</v>
-      </c>
-      <c r="M105" t="inlineStr"/>
+      <c r="J105" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="K105" t="inlineStr"/>
+      <c r="L105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -4352,24 +3711,15 @@
         <v>48.402</v>
       </c>
       <c r="G106" t="n">
-        <v>83841.92041461292</v>
-      </c>
-      <c r="H106" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H106" t="inlineStr"/>
       <c r="I106" t="inlineStr"/>
-      <c r="J106" t="n">
-        <v>66.51000000000001</v>
-      </c>
-      <c r="K106" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L106" t="n">
-        <v>1</v>
-      </c>
-      <c r="M106" t="inlineStr"/>
+      <c r="J106" t="inlineStr"/>
+      <c r="K106" t="n">
+        <v>1</v>
+      </c>
+      <c r="L106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -4391,24 +3741,15 @@
         <v>8</v>
       </c>
       <c r="G107" t="n">
-        <v>83849.92041461292</v>
-      </c>
-      <c r="H107" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H107" t="inlineStr"/>
       <c r="I107" t="inlineStr"/>
-      <c r="J107" t="n">
-        <v>66.51000000000001</v>
-      </c>
-      <c r="K107" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L107" t="n">
-        <v>1</v>
-      </c>
-      <c r="M107" t="inlineStr"/>
+      <c r="J107" t="inlineStr"/>
+      <c r="K107" t="n">
+        <v>1</v>
+      </c>
+      <c r="L107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -4430,24 +3771,15 @@
         <v>62.4187</v>
       </c>
       <c r="G108" t="n">
-        <v>83787.50171461292</v>
-      </c>
-      <c r="H108" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H108" t="inlineStr"/>
       <c r="I108" t="inlineStr"/>
-      <c r="J108" t="n">
-        <v>66.51000000000001</v>
-      </c>
-      <c r="K108" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L108" t="n">
-        <v>1</v>
-      </c>
-      <c r="M108" t="inlineStr"/>
+      <c r="J108" t="inlineStr"/>
+      <c r="K108" t="n">
+        <v>1</v>
+      </c>
+      <c r="L108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -4469,24 +3801,15 @@
         <v>215</v>
       </c>
       <c r="G109" t="n">
-        <v>83787.50171461292</v>
-      </c>
-      <c r="H109" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H109" t="inlineStr"/>
       <c r="I109" t="inlineStr"/>
-      <c r="J109" t="n">
-        <v>66.51000000000001</v>
-      </c>
-      <c r="K109" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L109" t="n">
-        <v>1</v>
-      </c>
-      <c r="M109" t="inlineStr"/>
+      <c r="J109" t="inlineStr"/>
+      <c r="K109" t="n">
+        <v>1</v>
+      </c>
+      <c r="L109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -4508,24 +3831,15 @@
         <v>1127</v>
       </c>
       <c r="G110" t="n">
-        <v>82660.50171461292</v>
-      </c>
-      <c r="H110" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H110" t="inlineStr"/>
       <c r="I110" t="inlineStr"/>
-      <c r="J110" t="n">
-        <v>66.51000000000001</v>
-      </c>
-      <c r="K110" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L110" t="n">
-        <v>1</v>
-      </c>
-      <c r="M110" t="inlineStr"/>
+      <c r="J110" t="inlineStr"/>
+      <c r="K110" t="n">
+        <v>1</v>
+      </c>
+      <c r="L110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -4547,24 +3861,15 @@
         <v>8819.540000000001</v>
       </c>
       <c r="G111" t="n">
-        <v>73840.96171461293</v>
-      </c>
-      <c r="H111" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H111" t="inlineStr"/>
       <c r="I111" t="inlineStr"/>
-      <c r="J111" t="n">
-        <v>66.51000000000001</v>
-      </c>
-      <c r="K111" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L111" t="n">
-        <v>1</v>
-      </c>
-      <c r="M111" t="inlineStr"/>
+      <c r="J111" t="inlineStr"/>
+      <c r="K111" t="n">
+        <v>1</v>
+      </c>
+      <c r="L111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -4586,24 +3891,15 @@
         <v>900</v>
       </c>
       <c r="G112" t="n">
-        <v>73840.96171461293</v>
-      </c>
-      <c r="H112" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H112" t="inlineStr"/>
       <c r="I112" t="inlineStr"/>
-      <c r="J112" t="n">
-        <v>66.51000000000001</v>
-      </c>
-      <c r="K112" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L112" t="n">
-        <v>1</v>
-      </c>
-      <c r="M112" t="inlineStr"/>
+      <c r="J112" t="inlineStr"/>
+      <c r="K112" t="n">
+        <v>1</v>
+      </c>
+      <c r="L112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -4625,24 +3921,15 @@
         <v>8</v>
       </c>
       <c r="G113" t="n">
-        <v>73848.96171461293</v>
-      </c>
-      <c r="H113" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H113" t="inlineStr"/>
       <c r="I113" t="inlineStr"/>
-      <c r="J113" t="n">
-        <v>66.51000000000001</v>
-      </c>
-      <c r="K113" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L113" t="n">
-        <v>1</v>
-      </c>
-      <c r="M113" t="inlineStr"/>
+      <c r="J113" t="inlineStr"/>
+      <c r="K113" t="n">
+        <v>1</v>
+      </c>
+      <c r="L113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
@@ -4664,24 +3951,15 @@
         <v>990</v>
       </c>
       <c r="G114" t="n">
-        <v>72858.96171461293</v>
-      </c>
-      <c r="H114" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H114" t="inlineStr"/>
       <c r="I114" t="inlineStr"/>
-      <c r="J114" t="n">
-        <v>66.51000000000001</v>
-      </c>
-      <c r="K114" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L114" t="n">
-        <v>1</v>
-      </c>
-      <c r="M114" t="inlineStr"/>
+      <c r="J114" t="inlineStr"/>
+      <c r="K114" t="n">
+        <v>1</v>
+      </c>
+      <c r="L114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
@@ -4703,24 +3981,15 @@
         <v>710.5161000000001</v>
       </c>
       <c r="G115" t="n">
-        <v>72148.44561461294</v>
-      </c>
-      <c r="H115" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H115" t="inlineStr"/>
       <c r="I115" t="inlineStr"/>
-      <c r="J115" t="n">
-        <v>66.51000000000001</v>
-      </c>
-      <c r="K115" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L115" t="n">
-        <v>1</v>
-      </c>
-      <c r="M115" t="inlineStr"/>
+      <c r="J115" t="inlineStr"/>
+      <c r="K115" t="n">
+        <v>1</v>
+      </c>
+      <c r="L115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
@@ -4742,24 +4011,15 @@
         <v>1399.4839</v>
       </c>
       <c r="G116" t="n">
-        <v>72148.44561461294</v>
-      </c>
-      <c r="H116" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H116" t="inlineStr"/>
       <c r="I116" t="inlineStr"/>
-      <c r="J116" t="n">
-        <v>66.51000000000001</v>
-      </c>
-      <c r="K116" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L116" t="n">
-        <v>1</v>
-      </c>
-      <c r="M116" t="inlineStr"/>
+      <c r="J116" t="inlineStr"/>
+      <c r="K116" t="n">
+        <v>1</v>
+      </c>
+      <c r="L116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
@@ -4781,24 +4041,15 @@
         <v>40.136</v>
       </c>
       <c r="G117" t="n">
-        <v>72108.30961461294</v>
-      </c>
-      <c r="H117" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H117" t="inlineStr"/>
       <c r="I117" t="inlineStr"/>
-      <c r="J117" t="n">
-        <v>66.51000000000001</v>
-      </c>
-      <c r="K117" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L117" t="n">
-        <v>1</v>
-      </c>
-      <c r="M117" t="inlineStr"/>
+      <c r="J117" t="inlineStr"/>
+      <c r="K117" t="n">
+        <v>1</v>
+      </c>
+      <c r="L117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
@@ -4820,24 +4071,15 @@
         <v>98.3608</v>
       </c>
       <c r="G118" t="n">
-        <v>72108.30961461294</v>
-      </c>
-      <c r="H118" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H118" t="inlineStr"/>
       <c r="I118" t="inlineStr"/>
-      <c r="J118" t="n">
-        <v>66.51000000000001</v>
-      </c>
-      <c r="K118" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L118" t="n">
-        <v>1</v>
-      </c>
-      <c r="M118" t="inlineStr"/>
+      <c r="J118" t="inlineStr"/>
+      <c r="K118" t="n">
+        <v>1</v>
+      </c>
+      <c r="L118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
@@ -4859,24 +4101,19 @@
         <v>213</v>
       </c>
       <c r="G119" t="n">
-        <v>71895.30961461294</v>
+        <v>1</v>
       </c>
       <c r="H119" t="n">
-        <v>0</v>
-      </c>
-      <c r="I119" t="inlineStr"/>
-      <c r="J119" t="n">
-        <v>66.51000000000001</v>
-      </c>
-      <c r="K119" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L119" t="n">
-        <v>1</v>
-      </c>
-      <c r="M119" t="inlineStr"/>
+        <v>65.12</v>
+      </c>
+      <c r="I119" t="n">
+        <v>65.12</v>
+      </c>
+      <c r="J119" t="inlineStr"/>
+      <c r="K119" t="n">
+        <v>1</v>
+      </c>
+      <c r="L119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
@@ -4898,24 +4135,23 @@
         <v>121.1446</v>
       </c>
       <c r="G120" t="n">
-        <v>72016.45421461294</v>
+        <v>1</v>
       </c>
       <c r="H120" t="n">
-        <v>0</v>
-      </c>
-      <c r="I120" t="inlineStr"/>
-      <c r="J120" t="n">
-        <v>66.51000000000001</v>
-      </c>
-      <c r="K120" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L120" t="n">
-        <v>1</v>
-      </c>
-      <c r="M120" t="inlineStr"/>
+        <v>65.06</v>
+      </c>
+      <c r="I120" t="n">
+        <v>65.12</v>
+      </c>
+      <c r="J120" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="K120" t="n">
+        <v>1</v>
+      </c>
+      <c r="L120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
@@ -4937,24 +4173,21 @@
         <v>13132.7132</v>
       </c>
       <c r="G121" t="n">
-        <v>85149.16741461294</v>
-      </c>
-      <c r="H121" t="n">
-        <v>0</v>
-      </c>
-      <c r="I121" t="inlineStr"/>
-      <c r="J121" t="n">
-        <v>66.51000000000001</v>
-      </c>
-      <c r="K121" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L121" t="n">
-        <v>1</v>
-      </c>
-      <c r="M121" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H121" t="inlineStr"/>
+      <c r="I121" t="n">
+        <v>65.12</v>
+      </c>
+      <c r="J121" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="K121" t="n">
+        <v>1</v>
+      </c>
+      <c r="L121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
@@ -4976,24 +4209,15 @@
         <v>145.7753</v>
       </c>
       <c r="G122" t="n">
-        <v>85294.94271461293</v>
-      </c>
-      <c r="H122" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H122" t="inlineStr"/>
       <c r="I122" t="inlineStr"/>
-      <c r="J122" t="n">
-        <v>66.51000000000001</v>
-      </c>
-      <c r="K122" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L122" t="n">
-        <v>1</v>
-      </c>
-      <c r="M122" t="inlineStr"/>
+      <c r="J122" t="inlineStr"/>
+      <c r="K122" t="n">
+        <v>1</v>
+      </c>
+      <c r="L122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
@@ -5015,24 +4239,15 @@
         <v>17.6847</v>
       </c>
       <c r="G123" t="n">
-        <v>85277.25801461293</v>
-      </c>
-      <c r="H123" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H123" t="inlineStr"/>
       <c r="I123" t="inlineStr"/>
-      <c r="J123" t="n">
-        <v>66.51000000000001</v>
-      </c>
-      <c r="K123" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L123" t="n">
-        <v>1</v>
-      </c>
-      <c r="M123" t="inlineStr"/>
+      <c r="J123" t="inlineStr"/>
+      <c r="K123" t="n">
+        <v>1</v>
+      </c>
+      <c r="L123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
@@ -5054,24 +4269,15 @@
         <v>24</v>
       </c>
       <c r="G124" t="n">
-        <v>85253.25801461293</v>
-      </c>
-      <c r="H124" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H124" t="inlineStr"/>
       <c r="I124" t="inlineStr"/>
-      <c r="J124" t="n">
-        <v>66.51000000000001</v>
-      </c>
-      <c r="K124" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L124" t="n">
-        <v>1</v>
-      </c>
-      <c r="M124" t="inlineStr"/>
+      <c r="J124" t="inlineStr"/>
+      <c r="K124" t="n">
+        <v>1</v>
+      </c>
+      <c r="L124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
@@ -5093,24 +4299,15 @@
         <v>200</v>
       </c>
       <c r="G125" t="n">
-        <v>85053.25801461293</v>
-      </c>
-      <c r="H125" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H125" t="inlineStr"/>
       <c r="I125" t="inlineStr"/>
-      <c r="J125" t="n">
-        <v>66.51000000000001</v>
-      </c>
-      <c r="K125" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L125" t="n">
-        <v>1</v>
-      </c>
-      <c r="M125" t="inlineStr"/>
+      <c r="J125" t="inlineStr"/>
+      <c r="K125" t="n">
+        <v>1</v>
+      </c>
+      <c r="L125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
@@ -5132,24 +4329,15 @@
         <v>704.6618999999999</v>
       </c>
       <c r="G126" t="n">
-        <v>84348.59611461293</v>
-      </c>
-      <c r="H126" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H126" t="inlineStr"/>
       <c r="I126" t="inlineStr"/>
-      <c r="J126" t="n">
-        <v>66.51000000000001</v>
-      </c>
-      <c r="K126" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L126" t="n">
-        <v>1</v>
-      </c>
-      <c r="M126" t="inlineStr"/>
+      <c r="J126" t="inlineStr"/>
+      <c r="K126" t="n">
+        <v>1</v>
+      </c>
+      <c r="L126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
@@ -5171,24 +4359,15 @@
         <v>10.3381</v>
       </c>
       <c r="G127" t="n">
-        <v>84358.93421461292</v>
-      </c>
-      <c r="H127" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H127" t="inlineStr"/>
       <c r="I127" t="inlineStr"/>
-      <c r="J127" t="n">
-        <v>66.51000000000001</v>
-      </c>
-      <c r="K127" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L127" t="n">
-        <v>1</v>
-      </c>
-      <c r="M127" t="inlineStr"/>
+      <c r="J127" t="inlineStr"/>
+      <c r="K127" t="n">
+        <v>1</v>
+      </c>
+      <c r="L127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
@@ -5210,24 +4389,15 @@
         <v>57</v>
       </c>
       <c r="G128" t="n">
-        <v>84415.93421461292</v>
-      </c>
-      <c r="H128" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H128" t="inlineStr"/>
       <c r="I128" t="inlineStr"/>
-      <c r="J128" t="n">
-        <v>66.51000000000001</v>
-      </c>
-      <c r="K128" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L128" t="n">
-        <v>1</v>
-      </c>
-      <c r="M128" t="inlineStr"/>
+      <c r="J128" t="inlineStr"/>
+      <c r="K128" t="n">
+        <v>1</v>
+      </c>
+      <c r="L128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
@@ -5249,24 +4419,15 @@
         <v>12145.4979</v>
       </c>
       <c r="G129" t="n">
-        <v>72270.43631461292</v>
-      </c>
-      <c r="H129" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H129" t="inlineStr"/>
       <c r="I129" t="inlineStr"/>
-      <c r="J129" t="n">
-        <v>66.51000000000001</v>
-      </c>
-      <c r="K129" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L129" t="n">
-        <v>1</v>
-      </c>
-      <c r="M129" t="inlineStr"/>
+      <c r="J129" t="inlineStr"/>
+      <c r="K129" t="n">
+        <v>1</v>
+      </c>
+      <c r="L129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
@@ -5288,24 +4449,15 @@
         <v>1175.6625</v>
       </c>
       <c r="G130" t="n">
-        <v>72270.43631461292</v>
-      </c>
-      <c r="H130" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H130" t="inlineStr"/>
       <c r="I130" t="inlineStr"/>
-      <c r="J130" t="n">
-        <v>66.51000000000001</v>
-      </c>
-      <c r="K130" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L130" t="n">
-        <v>1</v>
-      </c>
-      <c r="M130" t="inlineStr"/>
+      <c r="J130" t="inlineStr"/>
+      <c r="K130" t="n">
+        <v>1</v>
+      </c>
+      <c r="L130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
@@ -5327,24 +4479,15 @@
         <v>5856.9831</v>
       </c>
       <c r="G131" t="n">
-        <v>78127.41941461292</v>
-      </c>
-      <c r="H131" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H131" t="inlineStr"/>
       <c r="I131" t="inlineStr"/>
-      <c r="J131" t="n">
-        <v>66.51000000000001</v>
-      </c>
-      <c r="K131" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L131" t="n">
-        <v>1</v>
-      </c>
-      <c r="M131" t="inlineStr"/>
+      <c r="J131" t="inlineStr"/>
+      <c r="K131" t="n">
+        <v>1</v>
+      </c>
+      <c r="L131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
@@ -5366,24 +4509,15 @@
         <v>3942.5386</v>
       </c>
       <c r="G132" t="n">
-        <v>74184.88081461292</v>
-      </c>
-      <c r="H132" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H132" t="inlineStr"/>
       <c r="I132" t="inlineStr"/>
-      <c r="J132" t="n">
-        <v>66.51000000000001</v>
-      </c>
-      <c r="K132" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L132" t="n">
-        <v>1</v>
-      </c>
-      <c r="M132" t="inlineStr"/>
+      <c r="J132" t="inlineStr"/>
+      <c r="K132" t="n">
+        <v>1</v>
+      </c>
+      <c r="L132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
@@ -5405,24 +4539,15 @@
         <v>124.8401</v>
       </c>
       <c r="G133" t="n">
-        <v>74060.04071461291</v>
-      </c>
-      <c r="H133" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H133" t="inlineStr"/>
       <c r="I133" t="inlineStr"/>
-      <c r="J133" t="n">
-        <v>66.51000000000001</v>
-      </c>
-      <c r="K133" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L133" t="n">
-        <v>1</v>
-      </c>
-      <c r="M133" t="inlineStr"/>
+      <c r="J133" t="inlineStr"/>
+      <c r="K133" t="n">
+        <v>1</v>
+      </c>
+      <c r="L133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
@@ -5444,24 +4569,15 @@
         <v>1000</v>
       </c>
       <c r="G134" t="n">
-        <v>75060.04071461291</v>
-      </c>
-      <c r="H134" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H134" t="inlineStr"/>
       <c r="I134" t="inlineStr"/>
-      <c r="J134" t="n">
-        <v>66.51000000000001</v>
-      </c>
-      <c r="K134" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L134" t="n">
-        <v>1</v>
-      </c>
-      <c r="M134" t="inlineStr"/>
+      <c r="J134" t="inlineStr"/>
+      <c r="K134" t="n">
+        <v>1</v>
+      </c>
+      <c r="L134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
@@ -5483,24 +4599,15 @@
         <v>806</v>
       </c>
       <c r="G135" t="n">
-        <v>75866.04071461291</v>
-      </c>
-      <c r="H135" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H135" t="inlineStr"/>
       <c r="I135" t="inlineStr"/>
-      <c r="J135" t="n">
-        <v>66.51000000000001</v>
-      </c>
-      <c r="K135" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L135" t="n">
-        <v>1</v>
-      </c>
-      <c r="M135" t="inlineStr"/>
+      <c r="J135" t="inlineStr"/>
+      <c r="K135" t="n">
+        <v>1</v>
+      </c>
+      <c r="L135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
@@ -5522,24 +4629,15 @@
         <v>59</v>
       </c>
       <c r="G136" t="n">
-        <v>75925.04071461291</v>
-      </c>
-      <c r="H136" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H136" t="inlineStr"/>
       <c r="I136" t="inlineStr"/>
-      <c r="J136" t="n">
-        <v>66.51000000000001</v>
-      </c>
-      <c r="K136" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L136" t="n">
-        <v>1</v>
-      </c>
-      <c r="M136" t="inlineStr"/>
+      <c r="J136" t="inlineStr"/>
+      <c r="K136" t="n">
+        <v>1</v>
+      </c>
+      <c r="L136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
@@ -5561,24 +4659,15 @@
         <v>124</v>
       </c>
       <c r="G137" t="n">
-        <v>75801.04071461291</v>
-      </c>
-      <c r="H137" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H137" t="inlineStr"/>
       <c r="I137" t="inlineStr"/>
-      <c r="J137" t="n">
-        <v>66.51000000000001</v>
-      </c>
-      <c r="K137" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L137" t="n">
-        <v>1</v>
-      </c>
-      <c r="M137" t="inlineStr"/>
+      <c r="J137" t="inlineStr"/>
+      <c r="K137" t="n">
+        <v>1</v>
+      </c>
+      <c r="L137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
@@ -5600,24 +4689,15 @@
         <v>8</v>
       </c>
       <c r="G138" t="n">
-        <v>75809.04071461291</v>
-      </c>
-      <c r="H138" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H138" t="inlineStr"/>
       <c r="I138" t="inlineStr"/>
-      <c r="J138" t="n">
-        <v>66.51000000000001</v>
-      </c>
-      <c r="K138" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L138" t="n">
-        <v>1</v>
-      </c>
-      <c r="M138" t="inlineStr"/>
+      <c r="J138" t="inlineStr"/>
+      <c r="K138" t="n">
+        <v>1</v>
+      </c>
+      <c r="L138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
@@ -5639,24 +4719,15 @@
         <v>11</v>
       </c>
       <c r="G139" t="n">
-        <v>75809.04071461291</v>
-      </c>
-      <c r="H139" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H139" t="inlineStr"/>
       <c r="I139" t="inlineStr"/>
-      <c r="J139" t="n">
-        <v>66.51000000000001</v>
-      </c>
-      <c r="K139" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L139" t="n">
-        <v>1</v>
-      </c>
-      <c r="M139" t="inlineStr"/>
+      <c r="J139" t="inlineStr"/>
+      <c r="K139" t="n">
+        <v>1</v>
+      </c>
+      <c r="L139" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
@@ -5678,24 +4749,15 @@
         <v>110</v>
       </c>
       <c r="G140" t="n">
-        <v>75699.04071461291</v>
-      </c>
-      <c r="H140" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H140" t="inlineStr"/>
       <c r="I140" t="inlineStr"/>
-      <c r="J140" t="n">
-        <v>66.51000000000001</v>
-      </c>
-      <c r="K140" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L140" t="n">
-        <v>1</v>
-      </c>
-      <c r="M140" t="inlineStr"/>
+      <c r="J140" t="inlineStr"/>
+      <c r="K140" t="n">
+        <v>1</v>
+      </c>
+      <c r="L140" t="inlineStr"/>
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
@@ -5717,24 +4779,15 @@
         <v>260.9815</v>
       </c>
       <c r="G141" t="n">
-        <v>75699.04071461291</v>
-      </c>
-      <c r="H141" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H141" t="inlineStr"/>
       <c r="I141" t="inlineStr"/>
-      <c r="J141" t="n">
-        <v>66.51000000000001</v>
-      </c>
-      <c r="K141" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L141" t="n">
-        <v>1</v>
-      </c>
-      <c r="M141" t="inlineStr"/>
+      <c r="J141" t="inlineStr"/>
+      <c r="K141" t="n">
+        <v>1</v>
+      </c>
+      <c r="L141" t="inlineStr"/>
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
@@ -5756,24 +4809,15 @@
         <v>8</v>
       </c>
       <c r="G142" t="n">
-        <v>75707.04071461291</v>
-      </c>
-      <c r="H142" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H142" t="inlineStr"/>
       <c r="I142" t="inlineStr"/>
-      <c r="J142" t="n">
-        <v>66.51000000000001</v>
-      </c>
-      <c r="K142" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L142" t="n">
-        <v>1</v>
-      </c>
-      <c r="M142" t="inlineStr"/>
+      <c r="J142" t="inlineStr"/>
+      <c r="K142" t="n">
+        <v>1</v>
+      </c>
+      <c r="L142" t="inlineStr"/>
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
@@ -5795,24 +4839,15 @@
         <v>269.0539</v>
       </c>
       <c r="G143" t="n">
-        <v>75437.98681461292</v>
-      </c>
-      <c r="H143" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H143" t="inlineStr"/>
       <c r="I143" t="inlineStr"/>
-      <c r="J143" t="n">
-        <v>66.51000000000001</v>
-      </c>
-      <c r="K143" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L143" t="n">
-        <v>1</v>
-      </c>
-      <c r="M143" t="inlineStr"/>
+      <c r="J143" t="inlineStr"/>
+      <c r="K143" t="n">
+        <v>1</v>
+      </c>
+      <c r="L143" t="inlineStr"/>
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
@@ -5834,24 +4869,15 @@
         <v>300.6735</v>
       </c>
       <c r="G144" t="n">
-        <v>75738.66031461292</v>
-      </c>
-      <c r="H144" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H144" t="inlineStr"/>
       <c r="I144" t="inlineStr"/>
-      <c r="J144" t="n">
-        <v>66.51000000000001</v>
-      </c>
-      <c r="K144" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L144" t="n">
-        <v>1</v>
-      </c>
-      <c r="M144" t="inlineStr"/>
+      <c r="J144" t="inlineStr"/>
+      <c r="K144" t="n">
+        <v>1</v>
+      </c>
+      <c r="L144" t="inlineStr"/>
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
@@ -5873,24 +4899,15 @@
         <v>3100</v>
       </c>
       <c r="G145" t="n">
-        <v>72638.66031461292</v>
-      </c>
-      <c r="H145" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H145" t="inlineStr"/>
       <c r="I145" t="inlineStr"/>
-      <c r="J145" t="n">
-        <v>66.51000000000001</v>
-      </c>
-      <c r="K145" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L145" t="n">
-        <v>1</v>
-      </c>
-      <c r="M145" t="inlineStr"/>
+      <c r="J145" t="inlineStr"/>
+      <c r="K145" t="n">
+        <v>1</v>
+      </c>
+      <c r="L145" t="inlineStr"/>
     </row>
     <row r="146">
       <c r="A146" s="1" t="n">
@@ -5912,24 +4929,15 @@
         <v>5683.1978</v>
       </c>
       <c r="G146" t="n">
-        <v>78321.85811461291</v>
-      </c>
-      <c r="H146" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H146" t="inlineStr"/>
       <c r="I146" t="inlineStr"/>
-      <c r="J146" t="n">
-        <v>66.51000000000001</v>
-      </c>
-      <c r="K146" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L146" t="n">
-        <v>1</v>
-      </c>
-      <c r="M146" t="inlineStr"/>
+      <c r="J146" t="inlineStr"/>
+      <c r="K146" t="n">
+        <v>1</v>
+      </c>
+      <c r="L146" t="inlineStr"/>
     </row>
     <row r="147">
       <c r="A147" s="1" t="n">
@@ -5951,24 +4959,15 @@
         <v>5683.1978</v>
       </c>
       <c r="G147" t="n">
-        <v>72638.66031461292</v>
-      </c>
-      <c r="H147" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H147" t="inlineStr"/>
       <c r="I147" t="inlineStr"/>
-      <c r="J147" t="n">
-        <v>66.51000000000001</v>
-      </c>
-      <c r="K147" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L147" t="n">
-        <v>1</v>
-      </c>
-      <c r="M147" t="inlineStr"/>
+      <c r="J147" t="inlineStr"/>
+      <c r="K147" t="n">
+        <v>1</v>
+      </c>
+      <c r="L147" t="inlineStr"/>
     </row>
     <row r="148">
       <c r="A148" s="1" t="n">
@@ -5990,24 +4989,15 @@
         <v>140</v>
       </c>
       <c r="G148" t="n">
-        <v>72498.66031461292</v>
-      </c>
-      <c r="H148" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H148" t="inlineStr"/>
       <c r="I148" t="inlineStr"/>
-      <c r="J148" t="n">
-        <v>66.51000000000001</v>
-      </c>
-      <c r="K148" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L148" t="n">
-        <v>1</v>
-      </c>
-      <c r="M148" t="inlineStr"/>
+      <c r="J148" t="inlineStr"/>
+      <c r="K148" t="n">
+        <v>1</v>
+      </c>
+      <c r="L148" t="inlineStr"/>
     </row>
     <row r="149">
       <c r="A149" s="1" t="n">
@@ -6029,24 +5019,15 @@
         <v>353</v>
       </c>
       <c r="G149" t="n">
-        <v>72498.66031461292</v>
-      </c>
-      <c r="H149" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H149" t="inlineStr"/>
       <c r="I149" t="inlineStr"/>
-      <c r="J149" t="n">
-        <v>66.51000000000001</v>
-      </c>
-      <c r="K149" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L149" t="n">
-        <v>1</v>
-      </c>
-      <c r="M149" t="inlineStr"/>
+      <c r="J149" t="inlineStr"/>
+      <c r="K149" t="n">
+        <v>1</v>
+      </c>
+      <c r="L149" t="inlineStr"/>
     </row>
     <row r="150">
       <c r="A150" s="1" t="n">
@@ -6068,24 +5049,15 @@
         <v>8</v>
       </c>
       <c r="G150" t="n">
-        <v>72506.66031461292</v>
-      </c>
-      <c r="H150" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H150" t="inlineStr"/>
       <c r="I150" t="inlineStr"/>
-      <c r="J150" t="n">
-        <v>66.51000000000001</v>
-      </c>
-      <c r="K150" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L150" t="n">
-        <v>1</v>
-      </c>
-      <c r="M150" t="inlineStr"/>
+      <c r="J150" t="inlineStr"/>
+      <c r="K150" t="n">
+        <v>1</v>
+      </c>
+      <c r="L150" t="inlineStr"/>
     </row>
     <row r="151">
       <c r="A151" s="1" t="n">
@@ -6107,24 +5079,15 @@
         <v>10924.544</v>
       </c>
       <c r="G151" t="n">
-        <v>61582.11631461292</v>
-      </c>
-      <c r="H151" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H151" t="inlineStr"/>
       <c r="I151" t="inlineStr"/>
-      <c r="J151" t="n">
-        <v>66.51000000000001</v>
-      </c>
-      <c r="K151" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L151" t="n">
-        <v>1</v>
-      </c>
-      <c r="M151" t="inlineStr"/>
+      <c r="J151" t="inlineStr"/>
+      <c r="K151" t="n">
+        <v>1</v>
+      </c>
+      <c r="L151" t="inlineStr"/>
     </row>
     <row r="152">
       <c r="A152" s="1" t="n">
@@ -6146,24 +5109,15 @@
         <v>9385.376099999999</v>
       </c>
       <c r="G152" t="n">
-        <v>70967.49241461292</v>
-      </c>
-      <c r="H152" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H152" t="inlineStr"/>
       <c r="I152" t="inlineStr"/>
-      <c r="J152" t="n">
-        <v>66.51000000000001</v>
-      </c>
-      <c r="K152" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L152" t="n">
-        <v>1</v>
-      </c>
-      <c r="M152" t="inlineStr"/>
+      <c r="J152" t="inlineStr"/>
+      <c r="K152" t="n">
+        <v>1</v>
+      </c>
+      <c r="L152" t="inlineStr"/>
     </row>
     <row r="153">
       <c r="A153" s="1" t="n">
@@ -6185,24 +5139,15 @@
         <v>8725.1842</v>
       </c>
       <c r="G153" t="n">
-        <v>70967.49241461292</v>
-      </c>
-      <c r="H153" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H153" t="inlineStr"/>
       <c r="I153" t="inlineStr"/>
-      <c r="J153" t="n">
-        <v>66.51000000000001</v>
-      </c>
-      <c r="K153" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L153" t="n">
-        <v>1</v>
-      </c>
-      <c r="M153" t="inlineStr"/>
+      <c r="J153" t="inlineStr"/>
+      <c r="K153" t="n">
+        <v>1</v>
+      </c>
+      <c r="L153" t="inlineStr"/>
     </row>
     <row r="154">
       <c r="A154" s="1" t="n">
@@ -6224,24 +5169,15 @@
         <v>10000</v>
       </c>
       <c r="G154" t="n">
-        <v>80967.49241461292</v>
-      </c>
-      <c r="H154" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H154" t="inlineStr"/>
       <c r="I154" t="inlineStr"/>
-      <c r="J154" t="n">
-        <v>66.51000000000001</v>
-      </c>
-      <c r="K154" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L154" t="n">
-        <v>1</v>
-      </c>
-      <c r="M154" t="inlineStr"/>
+      <c r="J154" t="inlineStr"/>
+      <c r="K154" t="n">
+        <v>1</v>
+      </c>
+      <c r="L154" t="inlineStr"/>
     </row>
     <row r="155">
       <c r="A155" s="1" t="n">
@@ -6263,24 +5199,15 @@
         <v>12343.5751</v>
       </c>
       <c r="G155" t="n">
-        <v>68623.91731461292</v>
-      </c>
-      <c r="H155" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H155" t="inlineStr"/>
       <c r="I155" t="inlineStr"/>
-      <c r="J155" t="n">
-        <v>66.51000000000001</v>
-      </c>
-      <c r="K155" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L155" t="n">
-        <v>1</v>
-      </c>
-      <c r="M155" t="inlineStr"/>
+      <c r="J155" t="inlineStr"/>
+      <c r="K155" t="n">
+        <v>1</v>
+      </c>
+      <c r="L155" t="inlineStr"/>
     </row>
     <row r="156">
       <c r="A156" s="1" t="n">
@@ -6302,24 +5229,15 @@
         <v>897</v>
       </c>
       <c r="G156" t="n">
-        <v>67726.91731461292</v>
-      </c>
-      <c r="H156" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H156" t="inlineStr"/>
       <c r="I156" t="inlineStr"/>
-      <c r="J156" t="n">
-        <v>66.51000000000001</v>
-      </c>
-      <c r="K156" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L156" t="n">
-        <v>1</v>
-      </c>
-      <c r="M156" t="inlineStr"/>
+      <c r="J156" t="inlineStr"/>
+      <c r="K156" t="n">
+        <v>1</v>
+      </c>
+      <c r="L156" t="inlineStr"/>
     </row>
     <row r="157">
       <c r="A157" s="1" t="n">
@@ -6341,24 +5259,15 @@
         <v>10083.3285</v>
       </c>
       <c r="G157" t="n">
-        <v>57643.58881461291</v>
-      </c>
-      <c r="H157" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H157" t="inlineStr"/>
       <c r="I157" t="inlineStr"/>
-      <c r="J157" t="n">
-        <v>66.51000000000001</v>
-      </c>
-      <c r="K157" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L157" t="n">
-        <v>1</v>
-      </c>
-      <c r="M157" t="inlineStr"/>
+      <c r="J157" t="inlineStr"/>
+      <c r="K157" t="n">
+        <v>1</v>
+      </c>
+      <c r="L157" t="inlineStr"/>
     </row>
     <row r="158">
       <c r="A158" s="1" t="n">
@@ -6380,24 +5289,15 @@
         <v>215.47</v>
       </c>
       <c r="G158" t="n">
-        <v>57428.11881461291</v>
-      </c>
-      <c r="H158" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H158" t="inlineStr"/>
       <c r="I158" t="inlineStr"/>
-      <c r="J158" t="n">
-        <v>66.51000000000001</v>
-      </c>
-      <c r="K158" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L158" t="n">
-        <v>1</v>
-      </c>
-      <c r="M158" t="inlineStr"/>
+      <c r="J158" t="inlineStr"/>
+      <c r="K158" t="n">
+        <v>1</v>
+      </c>
+      <c r="L158" t="inlineStr"/>
     </row>
     <row r="159">
       <c r="A159" s="1" t="n">
@@ -6419,24 +5319,15 @@
         <v>4119.6317</v>
       </c>
       <c r="G159" t="n">
-        <v>57428.11881461291</v>
-      </c>
-      <c r="H159" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H159" t="inlineStr"/>
       <c r="I159" t="inlineStr"/>
-      <c r="J159" t="n">
-        <v>66.51000000000001</v>
-      </c>
-      <c r="K159" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L159" t="n">
-        <v>1</v>
-      </c>
-      <c r="M159" t="inlineStr"/>
+      <c r="J159" t="inlineStr"/>
+      <c r="K159" t="n">
+        <v>1</v>
+      </c>
+      <c r="L159" t="inlineStr"/>
     </row>
     <row r="160">
       <c r="A160" s="1" t="n">
@@ -6458,24 +5349,15 @@
         <v>81.00083704545455</v>
       </c>
       <c r="G160" t="n">
-        <v>57509.11965165837</v>
-      </c>
-      <c r="H160" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H160" t="inlineStr"/>
       <c r="I160" t="inlineStr"/>
-      <c r="J160" t="n">
-        <v>66.51000000000001</v>
-      </c>
-      <c r="K160" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L160" t="n">
-        <v>1</v>
-      </c>
-      <c r="M160" t="inlineStr"/>
+      <c r="J160" t="inlineStr"/>
+      <c r="K160" t="n">
+        <v>1</v>
+      </c>
+      <c r="L160" t="inlineStr"/>
     </row>
     <row r="161">
       <c r="A161" s="1" t="n">
@@ -6497,24 +5379,15 @@
         <v>3420</v>
       </c>
       <c r="G161" t="n">
-        <v>60929.11965165837</v>
-      </c>
-      <c r="H161" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H161" t="inlineStr"/>
       <c r="I161" t="inlineStr"/>
-      <c r="J161" t="n">
-        <v>66.51000000000001</v>
-      </c>
-      <c r="K161" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L161" t="n">
-        <v>1</v>
-      </c>
-      <c r="M161" t="inlineStr"/>
+      <c r="J161" t="inlineStr"/>
+      <c r="K161" t="n">
+        <v>1</v>
+      </c>
+      <c r="L161" t="inlineStr"/>
     </row>
     <row r="162">
       <c r="A162" s="1" t="n">
@@ -6536,24 +5409,15 @@
         <v>1131</v>
       </c>
       <c r="G162" t="n">
-        <v>59798.11965165837</v>
-      </c>
-      <c r="H162" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H162" t="inlineStr"/>
       <c r="I162" t="inlineStr"/>
-      <c r="J162" t="n">
-        <v>66.51000000000001</v>
-      </c>
-      <c r="K162" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L162" t="n">
-        <v>1</v>
-      </c>
-      <c r="M162" t="inlineStr"/>
+      <c r="J162" t="inlineStr"/>
+      <c r="K162" t="n">
+        <v>1</v>
+      </c>
+      <c r="L162" t="inlineStr"/>
     </row>
     <row r="163">
       <c r="A163" s="1" t="n">
@@ -6575,24 +5439,15 @@
         <v>8</v>
       </c>
       <c r="G163" t="n">
-        <v>59806.11965165837</v>
-      </c>
-      <c r="H163" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H163" t="inlineStr"/>
       <c r="I163" t="inlineStr"/>
-      <c r="J163" t="n">
-        <v>66.51000000000001</v>
-      </c>
-      <c r="K163" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L163" t="n">
-        <v>1</v>
-      </c>
-      <c r="M163" t="inlineStr"/>
+      <c r="J163" t="inlineStr"/>
+      <c r="K163" t="n">
+        <v>1</v>
+      </c>
+      <c r="L163" t="inlineStr"/>
     </row>
     <row r="164">
       <c r="A164" s="1" t="n">
@@ -6614,24 +5469,15 @@
         <v>1083</v>
       </c>
       <c r="G164" t="n">
-        <v>58723.11965165837</v>
-      </c>
-      <c r="H164" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H164" t="inlineStr"/>
       <c r="I164" t="inlineStr"/>
-      <c r="J164" t="n">
-        <v>66.51000000000001</v>
-      </c>
-      <c r="K164" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L164" t="n">
-        <v>1</v>
-      </c>
-      <c r="M164" t="inlineStr"/>
+      <c r="J164" t="inlineStr"/>
+      <c r="K164" t="n">
+        <v>1</v>
+      </c>
+      <c r="L164" t="inlineStr"/>
     </row>
     <row r="165">
       <c r="A165" s="1" t="n">
@@ -6653,24 +5499,15 @@
         <v>288</v>
       </c>
       <c r="G165" t="n">
-        <v>58723.11965165837</v>
-      </c>
-      <c r="H165" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H165" t="inlineStr"/>
       <c r="I165" t="inlineStr"/>
-      <c r="J165" t="n">
-        <v>66.51000000000001</v>
-      </c>
-      <c r="K165" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L165" t="n">
-        <v>1</v>
-      </c>
-      <c r="M165" t="inlineStr"/>
+      <c r="J165" t="inlineStr"/>
+      <c r="K165" t="n">
+        <v>1</v>
+      </c>
+      <c r="L165" t="inlineStr"/>
     </row>
     <row r="166">
       <c r="A166" s="1" t="n">
@@ -6692,24 +5529,15 @@
         <v>8</v>
       </c>
       <c r="G166" t="n">
-        <v>58731.11965165837</v>
-      </c>
-      <c r="H166" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H166" t="inlineStr"/>
       <c r="I166" t="inlineStr"/>
-      <c r="J166" t="n">
-        <v>66.51000000000001</v>
-      </c>
-      <c r="K166" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L166" t="n">
-        <v>1</v>
-      </c>
-      <c r="M166" t="inlineStr"/>
+      <c r="J166" t="inlineStr"/>
+      <c r="K166" t="n">
+        <v>1</v>
+      </c>
+      <c r="L166" t="inlineStr"/>
     </row>
     <row r="167">
       <c r="A167" s="1" t="n">
@@ -6731,24 +5559,15 @@
         <v>572</v>
       </c>
       <c r="G167" t="n">
-        <v>58159.11965165837</v>
-      </c>
-      <c r="H167" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H167" t="inlineStr"/>
       <c r="I167" t="inlineStr"/>
-      <c r="J167" t="n">
-        <v>66.51000000000001</v>
-      </c>
-      <c r="K167" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L167" t="n">
-        <v>1</v>
-      </c>
-      <c r="M167" t="inlineStr"/>
+      <c r="J167" t="inlineStr"/>
+      <c r="K167" t="n">
+        <v>1</v>
+      </c>
+      <c r="L167" t="inlineStr"/>
     </row>
     <row r="168">
       <c r="A168" s="1" t="n">
@@ -6770,24 +5589,15 @@
         <v>8</v>
       </c>
       <c r="G168" t="n">
-        <v>58167.11965165837</v>
-      </c>
-      <c r="H168" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H168" t="inlineStr"/>
       <c r="I168" t="inlineStr"/>
-      <c r="J168" t="n">
-        <v>66.51000000000001</v>
-      </c>
-      <c r="K168" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L168" t="n">
-        <v>1</v>
-      </c>
-      <c r="M168" t="inlineStr"/>
+      <c r="J168" t="inlineStr"/>
+      <c r="K168" t="n">
+        <v>1</v>
+      </c>
+      <c r="L168" t="inlineStr"/>
     </row>
     <row r="169">
       <c r="A169" s="1" t="n">
@@ -6809,24 +5619,15 @@
         <v>258.6031</v>
       </c>
       <c r="G169" t="n">
-        <v>58167.11965165837</v>
-      </c>
-      <c r="H169" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H169" t="inlineStr"/>
       <c r="I169" t="inlineStr"/>
-      <c r="J169" t="n">
-        <v>66.51000000000001</v>
-      </c>
-      <c r="K169" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L169" t="n">
-        <v>1</v>
-      </c>
-      <c r="M169" t="inlineStr"/>
+      <c r="J169" t="inlineStr"/>
+      <c r="K169" t="n">
+        <v>1</v>
+      </c>
+      <c r="L169" t="inlineStr"/>
     </row>
     <row r="170">
       <c r="A170" s="1" t="n">
@@ -6848,24 +5649,15 @@
         <v>1283</v>
       </c>
       <c r="G170" t="n">
-        <v>56884.11965165837</v>
-      </c>
-      <c r="H170" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H170" t="inlineStr"/>
       <c r="I170" t="inlineStr"/>
-      <c r="J170" t="n">
-        <v>66.51000000000001</v>
-      </c>
-      <c r="K170" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L170" t="n">
-        <v>1</v>
-      </c>
-      <c r="M170" t="inlineStr"/>
+      <c r="J170" t="inlineStr"/>
+      <c r="K170" t="n">
+        <v>1</v>
+      </c>
+      <c r="L170" t="inlineStr"/>
     </row>
     <row r="171">
       <c r="A171" s="1" t="n">
@@ -6887,24 +5679,15 @@
         <v>1700</v>
       </c>
       <c r="G171" t="n">
-        <v>58584.11965165837</v>
-      </c>
-      <c r="H171" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H171" t="inlineStr"/>
       <c r="I171" t="inlineStr"/>
-      <c r="J171" t="n">
-        <v>66.51000000000001</v>
-      </c>
-      <c r="K171" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L171" t="n">
-        <v>1</v>
-      </c>
-      <c r="M171" t="inlineStr"/>
+      <c r="J171" t="inlineStr"/>
+      <c r="K171" t="n">
+        <v>1</v>
+      </c>
+      <c r="L171" t="inlineStr"/>
     </row>
     <row r="172">
       <c r="A172" s="1" t="n">
@@ -6926,24 +5709,15 @@
         <v>3981.2509</v>
       </c>
       <c r="G172" t="n">
-        <v>54602.86875165837</v>
-      </c>
-      <c r="H172" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H172" t="inlineStr"/>
       <c r="I172" t="inlineStr"/>
-      <c r="J172" t="n">
-        <v>66.51000000000001</v>
-      </c>
-      <c r="K172" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L172" t="n">
-        <v>1</v>
-      </c>
-      <c r="M172" t="inlineStr"/>
+      <c r="J172" t="inlineStr"/>
+      <c r="K172" t="n">
+        <v>1</v>
+      </c>
+      <c r="L172" t="inlineStr"/>
     </row>
     <row r="173">
       <c r="A173" s="1" t="n">
@@ -6965,24 +5739,15 @@
         <v>2813.46</v>
       </c>
       <c r="G173" t="n">
-        <v>54602.86875165837</v>
-      </c>
-      <c r="H173" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H173" t="inlineStr"/>
       <c r="I173" t="inlineStr"/>
-      <c r="J173" t="n">
-        <v>66.51000000000001</v>
-      </c>
-      <c r="K173" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L173" t="n">
-        <v>1</v>
-      </c>
-      <c r="M173" t="inlineStr"/>
+      <c r="J173" t="inlineStr"/>
+      <c r="K173" t="n">
+        <v>1</v>
+      </c>
+      <c r="L173" t="inlineStr"/>
     </row>
     <row r="174">
       <c r="A174" s="1" t="n">
@@ -7004,24 +5769,15 @@
         <v>4779.146</v>
       </c>
       <c r="G174" t="n">
-        <v>49823.72275165837</v>
-      </c>
-      <c r="H174" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H174" t="inlineStr"/>
       <c r="I174" t="inlineStr"/>
-      <c r="J174" t="n">
-        <v>66.51000000000001</v>
-      </c>
-      <c r="K174" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L174" t="n">
-        <v>1</v>
-      </c>
-      <c r="M174" t="inlineStr"/>
+      <c r="J174" t="inlineStr"/>
+      <c r="K174" t="n">
+        <v>1</v>
+      </c>
+      <c r="L174" t="inlineStr"/>
     </row>
     <row r="175">
       <c r="A175" s="1" t="n">
@@ -7043,24 +5799,15 @@
         <v>11422.4051</v>
       </c>
       <c r="G175" t="n">
-        <v>38401.31765165836</v>
-      </c>
-      <c r="H175" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H175" t="inlineStr"/>
       <c r="I175" t="inlineStr"/>
-      <c r="J175" t="n">
-        <v>66.51000000000001</v>
-      </c>
-      <c r="K175" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L175" t="n">
-        <v>1</v>
-      </c>
-      <c r="M175" t="inlineStr"/>
+      <c r="J175" t="inlineStr"/>
+      <c r="K175" t="n">
+        <v>1</v>
+      </c>
+      <c r="L175" t="inlineStr"/>
     </row>
     <row r="176">
       <c r="A176" s="1" t="n">
@@ -7082,24 +5829,15 @@
         <v>410.4897</v>
       </c>
       <c r="G176" t="n">
-        <v>38811.80735165836</v>
-      </c>
-      <c r="H176" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H176" t="inlineStr"/>
       <c r="I176" t="inlineStr"/>
-      <c r="J176" t="n">
-        <v>66.51000000000001</v>
-      </c>
-      <c r="K176" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L176" t="n">
-        <v>1</v>
-      </c>
-      <c r="M176" t="inlineStr"/>
+      <c r="J176" t="inlineStr"/>
+      <c r="K176" t="n">
+        <v>1</v>
+      </c>
+      <c r="L176" t="inlineStr"/>
     </row>
     <row r="177">
       <c r="A177" s="1" t="n">
@@ -7121,24 +5859,15 @@
         <v>352.7613</v>
       </c>
       <c r="G177" t="n">
-        <v>38811.80735165836</v>
-      </c>
-      <c r="H177" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H177" t="inlineStr"/>
       <c r="I177" t="inlineStr"/>
-      <c r="J177" t="n">
-        <v>66.51000000000001</v>
-      </c>
-      <c r="K177" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L177" t="n">
-        <v>1</v>
-      </c>
-      <c r="M177" t="inlineStr"/>
+      <c r="J177" t="inlineStr"/>
+      <c r="K177" t="n">
+        <v>1</v>
+      </c>
+      <c r="L177" t="inlineStr"/>
     </row>
     <row r="178">
       <c r="A178" s="1" t="n">
@@ -7160,24 +5889,19 @@
         <v>779.9924999999999</v>
       </c>
       <c r="G178" t="n">
-        <v>38811.80735165836</v>
+        <v>1</v>
       </c>
       <c r="H178" t="n">
-        <v>0</v>
-      </c>
-      <c r="I178" t="inlineStr"/>
-      <c r="J178" t="n">
-        <v>66.51000000000001</v>
-      </c>
-      <c r="K178" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L178" t="n">
-        <v>1</v>
-      </c>
-      <c r="M178" t="inlineStr"/>
+        <v>66.3</v>
+      </c>
+      <c r="I178" t="n">
+        <v>66.3</v>
+      </c>
+      <c r="J178" t="inlineStr"/>
+      <c r="K178" t="n">
+        <v>1</v>
+      </c>
+      <c r="L178" t="inlineStr"/>
     </row>
     <row r="179">
       <c r="A179" s="1" t="n">
@@ -7199,24 +5923,23 @@
         <v>1014.3134</v>
       </c>
       <c r="G179" t="n">
-        <v>39826.12075165836</v>
+        <v>1</v>
       </c>
       <c r="H179" t="n">
-        <v>0</v>
-      </c>
-      <c r="I179" t="inlineStr"/>
-      <c r="J179" t="n">
-        <v>66.51000000000001</v>
-      </c>
-      <c r="K179" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L179" t="n">
-        <v>1</v>
-      </c>
-      <c r="M179" t="inlineStr"/>
+        <v>66.3</v>
+      </c>
+      <c r="I179" t="n">
+        <v>66.3</v>
+      </c>
+      <c r="J179" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="K179" t="n">
+        <v>1</v>
+      </c>
+      <c r="L179" t="inlineStr"/>
     </row>
     <row r="180">
       <c r="A180" s="1" t="n">
@@ -7238,24 +5961,21 @@
         <v>2282.9534</v>
       </c>
       <c r="G180" t="n">
-        <v>37543.16735165836</v>
-      </c>
-      <c r="H180" t="n">
-        <v>0</v>
-      </c>
-      <c r="I180" t="inlineStr"/>
-      <c r="J180" t="n">
-        <v>66.51000000000001</v>
-      </c>
-      <c r="K180" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H180" t="inlineStr"/>
+      <c r="I180" t="n">
+        <v>66.3</v>
+      </c>
+      <c r="J180" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L180" t="n">
-        <v>1</v>
-      </c>
-      <c r="M180" t="inlineStr"/>
+      <c r="K180" t="n">
+        <v>1</v>
+      </c>
+      <c r="L180" t="inlineStr"/>
     </row>
     <row r="181">
       <c r="A181" s="1" t="n">
@@ -7277,24 +5997,21 @@
         <v>511.1552</v>
       </c>
       <c r="G181" t="n">
-        <v>38054.32255165836</v>
-      </c>
-      <c r="H181" t="n">
-        <v>0</v>
-      </c>
-      <c r="I181" t="inlineStr"/>
-      <c r="J181" t="n">
-        <v>66.51000000000001</v>
-      </c>
-      <c r="K181" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H181" t="inlineStr"/>
+      <c r="I181" t="n">
+        <v>66.3</v>
+      </c>
+      <c r="J181" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L181" t="n">
-        <v>1</v>
-      </c>
-      <c r="M181" t="inlineStr"/>
+      <c r="K181" t="n">
+        <v>1</v>
+      </c>
+      <c r="L181" t="inlineStr"/>
     </row>
     <row r="182">
       <c r="A182" s="1" t="n">
@@ -7316,24 +6033,21 @@
         <v>897.2539</v>
       </c>
       <c r="G182" t="n">
-        <v>38054.32255165836</v>
-      </c>
-      <c r="H182" t="n">
-        <v>0</v>
-      </c>
-      <c r="I182" t="inlineStr"/>
-      <c r="J182" t="n">
-        <v>66.51000000000001</v>
-      </c>
-      <c r="K182" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H182" t="inlineStr"/>
+      <c r="I182" t="n">
+        <v>66.3</v>
+      </c>
+      <c r="J182" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L182" t="n">
-        <v>1</v>
-      </c>
-      <c r="M182" t="inlineStr"/>
+      <c r="K182" t="n">
+        <v>1</v>
+      </c>
+      <c r="L182" t="inlineStr"/>
     </row>
     <row r="183">
       <c r="A183" s="1" t="n">
@@ -7355,24 +6069,21 @@
         <v>224.3059</v>
       </c>
       <c r="G183" t="n">
-        <v>38054.32255165836</v>
-      </c>
-      <c r="H183" t="n">
-        <v>0</v>
-      </c>
-      <c r="I183" t="inlineStr"/>
-      <c r="J183" t="n">
-        <v>66.51000000000001</v>
-      </c>
-      <c r="K183" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H183" t="inlineStr"/>
+      <c r="I183" t="n">
+        <v>66.3</v>
+      </c>
+      <c r="J183" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L183" t="n">
-        <v>1</v>
-      </c>
-      <c r="M183" t="inlineStr"/>
+      <c r="K183" t="n">
+        <v>1</v>
+      </c>
+      <c r="L183" t="inlineStr"/>
     </row>
     <row r="184">
       <c r="A184" s="1" t="n">
@@ -7394,24 +6105,21 @@
         <v>5665.527063250888</v>
       </c>
       <c r="G184" t="n">
-        <v>43719.84961490925</v>
-      </c>
-      <c r="H184" t="n">
-        <v>0</v>
-      </c>
-      <c r="I184" t="inlineStr"/>
-      <c r="J184" t="n">
-        <v>66.51000000000001</v>
-      </c>
-      <c r="K184" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H184" t="inlineStr"/>
+      <c r="I184" t="n">
+        <v>66.3</v>
+      </c>
+      <c r="J184" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L184" t="n">
-        <v>1</v>
-      </c>
-      <c r="M184" t="inlineStr"/>
+      <c r="K184" t="n">
+        <v>1</v>
+      </c>
+      <c r="L184" t="inlineStr"/>
     </row>
     <row r="185">
       <c r="A185" s="1" t="n">
@@ -7433,24 +6141,21 @@
         <v>9204.752399999999</v>
       </c>
       <c r="G185" t="n">
-        <v>43719.84961490925</v>
-      </c>
-      <c r="H185" t="n">
-        <v>0</v>
-      </c>
-      <c r="I185" t="inlineStr"/>
-      <c r="J185" t="n">
-        <v>66.51000000000001</v>
-      </c>
-      <c r="K185" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H185" t="inlineStr"/>
+      <c r="I185" t="n">
+        <v>66.3</v>
+      </c>
+      <c r="J185" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L185" t="n">
-        <v>1</v>
-      </c>
-      <c r="M185" t="inlineStr"/>
+      <c r="K185" t="n">
+        <v>1</v>
+      </c>
+      <c r="L185" t="inlineStr"/>
     </row>
     <row r="186">
       <c r="A186" s="1" t="n">
@@ -7472,24 +6177,23 @@
         <v>197.8697</v>
       </c>
       <c r="G186" t="n">
-        <v>43719.84961490925</v>
+        <v>1</v>
       </c>
       <c r="H186" t="n">
-        <v>0</v>
-      </c>
-      <c r="I186" t="inlineStr"/>
-      <c r="J186" t="n">
-        <v>66.51000000000001</v>
-      </c>
-      <c r="K186" t="inlineStr">
+        <v>66.5</v>
+      </c>
+      <c r="I186" t="n">
+        <v>66.3</v>
+      </c>
+      <c r="J186" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L186" t="n">
-        <v>1</v>
-      </c>
-      <c r="M186" t="inlineStr"/>
+      <c r="K186" t="n">
+        <v>1</v>
+      </c>
+      <c r="L186" t="inlineStr"/>
     </row>
     <row r="187">
       <c r="A187" s="1" t="n">
@@ -7511,24 +6215,23 @@
         <v>20</v>
       </c>
       <c r="G187" t="n">
-        <v>43699.84961490925</v>
+        <v>1</v>
       </c>
       <c r="H187" t="n">
-        <v>0</v>
-      </c>
-      <c r="I187" t="inlineStr"/>
-      <c r="J187" t="n">
-        <v>66.51000000000001</v>
-      </c>
-      <c r="K187" t="inlineStr">
+        <v>66.5</v>
+      </c>
+      <c r="I187" t="n">
+        <v>66.3</v>
+      </c>
+      <c r="J187" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L187" t="n">
-        <v>1</v>
-      </c>
-      <c r="M187" t="inlineStr"/>
+      <c r="K187" t="n">
+        <v>1</v>
+      </c>
+      <c r="L187" t="inlineStr"/>
     </row>
     <row r="188">
       <c r="A188" s="1" t="n">
@@ -7550,24 +6253,23 @@
         <v>8</v>
       </c>
       <c r="G188" t="n">
-        <v>43707.84961490925</v>
+        <v>1</v>
       </c>
       <c r="H188" t="n">
-        <v>0</v>
-      </c>
-      <c r="I188" t="inlineStr"/>
-      <c r="J188" t="n">
-        <v>66.51000000000001</v>
-      </c>
-      <c r="K188" t="inlineStr">
+        <v>66.2</v>
+      </c>
+      <c r="I188" t="n">
+        <v>66.3</v>
+      </c>
+      <c r="J188" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L188" t="n">
-        <v>1</v>
-      </c>
-      <c r="M188" t="inlineStr"/>
+      <c r="K188" t="n">
+        <v>1</v>
+      </c>
+      <c r="L188" t="inlineStr"/>
     </row>
     <row r="189">
       <c r="A189" s="1" t="n">
@@ -7589,24 +6291,23 @@
         <v>29868.37079970366</v>
       </c>
       <c r="G189" t="n">
-        <v>73576.22041461291</v>
+        <v>1</v>
       </c>
       <c r="H189" t="n">
-        <v>0</v>
-      </c>
-      <c r="I189" t="inlineStr"/>
-      <c r="J189" t="n">
-        <v>66.51000000000001</v>
-      </c>
-      <c r="K189" t="inlineStr">
+        <v>66.5</v>
+      </c>
+      <c r="I189" t="n">
+        <v>66.3</v>
+      </c>
+      <c r="J189" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L189" t="n">
-        <v>1</v>
-      </c>
-      <c r="M189" t="inlineStr"/>
+      <c r="K189" t="n">
+        <v>1</v>
+      </c>
+      <c r="L189" t="inlineStr"/>
     </row>
     <row r="190">
       <c r="A190" s="1" t="n">
@@ -7628,24 +6329,21 @@
         <v>45</v>
       </c>
       <c r="G190" t="n">
-        <v>73531.22041461291</v>
-      </c>
-      <c r="H190" t="n">
-        <v>0</v>
-      </c>
-      <c r="I190" t="inlineStr"/>
-      <c r="J190" t="n">
-        <v>66.51000000000001</v>
-      </c>
-      <c r="K190" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H190" t="inlineStr"/>
+      <c r="I190" t="n">
+        <v>66.3</v>
+      </c>
+      <c r="J190" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L190" t="n">
-        <v>1</v>
-      </c>
-      <c r="M190" t="inlineStr"/>
+      <c r="K190" t="n">
+        <v>1</v>
+      </c>
+      <c r="L190" t="inlineStr"/>
     </row>
     <row r="191">
       <c r="A191" s="1" t="n">
@@ -7667,24 +6365,21 @@
         <v>8</v>
       </c>
       <c r="G191" t="n">
-        <v>73539.22041461291</v>
-      </c>
-      <c r="H191" t="n">
-        <v>2</v>
-      </c>
-      <c r="I191" t="inlineStr"/>
-      <c r="J191" t="n">
-        <v>66.51000000000001</v>
-      </c>
-      <c r="K191" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="L191" t="n">
-        <v>1.01875582619155</v>
-      </c>
-      <c r="M191" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H191" t="inlineStr"/>
+      <c r="I191" t="n">
+        <v>66.3</v>
+      </c>
+      <c r="J191" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K191" t="n">
+        <v>1</v>
+      </c>
+      <c r="L191" t="inlineStr"/>
     </row>
     <row r="192">
       <c r="A192" s="1" t="n">
@@ -7706,18 +6401,21 @@
         <v>15319</v>
       </c>
       <c r="G192" t="n">
-        <v>58220.22041461291</v>
-      </c>
-      <c r="H192" t="n">
-        <v>2</v>
-      </c>
-      <c r="I192" t="inlineStr"/>
-      <c r="J192" t="inlineStr"/>
-      <c r="K192" t="inlineStr"/>
-      <c r="L192" t="n">
-        <v>1</v>
-      </c>
-      <c r="M192" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H192" t="inlineStr"/>
+      <c r="I192" t="n">
+        <v>66.3</v>
+      </c>
+      <c r="J192" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K192" t="n">
+        <v>1</v>
+      </c>
+      <c r="L192" t="inlineStr"/>
     </row>
     <row r="193">
       <c r="A193" s="1" t="n">
@@ -7739,18 +6437,21 @@
         <v>3709.5057</v>
       </c>
       <c r="G193" t="n">
-        <v>61929.72611461291</v>
-      </c>
-      <c r="H193" t="n">
-        <v>2</v>
-      </c>
-      <c r="I193" t="inlineStr"/>
-      <c r="J193" t="inlineStr"/>
-      <c r="K193" t="inlineStr"/>
-      <c r="L193" t="n">
-        <v>1</v>
-      </c>
-      <c r="M193" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H193" t="inlineStr"/>
+      <c r="I193" t="n">
+        <v>66.3</v>
+      </c>
+      <c r="J193" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K193" t="n">
+        <v>1</v>
+      </c>
+      <c r="L193" t="inlineStr"/>
     </row>
     <row r="194">
       <c r="A194" s="1" t="n">
@@ -7772,18 +6473,21 @@
         <v>2302.6392</v>
       </c>
       <c r="G194" t="n">
-        <v>59627.08691461291</v>
-      </c>
-      <c r="H194" t="n">
-        <v>0</v>
-      </c>
-      <c r="I194" t="inlineStr"/>
-      <c r="J194" t="inlineStr"/>
-      <c r="K194" t="inlineStr"/>
-      <c r="L194" t="n">
-        <v>1</v>
-      </c>
-      <c r="M194" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H194" t="inlineStr"/>
+      <c r="I194" t="n">
+        <v>66.3</v>
+      </c>
+      <c r="J194" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K194" t="n">
+        <v>1</v>
+      </c>
+      <c r="L194" t="inlineStr"/>
     </row>
     <row r="195">
       <c r="A195" s="1" t="n">
@@ -7805,18 +6509,21 @@
         <v>5212</v>
       </c>
       <c r="G195" t="n">
-        <v>59627.08691461291</v>
-      </c>
-      <c r="H195" t="n">
-        <v>0</v>
-      </c>
-      <c r="I195" t="inlineStr"/>
-      <c r="J195" t="inlineStr"/>
-      <c r="K195" t="inlineStr"/>
-      <c r="L195" t="n">
-        <v>1</v>
-      </c>
-      <c r="M195" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H195" t="inlineStr"/>
+      <c r="I195" t="n">
+        <v>66.3</v>
+      </c>
+      <c r="J195" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K195" t="n">
+        <v>1</v>
+      </c>
+      <c r="L195" t="inlineStr"/>
     </row>
     <row r="196">
       <c r="A196" s="1" t="n">
@@ -7838,18 +6545,21 @@
         <v>0.5600000000000001</v>
       </c>
       <c r="G196" t="n">
-        <v>59627.08691461291</v>
-      </c>
-      <c r="H196" t="n">
-        <v>0</v>
-      </c>
-      <c r="I196" t="inlineStr"/>
-      <c r="J196" t="inlineStr"/>
-      <c r="K196" t="inlineStr"/>
-      <c r="L196" t="n">
-        <v>1</v>
-      </c>
-      <c r="M196" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H196" t="inlineStr"/>
+      <c r="I196" t="n">
+        <v>66.3</v>
+      </c>
+      <c r="J196" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K196" t="n">
+        <v>1</v>
+      </c>
+      <c r="L196" t="inlineStr"/>
     </row>
     <row r="197">
       <c r="A197" s="1" t="n">
@@ -7871,18 +6581,21 @@
         <v>5284.1068</v>
       </c>
       <c r="G197" t="n">
-        <v>54342.98011461291</v>
-      </c>
-      <c r="H197" t="n">
-        <v>0</v>
-      </c>
-      <c r="I197" t="inlineStr"/>
-      <c r="J197" t="inlineStr"/>
-      <c r="K197" t="inlineStr"/>
-      <c r="L197" t="n">
-        <v>1</v>
-      </c>
-      <c r="M197" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H197" t="inlineStr"/>
+      <c r="I197" t="n">
+        <v>66.3</v>
+      </c>
+      <c r="J197" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K197" t="n">
+        <v>1</v>
+      </c>
+      <c r="L197" t="inlineStr"/>
     </row>
     <row r="198">
       <c r="A198" s="1" t="n">
@@ -7904,18 +6617,21 @@
         <v>752.6118</v>
       </c>
       <c r="G198" t="n">
-        <v>55095.59191461291</v>
-      </c>
-      <c r="H198" t="n">
-        <v>0</v>
-      </c>
-      <c r="I198" t="inlineStr"/>
-      <c r="J198" t="inlineStr"/>
-      <c r="K198" t="inlineStr"/>
-      <c r="L198" t="n">
-        <v>1</v>
-      </c>
-      <c r="M198" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H198" t="inlineStr"/>
+      <c r="I198" t="n">
+        <v>66.3</v>
+      </c>
+      <c r="J198" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K198" t="n">
+        <v>1</v>
+      </c>
+      <c r="L198" t="inlineStr"/>
     </row>
     <row r="199">
       <c r="A199" s="1" t="n">
@@ -7937,18 +6653,21 @@
         <v>803</v>
       </c>
       <c r="G199" t="n">
-        <v>54292.59191461291</v>
-      </c>
-      <c r="H199" t="n">
-        <v>0</v>
-      </c>
-      <c r="I199" t="inlineStr"/>
-      <c r="J199" t="inlineStr"/>
-      <c r="K199" t="inlineStr"/>
-      <c r="L199" t="n">
-        <v>1</v>
-      </c>
-      <c r="M199" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H199" t="inlineStr"/>
+      <c r="I199" t="n">
+        <v>66.3</v>
+      </c>
+      <c r="J199" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K199" t="n">
+        <v>1</v>
+      </c>
+      <c r="L199" t="inlineStr"/>
     </row>
     <row r="200">
       <c r="A200" s="1" t="n">
@@ -7970,18 +6689,21 @@
         <v>830.0009</v>
       </c>
       <c r="G200" t="n">
-        <v>55122.59281461291</v>
-      </c>
-      <c r="H200" t="n">
-        <v>0</v>
-      </c>
-      <c r="I200" t="inlineStr"/>
-      <c r="J200" t="inlineStr"/>
-      <c r="K200" t="inlineStr"/>
-      <c r="L200" t="n">
-        <v>1</v>
-      </c>
-      <c r="M200" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H200" t="inlineStr"/>
+      <c r="I200" t="n">
+        <v>66.3</v>
+      </c>
+      <c r="J200" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K200" t="n">
+        <v>1</v>
+      </c>
+      <c r="L200" t="inlineStr"/>
     </row>
     <row r="201">
       <c r="A201" s="1" t="n">
@@ -8003,18 +6725,21 @@
         <v>13</v>
       </c>
       <c r="G201" t="n">
-        <v>55135.59281461291</v>
-      </c>
-      <c r="H201" t="n">
-        <v>0</v>
-      </c>
-      <c r="I201" t="inlineStr"/>
-      <c r="J201" t="inlineStr"/>
-      <c r="K201" t="inlineStr"/>
-      <c r="L201" t="n">
-        <v>1</v>
-      </c>
-      <c r="M201" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H201" t="inlineStr"/>
+      <c r="I201" t="n">
+        <v>66.3</v>
+      </c>
+      <c r="J201" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K201" t="n">
+        <v>1</v>
+      </c>
+      <c r="L201" t="inlineStr"/>
     </row>
     <row r="202">
       <c r="A202" s="1" t="n">
@@ -8036,18 +6761,21 @@
         <v>34</v>
       </c>
       <c r="G202" t="n">
-        <v>55101.59281461291</v>
-      </c>
-      <c r="H202" t="n">
-        <v>0</v>
-      </c>
-      <c r="I202" t="inlineStr"/>
-      <c r="J202" t="inlineStr"/>
-      <c r="K202" t="inlineStr"/>
-      <c r="L202" t="n">
-        <v>1</v>
-      </c>
-      <c r="M202" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H202" t="inlineStr"/>
+      <c r="I202" t="n">
+        <v>66.3</v>
+      </c>
+      <c r="J202" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K202" t="n">
+        <v>1</v>
+      </c>
+      <c r="L202" t="inlineStr"/>
     </row>
     <row r="203">
       <c r="A203" s="1" t="n">
@@ -8069,18 +6797,21 @@
         <v>13</v>
       </c>
       <c r="G203" t="n">
-        <v>55088.59281461291</v>
-      </c>
-      <c r="H203" t="n">
-        <v>0</v>
-      </c>
-      <c r="I203" t="inlineStr"/>
-      <c r="J203" t="inlineStr"/>
-      <c r="K203" t="inlineStr"/>
-      <c r="L203" t="n">
-        <v>1</v>
-      </c>
-      <c r="M203" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H203" t="inlineStr"/>
+      <c r="I203" t="n">
+        <v>66.3</v>
+      </c>
+      <c r="J203" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K203" t="n">
+        <v>1</v>
+      </c>
+      <c r="L203" t="inlineStr"/>
     </row>
     <row r="204">
       <c r="A204" s="1" t="n">
@@ -8102,18 +6833,21 @@
         <v>13</v>
       </c>
       <c r="G204" t="n">
-        <v>55075.59281461291</v>
-      </c>
-      <c r="H204" t="n">
-        <v>0</v>
-      </c>
-      <c r="I204" t="inlineStr"/>
-      <c r="J204" t="inlineStr"/>
-      <c r="K204" t="inlineStr"/>
-      <c r="L204" t="n">
-        <v>1</v>
-      </c>
-      <c r="M204" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H204" t="inlineStr"/>
+      <c r="I204" t="n">
+        <v>66.3</v>
+      </c>
+      <c r="J204" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K204" t="n">
+        <v>1</v>
+      </c>
+      <c r="L204" t="inlineStr"/>
     </row>
     <row r="205">
       <c r="A205" s="1" t="n">
@@ -8135,18 +6869,21 @@
         <v>65</v>
       </c>
       <c r="G205" t="n">
-        <v>55010.59281461291</v>
-      </c>
-      <c r="H205" t="n">
-        <v>0</v>
-      </c>
-      <c r="I205" t="inlineStr"/>
-      <c r="J205" t="inlineStr"/>
-      <c r="K205" t="inlineStr"/>
-      <c r="L205" t="n">
-        <v>1</v>
-      </c>
-      <c r="M205" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H205" t="inlineStr"/>
+      <c r="I205" t="n">
+        <v>66.3</v>
+      </c>
+      <c r="J205" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K205" t="n">
+        <v>1</v>
+      </c>
+      <c r="L205" t="inlineStr"/>
     </row>
     <row r="206">
       <c r="A206" s="1" t="n">
@@ -8168,18 +6905,21 @@
         <v>13</v>
       </c>
       <c r="G206" t="n">
-        <v>54997.59281461291</v>
-      </c>
-      <c r="H206" t="n">
-        <v>0</v>
-      </c>
-      <c r="I206" t="inlineStr"/>
-      <c r="J206" t="inlineStr"/>
-      <c r="K206" t="inlineStr"/>
-      <c r="L206" t="n">
-        <v>1</v>
-      </c>
-      <c r="M206" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H206" t="inlineStr"/>
+      <c r="I206" t="n">
+        <v>66.3</v>
+      </c>
+      <c r="J206" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K206" t="n">
+        <v>1</v>
+      </c>
+      <c r="L206" t="inlineStr"/>
     </row>
     <row r="207">
       <c r="A207" s="1" t="n">
@@ -8201,18 +6941,21 @@
         <v>46582.0545</v>
       </c>
       <c r="G207" t="n">
-        <v>8415.53831461291</v>
-      </c>
-      <c r="H207" t="n">
-        <v>0</v>
-      </c>
-      <c r="I207" t="inlineStr"/>
-      <c r="J207" t="inlineStr"/>
-      <c r="K207" t="inlineStr"/>
-      <c r="L207" t="n">
-        <v>1</v>
-      </c>
-      <c r="M207" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H207" t="inlineStr"/>
+      <c r="I207" t="n">
+        <v>66.3</v>
+      </c>
+      <c r="J207" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K207" t="n">
+        <v>1</v>
+      </c>
+      <c r="L207" t="inlineStr"/>
     </row>
     <row r="208">
       <c r="A208" s="1" t="n">
@@ -8234,18 +6977,21 @@
         <v>513</v>
       </c>
       <c r="G208" t="n">
-        <v>7902.53831461291</v>
-      </c>
-      <c r="H208" t="n">
-        <v>0</v>
-      </c>
-      <c r="I208" t="inlineStr"/>
-      <c r="J208" t="inlineStr"/>
-      <c r="K208" t="inlineStr"/>
-      <c r="L208" t="n">
-        <v>1</v>
-      </c>
-      <c r="M208" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H208" t="inlineStr"/>
+      <c r="I208" t="n">
+        <v>66.3</v>
+      </c>
+      <c r="J208" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K208" t="n">
+        <v>1</v>
+      </c>
+      <c r="L208" t="inlineStr"/>
     </row>
     <row r="209">
       <c r="A209" s="1" t="n">
@@ -8267,18 +7013,21 @@
         <v>39.1818</v>
       </c>
       <c r="G209" t="n">
-        <v>7941.72011461291</v>
-      </c>
-      <c r="H209" t="n">
-        <v>0</v>
-      </c>
-      <c r="I209" t="inlineStr"/>
-      <c r="J209" t="inlineStr"/>
-      <c r="K209" t="inlineStr"/>
-      <c r="L209" t="n">
-        <v>1</v>
-      </c>
-      <c r="M209" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H209" t="inlineStr"/>
+      <c r="I209" t="n">
+        <v>66.3</v>
+      </c>
+      <c r="J209" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K209" t="n">
+        <v>1</v>
+      </c>
+      <c r="L209" t="inlineStr"/>
     </row>
     <row r="210">
       <c r="A210" s="1" t="n">
@@ -8300,18 +7049,21 @@
         <v>18.1818</v>
       </c>
       <c r="G210" t="n">
-        <v>7941.72011461291</v>
-      </c>
-      <c r="H210" t="n">
-        <v>0</v>
-      </c>
-      <c r="I210" t="inlineStr"/>
-      <c r="J210" t="inlineStr"/>
-      <c r="K210" t="inlineStr"/>
-      <c r="L210" t="n">
-        <v>1</v>
-      </c>
-      <c r="M210" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H210" t="inlineStr"/>
+      <c r="I210" t="n">
+        <v>66.3</v>
+      </c>
+      <c r="J210" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K210" t="n">
+        <v>1</v>
+      </c>
+      <c r="L210" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
